--- a/bengali_sentiment.xlsx
+++ b/bengali_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="595">
   <si>
     <t>Statement</t>
   </si>
@@ -653,6 +653,1152 @@
   </si>
   <si>
     <t xml:space="preserve"> হে বীর পুরুষ তোমাকে স্বাগতম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">যারা রোহিঙ্গা সমস্যাকে রোহিঙ্গাদের এবং বার্মার সমস্যা বলে পাশ কাটাতে চান তারা বড় ভূল করছেন।বিশেষ করে বাংলাদেশ সরকার প্রশাসন ও নীতিনির্ধারকদের এই ব্যাপারে আরো ভালো করে চিন্তা করা দরকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতীয় হাতি এদেশে আসলে তার সেবা করতে করতে আমরা পাগল হয়ে যাই আর রোহিঙ্গা মুসলিম বাঁচার জন্য সিমান্তে আসলে আমরা তাড়িয়ে দেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যে অসহায় মানুষগুলো মৃত্যু ভয় ও প্রান বাঁচানোর জন্যে আশ্রয় খুঁজে তাদের আশ্রয় না দেওয়া হবে চরম অমানবিক।সরকারের কাছে অনুরোধ রোহিংগাদের বিষয়টি আবেগ ও ভালবাসা দিয়ে মোকাবেলা করুন অস্ত্র দিয়ে নয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এরা হাতি নয় মানুষ। এদেরকে তো আর বঙ্গবাহাদুর নামে ডাকা যাবেনা। এদের লাইভ ভিডিও টেলিকাস্ট করার মত মানবতা হাতিবতার মতো কোন চ্যানেলের এই দেশে অন্তত নেই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">রোহিঙ্গাদের আসতে দিন। কারণ বাংলাদেশে কোটি লোক বাসতে যদি কোন সমস্যা না হয় তাহলে অতিরিক্ত পাচ হাজার লোকে খুব একটা সমস্যা হওয়ার কথা না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খুলে দাও সীমান্ত না হয় বাংলাদেশ কে একদিন এর পরিণত ভোগ করতে হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিংগারা বাংলাদেশী না তারা মিয়ানমারের নাগরিক সুতারাং আশ্রয় দেওয়ার সুযোগ নেই ইতিমধ্যে কয়েক লাখ রোহিংগাদের আমরা আশ্রয় দিয়েছি তাদের আগে মিয়ানমারে ফিরত দিতে হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই আপনা কে আর মিরাজ কে ধন্যবান। আপনার অসাধারন বো লিং আমা দের মুগ্ধ ক রে ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">দলের পক্ষে সবচেয়ে বোলিং এ কিপটা বোলিং দারুন সব ক্যাচ ব্যাটিং এ ঝলক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ যা করে তাই মঙ্গল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অমি চাই তাড়াতাড়ি ভাল হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাাহ্ তায়ালার রাস্তায় পা বাড়াতে ঘুরে আসুন নামাজ বেহেস্তের চাবি পেইজ থেকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নিশ্চিত সব কয়টা শান্তি ধর্মের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রাশিয়ার হস্তক্ষেপ কামনা করছি আমরা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা রহিঙ্গাদের সাময়ীক অশ্রয়ের বিরোধীতা করিস তারা শুধু এটুকুই মনে রাখিস যে ওরাও মানুষ ছিল। নেক্সট মানবাতার কথা বললে স্রেফ জুতা খাবি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই আপনার যারা মানবতাবাদী প্রত্যেকে নিজ বড়িতে টা পরিবারকে জয়গা দেন না কে মানা করছে। আবার ছাগলের মত বইলেননা সামর্থ থাকলে ঠিকই দিতাম। আপনারে এই মানবতা হচ্ছে ড্রেনের পানির মত যা কোন কাজের না আর অত্যান্ত নোংড়া। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঠেকানো যাবেও না কারণ বাংলাদেশের কোটি মানুষ আছে তাদের সাথে শুধু অবৈধ সরকার ছাড়া </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঠেকানোর দরকারও মনে করসি না মামা পারলে তাদের হয়ে কথা বলুন নইলে চুপ থাকুন৷এরা যে ভারতীয় হাতী না তা আমরা জানি৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানবিক দিক ছিন্তা করে ঠেকানো দরকার নই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে মহান নেতা পৃথিবীর মায়া ত্যাগ করে চলে গেলেন? বাংলার হিমালয়। বাংলার বন্ধু তথা আপ নার ও বন্ধুর কাছে। আপনাকে বিনম্র সালাম।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোমাকে হিসাবি ও সাবধানি হওয়া উচিত ছিল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রাখে অাল্লাহ মারে কে অাল্লাহর রহমত ছিলো বলে বেছে গেলো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব সুদু বাংলাদেসের না পুরো ক্রিকেট দুনিয়ার সম্পদ।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ছাব্বির ভাই এখন । । দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve">অথচো এই জায়গা জমি নিয়েই মানুষের মাঝে কতো হানাহানি কতো মারামারি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুরস্কের চেয়ে উননত দাবী করবা আর কিছু শরনার্থী আশ্রয় দিতে পারবা না। এর চেয়ে লজ্জা আর নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনারা তো মানবতার স্লোগানে মিছিলের প্রথম সাড়ির লোক। তাহলে মানবতার খাতিরেই তো তাদের ঢুকতে দিতে হবে। সমস্যা কি ওরা মুসলিম তাই?? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দেশের স্বার্থেই বাংলাদেশ সরকারের উচিত রোহিঙ্গা সমস্যা সমাধানে উদ্যেগী হওয়া। সরনার্থী সঙ্কট নিরসনে বাংলাদেশ সরকারের উচিত রোহিঙ্গা নির্যাতন বন্ধ করার জন্য মিয়ানমার সরকারের উপর চাপ প্রয়োগ করা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বার্মায় শান্তি রক্ষী বাহীনি নিয়োগ দেয়া হোক। বাংলাদেশ অংশ নেবে সেখানে। প্রয়োজনে বেতন নেবে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সালা বাঙ্গালী একদিন বুঝবি এক মাঘে তো আর শীত যায় না।এমন বিপদে একদিন পুরো বাঙ্গালী জাতিকে হয়তো তখন পাশের তোদের নানা দের দেশে যেতে চাইস নাা।সালা হারামি জাতির হারামি নেতারা।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঠেকানোর দরকার আছে বলে মনে করি না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদের কে ঢুকতে দেয়া হোক। সবার উপরে মানুষ সত্য তাহার উপরে নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা রোহিঙ্গাদের আস্রয় দিতে ইচ্ছুক তারা যেন রোহিঙ্গাদের তাদের বাসায় নিয়ে আশ্রয় দেয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোমাগো এই খবর দিতে হবেনা তোমরা দেখো হাতিটার কি খবর হালারা সাংবাদিক হয়ছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দাদা আপনাকে এই দেশের মানুষ অনেক সন্মান করে অতএব দায়িত্ব নিয়ে কথা বলুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতের আসা হাথী এত জামাই আদর করে কত টাকা বে করছে সরকার হাথী বেচে তাকলে আর কত টাকা বে করত তাই রোহিঙ্গা বিপদে আচে অদের কে জাগা দেয়া উচিত তাদেরকে সরকার আস্রয় দিচচেনা তারা টিকই চুরাই পতে আসতেচে তা দেশের জন্য বিপদ জনগ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুভ জন্মদিন সুন্দর হোক তোমার জীবন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ সরকারের এই মুহুতে মানবিক বিবেচনা করে অস্থায়ী ভাবে আশ্রয় দেয়া প্রয়োজন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সত্যই তোমার অপূর্ব শৃষ্টি মানব জাতীর কল্যানে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুমাদের এত নিউজ কড়ার দরকার নাই আসতে দাও তুমরা নিউজ বন্ধ কর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টেকাতে না পারলে গুলি করে নাফ নদীতে ফেলে দেন।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোরা মানুষ ওরা অমানুষ ওদের জীবনের দাম নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বুঝলাম না কেন যে বালের আলো প্রত্রিকা রোহিঙ্গাদের পিছনে গেলেছে ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাদ্রসার ছাত্ররাই ক্যাবল গালি দিচ্ছেনা তবে অন্যরা কিন্তু </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হা তি ঢুক লে খু শি অার মানুষ ঢুক লে বেজার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কি বলব সমস্যা আছে উভয় দিকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা রোহিঙ্গাদের দেশে জায়গা দেওয়ার পক্ষে তাদের উচিৎ উনাদের নিজ ঘরে জায়গা করে দেওয়া। এমনিতেই আগে লাখ পাঁচেকের মতো এসে আর ফেরত যায়নি। এখন সেই সংখ্যা প্রায় সাড়ে ছয় লাখের কাছাকাছি। তাছাড়া বিহারী সমস্যাটা পঁয়তাল্লিশ বছরেও সমাধান হলো না। এদের সংখ্যাও দিন দিন ব্যাপকহারে বৃদ্ধি পাচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এতো উদ্বাস্তু লোকের খাওয়া বাসস্থান সরবরাহ চিকিৎসা আসলেই অনেক কঠিন ও ব্যয়সাধ্য। আর নজরদারি করাও কঠিন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">নজরদারির অভাবেই এখন অনেক রোহিঙ্গা বিভিন্ন অপরাধমূলক কাজ করে। ভুল নাম ঠিকানা ব্যবহার করে বিদেশে পাড়ি জমিয়ে সেখানে সন্ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাহাহাখুব খুসিলাগছে মার রেন্ডিদের বেসি করে মার তবে তোরাও একটু সাবধানে থাকিসরেন্ডিরা যেকোন সময় সানিলিওনের মিসাইল দুইডা তোদের দিকে ছুরে মারতে পারে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুসলিম বিবেচনায় এদেশে তাদের ঠাই দেয়া উচিৎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কিছু বাংলালিংক এর সুন্দর নাম্বার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ আমাদের কে জিতিয়া দাউ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হা হা হা দারুন মজা পাইলাম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই সাকিব আল হাসান আপনার মেয়েটা খুব সুন্দর ঠিক আপনার মত অকে পর্দায় রাখবেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের সর্ব কালের শেরা প্লেয়ার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে দিন দুনিয়ার বাদশাহ মহান রাববুল আল আমিন আল্লাহ্ আপনি মোহাম্মদ মুরসী সাহেবকে হেফাজত করুন দীর্ঘায়ু দান করুন এবং নেক হায়াত দান করুন। আমিন । আমিন । আমিন ।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এটা ভালো সংবাদ । এটাম ফোযুক্তি অর্থ সবই হবে। আশা করা যায় এজোট আরো বড় হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপু তোমার হাসিতে এই মন আমার বিদ্ধস্ত হয়ে গেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গা অনুপ্রবেশ ঠেকানো যাচ্ছেনা হেডলাইনটা হওয়া উচিত ছিল রোহিঙ্গা নির্যাতন ঠেকানো যাচ্ছেনা কারণ তারাতো আর স্বাদে অনুপ্রবেশের চেষ্টা করছেনা শুধু বাঁচার জন্যই অনুপ্রবেশ করতে চাচ্ছে। যদি তাদের উপর আমানুষিক নির্যাতনটা ঠেকানো যেত তবে তাদের অনুপ্রবেশ নিশ্চই ঠেকানো যেত। নির্যাতন বন্ধ করার জন্য পত্রিকায় হেডলাইন করেন দেখবেন অনুপ্রবেশ ঠেকানো যাচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথম আলো যে কট্টরপন্থি মুসলিম বিদ্বেষী পত্রিকা তার প্রমান এমন খবর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই হচ্ছে প্রথম আলোর চিরোচেনা মুখ ভারত থেকে হাতি আসলে এরা কি থেকে কি করবে সেই চিন্তায় বিদিক হয়ে যায়। আর অন্য দিকে রোহিঙ্গা অনুপ্রবেশ ঠেকানো যাচ্ছে না বলে নিউজ করে ওহে রোহিঙ্গা তুমি কেন হাতি হলে না ??? তবেই তুমি বাংগালদের কাছে সহানুভূতি পেতে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">শান্তিতে নোবেল পুরস্কার বিজয়ী সুচির অশান্তির উপহার ??? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জীবনের ভয় কার না আছে। জীবন বাচানোর মানুষ কি না করে। মায়ানমার মানে সাক্ষাত মৃত্যু। আপনাকেও যদি এভাবে মারা হয় তা হলে আপনিও পালাবেন। কিন্তু তাদের অধিকার ফিরে দিতে কারো কোন সম্মতি দেখছি না। মনে হচ্ছে মায়ানমার বিশ্বের সবচেয়ে শক্তিধর দেশ।আর রোহিঙ্গাররা মায়ানমারে আকাশ থেকে পড়ে নি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলা দে শের মানুষ পশুনা মানুষ তাই এখা নে সব ধ র্মের মানুষ নিরাপ দে থাগ বে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি আপনার সাথে একমত । চালিয়ে যান। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাই তো প্রবাদ আছে কষ্ট করলে কেষ্ট মেলে।আমরা বাঙালি জাতি যে কষ্ট সাধন করতে পারি তার প্রক্রিষ্ট উদাহরনস্বরুপ বলা যায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আপনার ঠোটের তিলটা আরও অর্পূব লাগছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নতুনের আগমনে পরাতন অপেক্ষায় নিশ্চয় ভালো খেলার দাবি নতুন তরুনদের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই সব আমি রোহিঙ্গাদের সাথে বছর কাজ করেছি মুসলিম আমিও বাট ওদের লোক এত খারাপ যা বলে বুঝাতে পারবো না এদের কে যায়গা দিলে একদিন ইসরায়েলের মতো আমাদের সাথে ব্যাবহার করবে যারা কক্সবাজার ও সউদি আরব থাকেন তাদের একবার জিজ্ঞেস করেন তারা কতটা খারাপ এই কথা গুলো পরিক্ষা করে তার পর আমাকে গালি দিবেন?? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গাদের নাগরিকত্ব নেই বলে তাদের জন্য কতোই না মায়াকান্না। কিন্তু তারা কখনোই বার্মাকে ভালোবাসেনি তারা কখনোই বার্মাকে নিজের দেশ মনে করেনি এখনো মনে করে না। তাদের শয়নে স্বপনে পেয়ারে পাকিস্তান। জিন্নার টু নেশন ফর্মুলায় ভারতবর্ষ ভাগ হয় সালে। তবে এর আগে সালে অনেকটা নিশ্চিত হয়ে যায় যে ধর্মের ভিত্তিতে ভারত ও পাকিস্তান নামে দুটি দেশ হচ্ছে। ওই বছরেই তড়িঘড়ি করে রোহিঙ্গারা বার্মিজ মুসলিম লীগ গঠন করে। নেতারা জিন্নাহর সঙ্গে দেখা করে জানায় যে তারা বার্মার সঙ্গে না থেকে পাকিস্তানের সঙ্গে যোগ দি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাল কিছু কর ছাগ্লামি তো অনেক করলি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জীবনে কাউকে এক গ্লাস পানি খাওয়াতে বার ভাবে তাদের মানব প্রেম ফেইসবুকে উতর উতরে উঠে।ইসলামে পরিষ্কার বলা আছে তোমরা যে কাজটি নিজে করনা তা অন্যকে করার জন্য উপদেশ দিয়োনা । এতই উতলা যখন যাওনা কেন আরাকানে মুসলিম ভাইদের বাঁচাতে? সীমান্তে গিয়ে ওদের জন্য টাকা পয়সা খাবার দাবার ঔষধ নিয়ে যেতে কি তোমাদের রোহিঙ্গা প্রেম কি লজ্জা পায়? সরকারে উচিৎ উতলে উঠা রোহিঙ্গা প্রেমিদের প্রত্যকের ঘরে বর্তমানে যে লাক রোহিঙ্গা আছে ওখান থেকে একটা একটা রোহিঙগা পরিবার বাধ্যতামূলকভাবে ওদের ঘরে ঘরে পৌঁচে দেওয়া।শর্ত থাকবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের জন্য গর্ভরোধক বড়ি পাঠাওআমরা কাফিরদের সন্তান নিতে চাইনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বরাবরের মত প্রত্যেকটা পর্বই অনেক সুন্দর ও শিক্ষনীয় ছিল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই বিপিএলে তানভীর এর খেলা ও অনেক ভাল হচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাই আপনি ভাবিকে একটু বেশী ভালবাসেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অধিনায়ক ছাড়া সে ভাল কিছু করতে পারবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নাসির কে জাতীয় দলে ফিরাতে মহামানবের ভুমিকায় সাকিব আল হাসান। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">রোহিঙ্গা মুসলমানদের দুর্ভোগের অন্ত নেই।জলে কুমির ডাংগায় বাঘ।আজকে দুটি ঘটনা আমাকে ভীষণ ব্যতিত করেছে।নিরবে কিছুক্ষন অশ্রু বিসর্জন দিয়ে মনটাকে হাল্কা করার ব্যর্থ প্রয়াস চালিয়েছি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">প্রথম ঘটনা হচ্ছে আজকে মংডুর রামাবাইল্লা নামক গ্রামে মিয়নমার বর্বর মিলিটারী হানা দেয়।এখন স্বভাবত সব রোহিঙ্গা পল্লিই থাকে পুরুষশুন্য কারণ পুরুষ দেখামাত্রই আগে গুলি পরে কথা আর মহিলারা ও নিরাপত্তার ভয়ে এক জায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ছি ছি ছি একজন হুজুর হয়ে বাবা কিভাবে নিজের মেয়ের সাথে সেক্স করে না দেখলে বিশ্বাস করতে পারবেন না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দেশ নেত্রীর বেগম খালেদা জিয়ার মামলা যদি চলে হাসিনা ওয়াজেদের মামলা ও চলতে হবে এক দেশে দুই আইন হতে পারেনা মামলা গুলো এক ব্যক্তিই করেছেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তারেক ও খালেদা গংয়ের উচিত সরকারের সরাসরি মুখোমুখি হয়ে মোকাবিলা করা। এভাবে লুকিয়ে থেকে সরকালের কোন বালও বাঁকা করতে পারবে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এখান থেকে অনেক কিছু সিখার আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাই রাজশাহীর আপু অনেক কিউট লাগছে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তামিম ভাই তোমাকে ধন্যবাদ । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি সোহেল আমি নিজে জনের জায়গা দিমো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুমি অনেক সুন্দর মাসআল্লাহ দীর্ঘজীবী হও </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইস স্যার আপনাদের জন্য যদি কবরটাও আলাদা হত তবে কতইনা ভাল হত ভাল থাকবেন ইনশা আল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তামিম ভাই সেন্সুরী চাই দোয়া করি </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ছাড়াই দেশের আইন ভাল চলবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সব বিদেশি সিরিয়াল বন্ধের আন্দোলন করলে আরো ভালো হয় । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সত্যি বলতে আমি জাতীয় দলের যে কজন প্লেয়ারকে মন থেকে শ্রদ্ধা করি তার মধ্যে মাশরাফি মর্তুজা র নাম টা সবার আগে।যদিও আমি কুমিল্লার সাপোর্টার নই।বাট শেষ বেলায় এসে এভাবে ঘুরে দাঁড়িয়ে জয় তুলে নেওয়া।সত্যিই রুমাঞ্চিত।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই অল্প সময়ে নিজের জীবন বাজি রেখে বাংলাদেশ ক্রিকেটকে যা দিয়েছে যে সন্মান বহিবিশ্বে যে সন্মান অর্জন করেছে তা অতীতে কোন ক্রিকেটার পারেনি এবং তা স্বাধীনতা যুদ্ধের চেয়ে কোন অংশে কম নয় তাই আমি জোরালোভাবে আওয়াজ তুলছি মাশরাফি বিন্ মর্রতুজা রাস্ট্রীয়ভাবে বাংলাদেশের সর্বোচ্চ পদকে ভূষিত হউক। এটা তাহার প্রাপ্য এবং জীবিত থাকতেই তা দেওয়া হউক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">শুধু পার্থক্য করি এই যে আগে বলতাম পারবো একদিন আমরা আর এখন বলি ওদের মাঠে গিয়ে জিতবো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শারদীয় সাজে ভাল ই লাগছে।।শুভ শারদীয়া </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভালো হয়ছে বল গুলো এখন রান আসবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একে বারে ঠিক কাজ হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আগুন নেভানোর পর্যাপ্ত ব্যবস্থা থাকার কি দরকার। টাকা কামানোর পর্যাপ্ত ব্যবস্থা তো আছে।আমাদের তো শুধু টাকা দরকার।কে বাঁচল কে মরল সেটা আমাদের দেখার বিষয় নয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশে এইটা পুরান ঘটনা নতুন করে বলার কি আছে। আমরা চিললাইতে চিললাইতে গলা ব্যাথা করে ফেললেও বিচার হবেনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফায়ার সেফটি অফিসার একটা পদ আছে।অনেক মালিক সেটা জানেওনা বলে মনে হয়।জানলেও শালা সম্বন্ধী দের পদে বসিয়ে দেয়।মাত্র হাজার স্যালারি চেয়েছিলাম।আমার এ কাজে বছরের অভীঙ্গতা আছে।কেউ কন্টাক্টই করল না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> লজ্জা লাগলেও বলতে ইচ্ছা করে এটা বাংলাদেশেই সম্ভব ছিঃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বঙ্গবন্ধুর সোনার বাংলায় গরীবদের ভোটের অধিকার নিশ্চতকরা একমাত্র কাজ বাকীসব রাগবোয়ালদের পক্ষে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুস্তাফিজকে আইপিএল এবং বিপিএল ছাড়া অন্য কোন টুর্নামেন্টে খেলার পারমিশন না দেয়া হোক। সবার আগে দেশ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এমন খেলোয়াড়ের প্রয়োজন যে সব সময় ফিট থাকে।অানফিট খেলোয়াড়দের ওপর ভরসা নাই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুস্তাফিজ আগের চাইতে ভয়ংকার হয়ে ফিরবে ইনশাআল্লাহ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাঝে মাঝে রামপালের মত ইস্যু তৈরি হলে কয়েকটা ব্যানার ফেসটুন গলায় ঝুলানো ছাড়া আপাতত তাদের আর কোন কাজ নেই। বাম বিদায় এখন সময়ের দাবি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওরা এখন প্রথম আলোর সাথে এক যোগে গবেষণা করবে সানি লিওয়ন জন প্রভাবশালীর মধ্যে আছে কিনা।হায়রে বাম আপনারা নাকি মানব দরদি কয় কোনোদিন দেখলাম নাতো আপনারাএকটা মানবন্ধন করেছো মায়ানমারে রোহিঙ্গা গণহত্যার বিরুদ্ধে।না তারা মুসলমান বলে বাম আজ নিরব? মানবতার জয় গান গেয়ে যে ভন্ডামি আপনারা করেছন তা জনগণ আজ জানে আর এই জন্য আজ আপনারা জন বিছিন্ন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরো বিজ্ঞাপন চাই চাই আরু ফালতু খবর </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমরা কখনো আল আমিনের কথা মনেও করে না। অথচ তাসকিন কোনদিন ই আল আমিনের মতো ভাল বোলার ছিলো না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">খেলার মাঠে তাসকিন থেকে আল আমিন শফিউলরা অনেক গুণে ভাল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কখনো কখনো মনে হয় আমার বয়স আঠারো।আর তখন নাতিনকে বলি চল একটা সিনেমা করি সেই সিনেমার তুমি নায়িকা আর আমি নায়ক। কি বলব দুঃখের কথা সে কি না বলে তোমার ঘণ্টা বেজে গেছে এই ঘণ্টা আর বাজবে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সব আজারা খবর না দিয়ে মায়ানমার এর মুসলিম দের খবর দেননা কান ? গায়ে লাগে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আর আইএস তৈরি করার জন্য দেয়া হল বারাক ওবামাকে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাইয়া আপনি যে একটা গরু আপনার প্রোফাইল পিক দেখলে বুঝা যায়। গাধার সাথে তর্ক করা বোকামো ছাড়া আর কিছু না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোরে হাতির হোল দিয়ে চোদা উচিত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই আর এক রাম ছাগল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">নাকি গরুর মুত খেয়ে জ্ঞান বুদ্ধি সব গেছে? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচি তো নোবেল পাইছে মিসাইল কিংবা সাবমেরিন বা পরমাণু তো পাইনি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ জালিমদের কে হেদায়েত কর।তারা হেদায়েত প্রাপ্ত না হলে তাদের ধ্বংস করে দাও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">অশ্রু ঝরতো তখন আসিফের ভাল থেকো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাশাল্লা বাবা ও বেটিকে আমার লাল গোলাপের শুভিচ্ছা রইলো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই নামের পিলিয়ার আছে দুই আগে সুনেছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ যে কখন তাদের দুনিয়াবি আলো তুলে নেয় আল্লাহ ভাল জানে আল্লাহ তুমি মুসলিম ভাইদের রক্ষাকারী </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুমি এগিয়ে জাও বাংলাদেশ তোমার দিকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই আমার শতক জায়গা আছে আমি দিবো যেই কয়জন ঐ জাইগাই ধরবে এভাবে সবাই জদি এগিয়ে আসি তাহলে ঐ রোহিঙ্গা মুসলিম ভাই বোন দের মাথা গোজার ঠাই হবে ইনসাআল্লাহ্ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কোটি টাকা বাটপারদের পকেটে চলে যাচেছ আথচ ভালো কাজে টাকার অভাব সববিষয় যদি সরকার প্রধানকে দেখতে হয় তা হলে বাকিরা কেন।ধন্যবাদ প্রথম আলোকে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দিনে একটি হলে ভাল কাজ করুন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আাপু তোমার চুল গুলা অনেক সুন্দর। আাপু সুটিংএ নাচার সময় তোমার কেমন লাগে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইউনুস জানোয়ার পাইছে সুদ খাওয়ার জন্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাপন সিনা সানিলিয়ন এর ছেলে কিন্তু বাপন সালার বাপ যে কে বাপন সিয়র না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দের কোটি না হোক পঞ্চাশ লাখ তো হবেই যে ভারতে আশ্রয় নিয়েছিল তার মধ্যে হিন্দু মুসলিম তো থাকেবই । তাদের থাকার ব্যবস্হা খাদ্য বস্ত্র ইত্যাদির দিয়েছিলো এবং বিভিন্ন কেম্প তৈরী করে মুক্তিযুদ্ধের ট্রেনিং দিয়ে এবং অস্ত্র দিয়ে সাহায্য করেছিলো । উপকার করলে তা স্বীকার করতে হয় আর যারা না করে তাদের বলা হয় বেইমান অকৃতঙ্গ । তেমনি বাংলাদেশের ও উচিত রহিঙ্গাদের সাহায্য করা । রহিঙ্গাদের সাহায্য করলে তারা এই উপকার অস্বীকার করবে না আমার মনে হয় । কিন্তু বাংলাদেশের অনেক খারাপ লোক আছে যারা স্বীকার করে চায় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিংগাদের আশ্রয় দেয়াই সমস্যার সমাধান নয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কত দিন আর আশা দেখাবেন জিতা খেলা হার মেনে নেওয়া যায় না বুদ্ধি ও আত্নবিশ্বাস বাড়ান। স্বপ্ন এমনিই পুরন হবে ইনশাল্লাহ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ তোমি মায়ানমারে মুসমান দের বাচাও </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জম্ন হোক যথা তথা করম হোক ভাল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> থ্যাংকস বিবিসি এবং এইসটি ইমাম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এটাই উচিত হবে যদি এমনটা সত্যি হয় তার জন্য সরকারকে সাধুবাদ জানাবো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> । ব্যাক্তিত্ববান হতে চাইলে ঠাট্টা ছারুন । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সৌম্য কে আরো কিছু সুযোগ দেওয়া দরকার । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এত দিনে একটা সঠিক কথা বলছেন মেডাম আইবী আফা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হেরে যাওয়া টা কোন অপরাধ নারে ভাই অনেক সুন্দর খেলা হয়েছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এগিয়ে যাও বাংলা খালার জননী খুলনা টাইটানস। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তর্ক বিতর্ক করলে সারা জিবন করা যাবে আগে তো মানুষ গুলা বাঁচুক তারপর না হয় কার দায়িত্ব কি কার অধিকার কি এইসব নিয়ে আলোচনা করা যাবে যেইখানে জিবন্ত মানুষের গায়ে পেট্রল ঢেলে আগুন ধরিয়ে দেওয়া হচ্ছে সদ্য জন্ম নেওয়া শিশুর গলায় দড়ি বেধে কুকুরের মতো টেনে নেওয়া হচ্ছে সেইখানে আমরা কি করে ভাবি রোহিংগা মুসলিমদের জায়গা দিলে আমাদের ঘুমানোর জায়গার অভাব পরবে তাদের খাবারের ভাগ দিলে আমাদের পেট অর্ধেক খালি থাকবে। মুক্তিযুদ্ধ আমরা চোখে দেখিনি কিন্তু অনেক গল্প শুনেছি রোহিংগাদের উপর অত্যাচারের ভয়াবহতা কি তার চেয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গা কি সেটা আমি জানি।ওদের আমরা খাবার দিয়ে সাহায্য করতে পারি কিন্তু জায়গা দিয়ে নয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল একটি আকাইম্মা পুরস্কার এটি এখন প্রমাণিত যেমন অং সান সুচি ড ইউনুস তারা শান্তিতে নোবেল পায় কিন্তুু নির্যাতিত মানুষের জন্য তাদের মন কাঁদে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অং সান সুকি সুচিকে দেয়া নোবেল শান্তি পুরস্কার অবিলম্বে কেড়ে নেয়া উচিত। কেননা তিনি আর তার দল গনতন্ত্রের মোড়কে ক্ষমতায় এসে আরাকানের নিরীহ রোহিঙ্গাদের বিরুদ্ধে ইতিহাসের জঘন্যতম গনহত্যা ও নিপীড়ন চালাচ্ছে। যে নিষ্ঠুরতা আমরা তার শাসনামলে দেখছি এরপর আর এক মুহুর্ত তার গায়ে শান্তির তকমা লাগানোর সুযোগ নেই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সু চি একজন মুখোশধারী শান্তিবাদি।যখন ওনি জেলে ছিলেন তখন বড় বড় শান্তির বুলি বার হতো আজ সরকার এর প্রধান থেকে আমরা তা নিষ্ঠুর চেহারা দেখতে পারলাম। সমায়ের নির্মমতম গণহত্যা আজ সু চির হাতেই রচিত হচ্ছে।সু চি আর তার দেশের প্রতি আজ ধিক্কার জানায় ঘৃণা সু চি তোমার জন্যা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওমান প্রবাসীদের পক্ষ থেকে লাইভ দেখানোর জন্য ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তামিম আজ ধন্যবাদ পাওয়ার যোগ্যতা অর্জন করেছে ।।। ধন্যবাদ তামিম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সামনের জয় আমাদে হয়।অভিন্দন রইল তোমাদের। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি কি আর ছোট পর্দায় অভিনয় করবেন না? চঞ্চল চৌধুরীর সাথে যে নাটকের অভিনয় করেছেন সেটা আমার খুব ভালো লেগেছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ তুমি তাদেরকে তোমার মদদ দানকরো আর কাষ্মিরকে হেপাজত করো আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">তাহলে গোটা দুনিয়াটা অনেক সুন্দর হতো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি আমার এক জন িপয় ব্যক্তি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার খুবই পছন্দের মানুষ তিনি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অাসলে সুন্দর দেখার মত চোখ থাকা চাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বৌদ্ধরা বলে জীব হত্যা মহাপাপ তাই তারা কোন প্রাণির বা জীবের মাংস বক্ষন করেনি।অথচ এই নরপিশাষগন মুসলিমদের মাংস বক্ষন করে তাদের নির্মম ভাবে হত্যা করছে পৃথিবীর মধ্যে সবচেয়ে নিকৃষ্ট নরপিশাষ নিষ্ঠুর জাতি হল বৌদ্ধরা।এরা সাধুরূপে শয়তান সন্ন্যাসীরূপে ভন্ড। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পৃথিবীর ইতিহাসে সবচেয়ে অযোগ্য কেউ যদি নোবেল পেয়ে থাকে তাহলে সেটা এই মহিলা।যার চোখের সামনে যার পত্যাক্ষ মদদে দিনের পর দিন আরাকান রাজ্যের মুসলিমদের উপর হত্যাকাণ্ড চালানো হচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এটি এখন প্রমানিত অং সান সূচিকে দেয়া নোবেল শান্তি পুরস্কার অবিলম্বে কেড়ে নেয়া উচিত। কেননা তিনি আর তার দল গনতন্ত্রের মোড়কে ক্ষমতায় এসে আরাকানের নিরীহ রোহিঙ্গাদের বিরুদ্ধে ইতিহাসের জঘন্যতম গনহত্যা ও নিপীড়ন চালাচ্ছে। যে নিষ্ঠুরতা আমরা তার শাসনামলে দেখছি এরপর আর এক মুহুর্ত তার গায়ে শান্তির তকমা লাগানোর সুযোগ নেই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সবাই কি নোবেল পায় ? নোবেল কমিটি যখন তাকে নোবেল দিয়েছিল তখন তিনি অনেক ভাল মানের একজন মানুষ ছিলেন এখন ক্ষমতার লোভে তিনি সেই মানবতাকে গণহত্যায় রূপ দিয়েছেন তাই হয়ত এরূপ পরিস্তিতির জন্য তাকে দ্বায়ী করা যেতে পারে কিন্তু নোবেলকে নয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমারের সামরিক জান্তা সুচির চাইতে অনেক ভালো ছিল সে তার সামরিক বাহিনীকে দিয়ে এতো অপকর্ম করেনি৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তার চেহারায় আমি শান্তিতে নোবেলজয়ী কাউকে দেখছিনা দেখছি একটা নিষ্ঠুর ডাইনীকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচিকে আগে ভালো লাগতো কিন্তু ওর নিরবতা প্রমাণ করে কুকুরের লেজ বছর পাইপের ভিতরে থাকলেও বাকা বাকাই থাকে।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> স্বাধীনভাবে বাচাঁর অধিকার সবার আছে। মিয়ানমারে সেনাবাহিনীর নির্মম গনহত্যার তীব্র নিন্দা জানায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল প্রাইজটা কেড়ে নেওয়া উচিত এই অপদার্থকে কি করে শান্তির পদক দেয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> উনিও বাংলাদেশের নেত্রীদের মত ভোটের রাজনীতি করেন। মানুষ মারা গেলে ওনাদের কিছু ছিঁড়ানি যায়না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রাজা আর রাজ কন্যা দুটাই পেলাম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আর তার চাইতেও বেশি হতে চাইলে আপনাকে হতে হবে একজন মাশরাফী </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাহাবুব আলম। গোপালগঞ্জ কোটালি পাড়া। আমার অনুরোধ রইল বাংলাদেশের বর্তমান সরকারের প্রতি । জীবন রক্ষা করবার জন্য সীমান্ত খুলে দেওয়া হক। রিয়িকের মালিক আল্লাহ।আল্লাহ তুমি আমাদের সবাইকে হেদায়েত দান করুন। আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সিমানত খুলে দাও ওদের বাঁচতে দাও </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আইনের জন্য মানুষ নাকি মানুষের জন্য আইন?? যে দেশের আইন মরনাপন্ন মানুষকে সমুদ্রে ফেলে আমি সেই দেশের গর্বিত নাগরিক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওর মুখে থুতু ফেলানো উচিত দেখলেই বমি আসে।। আমরা এজিদের কাহীনিতে ভয় পাই।। এজিদ এই শয়তান মহিলার কাছে কিছুই না থু </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অথচ তার জন্যই বাংলার মানুষ অনেক সহানুভুতি দেখিয়েছিল যখন জান্তা সরকারের জেলে পচেঁ মরছিল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যদি সূচিরে বিয়ে করতে পারতাম পৃথীবির ইতিহাসে সব চেয়ে নির্যাতিত স্বামী হয়ে থাকতাম। যাতে মানুষ তাদের বৌকে বলতে সূচির স্বমীর মত নির্যাতন করবো কিন্ত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুমি যে মাথায় ফুল লাগাও এর তো কোন মানে হয় না। তুমি তো ফুলের অযোগ্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মন ভর্তি শয়তানি নিয়ে মাথায় ফুল লাগানোর কোন দরকার নাই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জানতাম নারীরা মমতা ময়ী কিন্তু সুচি আসলে সীমার ওর মায়াদয়া নাই।।।ছি ছি ছি ছি।।।।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কুকুরের কাছ থেকে সিংহের গর্জন আশা করা যায় না ৷ বাকি কুকুরকে সিংহের মুখোশ পরানো যায় ৷ যেমন স্বার্থের খাতিরে অযোগ্য ব্যাক্তিকে নবেল পুরস্কার দেয়া যায় ৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুরে মারি কুকুর কে খাবাব তুর মারে চুদি নোবেল তুর সোনা দিয়া ডুকাব তুরে আমি হাতি দেয়ে খেলা খাবাব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষ তো নয়ই পৃথিবীর কোন জীবেরই অপমৃতু্য কাম্য নয়। মহত বা বিশিষ্ট ব্যাক্তিদের কাছে মানুষের প্রত্যাশা অনেক । সেই প্রত্যাশায় নীরব থাকা মানে অন্যায়কে প্রশ্চায় দেওয়া। কখনও কখনও কিছু মুখে থু থু ছিটাতে ইচ্ছে করে আবার কখনও কখনও কিছু মুখে থু থু ছিটাতেও ঘৃনা করে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নিরবিচারে হাজার হাজার মানুষ পুরিয়ে মারতাছে ওনাকে দেওয়া হয়েছে শান্তির জন্য নোবেল পুরুস্কার???তার মানে বোজায় যে বেশি মোসলমাদের মারবে তাকেই নোবেল দেওয়া হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সূচি এতটা বদমাইশ যা বাংলাদেশসহ বিশ্ববাসী এর আগে কখনো দেখেনি। মায়ানমারে সামরিক হামলা ছাড়া কোনো পথে এদের ঠিক করা যাবেনা। অর্থনৈতিক অবরোধ দিয়ে পশ্চিমারা পারেনি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল তুমি কোন শান্তি রক্ষার কারনে পাইছো সুচি??খারাপ কিছু মুখে আসছে।বলি নাই।কারন নোবেল পাওয়া যেই সেই কথা না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুসলমানদের কাছে মায়ানমারের মাটিতে তোকে হিসাব দিয়ে যেতে হবে। তোর চেহারা এখন ডাইনির চেয়ে ও খারাপ দেখা যায়। এই নোবেল বিজয়ী লোক ভালো কোনটা গর্ভাচেফ ইউনুস সুচি এমন আরো আছে নাম জানিনা সবই অপকর্মে ব্যস্ত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অবাক করা গল্প।সত্যি বড় চিন্তার বিষয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ আপনি আমাদের ক্ষমা করুন আপনার গায়েবি মদদে অসহায় রোহিঙ্গাদের রক্ষা করুন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সংকট নিরসনে জাতিসংঘের হস্তক্ষেপ করা জরুরি । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষ বরাবরই সৃষ্টির সবচাইতে আকর্ষণীয় প্রাণী। কারণ মানুষের দেহ এবং মন দুটোর কোনোটিরই পরিপূর্ণ ব্যাখ্যা বিজ্ঞান আজও দিতে পারে নি। বরং প্রতিনিয়তই মানুষের দেহ ও মন সম্পর্কে নতুন নতুন তথ্য হাজির হতে থাকে। এমন অনেক বিষয় রয়েছে যা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একটা লাইক দিবেন পেজে বাংলাদেশ ক্রিকেট প্রেমিক আমরা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একেই বলে ডিজিটাল আঃমী উন্নয়ন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কারণ মিম আর আমার সমান তাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চরম সাহসতো বাবুটার। আমার ছোটোভাইকে একবার পানিতে এভাবে নামিয়েছিলাম সে এমন কান্না কান্নাকাটি সুরু করছে যে আজো সে পানিতে নামে না। যদিও সে আরো বড় ছিলো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রানে অল আউট তাই বাংলাদেশ লাষ্ট বলে মেরে জিতলেও বেশি হবে না।।।ঠিকই বলেছে দাদা।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাল ভাই ভারতের বারােটা বাজালে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির চেহারাটা দেখেন একদম ডাইনি। পিচাস যারা শুধু মানুষের রক্ত পান করতে ভালো বাসে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নিরবতা না থাকলে কি করার আছে। আপনার উপরে যদি সেনা নজরদারি থাকে আর সরকারি প্রভাব থাকে তাহলে বুঝবেন আপনার অবস্থা। এদেশে দেখছেন না বিরোধী দলের নেতানেত্রীদের অবস্থা বর্তমান সরকার এমন কৌশলে এদের চেপে রেখেছে যে খবরের শিরোনামে বিরোধী নেতানেত্রীদের পুরনো ছবিই সম্বল লাইভ ভিডিও কদাচিৎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কংফু সূচিরে ণোবেল দিলো কোন হালায় রে।এহেন নোবেল আমার দরকার নাই।নোবেলের যদি হয় এই অবস্হা তাহলে নোবেলের মোর দরকার নাইরে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমার তো মনে হয় না সে মানুষ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সূচির এই চেহারাটাই এক সময় মনে হতো শান্তির এখন মনে হচ্ছে শয়তানের বা দানবের। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শক্তিসালি দেশ মিয়ানমার কারনটা হলো বাংলাদেশী বিজিবিকে দরে নিয়ে গিয়ে লেংটাকরে পিটায় আর কামাইল্লা খানকির পোলায় কয় বুল বুজা বুজি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তার নোবেল প্রাইজ ছিনিয়ে নেয়া হোক ।আর তাকেই বলে কি হবে বিশ্ব শান্তি সংস্থা যেখানে নিরবতা পালন করছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি শয়তান দেখিনি তবে অনুমান করি শয়তান দেখতে মনে হয় হবুহু অংসান সুচির মতোই হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুসলিমরা শুধু নিরীহ সাওতালদের উপর গরম ছারতে পারে বার্মা যে এতো মুসলিম মারছে কিছু করতে পারে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঠান্ডা মাথার খুনি অালাভোলা সহজ সরল চেহেরার মধ্যে লুখিয়ে অাছে একজন হিংস্র জন্তুু জানোয়ার।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সমগ্র মিয়ানমার জুড়ে মুসলমানদের উপর হিংস্র নিরয্াতন চালিয়ে অশান্তি চালানো সূচির শান্তির নোবেল ছিনিয়ে নেউয়া চাই। সূচি বিশ্ব বেহায়া। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সু চি আপনার নিষ্ঠুর নিরবতায় আমরা মর্মাহত শা ন্তির নো বেল আপনার জন্য নয় আপ নি নিষ্ঠুর নিবাক অসহায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জার শুরুু ভালো তার শেষ ভালো বাংলা দেশ আজ ভালো করবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব আমাদের দেশে জন্ম গ্রহণ করেছে এটা আমাদের সৌভাগ্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নিহত সবার পরিবারে প্রতি রইল অন্তরের অন্তস্থল থেকে গভীর সমবেদনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">অনুগ্রহ করে নাম্বার টা করে জানালে খুশি হতাম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যখনি সত্যের দ্বার কে মানুষের কাছে কেউ পরিস্কার করে মানুষ কে দেখায় তখন শয়তানরা তাকে দুনিয়া থেকে বিদায় জানানোর জন্য উঠে পড়ে লাগে আর তারা জয়ী ও হয় কিন্তু সৃষ্টিকর্তা এটাই দেখায় কে কে সত্য কে উপলব্ধি করে ধরে রাখতে পারে।ডাঃজাকির নায়েক মানব জাতির জন্য আর্শিবাদ পুষ্ট একজন মানব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এরকম আরও ফানি জোকস পড়তে চলে আসুন আমাদের পেজ মজার পেইজ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার কিছুই বলার নাই আমি গ্রামিন ছিম খুব ভালবাসি অফার না থাক লেও আমি ব্যভহার করব </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমরা কিন্তুু তোমাদের কে ঠিকই ভালোবাসি সোনামণি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিমের শাথে আরেফিন শুভ হলে ভালো হতো ? বাপ্পি না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওরা মানুষ মানুষ মানুষের জন্যে ওদের আশ্রয় দেওয়া হোক । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কত গুলা কমেন্ট অথছ শালা বৌদ্ধদের একটা কমেন্ট নেই অার করবে বা কেন তারা বৌদ্ধ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শালিকে কুকুর দিয়ে যৌন হয়রানি করিয়ে ভারতের টাকার পতিতা বাজারে মাস রেখে এরপর আগুন দিয়ে পুরিয়ে মারা উচিত বলে ধারনা করা যায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একসময় বার্মাকে প্রতিবেশী মনে হতো অং সান সুকির মত গনতন্ত্র মনা মানুষদের জন্য। ভাবতাম ওখানেও ভালো মানুষ আছে। এখন ঐ বিশ্বাস আর সহমর্মিতাটুকু শেষ হয়ে গেছে। এখন ওদেরকে প্রতিবেশী ভাবতেও মন সায় দেয় না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মায়ানমার কি খুব শক্তিশালী দেশ প্রশ্ন জাগে মনে??যারা এই ভাবে মানবতা লংঘন করে তাদের সাথে আবার কিসের সম্পর্ক রাখা বাংলাদেশের ওদের সাথে সব সম্পর্ক ছিন্ন করা হক আর কঠিন জবাব দেওয়া হক আমাদের পক্ষ থেকে মুসলিম হিন্দু বৌদ্র খিস্ট্রান যে ধর্মের ই হক সবার উপরে মানুষ সত্য তাহার উপরে নেই কিছু </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই নিস্ঠুর নিরবতায় একদিন তুই ও নিরবে ধংস হয়ে যাবি যেভাবে তোর আগে ফেরাউন নমরুদ হিটলারদের হয়েছিল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হারামির বাচ্চা গণতন্ত্র প্রতিষ্ঠা করছে মিয়ানমারে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচি তরে পাইলে হইতাম এক দিনের জন্য মুচি তর চামড়া দিয়া বানাইতাম জুতা তরে খাওয়াইতাম পতিবন্ধি ভাতা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বুইরা খানকির চেহারা দেখেন। বান্দর কেউ হার মানাবে। অং সান সুচি অর মুখে সবাই মুতি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নৃশংসতার প্রতিক সুচি হিটলারের প্রতিচ্ছবি। ধর্ম বা জাতি সত্ত্বা হিসেবে নয় মানুষ হিসেবে রোহিঙ্গাদদের প্রতি পৃথিবীবাসী কী দায়িত্ব পালন করবেন ? গন হত্যাকারী সুচির বিরুদ্ধে কী ব্যবস্থা নিবেন ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অংসান সুচিকে এক সময় আমার ভালো লাগতো।এখন তার মুখে থুথু ফেলতে ঘৃনা হয়।সুচির মুখে থু। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এখন মনে হয় ওকে নোবেল দেওয়া হয়েছে অশান্তির জন্য। শান্তির জন্য নয়।ওর নোবেল পুরস্কার ফিরিয়ে নেওয়া হক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বোদ্ধ ধর্মে পশু মারা পাপ কিন্ত তারা যে নির্বিচারে মুসলমানদের হত্যা করছে এটা কি পাপ নয় তারা মানুষ না জানোয়ার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশে আসলে ওর মখে প্রস্রাব করা হবে আমি না পারলেও আমার কোন ভাই এই কাজ করবে ঈনশা আল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই শূয়র কে যেই জানোয়ার রা শান্তিতে পুরস্কার দেয় তাঁরা কেমন জানোয়ার বুঝতে পেরেছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এটা একটা ফালতু মহিলা। এর নিকট থেকে শান্তিতে দেয়া নোবেল পুরস্কারটি কেরে নিয়ে একটা ভাঙ্গা হেরিকেন হাতে ধরিয়ে দেয়া হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কোটি কোটি মানুষের কাছ থেকে সর্মথন পাবেন প্রাধানমন্ত্রী </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মায়ানমার এরকম হলে ভালো হতো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব আল হাসান আমাদের দেশের গর্ভ। সাকিব এবং টাইগারদের সব খবর রাখতে এখনই যুক্তহোন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এক দম ঠিক ভারত জাকির নায়েক এর বিরদে অবিছার করতেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শিয়া কাফের মককা মদীনার আলেম ওলামা একমত এ বেপারে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের টেষ্ট ইতিহাসের সবচেয়ে সেরা জয়। বাংলাদেশের ক্রিকেটের যে কতটা উন্নতি হয়েছে এই জয়টা দেখলেই বোঝা যায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলার সুনাম ধারিত খেলোয়ার মুস্তফিজ কে আমরা দ্রুত বাংলাদেশ দলে প্রত্যাবর্তন হউক এটাই শুভ কামনা করি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আসা করি ভাল কাজ করবে টামপ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনাকে অনেক শ্রদ্ধা ও ধন্যবাদ জানাই। আপনি খুব ভালো কথা বলেছেন। প্রদীপের তলায় যেমন অন্ধকার তেমনি সরকারেরও দৃষ্টিহীন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইত্যদি আমার প্রিয় অনুষ্ঠান নিয়মিত দেখি। তবে অনেক দিন পর পরিবারের সবাই মিলে বিটিভি তে ইতাদি দেখলাম।অনেক ভাল লাগলো বিশেষ করে যশোরে ধারন কৃত বলে বেশিই আনন্দ পেলাম।অবিভক্ত বাংলার প্রথম জেলা আমার শহর যশোর শহর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> স্বৈরাচারী আখ্যা দিয়ে সাদ্দাম গাদ্দাফি আসাদকে নিধন করা হচ্ছে বিশ্ব মোড়ল কেন আছ অং সান সূচিকে সায়েস্তা করা হচ্ছে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল পুরুস্কার যার পায় তারা শান্তির জন্য না অশান্তির জন্য পায়।যারা এ পুরুস্কার পেয়েছে তারা কতুটুকু শান্তি প্রতিষ্টিত করতে পেরেছে।একটু ও শান্তি প্রতিষ্টিত করতে পারেনা শুধু তারা অশান্তির কারণ হয়ে দাড়িয়েছে।তার জলন্ত প্রমান হচ্ছে সুচি নোবেল পেয়ে নব্ব হিটলারে পরিণত হয়েছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">তাইতো সুচির মত শয়তানেরা নোবেল পায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ক্ষমতায টিকে থাকার জন্য অং সান সুচি আরো জগন্যতম কাজ করতে পারে । মনে রাখতে হবে সুচি এক সামরিক শাসকের বীর্যের মেযে । শুধুমাত্র ক্ষমতার মোহের লোভে এতদিন চুপ করে স্বেচ্ছায় গৃহবন্ধী ছিল । নিজের মুখে যখন রোহিঙ্গাদের বাঙ্গালী বলে বেড়ায় আমাদের উচিত সুচির মুখে থুতু ছিটিয়ে ঘৃণা প্রকাশ করা । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচি হয়তো ঘরে বসে বারাক ওবামার সেই বিখ্যাত চুমুগুলো স্মরণ করছেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সে কবে দয়ার সাগর ছিল?এই হারামি আগেও নির্দয় ছিল।এখনো আছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওই মাগিরে কাছে পাইলে পাছায় বাঁশ ঢুকাইয়া দাড় করে রাখতাম । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির মুখে থু থু দিতেই আমার ঘৃণা হচ্ছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওতো বিধর্মী মুসলমানের শত্রু সে নিরব থেকে মজা নিচ্ছে একটা হারামি শালা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই খানকিরে থু থু থু </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই টেস্ট সিরিজে বাংলাদেশের অনন্য প্রাপ্তি মেহেদি হাসান মিরাজ। মাত্র টেস্টের সিরিজে এই ডেব্যুট্যান্ট স্পিনার টি উইকেট শিকার করেছে প্রথম টেস্টে উইকেট এবং দ্বিতীয় টেস্টে উইকেট। তিনটি ইনিংসে বা তার বেশি উইকেট নিয়েছে। ডেব্যু সিরিজেই এই প্রাপ্তি অসাধারণ পারফরমেন্স। মিরাজ ভাল ব্যাটসম্যানও বটে। আশা করি পরবর্তীতে সেটার প্রমানও সে দেবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহতাআলা তাকে দিনের জন্য কবুল করুন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ বিশ্বের শ্রেষ্ট উন্নত দেশ বলে ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জশ বাটলার এর সাথে বাংলাদেশ এর প্লেয়াররা যা করেছে সেটা নিয়ে সবাই কথা বলছে। কিন্তু প্লেয়ারদের এই রকম করার একটা কারন ও আছে যা অনেকেই জানেন না। বিটিভি অনেকেই দেখেন না। আমি আজ বিটিভি তে বাংলাদেশের ব্যাটিং দেখছিলাম। বিটিভিতে স্ট্যাম্প এর মাইক এর সাউন্ড অনেক বেশি থাকে যার কারনে উইকেট কিপারের অনেক কথাই স্পষ্ট শোনা যায়। প্রথম তামিম যখন ব্যাট করছিল এবং রান করতে পারছিলনা তখন বাটলার তামিম কে বলছিল ? পরে সাব্বির কে বলছিল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধন্যবাদ প্রতিবাদের জন্য রোহিঙ্গাদের সাহায্যও করুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অামরা সব সময়ই বিলাসী চিন্তা করতে ভালবাসি। ডাবল লাইন করে ট্রনের সংখ্যা বাড়ান। তাহলেই অল্পদিনেই সুফল পেতে পারি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কিন্তু একজন শিক্ষার্থী তার কলেজের পরিচয় পত্র দিয়েই রকেট খুলতে পারতেছে।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এখন আমাদের একটু পাওয়ার দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার কোন সমস্যা নেই ধন্যবাদ জানাই বিকাশের সকল সাভির্স ম্যেনেজারদের এবং সকল কাস্টমার দের চলছে আমাদের গথিতে বিকাশ পাশে আছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যত অবহেলা তত ভালোবাসা।আমারো হ্রদয়ে খুব অসস্তি হচ্ছে।ইচ্ছে করছে আমিইই তাকে ফিরিয়ে আনি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জাহাননামে ও যায়গা নেই তোর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরে কুচি কুচি করে কাটা দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এর নোবেল প্রত্যাহার করা হোক এবং বার্মার সাথে রাষ্ট্রীয় সম্পর্ক বন্ধ করা হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল ফিরিয়ে নেওয়া উচিত। নোবেল পাওয়ার যোগ্যতা উনি রাখেনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওরা জানোয়ার তেকে ব্যয়নক মানুষ মারে কায় আল্ল হর লানত পরুক জালিম দের ওপর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সালির গালে জুতা মার তালে তালে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সবাই এখন মুখুশ ধারী আসলে কেও মানবতার জন্য কাজ করে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল তো ভালো কোন মানুষকে দেওয়া হয় না কুর্মের সম্মাননাই হলো নোবেল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুদী উন্নুচা আর সুচী এই টাই শয়তান কোন কামের না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সয়তান্নির বাচ্চি। তকে হাতের কাছে পাইলে কুপিয়ে কুপিয়ে মারতাম আমি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাই আমি ঢাকা বরিশাল বুঝি না । আমি চাই তুমি ভাল খেল ।কারন আমি তোমার জন্য ঢাকা নিয়েছি । আর সবসময় নেব । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কেমন আছো মিম দারুন লাগছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিপদের সময় হাজার কোটি দরজা বন্ধ হয়ে গেলেও আল্লাহর দরজা সব সময় খোলা থাকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানবিক দিক বা মুসলমান হিসাবে তাদেরকে আমাদের দেশে আশার সুযোগ দেয়া উচিৎ ৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অামার মনে হয় হিলারি বেস্ট। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ তুমি এই বাচ্চাটিকে হেফাজত কর সেই সাথে সকল অসহায় রোহিঙ্গাদেরও </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভালোবাসা মানে কাউকে জয় করা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পাকাপাকি ভাবে আরবীকরণ করার সফল হাতিয়ার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপু আপন গান খোব ভাল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচিকে প্রিথিবি থেকে মুছে ফেলা হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শালির মুখটা কে আগুন দিয়ে পুরানুর দরকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচি রে মেরে ফেলা দরকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই অমানুষটারে কষায়া একটা থাপ্পর মারতে পারতাম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির নোবেল মুচি কে দাও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দেখলেই তো শয়তানের খারা ঝিলকির মত লাগে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যেহেতু উনি একজন বেজন্মা কুকুর তাই উনি ঘেউ ঘেউ করতে পারছেন না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> লাথি মারি অই সুচির মুখে এবং তার মত যারা আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খানকির চেহারাটা দেখছো। মনে হয় সালির রেফ করা হয়ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির হোগায় সেনাবাহিনী বাশ দিয়া রাখছে টু শব্দ করলেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কি বস গত ম্যাচে মন খারাব ছিল আজ মন ভালো হয়েগেছ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সবাই এগিয়ে অাসো। তাদেরকে সাহায্য করি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনার কথা সত্য আসলে রোহিন্গাদের আস্রয়ের কথা কে বলে ছবি গোলো কে পোস্ট দেয় এগুলা সব রোহিন্গা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এর পরেও তাকে সাপোর্ট করি প্লিয়ার হিসেবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমারা গভীর ভাবে শোকাহত । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জাহান্নামের সরদারনীকে জীবিত অবস্থাতেই পেত্নীর মত লাগে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির নোবেল কেড়ে নেয়া হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">না হয় তার মাথা কেটে নেবো আমি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফেরাউনের সাথে মিউজিয়ামে বাকি জীবন কাটানোর ইচ্ছা আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কুকুরেরে বাচ্চা নীরব মানে? সেই তো এসব করাচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">লথে লথা লাথে লাথি মাগির পুটকিতে কোটি মানুষের লাথি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোভের অর পরিবর্তে একটি লম্বা বাঁশ দিতে হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ওরে ট্রাম্পরে দিয়ে চুদা দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোর মুখে আমি থুথু ফেলি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই চুং চাং মাগীরে দেখলেই মেজাজ খারপ হয়ে যায় ।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপ তোমাকে দেখতে ভাল লাগছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সত্যের বিজয় চিরদিন আল্লাহ যদি চান জাকির নায়েক শত বাধা পেরিয়ে ইসলাম প্রচার করবেন নারেইতাকবির আল্লাহু আকবার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এতদিনে একটা ভালো শিরোনাম দিলেন।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইংল্যান্ড কে নিয়ে কোন ট্রল হবে না আমরা তাদের প্রতি কৃতজ্ঞ গুলশান হামলার পর তারা যদি আসতে রাজি না হত তবে আমাদের ক্রিকেট সংকটে পড়ত। তাদের এই জন্য অশেষ ধন্যবাদ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">পরবর্তী ম্যাচ এর জন্য থাকো চিটাগাং ভাইকিংস ই সেরা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইত্যাতি আমারো খুব প্রিয় একটা অনুষ্ঠান তাইতো সালের অনুষ্ঠান গুলো এখনো ডাউনলোড করে দেখি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুমি আসলে একজন মানুষ তোমাকে স্যালুট। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এ রকম বিশ্ব রের্কড আর কতটি দেশে করতে পেরেছে যা আমাদের সোনার বাংলার সোনারা করেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ওর জীবনে শুধু একটা ম্যাচ ভাল খেলছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাবাস সাহসী বাবা মা । তোমাদের জানাই সালাম । এই সাহসী মনোভাব পতিটা নাগরিকের থাকা উচিত দেশের মঙ্গলের জনন । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওর চেহারাটা ঠিখ যেন শুকরের বাচ্চার মতো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জীব হত্যা মহা পাপ যতসব ভন্ডের দল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফাসি তে ঝুলিয়ে মারার দারাকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খানকির সাওয়াল ওরে পিরায়ইয়া মারে না কেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির নিরবতা গণহত্যার সম্মতি ক্ষমতা লোভী </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ও চুদা খেয়ে নোবেল জয় করেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শয়তান আর পিচাশী দেখতে চাইলে অংসান সুচিকে দেখুন সব মিলে যাবে।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধিক্কার জানাই মানবের শত্রু সূচিকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কয়লা ধুইলে ময়লা যায় না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চুচি তোকে জুতা পিটা করা দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল ফিরে নিয়ে কলার গাছ দেওয়া উচিৎ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওনার নোবেল পুরষ্কারটা পিরিয়ে নেওয়া উচিৎ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সূচির চেহারা কুকুরের মতো হয়ে গেছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মরার আগে মানুষ হয় বেশি ভাল হয় না হয় বেশি খারাপ সুচিরও তাই হয়েছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একে এখন জুতার মালা দেও </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুশফিক রানে সেরা সাকিব উইকেটে সেরা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সৌদী আরবকে ধংস করে দিলে খুব খুশি হবো । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিপদ এর নামমার সংকেত আআমাগামিতে নামমার মহা বিপদ সংকেত তারাতারীআসবে ? ইনশ আললাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতে এই উপমহাদেশে একটি অন্যতম গুরুত্বপূর্ণ দেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভালো থাকো সুখে থাকো শভাই কে নিয়া </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খানকির ছেহারা টা কুকুরের ছেয়ে খারাপ দেখতে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওর চোহারা তো শয়তানের মত দেখতে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিশ্ব মানবতার শত্র খুনি নিরিহ মানুষের রক্তে যার হাত রন্জিত তার নোবেল প্রাইজ বাতিল করা হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাতের কাছে তারে পাইলে জিন্দা কবর দিতাম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল এখন তাদের দেওয়া হয় যারা অশান্তি সৃষ্টি করে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সূ চি নোবেল পাওয়ার যোগ্যতা হারিয়েছেন ।তার নোবেল প্রত্যাহার করা হউক । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঘোড়া দিয়া এরে পোন্দাইতে হইত।।।।।।।।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">অশ্লীল বাক্য । হযরত আলীরাঃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরে ভাই তারে তো দেখতেই একটা শূকন এর মত লাগে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই সয়তানের নোবেল কেড়ে নেওয়া হক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিংস্র বরবর কোন মানবতা থাকে না তাদের কোন ধম নাই ধম কোন দিন বলে না মানুষ হত্যা করতে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির চেহারা আর বানরের চেহারায়য় মিল আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই মাগীটা কে জুতা মারো অনলাইনে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শালির মাগি কান কানদার হোইছেকি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এ মহিলা কি শান্তিতে নোবেল পাওয়ার যোগ্য ? আমার অন্তত মনে হয় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই ডাইনীর নোবেল পুরস্কার কেড়ে নেওয়া হউক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই পতিতাকে কি করা দরকার বুঝতে পারতেছি না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মঘির চেহারটা দেখতে মন চায়না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিজড়ার দেখলেই তো ডাইনী মনে হয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইউনুস এর চেহারা পাইছে মাগি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একানে যাদের কথা বলা হ হয়েছে তাদের ছেয়েও এগিয়ে নাসির </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইংল্যান্ডের নং ব্যাটিংদের কাছ থেকে বাংলাদেশের শিক্ষা নেওয়া উচিৎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদের কে মানবিক দিক দিয়ে সরকার একটু চরে হলেও জাইগা দিক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনাকে আরও বোলিং করা উচিত ছিল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইলহামকে স্বাগতম মুসলিমদের আদর্শ দেখিয়ে আমরিকাকে জয় কর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই হল প্রকৃত মানুষ মানে সাহসী মানুষ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ঠিক কাজই করছে । সেলফি তোলার নাম করে যদি চাকু বের করে খুন করে ফেলে তখন বাংলাদেশ টিম এর মারাত্নক ক্ষতি হবে। সাকিব বাংলাদেশের গর্ব আমি মনে করি ।সাকিব একটা ভাল পরিবারের ছেলে। সাকিবের মা একজন আদর্শ মা সাকিবের মা ব্যাট নিয়ে নামাজ আদায় করে সর্বক্ষণ ছেলের জন্য দোয়া করে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অনেক দিন পর ইইত্যাদি দেখলাম খুব ভাল লাগলো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনাদের কে হাজার হাজার সালাম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পাগলের মত কথা বলে তো পাগল বলতে হয় মুশফিক একজন আদর্শমান খেলোয়ড় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সয়তান সুচি কে পুড়িয়ে ফেলা হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যে নিষ্ঠুর সে তো নীরব থাকবেই।এখন সে একজন ডাইনী। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দেখতেইতু বুরা জুললা বানরের মত পশম হিন কুকুরের মত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফাজিলের বাচ্চার হুগাই বাশ দিতে হবে।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির নোবেল পুরুস কার বাতিল চাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শালি কে গন ধষণ করা দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আং সান সুচি ডাইনি শয়তার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এর নোবেল পুরষ্কার কেড়ে নেওয়া হউক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই জানোয়ারের নোবেল শান্তি পুরস্কার কেড়ে নেওয়া উচিৎ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইউরোপের ফুটা মাল দিয়া মায়ানমারের ফুটা মাল কে ডলাডলি করা হইক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুধুমাত্র মানুষ নয় বিপদগ্রস্ত যে কোন প্রানীকে সাহায্য করা মানুষের নৈতিক দায়িত্ব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধন্যবাদ সাগর ভাইকে ।এই লম্পট মানুষকে কেউ চনন্দা করে না । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সেখানে একটা অনুস্ঠান করতে পারেন।এ জেলার লোক অনেক সাংস্কৃতি প্রিয়।আপনার জাগাটা ভাল লাগবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওমান প্রবাসি ভাইদের জন্ন সু খবর যারা বিকাশ ফ্লেক্সী ডলার বাবসা করেন তারা রিয়াল এ লক্ষ টাকা বিকাশ অথবা ফ্লেক্সি ডলার পেমেন্ট সেম সিস্টেম পেমেন্ট শুধু মাস্কাট বাংক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খুব ভালো লাগলো শুনে। তবে হ্যাঁ এই পানির টাংকি যেনো খমতা দখল করতে না পারে তাহলে সেই পানির চৌতে সকল মুসলমান দের কে ভাসিয়ে নিয়ে যেতে পারে </t>
   </si>
 </sst>
 </file>
@@ -694,7 +1840,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -702,42 +1848,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1034,23 +2173,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A585" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A596" sqref="A596:B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1058,15 +2197,15 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="117.6" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1074,7 +2213,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1082,7 +2221,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1090,7 +2229,7 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1098,7 +2237,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1106,7 +2245,7 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1114,7 +2253,7 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1122,7 +2261,7 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1130,7 +2269,7 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1138,7 +2277,7 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1146,15 +2285,15 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="86.4">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1162,15 +2301,15 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="86.4">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1178,15 +2317,15 @@
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.8">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1194,7 +2333,7 @@
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1202,7 +2341,7 @@
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1210,7 +2349,7 @@
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1218,7 +2357,7 @@
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1226,15 +2365,15 @@
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="100.8">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1242,15 +2381,15 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="100.8">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="86.4">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1258,7 +2397,7 @@
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1266,7 +2405,7 @@
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1274,7 +2413,7 @@
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1282,15 +2421,15 @@
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="86.4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1298,15 +2437,15 @@
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="129.6">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1314,7 +2453,7 @@
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1322,7 +2461,7 @@
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1330,7 +2469,7 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1338,7 +2477,7 @@
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1346,15 +2485,15 @@
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="72">
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="57.6">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1362,7 +2501,7 @@
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1370,7 +2509,7 @@
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1378,7 +2517,7 @@
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1386,7 +2525,7 @@
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1394,7 +2533,7 @@
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1402,7 +2541,7 @@
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1410,7 +2549,7 @@
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1418,23 +2557,23 @@
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="144">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="129.6">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1442,7 +2581,7 @@
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1450,23 +2589,23 @@
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="28.8">
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="100.8">
-      <c r="A53" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="86.4">
+      <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1474,7 +2613,7 @@
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1482,7 +2621,7 @@
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1490,7 +2629,7 @@
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1498,7 +2637,7 @@
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1506,7 +2645,7 @@
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1514,7 +2653,7 @@
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1522,7 +2661,7 @@
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1530,15 +2669,15 @@
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="86.4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1546,7 +2685,7 @@
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1554,7 +2693,7 @@
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1562,7 +2701,7 @@
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1570,7 +2709,7 @@
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1578,7 +2717,7 @@
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1586,15 +2725,15 @@
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="72">
+      <c r="B68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="57.6">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1602,7 +2741,7 @@
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1610,7 +2749,7 @@
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1618,7 +2757,7 @@
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1626,7 +2765,7 @@
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1634,7 +2773,7 @@
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1642,7 +2781,7 @@
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1650,7 +2789,7 @@
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1658,7 +2797,7 @@
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1666,7 +2805,7 @@
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1674,7 +2813,7 @@
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1682,15 +2821,15 @@
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="86.4">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1698,7 +2837,7 @@
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1706,7 +2845,7 @@
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1714,7 +2853,7 @@
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1722,7 +2861,7 @@
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1730,7 +2869,7 @@
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1738,7 +2877,7 @@
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1746,7 +2885,7 @@
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1754,7 +2893,7 @@
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1762,7 +2901,7 @@
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1770,7 +2909,7 @@
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1778,15 +2917,15 @@
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="43.2">
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="28.8">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1794,7 +2933,7 @@
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1802,7 +2941,7 @@
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1810,7 +2949,7 @@
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1818,7 +2957,7 @@
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1826,7 +2965,7 @@
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1834,7 +2973,7 @@
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1842,7 +2981,7 @@
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1850,7 +2989,7 @@
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1858,7 +2997,7 @@
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1866,7 +3005,7 @@
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1874,7 +3013,7 @@
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1882,7 +3021,7 @@
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1890,7 +3029,7 @@
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1898,7 +3037,7 @@
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1906,7 +3045,7 @@
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1914,7 +3053,7 @@
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1922,7 +3061,7 @@
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1930,7 +3069,7 @@
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1938,7 +3077,7 @@
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1946,7 +3085,7 @@
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1954,15 +3093,15 @@
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="57.6">
+      <c r="B114" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="43.2">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1970,7 +3109,7 @@
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1978,15 +3117,15 @@
       <c r="A117" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="28.8">
+      <c r="B117" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1994,7 +3133,7 @@
       <c r="A119" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2002,7 +3141,7 @@
       <c r="A120" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2010,7 +3149,7 @@
       <c r="A121" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2018,7 +3157,7 @@
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2026,7 +3165,7 @@
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2034,15 +3173,15 @@
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="158.4">
-      <c r="A125" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="144">
+      <c r="A125" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2050,15 +3189,15 @@
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="86.4">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2066,7 +3205,7 @@
       <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2074,7 +3213,7 @@
       <c r="A129" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2082,7 +3221,7 @@
       <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2090,7 +3229,7 @@
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2098,7 +3237,7 @@
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2106,7 +3245,7 @@
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2114,7 +3253,7 @@
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2122,7 +3261,7 @@
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2130,7 +3269,7 @@
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2138,7 +3277,7 @@
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2146,7 +3285,7 @@
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2154,7 +3293,7 @@
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2162,15 +3301,15 @@
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="43.2">
+      <c r="B140" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="28.8">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2178,7 +3317,7 @@
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2186,7 +3325,7 @@
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2194,7 +3333,7 @@
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2202,7 +3341,7 @@
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2210,7 +3349,7 @@
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2218,7 +3357,7 @@
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2226,7 +3365,7 @@
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2234,7 +3373,7 @@
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2242,7 +3381,7 @@
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2250,7 +3389,7 @@
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2258,7 +3397,7 @@
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2266,7 +3405,7 @@
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2274,7 +3413,7 @@
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2282,7 +3421,7 @@
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2290,7 +3429,7 @@
       <c r="A156" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2298,15 +3437,15 @@
       <c r="A157" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="16.8">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2314,7 +3453,7 @@
       <c r="A159" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2322,7 +3461,7 @@
       <c r="A160" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2330,7 +3469,7 @@
       <c r="A161" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2338,7 +3477,7 @@
       <c r="A162" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2346,23 +3485,23 @@
       <c r="A163" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2370,15 +3509,15 @@
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="16.8">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2386,15 +3525,15 @@
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="129.6">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2402,7 +3541,7 @@
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2410,15 +3549,15 @@
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="72">
+      <c r="B171" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="57.6">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2426,7 +3565,7 @@
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2434,7 +3573,7 @@
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2442,7 +3581,7 @@
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2450,23 +3589,23 @@
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="28.8">
+      <c r="B176" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="28.8">
+      <c r="B177" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2474,7 +3613,7 @@
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2482,7 +3621,7 @@
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2490,15 +3629,15 @@
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="43.2">
+      <c r="B181" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="28.8">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2506,7 +3645,7 @@
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2514,7 +3653,7 @@
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2522,7 +3661,7 @@
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2530,7 +3669,7 @@
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2538,15 +3677,15 @@
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B187" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="158.4">
-      <c r="A188" s="2" t="s">
+      <c r="B187" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="144">
+      <c r="A188" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2554,7 +3693,7 @@
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2562,7 +3701,7 @@
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2570,15 +3709,15 @@
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B191" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="158.4">
-      <c r="A192" s="2" t="s">
+      <c r="B191" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="144">
+      <c r="A192" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2586,7 +3725,7 @@
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2594,7 +3733,7 @@
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2602,7 +3741,7 @@
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2610,7 +3749,7 @@
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2618,7 +3757,7 @@
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2626,63 +3765,63 @@
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B201" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="28.8" thickBot="1">
-      <c r="A202" s="6" t="s">
+      <c r="B201" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="28.2">
+      <c r="A202" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B202" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="15" thickBot="1">
-      <c r="A203" s="7" t="s">
+      <c r="B202" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="28.2">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2690,7 +3829,7 @@
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2698,7 +3837,7 @@
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2706,7 +3845,7 @@
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2714,7 +3853,7 @@
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2722,7 +3861,7 @@
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2730,7 +3869,3119 @@
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="57.6">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="43.2">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="57.6">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="43.2">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="43.2">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="28.8">
+      <c r="A217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="57.6">
+      <c r="A218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="28.8">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="28.8">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="28.8">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="43.2">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="72">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="28.8">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="43.2">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="43.2">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="28.8">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="28.8">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="28.8">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="43.2">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="57.6">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="28.8">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="57.6">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="28.8">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="28.8">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="28.8">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="28.8">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="72">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="28.8">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="28.8">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="28.8">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="86.4">
+      <c r="A258" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="43.2">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="43.2">
+      <c r="A260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="43.2">
+      <c r="A261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="28.8">
+      <c r="A266" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="57.6">
+      <c r="A268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="28.8">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="100.8">
+      <c r="A271" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="28.8">
+      <c r="A272" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="72">
+      <c r="A273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="86.4">
+      <c r="A275" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="28.8">
+      <c r="A276" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="43.2">
+      <c r="A278" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="28.8">
+      <c r="A280" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="86.4">
+      <c r="A281" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="144">
+      <c r="A282" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="144">
+      <c r="A284" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="28.8">
+      <c r="A285" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="28.8">
+      <c r="A290" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="57.6">
+      <c r="A291" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="57.6">
+      <c r="A292" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="28.8">
+      <c r="A293" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="43.2">
+      <c r="A294" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="43.2">
+      <c r="A295" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="28.8">
+      <c r="A301" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="28.8">
+      <c r="A304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="72">
+      <c r="A305" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="100.8">
+      <c r="A306" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="28.8">
+      <c r="A307" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="43.2">
+      <c r="A311" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="43.2">
+      <c r="A312" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="57.6">
+      <c r="A313" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="28.8">
+      <c r="A315" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="28.8">
+      <c r="A316" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="28.8">
+      <c r="A317" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="43.2">
+      <c r="A319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="100.8">
+      <c r="A320" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="43.2">
+      <c r="A322" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="28.8">
+      <c r="A323" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="57.6">
+      <c r="A324" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="28.8">
+      <c r="A325" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="28.8">
+      <c r="A327" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="28.8">
+      <c r="A331" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="28.8">
+      <c r="A332" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="28.8">
+      <c r="A334" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="28.8">
+      <c r="A336" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="57.6">
+      <c r="A338" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="43.2">
+      <c r="A339" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="28.8">
+      <c r="A341" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="28.8">
+      <c r="A343" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="144">
+      <c r="A344" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="43.2">
+      <c r="A346" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="28.8">
+      <c r="A350" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="28.8">
+      <c r="A354" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="144">
+      <c r="A356" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="28.8">
+      <c r="A357" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="43.2">
+      <c r="A358" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="86.4">
+      <c r="A359" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="72">
+      <c r="A360" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="28.8">
+      <c r="A362" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="43.2">
+      <c r="A364" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="28.8">
+      <c r="A365" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="72">
+      <c r="A371" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="57.6">
+      <c r="A372" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="86.4">
+      <c r="A373" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="72">
+      <c r="A374" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="28.8">
+      <c r="A375" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="28.8">
+      <c r="A376" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="43.2">
+      <c r="A377" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="28.8">
+      <c r="A378" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="28.8">
+      <c r="A379" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="28.8">
+      <c r="A380" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="28.8">
+      <c r="A382" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="72">
+      <c r="A383" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="43.2">
+      <c r="A385" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="43.2">
+      <c r="A386" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="28.8">
+      <c r="A387" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="43.2">
+      <c r="A388" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="28.8">
+      <c r="A389" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="28.8">
+      <c r="A390" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="28.8">
+      <c r="A391" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="43.2">
+      <c r="A392" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="28.8">
+      <c r="A393" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="72">
+      <c r="A394" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="57.6">
+      <c r="A395" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="57.6">
+      <c r="A396" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="43.2">
+      <c r="A397" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="57.6">
+      <c r="A398" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="28.8">
+      <c r="A400" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="72">
+      <c r="A402" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="43.2">
+      <c r="A406" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="28.8">
+      <c r="A407" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="28.8">
+      <c r="A409" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="86.4">
+      <c r="A410" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="43.2">
+      <c r="A411" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="28.8">
+      <c r="A413" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="43.2">
+      <c r="A414" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="28.8">
+      <c r="A415" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="28.8">
+      <c r="A416" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="28.8">
+      <c r="A417" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="28.8">
+      <c r="A418" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="43.2">
+      <c r="A419" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="28.8">
+      <c r="A420" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="28.8">
+      <c r="A421" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="28.8">
+      <c r="A422" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="28.8">
+      <c r="A423" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="86.4">
+      <c r="A425" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="28.8">
+      <c r="A426" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="28.8">
+      <c r="A427" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="28.8">
+      <c r="A431" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="43.2">
+      <c r="A432" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="57.6">
+      <c r="A433" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="86.4">
+      <c r="A434" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="28.8">
+      <c r="A435" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="28.8">
+      <c r="A437" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="28.8">
+      <c r="A438" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="57.6">
+      <c r="A439" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="28.8">
+      <c r="A440" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="28.8">
+      <c r="A441" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="43.2">
+      <c r="A442" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="28.8">
+      <c r="A443" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="28.8">
+      <c r="A444" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="43.2">
+      <c r="A445" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="28.8">
+      <c r="A448" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="28.8">
+      <c r="A449" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="43.2">
+      <c r="A451" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="28.8">
+      <c r="A452" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="43.2">
+      <c r="A454" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="72">
+      <c r="A455" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="43.2">
+      <c r="A456" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="72">
+      <c r="A457" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="86.4">
+      <c r="A459" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="28.8">
+      <c r="A460" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="28.8">
+      <c r="A461" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="28.8">
+      <c r="A462" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="28.8">
+      <c r="A464" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="100.8">
+      <c r="A466" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="129.6">
+      <c r="A469" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="43.2">
+      <c r="A471" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="28.8">
+      <c r="A472" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="43.2">
+      <c r="A474" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="28.8">
+      <c r="A475" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="28.8">
+      <c r="A478" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="28.8">
+      <c r="A479" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="28.8">
+      <c r="A480" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="28.8">
+      <c r="A482" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="28.8">
+      <c r="A483" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="28.8">
+      <c r="A485" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="43.2">
+      <c r="A486" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="28.8">
+      <c r="A488" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="28.8">
+      <c r="A489" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="28.8">
+      <c r="A491" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="57.6">
+      <c r="A495" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="28.8">
+      <c r="A502" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="28.8">
+      <c r="A508" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="28.8">
+      <c r="A514" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="43.2">
+      <c r="A522" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="57.6">
+      <c r="A524" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="28.8">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="28.8">
+      <c r="A528" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="31.8" customHeight="1">
+      <c r="A530" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="28.8">
+      <c r="A537" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="28.8">
+      <c r="A544" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="28.8">
+      <c r="A548" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="28.8">
+      <c r="A553" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B555" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B556" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B557" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B558" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="28.8">
+      <c r="A559" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B559" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B560" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B561" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="28.8">
+      <c r="A562" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B562" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B563" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B564" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B565" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="28.8">
+      <c r="A566" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B566" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B568" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B569" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="28.8">
+      <c r="A570" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B570" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B571" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B572" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B573" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B574" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B575" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B576" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="28.8">
+      <c r="A577" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B577" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="28.8">
+      <c r="A578" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B578" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B579" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="28.8">
+      <c r="A580" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B580" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B581" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="86.4">
+      <c r="A582" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B582" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B583" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B584" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="28.8">
+      <c r="A585" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B585" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B586" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B587" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B588" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B589" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B590" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B591" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B592" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B593" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B594" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="28.8">
+      <c r="A595" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B595" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="28.8">
+      <c r="A596" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B596" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="28.8">
+      <c r="A597" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B597" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="28.8">
+      <c r="A598" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B598" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="43.2">
+      <c r="A599" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B599" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="43.2">
+      <c r="A600" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B600" s="10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/bengali_sentiment.xlsx
+++ b/bengali_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1209">
   <si>
     <t>Statement</t>
   </si>
@@ -1799,13 +1799,1874 @@
   </si>
   <si>
     <t xml:space="preserve"> খুব ভালো লাগলো শুনে। তবে হ্যাঁ এই পানির টাংকি যেনো খমতা দখল করতে না পারে তাহলে সেই পানির চৌতে সকল মুসলমান দের কে ভাসিয়ে নিয়ে যেতে পারে </t>
+  </si>
+  <si>
+    <t>দিদি ভাবে এগুলো মানুষ খাচ্ছে। দিদি এটা জানেনা ওনার খেলায় সবাই হাসছে।</t>
+  </si>
+  <si>
+    <t>কত অশিক্ষিত লোকে গত দশটা বছর ভোরে গেল আমাদের শহরটা ..... এদের বার করে দিতে হবে ঘার ধরে৷</t>
+  </si>
+  <si>
+    <t>বেচারা ববি কাকুকে কতটা হাঁটতে হল হেলমেট পরে</t>
+  </si>
+  <si>
+    <t>আশেপাশে আব বাঁশ দা নাই তো</t>
+  </si>
+  <si>
+    <t>গান্ডুরা কেন গাঁজা খায়? </t>
+  </si>
+  <si>
+    <t>আর দাদা, রক্ত মাখা ভাত এর আলোচনা?</t>
+  </si>
+  <si>
+    <t>ফাটিয়ে দিয়েছো</t>
+  </si>
+  <si>
+    <t>ওসব বলতে নেই..চাকরি করলে উন্নয়ন বন্ধ হয়ে যাবে ।  ফ্রি তে ওই টাকায় চাল ডাল দেবে..কিছু মানুষ সেটা পেয়ে দারুন খুশি । নিজের পায়ে ওয়েস্ট বেঙ্গল এর মানুষ নিজেই কুড়াল মারছে ।</t>
+  </si>
+  <si>
+    <t>দিদিকে দেখি তাই এখন আর মীরাক্কেল দেখতে হয় না।</t>
+  </si>
+  <si>
+    <t>সবুজ সাথী এস এসসি প্রকল্প</t>
+  </si>
+  <si>
+    <t>জঘন্য চালিয়েছেন </t>
+  </si>
+  <si>
+    <t>এটা সেরা ছিলো</t>
+  </si>
+  <si>
+    <t>আর ছোলা মুড়ি ভালো লাগছিলো না, দিদির এখন বিরিয়ানি চাই.</t>
+  </si>
+  <si>
+    <t>লাল এর থেকে সবুজে লাভ বেশি তাই সেয়ানা দি লোভ সামলাতে পারলেন না</t>
+  </si>
+  <si>
+    <t>খুব সুন্দর দাদা</t>
+  </si>
+  <si>
+    <t>হাসি মনের মানুষ দুইজন</t>
+  </si>
+  <si>
+    <t>একশো পার্সেন্ট ঠিক</t>
+  </si>
+  <si>
+    <t>একদম ঠিকঠাক</t>
+  </si>
+  <si>
+    <t>আমার প্রিয় একজন মানুষ। দারুণ লাগছে।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">মুছে যেতে শুরু করলো অভিযোগ সকাল নির্ভুল, সকাল নির্ভুল </t>
+  </si>
+  <si>
+    <t>অসাধারণ ছবিটা! ভালো থেকো।</t>
+  </si>
+  <si>
+    <t>বাম জমি তো দূরবীন দিয়ে দেখতে হয়</t>
+  </si>
+  <si>
+    <t>কিছুদিন পর আবার তাতে পদ্ম ফুল ফুটবে।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">একটা কথায় অনেক কিছু বুঝিয়ে দিলে গুরুদেব!! </t>
+  </si>
+  <si>
+    <t>হাঁড়ি খুললেই ভালবাসা!</t>
+  </si>
+  <si>
+    <t>তোমার মুখে হাসি ই ভালো লাগে ভালো থাক</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই অমানুষটাকে আবার শান্তিতে নোবেল দিছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই মহিলা কে গুলি করে মারা হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অংসান সূচি মুখে প্রস্রাব করি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পতিতার কথা কি আর বলব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই জননে মাগি নোবেল পাইছে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাগিরে দেখতে একটা ডাইনির মতো লাগে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির উপর আল্লার গজব পরক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই নিষ্ঠুরতা মেনে নেওয়া যায় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এটা একটা বেশ্বা মাগীর ছবি দেখতে একদম শুওয়ারের মতো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ও একটা বেশ্যার ঘরে জন্ম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষ হয়ে জন্ম নিলি মানুষ হতে পারলি না হয়ে গেলি অমানুষ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বৌদ্ধদের দেখেছি জ্যান্ত মানুষ পুড়িয়ে কাষ্ঠে ভরে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আলফ্রেড নোবেল বেঁচে থাকলে নির্ঘাত আত্মহত্যা করতেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সবার মাজখাননে দাড়াইয়া গাল মাইপা জোরে টা থাপ্পর দিলে আমার মনেহয় ভালো হইত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জুতা পিটা করা হোক এই শালার বেটিকে শালার বেটি আবার নাকি নোবেলটা না দিয়ে জুতা মালা দেওয়া হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পৃথিবী হারালো নিপীড়িত মানুষের একটি প্রতিবাদী বিপ্লবী কন্ঠস্বর।তোমার চলে যাবার দিনে তোমাকে গভীর শ্রদ্ধায় সরণ করছি।ফিদেল কাস্ত্রো ছিলেন নির্যাতিত মুসলমানদের জন্য সোচ্চার এক কণ্ঠস্বর। তিনি ইরাক আফগানিস্তান ফিলিস্তিনসহ সারা বিশ্বের নিপীড়িত মুসলমানদের লড়াইকে সমর্থন করেছেন। মার্কিন সাম্রাজ্যবাদের নেতৃত্বে বিশ্বব্যাপী মুসলিম হত্যার ওয়ার অন টেররের বিরুদ্ধেও সরব ছিলেন কিউবার এই মহান নেতা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওগো আল্লাহ দয়া করে মায়ানমারের মুসলমানদের সহ সারা বিশ্বের মুসলমানদের তুমি হেফাজত করো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বস মেসিই ব্যালন ডি অর জিতবে ইনশাআল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইংল্যান্ডকে রানে হারালো বাংলাদেশ। সিরিজে সমতায় ফিরলো টাইগাররা। মিরপুরে ইংল্যান্ডের বিপক্ষে প্রথম জয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদেরকে আশ্রয় দেয়া হক যেন তারা সুরক্ষিত থাকে অল্প দিনের জন্ন।আবার পিরে যাবে তারা আসুন আমরা সবাই মিলে আশ্রয় দেই তাদের। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারত বরাবর ই দারুন খেলে ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বস পাঁচ উইকেট চাই অনেক শুভ কামনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আল্লাহ আমা দের সহজ স </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনারা এই খবর গুলা বড় আকারে প্রচার করুন খুব খুশি হব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শিয়া ও সুন্নীদের জন্য আলাদা আলাদা রাস্ট্র গঠন করে দেওয়া উচিত তাহলে শিয়া সুন্নি সন্ত্রাস থামবে। আইএসের জন্যও আলাদা রাস্ট্র বা জায়গা দেওয়া উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই খানকী মাগীরে যদি পুড়ায়া মারা যাইতো তাইলে ওর ন্যায্য বিচার হইতো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শালীর নির্দেশে এগুলো হচ্ছে চুপতো থাকবে। ওরে মাইরে ফালি ফালি করা দরকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এ কাট বারানী সুচী না মুচি তোর ফুদ্দি মারি সালি তুই এখন চুপ কেন বারানী </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নোবেল মেডেল টা নিয়ে অকে জুতার মালা দেয়া উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সেতো নিজেই আদেশ দিয়েছে রোহিঙ্গাদের খুন করার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই হারামজাদি একটা সয়তান ওকে লাথি মারা দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওই সালি বেটিকে কুকুরের মত পেটানো দরকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই খানকির বাচ্ছাটা জেলে থাকুক? ডাইনী </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কুকুরের বাচ্ছার আবার দয়া মায়া হয় নাকি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সু চি কে গনধর্ষণ করে পুড়িয়ে মারা উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অং সাং সুচির মত নিষ্ঠুর ও অপদার্থরাই নোবেল শান্তি পুরুষ্কারলে মুল্যহীন করে ফেলেছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফকিনীর বাচছার এর মত না লাগে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুরলমানদেরকে বৌদ্বরা যেভাবে ধর্ষণ ও পুরিয়ে হত্যা করছে জারজ ওদেরকেও সেভাবে করা উচিত তাহলে ওরা বুঝতো ধর্ষণ আর পুরিয়ে হত্যা কি জিনিষ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তার চেহারা ভাই একবারে কুকুরের মত।। এই কাফেরের মানুস মারে।।সেই কি বুজে আল্লাহ তাকে কোনদিন ছাড়বেনা।। হালা শুহুরের বাচছা কুকুরের চোদা অয়মানুসের বাচছা গাদার বাচছা।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আসলে সুচির কিছুই করার নেই সুচি কোন রাষ্ট্র প্রধান নয় সে হল মায়নামার সেনাবাহিনীর বউ একটু উলটাপালটা বললে কালই তালাক দিয়ে জেলে পাঠিয়ে দিবে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve">অত্যাচার নিপীড়ন যার পর নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve">প্রতিবাদী হতে গেলে ঘর নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve">নারীদের ইজ্জ্বত আব্রু অবশিষ্ট নাই।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অনেক দিন বাশ খায়নি তাই এরকম করছে সবাই মিলে ওকে একটা মোটাসোটা বাশ দিলে ঠিক হয়ে যাবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ওদের ধরমাল ঠিক থাকে। আমি লজজা বুধ করি আমার এবং আমার সমসত চুপ থাকা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মাশরাফির পর এত আবেগ আর ভালবাসার ক্রিকেটার হিসেবে নাসিরের স্হান । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আজকের চাঁদ এতটাই সুন্দর যে বললে কম হয়ে যাবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুপার খেলয়ার ও একজন ভালো মানুষও বটে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাষা দিয়ে বুঝাতে পারবো না বস শান্তি ঘুম আসবে আজ। দুই দিন ঘুমাতে পারিনি ধন্যবাদ টিম টাইগার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আসলেই ভারতীওরা ব্যাপক বিনোদন দেয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আললাহ তুমি মুসলমানদের হেফাজত করোঃ আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সৌদি থেকে আরিফ আপু তুমি আমার অনেক প্রিয়ো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাল কিছু করতে পারবে পাকিস্তন মনে হয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শাকিবুল হাছান তুমিধনী মানষ তাই লাইক দিলাম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মায়ানমার ইসুতে সরকারকে কড়া পদক্ষেপ নেয়া দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঠান্ডা মাথায় খেলা অত্যন্ত জরুরি আপনার জন্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদের পাশে মানবিক আচারন করা উচিত ।রোহিঙ্গাদের যেকোন ভাবে তাদের পাশে মানবিক আচারন করার যে ভাবে ভারতের প্রধানমন্ত্রী আমাদের পাশে চিলেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রিয় বিকাশ লিমিটেড আপনারা এই সেবা প্রদান করার জন্য প্রথমে সুভেচ্ছা ও অভিন্দন যানাই আসলে দির্ঘদিন ধরে আপনারা আমাদের শেবা প্রদান করে আসছেন এর জন্য অবশ্যই উপকৃত হচ্ছি সেবাটা আসলে আমার অনেক উপকৃত করছে কিন্তু হটাত করে আমার নাম্বারে বন্ধ করে দেয়া হই এর জন্য আমি আপনাদের এ যাই কিন্তু আমার একটা হই আমার আই ডি কার্ডটি হারিয়ে গেছে এর জন্য সমস্যা টা সমাধান করতে পারিনাই কিন্ত আমার শঠিক আইডি কাডের ফটো কফি আছে এখোন আমি কি করতে পারি অবষ্য আমার অন্য কোন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খাদিজা এখন পুরপুরি সুস্থ ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাল হয়েছে পৌছেছেন।এবার অন্তত রোহিঙ্গাদের ব্যাপারে তাদের কিছুটা আলোচনা করুন।কিভাবে তাদের মুক্ত করা যায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপুকে ধন্যবাদ দিই সুন্দর চিন্তার জন্য।কিন্তু তারপরেও তারাই তাদের কাছে ভালো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাড় জিত নিয়ে তো খেলা। আমরা ভালো খেলে হেড়েছি।হয়তো আমাদের জন্য ভালো কিছু অপেক্ষা করছে।ধন্যবাদ মাশরাফি বাহিনী এগিয়ে যাও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">খুব বেশি ভালো লাগে যা বলে বুঝানো সম্ভব নয়।।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অন্যের উপর ভরসা করে না থেকে নিজে প্ররিশ্রম করে খাওয়াটায় সবচেয়ে ভাল </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আল্লাহ তুমি আছো এবং দেখছো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ থেকে আদি বাশি দের মায়ানমার এ তাড়িয়ে।। রোহিঙ্গা দের কে জায়গা দেওয়া হোক।।।।। একমত হলে লাইক হবে।।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার অন্তরস্থল থেকে ইংল্যান্ডকে ধন্যবাদ জানাই। ওরা না আসলে আমরা এত জমজমাট ক্রিকেট দেখতে পারতাম না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">পারবো আবার গোনাহও করতে পারবো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পবিএ আল কোরআনে বলা হয়েছে এক মুসলমান অপর মুসলমান পরস্পর ভাই ভাই তাই পবিত্র আল কোরআন ও ভাইয়ের মর্যাদা রাখতে রোহিঙ্গা দের আশ্রয় দেয়া হোক।।।।। </t>
+  </si>
+  <si>
+    <t>অযত্নে রাখা প্রেম একদিন বিষ হয়ে ওঠা একান্তের তাই সব নিখোঁজের হয়না বিজ্ঞাপন হয়ে যায়</t>
+  </si>
+  <si>
+    <t>একঘর -- ভালো লাগলো ।</t>
+  </si>
+  <si>
+    <t>চুমু লাচ হইছে, এই শীতে একটু রাম না পড়লে এরম লাচ বেরোবেক লাই।</t>
+  </si>
+  <si>
+    <t>খুব জ্বলে না কেউ নিজে কিছু করলে?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই বর্বরতার বিরুদ্ধে কথা বলুন দ্রুত ব্যবস্থা গ্রহণ করুন । মুসলিম নেতার দায়িত্ব পালন করুন । সারা বাংলাদেশ আপনাদের পাশে থাকবে ইনশাআল্লাহ । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদের কে অাশ্রয় দেওয়া হওক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা ও তাদের স্যালুট তাদের যারা আমাদের এই গৌরব এনে দিয়েছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আললাহ তুমি এই অসহায় মানুষ গুলুর পাশে দারাও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমার হতাশা অপেক্ষা তোমার রহমত বহু </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> স্বাগতম আসুন আমরা পরশ পরকে ভাল বাসি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চিনার বদ লে এর উপর জোর দি লে ভাল হয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুমি ভাল করে বল কর দেখবা কাজ হয়ে যাবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এক মাহানায়ক এর বিদায় হলো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">পরিচয়সুখ্যাতী বহন করে মানুষ তার নিজ কর্ম দ্বারা।যে ভাল গুন ফিদেলের খুব ভাল ভাবেই ছিল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমেরিকা যাদের উপর খুশি হয়ে নোবেল প্রাইজ দেয়ার জন্য লবিং করে তারা প্রত্যেকেই নিজ নিজ দেশে একেকটা মানুষ রুপি শয়তান । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নিষ্ঠুর নীরবতায় অং সান সু চি সঠিক হেডিং নয়। সঠিক হলঃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">প্রথম আলোর ভাষা জ্ঞান কম তা বলছি না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এক মাএ আল্লাহর ভয় নাথাকলে। দুনিয়ার কোনো নোবেল কোন পুরস্কার কোন কিছু এই তাকে ভাল করতে পারবে না। সে তো একজন বিধরমি। সে কখননো মুসলমানদের ভাল চাইবে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অসভ্য মহিলা ও কি করে নোবেল পায় যার ভেতরে এত বিষ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মায়ানমারের মুসলমানরা রোহিঙগা আজ জীবন মৃত্যুর মুখোমুখি দাঁড়িয়ে সে দেশের সেনাবাহিনী হি ংস্র জানোয়ারের মতো মুসলমান নিধনের নামে যে গণহত্যা চালাচ্ছে তাতে তারা হয়তো শেষ রক্ষা পাবে না। তাদের কাছ থেকে মনে হয় আল্লাহ্ ও মুখ ফিরিয়ে নিয়েছেন তাহলে কেন আজ একটু বাঁচার আসায় নিজের মাতৃভূমির ভিটেমাটির মায়া ছেড়ে আমাদের সীমান্তে এসেও ফেরত যাচ্ছে। আমাদের পররাষ্ট্রনীতি অনুযায়ী সীমান্তে এরকম অনুপ্রবেশ বেআইনি তাই আমাদের সীমান্ত রক্ষা বাহিনীর এমন সতর্ক অবস্থান কিন্তু কষ্টটা তখনই লাগে যখন টিভিতে দেখি লাখ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আসুন সবায় মিলে ওকে জুতা মারি ওর মুখে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> লেসবিয়ান শালী এক জোড়া জুতা পাওয়ার যোগ্যতা ও রাখে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সূচির কথার কোন মূল্য নাই। কারন মায়ানমার দেশের ক্ষমতার মূলে হল সেনাবাহিনী। এখানে তাদের সিদ্ধান্তই শেষ কথা। আর রোহিঙ্গা সমস্যার সমাধান বর্ডার ওপেন করে করা যাবেনা। আর এইদিকে বর্ডার ওপেন করলে প্রায় দশ লাখ রোহিঙ্গা বর্ডার পার হয়ে এ দেশে আসবে। যার মূল চাপটা পরবে চট্টগ্রাম কক্সবাজারের উপর্। চট্টগ্রামের মানুষ কি সেই চাপ নিতে রাজি আছেন? মনে হয়না। কারণ দেশে এখন লাখ রোহিঙ্গা আছে যাদের বেশীরভাগই অপরাধ জগতের সাথে জড়িত। তারা দেশেও ফিরবে না। এরপর যদি আরো লাখ যোগ হয় ব্যাপারটা কি হবে ভাবছেন। দুর্ভোগ ট </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওকে জুতা মারার জন্য টাকা হাজিরার শ্রমিক দরকার আমার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনার মন্তব্যের জন্য ধন্যবাদ আমরা আমাদের অফারসার্ভিস গুলো গ্রাহকদের চাহিদা মতামত মার্কেট রিসার্চের মাধ্যমে তৈরী করে থাকি। আর হ্যা আমরা আপনার এই মতামতটিও অবশ্যই গুরুত্ত্ব সহকারে বিবেচনা করবো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যখন মানুষ ছিলি তখন ক্রিকেট নাম্বার ওয়ান হয়েছিলি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাহসান আমার িপ্রয় একজন মানুষ তার নাটক গান অনেক ভাল লাগে আমার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশে হেলথ কেয়ার চালু করার উদ্ধেশ্যের জন্য ওবামাকে ধন্যবাদ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জাগো বাঙ্গালি জাগো মাইয়া নিয়া ভাগো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কিউট বেবি আলায়না । লাভ ইউ আলায়নাআব্রি । লাভ ইউ সাকিব আল হাসান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রেসিডেন্ট দেখে বুঝা যায় মার্কিন জনগণ কি রকম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইউরোপিয়ান দেশগুলোকে পিছে ফেলে তুরস্ক ঈর্ষনীয়ভাবে এগিয়ে যাচ্ছে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অালাইনা হাজার বছর বেচে থাক তোর বাবার মত দেশের নাম উজ্জ্বল করবি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার মতে অস্থায়ী কোন ক্যাম্প করে তাদের থাকার ব্যাবস্থা করে এর সমাধানের জন্য জাতিসংঘে জরুরী প্রস্তাব করা উচিৎ বাংলাদেশর। </t>
+  </si>
+  <si>
+    <t>ধুর বেহায়া,, দূরে গিয়ে মর</t>
+  </si>
+  <si>
+    <t>বিজেপি মানে copy পোস্ট........ যারা কথা বলতে জানে না...তারা ভাবছে বাংলা চালাবে..... ছিঃ ছিঃ বিজেপি...</t>
+  </si>
+  <si>
+    <t>ভূতের ভবিষ্যতের সময় আপনি ই সমালোচনা করেছিলেন তো?? নাকি তখন পা চাটার স্বাদ টা জানতেন না এখন নতুন শিখেছেন?</t>
+  </si>
+  <si>
+    <t>মমতা ঠাকুমাকে মোটর সাইকেল চালানোর অতি পারদর্শিতা দেখানোর জন্য ১/২কেজি একটা নোবেল দেওয়া হোক</t>
+  </si>
+  <si>
+    <t>মানুষ কত তাড়াতাড়ি পা চাটতে শিখে যায়</t>
+  </si>
+  <si>
+    <t>আপনার শিরদাঁড়া বেকা বলে সবাই কে আপনার মতন ভাবেন।</t>
+  </si>
+  <si>
+    <t>শায়নীর মাথায় কন্ডম দেখতে চাই।</t>
+  </si>
+  <si>
+    <t>যাহ শালা,,,,তাহলে কি বিজেপি, সিপিএম, কংগ্রেসের লোকের স্কুটি চালানো যাবেনা??? চালালেই পিসির কপি করা হবে????</t>
+  </si>
+  <si>
+    <t>মামণি - এখনও পোক্ত হও নি , আরেকটু সবুর করে দেখেশুনে মাঠে নামো</t>
+  </si>
+  <si>
+    <t>ভবিষ্যতের ভূত নিয়ে আপনার মুভমেন্ট মনে আছে আর এখন আপনার অভিনয় তাও ভালো লাগছে</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি মনে করি নোবেল কমিটি সব চাইতে বড় ভুল করেছে এই ফালতু মহিলা কে শান্তিতে নোবল পুরস্কার দিয়ে এই মহিলার কাছ থেকে নোবেল পুরস্কার নিয়ে নেওয়া হোক যারা মানবাধিকার বলে গলা ফাঁটায় সেই ফেরিওয়ালারা কই??নাকি মানবাধিকারের ফেরিওয়ালারা শুধু অমুসলিম দের জনৎ????? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষ ত নয় জেন একটা বান্দর কুকুরি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পৃথিবীতে মুসলিমদের মতএমন কোন বলদ জাতি নাই যারা নিজের জাতির জন্য সব ত্যাগ করে না। একমাত্র নামে মুসলিমরা অন্য জাতির করুনার পাত্র হয়ে নিজদেরকে গর্বিত মনে করে। সুতরাং সামনে আরো ভয়াবহ দিন আসবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাকে ঘোড়া দিয়ে মারা দেওয়া হোক। তাহলে নিরবতা ভাংবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যখন আমি সালে একটু করে পেপার পরতে শুরু করছিলাম তখন থেকে সুচি কে ভালো লাগতো।তিনি শান্তির জন্য অনেল কাজ করেছেন। অবেক ফ্যান রয়েছে তার।কিন্তু সাম্প্রতিক সময়ে তার এই নিরব থাকাটা আমার কাছে খুব খারাপ লাগলো।যিনি মানুষের শান্তির জন্য কাজ করলেন তিনি কেন আজ রোহিঙ্গা দের নিয়ে কোন কাজ করেন না।রোহিঙ্গা কি মানুষ নয় তার কাছে নাকি তিনি ক্ষমতার জন্য শুধু মাত্র ভালো হয়েছিলেন???? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমারতো মনে হয় আমেরিকার এজেন্ট আইএস কে কিছু দিন পর নোবেল দেয়া হবে। কারন তারাও মুসলমানদেরকে মারতাছে । সুচির নোবেল ফিরিয়ে নেয়া হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাগিরে পাইলে হিজলার কাছে দিয়া দিতাম যা করার করতো।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বালাদেশ সরকারের মুখে কনো কথা নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সু চি রে নোবেলটা কেড়ে নিয়ে জুতারমালা দেয়া উচিত </t>
+  </si>
+  <si>
+    <t xml:space="preserve">টানটান উত্তেজনা বিরাজ করছে মিয়ানমার বাংলাদেশ সীমান্তে । জোরদার করা হয়েছে নিরাপত্তা বাহিনীর সশস্ত্র টহল । নৌবাহিনীর টহল যানের আওয়াজে ঘুম ভেঙ্গে যাচ্ছে এলাকাবাসীর । যুদ্ধ যুদ্ধ ভাব বিরাজ করছে সীমান্তে । কোনভাবেই যেন তারা এই দেশে প্রবেশ করতে না পারে । টিভি গুলো নিয়মিত আপডেট দিচ্ছে । সাংবাদিকদের ঘন ঘন ব্রিফিং দিচ্ছে বিডিআর কমান্ডাররা । টিভির সামনে তারা গর্ব করেই বলছে আমরা কঠিন অবস্থানে আছি কোনভাবেই যেন তারা এই দেশে প্রবেশ করতে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দেশেনেএি বেগম খালেদা জিয়া আপনাকে অনেক ধন্যবাদ আপনি চালিয়ে জান এবং আমাদের কে চালিয়ে যাওয়ার সুযোগ দিন আমরা তো আপনার অপেখ্যা আছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আশা হারাচ্চি না ।আশা রাখবো আল্লাহর উপর ।কিন্তু সামনের ম্যাচ টাতে মোশারফ কে না নিয়ে নাসির খেললে ভালো হবে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এ পড়া যাদের স্বপ্ন তাঁরা এই গ্রুপে যোগ দিতে পারো আশা করি তোমরা অনেক উপকৃত হবে ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">উচিদ মায়ানমার নিয়ে জরুরি বৈঠক করে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব থাকলে সব সময় দল পাস তাকবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রমমত তাদেরকে আচরয় দেওয়া হোক।এবং বালাদেশে থাকা বদ্বের গাড় ধরে মায়ানমারে পাটিয়ে দেওয়া হোক। তারে পরে ঐ বদ্দের জায়াগায় পালিয়ে আসাদের দেওয়া ও বৈধকরে দেওয়া হোক। এরা একন বাঙ্গালী যা আসবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুন্দর মানিয়েছে পিতা ও কন্যাকে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খুব ভালো একটা প্যাক কিন্তু এতা দিন মেয়াদ না দিয়ে দিন দিলে খুব ভালো হতো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সু খবর সু খবর সু খবর সু খবর সু খবর সু খবর </t>
+  </si>
+  <si>
+    <t xml:space="preserve">রাত থেকে বসে আছি দেবো বলে সকলের যাত্রা হউক আনন্দ ময় শুভকামনা </t>
+  </si>
+  <si>
+    <t>মাথায় হেলমেট না পরে মাননীয়া কি ট্রাফিক আইন ভাঙছেন না?</t>
+  </si>
+  <si>
+    <t>দিদির সৈনিক হওয়ার জন্য. তোমাকে অনেক অনেক শুভেচ্ছা. </t>
+  </si>
+  <si>
+    <t>আপনার মায়ের কাছ থেকে নিজের ধর্ম সম্পর্কে কিছু জানুন</t>
+  </si>
+  <si>
+    <t>শিরদাঁড়া তো নয় যেন মাছের কাঁটা</t>
+  </si>
+  <si>
+    <t>ঘুমালে হবে না সামনে ভোট । জনগণের কথা ভাবুন।</t>
+  </si>
+  <si>
+    <t>রাজনৈতিক দিক বাদ দিলেও সায়নী ঘোষ পছন্দের</t>
+  </si>
+  <si>
+    <t>ভালোলাগা এক অভিনেত্রী ছিলেন... আপনিও স্রোতের অভিমুখে সাঁতার দিলেন!!</t>
+  </si>
+  <si>
+    <t>যেমন খুশি তেমন সাজো প্রতিযোগিতায় নিশ্চয়ই তুমি ফাস্ট হয়েছিলে কোনো সময়।</t>
+  </si>
+  <si>
+    <t>দিদি আপনার এই হাসির পেছনে শয়তান এর হাসি লুকিয়ে আছে </t>
+  </si>
+  <si>
+    <t>ঘরের মধ্যে কে কী পরে ঘুমোবে তা নিয়ে প্রশ্ন তোলাটা কি বাঙালিয়ানা?</t>
+  </si>
+  <si>
+    <t>চাল চোর আম্পানের টাকা চোর</t>
+  </si>
+  <si>
+    <t>ও এভাবে শুয়ে থাকেন বলেই শিরদাঁড়া বেঁকে গেছে । আমি ভাবতাম চার হাত পায়ে টানা দিয়ে ঘুমাতেন।</t>
+  </si>
+  <si>
+    <t>তোমার মা কত জন্মের পাপের ফল ভোগ করলো তোমায় জন্ম দিয়ে তা ভগবানই জানে।</t>
+  </si>
+  <si>
+    <t>এটা পৃথিবীর সব চেয়ে সুশীতল ও শান্তিময় জায়গা। তোমার মায়ের জন্য প্রণাম।</t>
+  </si>
+  <si>
+    <t>ঘুমালে হবে চটি চাটবেন কখন</t>
+  </si>
+  <si>
+    <t>মাকে নিয়ে পোস্ট করে ভাল হবার চেষ্টা</t>
+  </si>
+  <si>
+    <t>কিছু কুলাঙ্গার কিছু বাজে মানসিকতা নিয়ে কমেন্ট করেছে তোমাকে, তুমি ভয় পাবে না এগিয়ে যাও জয় বাংলা</t>
+  </si>
+  <si>
+    <t>ভালো চামড়ার জুতো আছে বাটা কম্পানির চাটলে বলবেন পাঠিয়ে দেবো</t>
+  </si>
+  <si>
+    <t>সুযোগ আসলে নিজের মায়ের মতো বাংলার মানুষকেও এভাবে আগলে রেখো। শুভকামনা রইল।</t>
+  </si>
+  <si>
+    <t>মা মেয়ের ভালোবাসা দেখে খুব ভালো লাগলো</t>
+  </si>
+  <si>
+    <t>রাজনীতি এতোটাই নোংড়া যে এখানেও টক্সিসিটি</t>
+  </si>
+  <si>
+    <t>এগিয়ে চলো আমরা তোমার সাথে</t>
+  </si>
+  <si>
+    <t>চোর জোচ্চোরদের দলে যারা যায় তারাও ব্যক্তি জীবনে সেরকমই মনোভাব নিয়ে চলে।</t>
+  </si>
+  <si>
+    <t>দিদি বাংলার যুবসমাজ তোমার পাশে আছে</t>
+  </si>
+  <si>
+    <t>দিদি আপনি তো সেদিন নন্দন চত্বরে পিসিমনির ছবির হর্ডিং থাকে বলে , বিক্ষোভ করেছিলেন না ? টা চাটতে কতো টাকা নিলেন</t>
+  </si>
+  <si>
+    <t>তো পুরো পাল্টি বাজী পলিটিক্স</t>
+  </si>
+  <si>
+    <t>দম বন্ধ হয়ে আসার অপেক্ষায় রইলাম।</t>
+  </si>
+  <si>
+    <t>যাই হোক আপনি যে একজন সুবিধাভোগী এটা প্রমান হল</t>
+  </si>
+  <si>
+    <t>মেরুদণ্ড না কি সব নিয়ে অনেক বড় বড় বাণী দিয়ে শেষে এই।</t>
+  </si>
+  <si>
+    <t>এত ঢঙ।। সেই তো কদিন পরেই নিজ মূর্তি ধারণ করবে। জনগণের সেবা না জনগণ কে দিয়ে সেবা দেখা যাক</t>
+  </si>
+  <si>
+    <t>দিদি, এবার কিন্তু সাধারণ না, ব্রাউন রাইস চুরি করতে হবে। মনে থাকবে তো?</t>
+  </si>
+  <si>
+    <t>মন ছুঁয়ে গেল গান টা</t>
+  </si>
+  <si>
+    <t>গানের কথাগুলো যখন প্রিয় মানুষের কথা মনে করিয়ে দেয় গান টা তখনই পূর্ণতা পায়।</t>
+  </si>
+  <si>
+    <t>সকাল সকাল ঘুম থেকে উঠেই তোমার সুন্দর কন্ঠস্বর শুনে দিন শুরু</t>
+  </si>
+  <si>
+    <t xml:space="preserve">প্রতিদিন সকাল থেকে রাত পর্যন্ত তোমার মিষ্টি কন্ঠের গান শুনতে পছন্দ করি আরো অনেক ভাল গান গেয়ে আমাদের মাঝে ছড়িয়ে দাও </t>
+  </si>
+  <si>
+    <t>এবার বাংলায় কন্ডম শিল্প এনে বেকারদের কাজের যোগান দিন</t>
+  </si>
+  <si>
+    <t>যোগ্য জবাব দিলেন গোভক্তদের</t>
+  </si>
+  <si>
+    <t>অনেকের ফাটছে এবার, ফাটিয়ে লাভ নেই।</t>
+  </si>
+  <si>
+    <t>হিন্দু সমাজের কলঙ্ক তুই</t>
+  </si>
+  <si>
+    <t>লোকডাউন এ অনেক ক তাদের ঘটি বাটি বিক্রি করতে হয়েছে...এর তো দেখছি আরো খারাপ অবস্থা...একে তো আদর্শ বিক্রি করতে হলো..</t>
+  </si>
+  <si>
+    <t>যার মমতাময়ী মা আছে আর আবার বিশ্বমাতার কি দরকার।</t>
+  </si>
+  <si>
+    <t>আপনি সত্যি অনেক বড় অভিনেত্রী ।</t>
+  </si>
+  <si>
+    <t>নাট্যকর্মী রা নাটক ছাড়া কি আর জানে? পয়সা দিলে বাঁদর নাচ ও নাচবে।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">এরচেয়ে লোকাল পত্রিকার খেলার খবর ভালোভাবে আসে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ছেড়ে দেইনি বলেই অাজ লক্ষ্যেমাত্রা পূড়ন করতে পেরেছি ডিয়ার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার মতে তাদেরকে আশ্রয়কেন্দ্রে রাখা হোক। খাবার ও চিকিৎসা দেওয়া হোক।পরবর্তিতে অন্যান্য দেশের সাথে আলচনা শাপেক্ষে তাদেরকে তাদের দেশে পুনর্বাসন করা হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধন্যবাদ এস অাই বিল্লাল।অাপনার মত পুলিশের সংখ্যা বারুক প্রত্যাশা করি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একটা বড় সুযোগ হারালে তোমরা কিন্তু কালকে অবশ্যই জিততে হবে।গুড লাক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি চাই হিলারি প্রেসিডেন্ট হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোমার হাঁসিতে হাজার ফুল ফুটে যায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওদেটকে মানুষ হিসাবে বাচার অদিকার দেওয়া উচিত আমার সরকারের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই রকম নেতার অনেক অভাব।বাংলাদেশ এর মাওলা ভাসানি ওনার প্রতি রইল শ্রদ্ধা ও ভালবাসা।আমার নেতা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খুব ভালো সংবাদ । আবার জেগে উঠবে আমাদের পাট শিল্প । </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মুসলমানদের যে টি কৌশল হিন্দু বৌদ্ধ খ্রিষ্টানদের নেই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মাদ্রাসা থেকে স্নাতকোত্তর ডিগ্রী অর্জন করা কোন ব্যক্তির চিন্তাধারা সব দিক থেকে বিকশিত হলেও ধর্মীয় চেতনা থেকে বের হয়ে আসতে পারেন না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">হালার পুৎ বোদ্ধ চোদার টাইম নাই এখন আর যাদের চুদার টাইম আছে তাদের কাছে যা। তোদের ধর্মের মধ্যে বালা হয়েছে জীব হত্যা মহা পাপ এখন কেমনে চলে রে চুদির ভাই?? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">তোদের আর কি বলবো তোদের জন্মটাই তো ঠিক না দেখা যায় তোদের একজনের জন্মের পেছনে পাঁচ জন পুরুষের পরিচয় পাওয়া যায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাফুফেরর সাথে সংশ্লিষ্ট সকল দুর্নীতিবাজদের পাছাই লাথি দিয়ে বিদায় করা হোক বিশেষ করে সালাউদ্দিনকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কষ্ট হয় এদের নিয়ে ভেবে। প্রধানমন্ত্রী মিরাজকে ঘর বানায়ে দিতে পারে। কিন্তু এদের একটু ও সহযোগিতা করতে পারে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মেয়েদের ফুটবল খেলা ঠিক না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কিন্তু এক সময় ওদের নাম করে বিদেশ ভ্রমণের লোকের অভাব হবে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দরকার নাই পড়া লেখা করে অন্য পথে বেশি দরকার খেলা কোন বড় বিষয় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথম আলো দিলেও পারে কিন্তু দিবে না কারন দিলে এই নিউজ লিখত না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি টাকার বস্তা নিয়ে বসে আছি চলে এসো টাকা নিয়ে যাও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টাকা সব সালাউদ্দিন লুঠেপুটে কাছছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমাদের দেশের ফুটবল ফেডারেশন মত এত ফইন্নিই ফুটবল ফেডারেশন মনেহয় কোন দেশের নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এতো ব্যাথার পরও উনি বিদায় নিয়ে রাজি না এক ফেডারেশনের সভাপতি হয়ে এতো ব্যাথার পরও উনি পদ ছাড়তে রাজি না যদি সরকার প্রধান হন তাহলে তো মরতেও রাজি হবেন না খমতার মায়ায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গবেষণা রিপোর্ট বলছে বিশ্বের সেরা ইউনিভার্সিটির মধ্যে বাংলাদেশের কোন ইউনিভার্সিটির নাম নেই। বিষয়টা কেমন না যেখানে ব্রাজিলের আছে আর্জেন্টিনার আছে তুরস্কের আছে ভারতের আছে এমনকি পাকিস্তানেরও একাধিক ইউনিভার্সিটি এই তালিকায় আছে। কেন এমন হবে? আচ্ছা দেখুন নোবেল বিজয়ী মালালা ইউসুফজাঈ আমেরিকার স্ট্যামফোর্ড ইউনিভার্সিটিতে ভর্তির জন্য আবেদন করেছেন। ইউনিভার্সিটি কর্তৃপক্ষ বলেছে তাকে ভর্তি পরীক্ষা দিয়েই উত্তীর্ন হতে হবে নোবেল কোটা কোন কাজে আসবে না। আর আমাদের দেশের কথা চিন্তা করুন। উপজাতি কোটা মুক্ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একটা রসিক কমেন্ট আর জ্ঞানী গুণীদের দারুন সব কথা। যাহোক ভুল হলে সরি। তারপরেও কমেন্ট ডিলিট করব না। কারন বিষয়টা তে শেখার কিছু আছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তো কি হইছে অয় বুরা হইছে অর মেসিন তো বুরা হয় না। আর বুরি দিয়া অর পোসাচ্ছে না।নিউ সারা।বুজতে হবে বিষয় টা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুরস্কর চিন্তা মাথা থেকে বাদ দিয়ে নিজ দেশের গণতন্ত্রর অবস্থা নিয়ে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তবু হালার ভাব কমেনা মেয়েরাও জানে জিগার আমার খান ভেবে বসে থাকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই সব ফালতু ইন্ডিয়া মার্কা খবর না দিলই কি নয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ টেস্ট ক্রিকেটে উন্নতি করতে শুরু করে দিয়েছে।খুব তাড়াতারি ওয়ানডের মতো টেস্টেও ধারাবাহিকভাবে সাফল্যের দেখা পাবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">নাসির বা মোসদ্দেক কে শুভাগত এর জায়গায় নিলে আরো ভাল হইত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খেলা জমবে আরে ভাই ধৈর্য্য ধরো সামনে ম্যাচে ছক্কা হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বার্মাকে রোহিঙ্গাদের জন্যে স্বাধীন রাষ্ট করে দেওয়া হোক এটা রোহিঙ্গাদদের অধিকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বোলিংরা যে ব্যাটে বল লাগাইতে পারে সেটা একমাত্র এবং একমাত্র বাংলাদেশের বোলারদের দেখলেই বোঝা যায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা মুসলমানদের জন্য বারমার বিরুদ্ধে যুদ্ধ করতে চাই । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহর কাছে শুকরিয়া যে মেয়েটি বেঁচে আছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাহলে দেশের বিভিন্ন সেক্টরের হাজার হাজার কোটি টাকা সুন্দর বনের বাঘে খাইছে তাই সুন্দর বন ধংশ করে দাদা বাবুদের খুশি রাখার জন ্য সব কিছুই করতেছেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাই তোমাদের অনেক সুন্দর লাগছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোমার জন্মদিনে প্রাণঢালা শুভেচ্ছা । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই মুহুর্তে তাদের প্রান বাঁচানোর জন্য আশ্রয় দেয়া উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভালোমানুষ এখনও পৃথিবীতে আছে উনাকে স্যালুট </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভয় নেই ইসলামের বিজয় আসবেই ইনশআল্লাহ্ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পাকি মরলে কেন জানি ভালো লাগে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুরুর নায়ক যদি মিরাজ হয় শেষের নায়ক সাকিব চলো বাংলাদেশ অর্জনে তোমরা গর্জনে সারা বাংলাদেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ্র অশেষ মেহেরবানি। ডাঃ েদর অক্লান্ত চেষ্টা মানুষের দোয়ায় সে সুস্থ হয়ে স্বাভাবিক জীবন ফিরে আসুক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আ্যম্বাসিডর এর পর ভারতের প্রধানমন্ত্তী নরেন্দ মোদী স্যালুট জানালেন বাংলাদেশ ক্রিকেটকে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদের কে যায়গা দেওয়া হোক বাংলাদেশে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ও আল্লাহ ও দের উপর রহমত কর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফুল মানায় গাছে আর পাখি মানায় আকাশে। </t>
+  </si>
+  <si>
+    <t>সিনেমা করে পয়সা জুটছিলোনা বুঝি? তাই তোলাবাজি করতে শুরু করলে?</t>
+  </si>
+  <si>
+    <t>ওয়েব সিরিজ গুলো বন্ধ করোনা আমি কিন্তু ওই গুলা দেইখ্যা তোমার ফ্যান হইসি। </t>
+  </si>
+  <si>
+    <t>পৃথিবীর সব থেকে খারাপ রাজনৈতিক দলে গিয়ে তোমার প্রতি যেটা ভালোবাসা ছিলো তা মুহূর্তেই শেষ গেলো । ছি!</t>
+  </si>
+  <si>
+    <t>যুব সমাজ টা কে তো আপনাদের মত অভিনেত্রী রা শেষ করে দিলো । যতো রকম অশলীন ভিডিও দেখিএ</t>
+  </si>
+  <si>
+    <t>যে যেমন মানুষ ঠিক তেমনই মানুষের কাছে ভীড় জমায়।সায়নী ঘোষ যে চটি চাটতে গেছো সে চটি বেশি দিন থাকবে না।আবার সেই ছিপিএমে ফেরৎ যেতে হবে।</t>
+  </si>
+  <si>
+    <t>তুমি ভারতের ইতিহাস জানো আগে তারপর প্রেম দেখাও।</t>
+  </si>
+  <si>
+    <t>যেখানে একজন অশিক্ষিত #শিক্ষামন্ত্রী হয়, সেখানে লোহা আর সোনার মুল‍্য একই।</t>
+  </si>
+  <si>
+    <t>একটা কথা বলি ম্যাডাম যে জনপ্রিয়তা আপনি পেয়েছিলেন সেটা হারাবেন।</t>
+  </si>
+  <si>
+    <t>ভুতের ভবিষৎ না কি ভবিষ্যতের ভুত?</t>
+  </si>
+  <si>
+    <t>আগামি বিজয় ঘোষনা করলাম ।</t>
+  </si>
+  <si>
+    <t>যারা মেরুদণ্ড বিক্রি করে তারা তো করেই। প্রশ্নটা তাদের নিয়ে নয়। কিন্তু যারা নিজেকে হোমরা চোমরা বলে ফোটায়, শিক্ষিত রুচিশীলতার প্রগতিপন্থী কর্মে বিকশিত করার চেতনা প্রদর্শন করে; তাদের এহেন চলন বলন  টাকা আর আশ্রয়ের লোভ ছাড়া আর কিছু নয়!!</t>
+  </si>
+  <si>
+    <t>ভবিষ্যতে র ভূত প্রর্দশন যখন এই সরকার বন্ধ করে দিয়েছিল, তখন আপনি পথে নেমে এই স্বৈরাচারী সরকারের ভূমিকা নিয়ে পথে নেমে ছিলেন। মনে আছে আপনার???</t>
+  </si>
+  <si>
+    <t>নতুন ইনিংস। সত্যি থেকো, মানুষের জন্য কিছু কোর, নিজেই আনন্দ পাবে।ও আনন্দের ভাগ হয় না। </t>
+  </si>
+  <si>
+    <t>আপনি স্বঘোষিত সুন্দরী ও শিল্পী। ছিঃ</t>
+  </si>
+  <si>
+    <t>ইনিই আবার "ভবিষ্যতের ভূত" সিনেমা টা হল থেকে রাতারাতি গায়েব হওয়ার পর কত্ত কি বলেছিলেন!! </t>
+  </si>
+  <si>
+    <t>তোমায় দেখে লজ্জাও লজ্জা পায়।এর চাইতে ম্যানফোর্স কন্ডোম কোম্পানিতে যোগ দিলে পয়সা ইনকাম টা বেশি করা যেতো না??? তার কারন আপনার মতো চরিত্রহীন লম্পট মুখোশ ধারী মহিলা ঐখানেই মানায়</t>
+  </si>
+  <si>
+    <t>আপনার মতো ব্যক্তিত্ব দলকে আরো সমৃদ্ধ করবে ।। এই লড়াইয়ে আপনি অংশ গ্রহণ করে দলের লাখো ছাত্র যুব র আন্তরিক দাবী কে মান্যতা দিলেন।।ধন্যবাদ আপনাকে</t>
+  </si>
+  <si>
+    <t>হিন্দুবিদ্বেষীদের কোনো দিন বাংলার মানুষ ক্ষমা করবেন না।</t>
+  </si>
+  <si>
+    <t>তা আপনি কি দিয়ে শুরু করবেন কাটমানি খাওয়া?? চাল না ত্রিপল??</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টাইগার দলপতি মাশরাফির ঝড়ো ব্যাটিংয়ের পর দুর্দান্ত বোলিংয়ে ইংল্যান্ডের বিপক্ষে সিরিজ সমতায় ফিরলো বাংলাদেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুভ জন্মদিনের শুভেচ্ছা রইলো মিম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রবাসের গুরুত্বপূর্ণ নিউজগুলো পেতে হলে এই পেইজে একটু গুরে আসুন।আশা করি সকলে উপকৃত হবেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওয়াসফিয়া নাজরিন তুমি একটা ইতিহাস তুমি কোটি জনতার অহংকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আশ্বীনের লড়াই দেখে গর্বে বুকটা ভরে ওঠে প্রত্যেকবার ই যেন এই সোনার টুকরো আশ্বীন সঙ্কটমোচন হিসেবে কাজ করে কখনো বোলিং এটাক আবার কখনো ব্যাটিং পারফরমেন্স দিয়ে আশ্বীন যেন বিপক্ষদলের জেতার আশাকে ভেঙে টুকরো টুকরো করে দেয় তাই রবিচন্দ্রন আশ্বীন বিশ্বের সেরা নম্বর অলরাউন্ডার যার পারফরমেন্স দেখে সমস্ত বিশ্ববাসী আজকে অবাক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বুলেট ট্রেন ? ব্যাপক বিনোদন পেলাম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নাসির এর উচিৎ এই দেশ ছেড়ে চলে গিয়ে অন্য কোন দেশে গিয়ে নিজের প্রতিভাটা ফুঁটিয়ে তোলা যেমনটা করেছে পাকিস্তানের অনেক খেলোয়ার তাতে হয়তো নাসির এর সম্মানটা বাঁচবে এত অপমানের চেয়ে এটা করা অনেক ভালো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শূদ্রাকাপুর ছবি সুন্দর আলিয়া অবিনয় ভালো লাগেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্লিম জগত এ মা বোন পরিচয় আছে নাকি কয় দিন পর শাকিব দিঘি জুটি বাদবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুর্খের মতো শিরোনাম অসম জুটি ভারতেই এগুলি চলে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হা হা বেটাদের লাজ লজ্জা নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শালারা গাজা খাইয়া নিউজ লেখে হাটুর বয়সী এটা কেমন কথা ?৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দেখছি তো জামাটাও এখনো ঠিকভাবে পরতে পারে না । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাতে আপনার এত মাথা বেথা ক্যান?? ও পারে বলেই এইসব করে আর আপনারা পারেননা তাই কুতস্যা রটাইতে জানেন। এইটা তার ক্রেডিট।।। আর খাইয়া কাজ নাই তাই মানুষের নামে বাজে নিউজ ছাপাইতে চান যত্তসব ফালতু।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওর গর্বের বিষয়। আপনি যুবক হয়েও পারবেন্না। আপনার সাথে তো দারা বেই না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এত ফাটছে কেন তোদের যানা তোদের পচা নাকটা আর গলাই না আর তোদের কথা আমার শাহরুখ এর কিছু যায় আসে না হু আরো যে বুইড়া খাডাস রা নাতিন দের সাথে ডেটিং মারে সেটা চোখে পরে না নাকি যা সেখানে পচা নাকটা গলা ফল পাবি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অমিতাভ বচ্চনইতো দেখাইছে। বুড়া বয়সে কচি মাইয়ারে লিপকিস দেয়া। সেই তুলনায়তো কিছুই না। তাছাড়া বুড়া নায়ক হিসাবে অগ্রজ ঋষি কাপুর সানিদেওল কম যায় নাই। নাতির বয়সি নায়িকার সাথে পুতু পুতু প্রেম প্রেম টাইপ ছবি করতো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুদের প্রতিষ্ঠা বার্ষিকীতে এই কামনা করি তোরা ধ্বংসহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গ্রেফতার তো শিশুদেরই করতে হবে কারণ ওরাতো এখনও ছাত্রলীগ বা আওয়ামীলীগ করে নাকিন্তু দিন আগে বখাটেদের মেয়েকে ইভটিজিংয়ে বাধা দেওয়ায় বৃদ্ধ বাবার দুই পা কেটে চিরদিনের মত যারা তাকে পঙ্গু করলো সেই সোনার ক্যাডার বাহিনির গ্রেফতারের খবর কী??নাকি দলীয় প্রভাবশালী আর উপরমহলের আশির্বাদের সৌজন্যে ওরা বুক ফুঁলিয়ে ঘুরবে আগের মতই লাম্পট্য করবে আরো বেশিআশাকরি অপরাধী যে দলেরই হোক গ্রেফতার করেন বদরুলের মত বাঁচিয়ে রাখার কুটকৌশল করবেন না শিশুদের গ্রেফতার করে মানবতার লঙ্ঘন করবেন না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঐ সব পুলাপান খুবই খারাপ আর জে জাইগায় ঘটনা ঘটছে ওখানের পুলাপান এমনি ওরা পারে এটাই সত্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> লজ্জা হয় আমরা এই দেশের নাগরিক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হেতে মনে হয় গাজা খাইছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কি বলেন স্বপন ভাই আপনার মত গান্জা খাওয়ার সৌভাগ্য আমার হয় নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হু একটু বেশিই রক্ষ হইছে বোধহয় তবে অনাবশ্যক না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হুম যেই খানে নিছিদ্র নিরাপত্তা দেয়ার কথা সেই খানে সেই খানে একটা চোর এত বড় অনুস্টানে কি করে একটা ব্যাগ চুরি করে? বাহবা ত চোরের পাওয়া দরকার প্রশাসন কে ঘুম পাড়িয়ে সে একাই তার উদেশ্য হাসিল করে গেল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পুলিশের পেদানি খান নাই তো খাইলে বুঝবেন যত্ত সব আবাল </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই অবলগুলো ব্যাগ না পেলে বলতো একটা ব্যাগ উদ্ধার করতে পারে কিসের পুলিশ এই লজ্জা কার ব্লা ব্লা । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নতুন সিম কিনে জিবি ইন্টারনেট পেয়েছি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মহান নেতা তুমি অমর হয়ে থাকবে অনন্তকাল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টেস্ট ক্রিকেট ইতিহাসের অনন্য শক্তিশালী ইংল্যান্ড কে হারিয়ে টেস্টে সমতা ফিরিয়ে অনন্য উচ্চতা স্থাপন করেছে বাংলাদেশ ক্রিকেট। অভিনন্দন হে বীর বাঘ বাহিনী বিশালতার প্রাপ্তিতে এই সিরিজে আরেক বিস্ময় বাংলাদেশি মিরাজের আবির্ভাব ঘটেছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাথা ঠান্ডা রাইখা ব্যাটিং কইরেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার প্রিয় মানুষের মধ্যে তাহসান ভাই অতুলনীয়। গ্রামীণফোনকে ধন্যবাদ দিচ্ছি আমার প্রিয় ব্যক্তিত্বকে সেলিব্রেট করার জন্য। শত বৎসর আসুক তোমার জীবনে তুমি থাকবে সবার অন্তর জুড়ে। শুভ জন্মদিন তাহসান বস্। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ধাপ ঃ অনলাইন বিজনেস সম্পর্কে আপনার মুল্যবান মতামত দিন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ঠিক এই মুহুর্তে ইতালির বর্ডারে আমাদের শত ভাই আশ্রয় চায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব আউট হলে ভাল হয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এরা এখনো ভুল পথে তাদের কে ক্ষমা কর প্রভু </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার মনে হয় ইত্যাদির মতো জনপ্রিয় অনুষ্ঠান আর নাই। ধন্যবাদ হানিফ সংকেত স্যার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাল মানের ও মনের মানুষ।আল্লাহ্ ওনাকে ভাল রাখুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সত্যি আপু তোমার প্রসংসা করা বড় দায়। আল্লাহ তোমাকে নিজের হাতে বানিয়েছেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শত কোটি সালাম সুমির মত সাহসী মেয়েকে যে নষ্ট হয়নি হাত পাতেনি বীর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পৃথিবীর এক অন্যতম শ্রেষ্ঠ ইসলামিক পেইজ। যারা কুরআন ও হাদিসের কথা পড়তে ভালোবাসেন তারা পেইজটিতে লাইক দিন। ইনশাআল্লাহ আপনার কাছে ভালো লাগবে। কুরআন ও হাদিসের কথা কুরআন ও হাদিসের কথা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কৃতঞ্জতা প্রকাস করা ইতিবাচক সিদ্ধান্ত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সেই মেয়ে টি গানটা আনেক ভাল লাগছে তোমায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চরম হইছে বস।। বাপ মেয়ে সেইম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি তাড়াতাড়ি অবসরে গিয়ে দেশবাসীকে বাচান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খালেদাজিয়া কে দিলে ভালো হয়। </t>
+  </si>
+  <si>
+    <t>মিস্টি হাসিতে মিস্টি সুন্দরী লাগছে</t>
+  </si>
+  <si>
+    <t>আমি এক পথ হারানো পথিক তোমায় খুঁজে বেড়াই।</t>
+  </si>
+  <si>
+    <t>আমার আব্দার ছিল রায় কৃষ্ণকে হ্যাট্রিক এর জন্য, উনি বলেছিলেন চেষ্টা করবেন। আজ একটা গোল আর দুটি আসিস্ট করে আমার আব্দার রাখার জন্য ধন্যবাদ।</t>
+  </si>
+  <si>
+    <t>স্যার আপনার সারা বিশ্বে প্রচুর সম্মানের অধিকারী এমন কি বাংলায়. দয়া করে কোন রাজনীতি পাটির সাথে যোগ দেবেন না. আপনার সম্মান হানি হবে. আপনাকে বাঙালি হিসাবে গর্ব বোধ করি</t>
+  </si>
+  <si>
+    <t>সৌরভ গাঙ্গুলি যদি লোভি অর্থ পিপাষু হন নির্লজ্জ হতে চান সাধারণ মানুষের টাকা লুঠ আরো অনেক ইত্যাদি তাহলে রাজনীতি শ্রেষ্ঠ জায়গা।এ বিষয়ে কোন সন্দেহ নেই।</t>
+  </si>
+  <si>
+    <t>তুই বলে হার্ট এটাক করেছিস যা আরো ফরচুন এর তেল খাগা</t>
+  </si>
+  <si>
+    <t>দেশের কটা কোনা উনি চেনেন, আর ওনার দরদি সরকারইতো দেশের মানুষের ব্যাঙ্কের টাকার নিরাপত্তা ছিনিয়ে নিতে উদ্যত হয়েছিলো, সেকথা উনি এতো তাড়াতাড়ি ভূলে গেলেন ?</t>
+  </si>
+  <si>
+    <t>ভুল ভাল বকা কি দিদির কাছাকাছি থাকেন কি?তার চে গাছতলায় ঠান্ডা হওয়া খাবেন আমার মনে হয় স্বাস্থ্য মন দুই ভালো থাকবে সুদৃষ্টি খুলবে।</t>
+  </si>
+  <si>
+    <t>রূপালি কত্ত ঢং দেখালি ছেড়ে দে মা কেঁদে বাঁচি। মিথ্যা বাদী কলার কাঁদি নুন দিয়ে খায় বাসি লুচি। রূপাদি এবার তুমি লোটা কম্বল নিয়ে চলে যাও কাশী।</t>
+  </si>
+  <si>
+    <r>
+      <t>কিধরনের মহিলা আপনি, এক কিশোরী যোগির রাজ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF050505"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>‍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>্যে ধর্ষিতা হল পরে মন্দিরে পুড়িয়ে মারা হল,আপনার ঐ হাসি হাসি মুখটা কোন কথা বলল না, মলিন ও হলনা।</t>
+    </r>
+  </si>
+  <si>
+    <t>আপনাদের সাথে পূরানে বর্নিত ডাইনিদের অনেক মিল আছে</t>
+  </si>
+  <si>
+    <t>কোন জারুআ রে আমার কাছে থেকে লিংক চাইছে ??? কাটটা চোদা লিংক বানান জানে না ঢমনির বেটা লিংক নিবে ??</t>
+  </si>
+  <si>
+    <t>আর যারা দিন রাত পরিস্রম করে বাড়ি বাড়ি বিদ্যুৎ পৌঁছে দিচ্ছে সেইসব ঠীকাশ্রমিক পেটভরে খেতেও পায়না</t>
+  </si>
+  <si>
+    <t>ন্যকটা সাধুর পকেট নেই, এখানে তো সকলেরই পকেট আছে। দেশের সেবা করবে কি দিয়ে।</t>
+  </si>
+  <si>
+    <t>দিদি আপনি এই ভাসন বিহার,উত্তরপ্রদেশ ঐ খানে দেন।দেখবেন আপনাকে ঝাটা নিয়ে তাড়াবে ।বাংলায় আলক সজ্জা আপনাদের কোনো ভূমিকা নেই এই গুলো জনগন জানে।কেন মিথ্যা বলে গালাগালি খান।</t>
+  </si>
+  <si>
+    <t>অশালীন কথা বলবেন না। মতাদর্শ ভিন্ন হতেই পারে। আপনারা ভালো সিনেমার দর্শক নন বলে ,গান শোনেন না বলে রূপা গাঙ্গুলির মতো একজন গুনী মানুষকে কি কুৎসিত কথা বলছেন। আপনারাই আপনাদের পরিচয় দিচ্ছেন।রাজনীতিকরা সবাই আশ্বাসের কথা বলেন।</t>
+  </si>
+  <si>
+    <t>তান্ত্রিক রুপা, নেশা খাওয়া রূপা, আর ফ্লিমে চান্স পায় না।তাই ভণ্ড।।</t>
+  </si>
+  <si>
+    <t>জিরো ব্যালান্স, জিরো ব্যালান্স করে, গরিব মানুষের পেনশনের টাকা তো, পু মেরে দিচ্ছ।</t>
+  </si>
+  <si>
+    <t>পাবলিক ঠিক খাচ্ছে না, অন্য কিছু ভাবুন</t>
+  </si>
+  <si>
+    <t>একে দেখলে আমার মনে হয় চটি পেটা করি</t>
+  </si>
+  <si>
+    <t>মন্ত্রী হিসেবে দেখতে চাই</t>
+  </si>
+  <si>
+    <t>এরা সবাই তোমাকে অনেক ভালোবাসে</t>
+  </si>
+  <si>
+    <t>এই রুপ এই সৌন্দর্য চির কল্যাণকর,</t>
+  </si>
+  <si>
+    <t>শূন্য মানুষের পাশে কেউ থাকে না</t>
+  </si>
+  <si>
+    <t>চোখ মারার কী হয়েছে ? আপনাদের কী এসব করতে টাকা দেয় নাকি ?</t>
+  </si>
+  <si>
+    <t>শিরায় শিরায় রক্ত,, আমরা দেবের ভক্ত</t>
+  </si>
+  <si>
+    <t>এখন তো দেবী সরস্বতী নিজেই বুঝতে পারে না , যে উনি বিদ্যার দেবী না কি প্রেমের দেবী</t>
+  </si>
+  <si>
+    <t>হরেকৃষ্ণ হরে হরে চোর টা আজ বিজেপি র ঘরে</t>
+  </si>
+  <si>
+    <t>এই বয়সে আরও কত ভঙ্গি দেখব</t>
+  </si>
+  <si>
+    <t>যতই করুন কিত্তন. আপনাদের হবেই হবে পতন</t>
+  </si>
+  <si>
+    <t>দাদা সত্যি দারুন, আমাদের গর্ব</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার দেশ বাংলাদেশ জিততে হবেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সবদেশে সংখ্যালঘু দের একই হাল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা প্রস্তুতি ম্যাচে কষ্ট করে জিতে তারায় দিন শেষে ফাইনালের নায়ক হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ অবশ্যই এদের পাশে থাকবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জনমত হল এবং টাকার নোট পুনরায় চালু করা হউক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কাতার থেকে আমরাই জিতবো ইন শা আল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাগো আমি যুধেধ যাবো আললাহ তুমি নিপীড়িত কষ্টে ভরা মাটির মানুষ দের রখখা কর আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার মতে কালকের একাদশ এমন হলে ভাল হয়ঃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ব্রেকিং নিউজ ব্রেকিং নিউজ টাইগারদের নতুন তারকা মেহেদী হাসান মিরাজের পরিবারের জন্য খুলনা শহরে বাড়ি বানিয়ে দিতে খুলনার জেলা প্রশাসককে নির্দেশ দিয়েছেন প্রধানমন্ত্রী। সূত্রঃ আমাদের বাংলাদেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অনেক সুন্দর হয়েছে অাপনাকে অনেক ধন্যবাদ এরকম একটা অনুষ্টান উপহার দেওয়ার জন্য </t>
+  </si>
+  <si>
+    <t>সত্যিই কি বিচিত্র বাংলার এই রাজনীতি আর সেইসঙ্গে কি বিচিত্র বাংলার এই ভন্ড রাজনৈতিক নেতারা</t>
+  </si>
+  <si>
+    <t>গলায় মালা দিয়ে কত্বাল বাজালে কি সব অপরাধ ধুয়ে মুছে সাফ হয়ে যেতে পারে কখনো ?</t>
+  </si>
+  <si>
+    <t>চোর সাধু সেজে কৃষ্ণ নাম করছে</t>
+  </si>
+  <si>
+    <t>জেহাদীদের মদতকারী মমতাজ দুর হটৌ পশ্চিমবঙ্গ থেকে।</t>
+  </si>
+  <si>
+    <t>মহাপ্রভুর আশীর্বাদে বাংলায় পরিবর্তনের পরিবর্তন আসবেই।</t>
+  </si>
+  <si>
+    <t>দশ বছর খেয়ে মধু একান্ত মীরজাফর আজ সাজছে সাধু..</t>
+  </si>
+  <si>
+    <t>কে সাধু, কে চোর জনগণ সব বুঝতে পারছে না। কেননা এপারে থাকলে সাধু ও পারে গেলে ই চোর এর থেকে বোঝা‌ যায় দুপাশেই কমবেশী চোর আছে। এখন কৌশল করে ভোট বৈতরণী পার হতে চায়।</t>
+  </si>
+  <si>
+    <t>মানুষ হিসেবে কিরকম সেটা জানিনা .কিন্তু নেতা হিসাবে একদম পার্ফেক্ট কোন দিন বিশ্রাম নেয় না</t>
+  </si>
+  <si>
+    <t>যাদের কাছে কেলানী খেল,,,তাকেই আজ বাবা বলে ডাকতে হচ্ছে</t>
+  </si>
+  <si>
+    <t>নারোদার ঘুষ খাওয়া মালটা মনে হচ্ছে</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এতো যেন ব্যাট ঘুরাচ্ছেনা মশাল হাতে শত্রু দমন করছে।তোর পাশে ছিলাম আছি আজীবন থাকবো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কোনো লাভ হবেনা ভারতের থেকে চিন বাংলাদেশের জন্য অনেক ভালো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দোয়া করি মুসলিম ভাই রা জান্নাতবাসী হউক আর মালুরা নিপাত যাক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাবাশ বাংলাদেশ এগিয়ে যাও অগ্রযাত্রার পথে দেখিয়ে দাও পৃথিবীকে আমরাও পারি । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মোসলিমদের ছোখের পানির ফসল হলো আগুন বৃষঠি আল্লাহ তোমার মননিত ইসলাম ধরম নিয়ে য়তো কাফের মুসরিক খেলা করছে তুমি তাদেরকে দেখিয়ে দাও আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আল্লাহর শুকরিয়া আদায় করার একমাত্র </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রান খুলে হাসতে ওদলামী করস? ঘুরে আসুন আমাদের পেজটি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যে মানুষটা হাজার ব্যস্তার মাঝেও তোমাকে মনে করে তুমি নিশ্চিন্ত থাকো সত্যিকারে অর্থে সে মানুষটা তোমায় ভালোবাসে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের টেকনাফ ওদের যায়গা দিয়ে বোদ্দদের মিয়ানমারক পাঠিয়ে দেওয়া উচিত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই কথা সত্য বলেছেন আপনাকে ধনবাদ এই ভাবে মানুষ কে উপদেশ দিলে মানুষের উপকার হবে আপনার উপর আললাহর রহমত থাকবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই আবালরাই জঙ্গী মরলে মায়া কাঁন্না দেখায় এবং বলে ওরা দুধের বাচ্চা ছিল ওদের জীবিত কেন ধরলো না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আবার যখন ঐ দুধের বাচ্চারা আপেল কাটার ছুরি দিয়ে বিদেশীদের গলা কেটে তখন বলে পুলিশ কেন আগে যেতে পারলো না কেন উদ্ধার করতে পারলো না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">তখন এই আবালরা বলে এইসব সরকারের চাল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই হাসির কারনে রাজাকারের লিষ্টে নাম আসবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কিছু কিছু সুচিল এর জন্য আজ আমরা বিশ্বের কাছে হীন হয়ে আছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একটা ব্যাগ উদ্ধার করে জেমসবন্ড হয়ে যান নি যে আল্হাদে আটখানা হয়ে ফটোসেসন করে বেরাবেন এটা আপনাদের দ্বায়িত্ব বরং খমা চান নিরাপওা না দিতে পারার জন্য এর চেরে বড় চোরেরা বাংলায় বুক ফুলিয়ে বহাল তবিয়তে আছে যারা হাজার হাজার কোটি টাকা লুট করে বসে আছে তাদের ধরুন ছিচকে চোর ধরে হিরোগিরি ফলাতে আসবেন না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পুলিশ কে ধন্যবাদ জানাই।কিন্তু এই বেগ টা যদি একজন সাধারণ মানুষ এর হত তাহলে আমাদের সোনার পুলিশ রা টাকা ছাড়া কোন কাজ করত না।এক মোবাইল উদ্ধার করতে খাইসে আমার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশী পুলিশ খুব প্রশিক্ষিত ভিডিও ফুটেজ দেখেই অপরাধীকে ঘন্টার ধরে ফেলতে পারে শুধু মুসলমানের দ্বারা হিন্দুদের হত্যা ধর্ষণ লুট ঘর বাড়ি পুড়িয়ে দেয়ার ভিডিও ফুটেজ দেখে কাওকে চিনতেই পারে না আর ধরতেও পার না জানোয়ারে ভরা দেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চোর চোর মহাচোর পুলিশ বড় চোর।একটা চোরকে ধরে আল্লাদে আটখানা হয়ে গেছে।যতসব আজাইরা মিডিয়া। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরাই নিছি আমরাই দিলাম মাঝখানে একটি ইস্যু তৈরী করলাম লাভ হল পুলিশ ও মিডিয়ার।একজন খবরের কভারেজ পেল আরেকজন বাহবা পেল।এখন প্রচার করা দরকার এ এধরনের চোর ভাল হতে চাইলে পাচ লাক টাকা অনুদান দিব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথমতঃবাংলাদেশের আশ্রয়দান দ্বিতীয়তঃজাতিসংঘের মাধ্যমে সমাধান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের প্রান প্রিয় মহানবী হযরত মোহাম্মাদ স </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এ ঈশ্বর তাদের রক্ষা কর </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমাদের অধিনায়ক সব জায়গাতেই সেরা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিবের কাছ থেকে আরও ভাল আশা করেছিলাম আজ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফ্রান্স বন্ধ করবে আর আমরা চালু করব চমৎকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ্ তুমি তাদের জন্য একজন নেতা দান করো যে তাদেরকে এই বিপদ থেকে রক্ষ করবে তোমার মাধ্যমে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইননানিললাহি ওয়া ইননা ইলাইহি রাজিওন আললা ওনাকে জাননাতের মেহমান হিসেবে মেনে নিন আমিন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আশা করি পুলিশ বুঝতে পারবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইনশ আলল্লাহ জয় আমাদের হবেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের দেশে যেমন চৌখোস চোর আছে তেমনি দায়িত্ববান চৌখোস পুলিশ বাহিনী আছে আসলে আমরা জাতি হিসেবে অলরাউন্ডার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিরোগিরি না জিরো গিরি বলা যায় বাংলাদেশের পুলিশ তো নয় যেন ল্যাংটা পুলিশ তারা তাদের নিজেদেরকে নিরাপত্তা হিসাবে চলতে পারে না আবার অন্যদেরকে কিভাবে নিরাপত্তা দিবে তবে ঘূষের নিরাপত্তাটা আর বলা লাগে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এগুলো খবর বাদ দিয়ে কেউ যেন এরুপ কাজ না করে মুল্যবোধ সৃস্টি করার লক্ষ্যে প্রতিবেদন তৈরী করুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> লাখ লাখ টাকা দিয়ে পুলিশে ঢুকে টাকা কিভাবে উসুল হবে তা করে আসামী ধরবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মঙ্গল বাতি তাহলে অমঙ্গলের কারন হলো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তিনি রাষ্ট্রদূত জন্য হয়তো ব্যাগ টি ও তার জিনিস পত্র পেয়েছেন বাংলাদেশ পুলিশ এর তৎপরতায় পাওয়া জায় কিন্তু সুধু ঢাকা শহরেই এইরকম ব্যাগ চুরি মোবাইল চুরি রাস্তা ঘাটে ছিনতাই এর ঘটনা অনেক রয়েছে। প্রতিটা থানায় হয়তো এই রকম চুরির জন্য হাজারো জি ডি রয়েছে এইখানে পুলিশ এর উদ্ধার কাজ কতটুকু? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কিন্তু দুঃখের কথা হল তারা কেও হারানো কিছু ফেরত পায় না বা পাওার আশাটাও রাখে না কারণ তারা হচ্ছে খেটে খাওয়া সাধারন মানুষ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পুলিশ নিজে চোর তাই খুব সহজে রুবেল চোরকে ধরতে পারলো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পুলিশ আমার দোস্ত ঘুষ খাওয়ায় ব্যাস্ত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চোরা ব্যাটার পাছার চামড়া তুলেন। তারপর দেখান। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাঙালির ঘরে ঘরে আজ নবান্ন উৎসব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সকলকে জানায় অারবী নতুন বছরের শুভেচ্চা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">দেখবেন রাজনিতি এমনিই ভাল হয়ে যাবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা শুধু আফসোস আর দোয়া না করে বাস্তব কিছু পদক্ষেপ নেয়া উচিত। আমি নিতে রাজি আছি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই হাসি দেখে মনে হচ্ছে বাংলাদেশ হাসছে ধন্যবাদ স্কয়ার হাসপাতাল ও ডাক্তারগনদের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খুব বালো খেলতেচে সোনার ছেলেরা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আগামি ম্যাচে মোশাররফ রুবেলের জায়গায় নাসিরকে দেখিতে মন চাইতেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">জে কোরানে জা কিছু আছে তা সব সত্যি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অনেক মজা পেলাম বিদ্যা দিদি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আললাহ্ কফি আনান উছিলায় মায়ানমারে মুসলিমদের সহায়তা করুক আমিন। </t>
+  </si>
+  <si>
+    <t>এই সব কথা কানা নেয়া যাচ্ছেনা না</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুনে খুশি হলাম আর শুকরিয়া আল্লাহ পাকের কাছে আলহামদুলিল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তার জন্য আমার আনেক দোয়া রয়লে আল্লাহ তাকে জান্নতে দান করে।যে বাক্তি ক্রিকেট খোলে জীবন দিয়েছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">খুবই গর্ব হচ্ছে ইংল্যান্ড কে শেখাল বাংলাদেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সৈয়দ আশরাফ হলে ভালো হয় ।কারণ তিনি অনেক বার ভক্তি লোক ।আর কাদের সাহেব ও অনেক ভালো লোক কিন্তু তিনি এতোটা বার ভক্তি না । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই ছবিটা প্রোফাইল এ দিলে ভালো লাকতো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সম্মানিত বন্ধুরা এই প্রথম পেজে এডমিন নিয়োগ চলিতেছে। আগ্রহীরা পেজে ইনবক্স করুন। ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অভিনন্দন অাবারো টেস্টে পাঁচ উইকেট নেওয়ার জন্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের অনেক ভালো হয়েছে আপনাদের কে পেয়ে ।আশা করি অনেক তথ্য পাওয়া যাবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুমি অনেক সুন্দর তুমার মত একটি মেয়ে চাই আমি বিয়ের করেব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যাক একটু ভরসা পেলাম। আশা করি গত ম্যাচ থেকে শিক্ষা পেয়েছেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কাচকি মাছ ধরে এত লাফালাফি পারলে বোয়াল মাছ ধরুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নেদারল্যান্ডের রাষ্ট্রদূত তো তাই চুরি হওয়া ব্যাগটা উদ্দার করা হয়েছে। ব্যাগটা উদ্দার না করে দিলে আইক্কা ওয়ালা বাঁশ দিত। প্রতিদিন বাংঙ্গালিদের কোটি কোটি টাকার মালামাল চুরি হচ্ছে এই বাংলায় জাতি জানতে চায় যে সঠিক তথ্য প্রমান দিয়ে ও ওগুলো কেন উদ্দার করা হয় না? কারন ওগুলো উদ্দার করলে পুলিশ খাবে কি??? সূর্যোদয়ে তুমি সূর্যাস্তেও তুমি ও আমার বাংলাদেশ চুর উৎপাদনের ভূমি। অনেক কষ্টে বললাম এই কথা গুলো আসলে সব পুলিশ সমান না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুবিধা গুলো সুধু উচ্চ পদস্থ লোকদের জন্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কিন্তু চুর হাতে নাতে ধরার পরও ফোনটা আর উদ্দ্বার হলনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চোরের সাজা ছিল হাত কাটা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আহা কি এমন কাজ করেছেন যে দাঁত কেলিয়ে ক্যামেরার সামনে পোঁজ দিতে হবে পারলে মিতু হত্যার আসামি ধরে দেখাও মাথায় নিয়ে নাচব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রাষ্ট্রদুতের ব্যাগ ছুরি করার কারনে পুলিশ ছোরকে দরে নিয়ে আসছে যদি অন্য কারো হত তাহলে ব্যাগতো দুরের কথা ছোর হারিয়ে জেত ছোরের পিছনে পুলিশ হারিয়ে জেত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বেড়ে পুলিশটা কেমন কেলাছে। যেন মহাভারত উদ্দার করেছেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আজ দেশের কোন মানুষ হলে কি এভাবে আমরা ব্যাগ টা ফেরত পেতাম? তার মানে পুলিশ পারে সবি কিন্তু করে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরাতো কোনো দেশের রাষট্রোদুত নয় আমাদের ব্যনেটি ব্যাগটা কে উদ্দার করে দিবেন।এরকম ড্যেলি অহর অহর মা বোনদের ইজ্জোৎ আর ব্যানেটি ব্যাগ হারাচছে তাদের এগুলা কে উদ্দার করে দীবেন।কারন তারাতো কোনদেশের রাষট্রোদুত নয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কথা ঠিক বাংলাদেশ করতে পারত সর্ব্বোচ্চ। তবে ভারত যে রানে অলআউট হবে এটা সহজেই অনুমেয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খুব ভালো লাগল আপু তুমার গানটি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ইজ গ্রেট।মাহমুদউল্লাহ রিয়াদের কথা সবাই ভুলে গেছে। অথচ তার উপর ভিত্তি করেই কেবল কোনরকম ফাইটিং স্কোর আমরা করতে সক্ষম হয়েছি। সবমিলিয়ে মাশরাফি সাকিব আর নাসির এর চিরচেনা রুপে ফিরে আশা এসবই জয়ের কারন। পেশাদারিত্ব ফুটে উঠেছে আর কি। অভিনন্দন বাংলাদেশ ক্রিকেট টিম।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বেশ সুন্দর অর্থ। বেশ আধ্যাত্মিক ভাব আছে। কিন্তু যদি মহানবীর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই সুন্দর ছবিটি আমায় মানসিকভাবে অস্থির করে দিচ্ছে। ছবিটিতে সবকটি রঙের সুষম বিন্যাস দীপ্তিময় আলোকছটা অন্তর্নিহিত তাৎপর্য এবং ধ্রুপদীসত্ত্বা আপনার অবয়বে এক অতিপ্রাকৃত আবহ সৃষ্টি করেছে। ছবিখানা দেখে ভিঞ্চি দাদুকে মনে পড়ে গেল উনি আজ বেঁচে থাকলে মোনালিসার জায়গায় আপনার এই এপিক ছবিটি ঠাই পেত। মনে পড়ে গেল হোমারের কথাও ভাগ্যিস সেই প্রাচীনযুগে ফেবু ছিল না থাকলে আপনি এই ছবি নিয়েই পেতেন বিশ্বব্যাপী খ্যাতি তবে সমস্যা নেই খ্যাতি এবং লাইক এই যুগেই চালু আছে জুকারবার্গ দোস্তকে ধন্যবাদ। ব্যাপক লা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ম্যাশময় ম্যাশকিনের অবদানে আজকের এই জয় ধন্যবাদ ম্যাশকিনস </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমার থেকে আসা মুসলিমদেরকে বাংলাদেশে প্রবেশ করার অনুমতি দেওয়া হক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষের জীবনে বাস্তবতাকে নিয়ে বেচে থাকতে হয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনাকেও দূর্গা পূজার অনেক অনেক শুভেচ্ছা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চিনের আলগা ভালবাসার ইতিহাস সবাই জানে। এর স্বাধীনতালাভ তাদের ভূমিকা সব। বাঙ্গালী জাতির বছরের পরাধীনতার গ্লানি মুছে দেবে এ আশা করি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওদের কে বাংলাদেশে আসতে দেয়া হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve">গায়েবের সমস্ত খবর একমাত্র আল্লাহ্ ই ভালো জানেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মনে হয় ওর পছন্দ হইছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আশা করি বা এর কাছাকাছি রান বোর্ডে থাকলে ইংলিশদের হারানো সম্ভব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আনন্দে আটখানা রাজ দুলালী । আল্লাহ তাঁকে যেন হেফাজত করেন । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওরে জ্বালা কি কিউট আমার কুরকুরি মামুনি। সাকিব তো মেয়েকে নিয়ে খুব মজার সময় পার করছে। আসলেই বাবা মেয়ের সম্পর্ক অনেক কিউট হয়। মেয়ে বাবাকে পেলে আর বাবা মেয়েকে তাদের আনন্দের মনে হয় কোন সীমাই থাকে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাল কথা ত বে প্রদর্শনীটা বে শীই হ য়ে গেল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যার কেউ না ই তার আল্লাহ আছেন আল্লাহ পাক সব কিছু দেখেন আমি দোয়া করি আল্লাহ পাক আপনাদেরকে হেফাজতে রাখুক একটা কথা মনে রাইখেন একদিন সবকিছুর বিচার হবে আল্লাহর দরবারে কেহ বাচতে পারবেনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গারা যখন মুসলিম হয়ার কারণে হত্যা শিকার হচ্ছে তখন আমাদের দেশে বৌদ্ধরা পরম শান্তিতে বসবাস করিতে ছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যে দেশে শতাংশ মানুষের টয়লেট নেই সে দেশের মন্ত্রীর জন্য বুলেটপ্রুফ টয়লেট হলো বিশ্বেরকর্ড। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মরলে ওরে বুলেটপ্রুফ কবরে ঠুকাইছ রে তোরা শালা একটা বলদ।।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চেতনা সৃষ্ঠি করে তো দেশটাকেতো রসাতলে দিচ্ছেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এভাবে চলতে থাকলে এই বাংলাদেশ অচিরেই ফারাবীদের বাংলাদেশে পরিণত হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফারাজ মরিয়া প্রমান করিলো সে জঙ্গি ছিলনা।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> না ফারাজের না। এই বাংলাদেশ শুধু ই তারেক রহমান অ তার বউ এর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হা হা হা তাহলে কি জংঙ্গীদের দেশ বাংলাদেশ ??? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রতিটি প্রতিস্টানের নিজস্ব গাড়ী থাকবে যাতে করে সবাই ওই গাড়ীতে করে স্কুলে আসা যাওয়া করে কিন্তু ধনি আর গরীব বলে কথা আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাথা খারাপ আপনার । পানির নিচে টর্চ জ্বলে। ডাহা মিথ্যা কথা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের নোয়াখালির জেলার চাটখিল থানায় পাল্লা গ্রামে এরকম হয়ে ছিল তার পর একই কাহিনি। মাছ চোর দের হাত থেকে পড়ে এরক কাহিনি হয়। গ্রামে লোকের একদিন গুম ছিল না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অসাধারন মিম।তোমাকে ভালো লাগছে।নাছ দেকব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনাকে অনেক সুন্দর লাগছে আপু। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সীমান্ত খোলে দেয়া উচিত মানবতার জন্য । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই তো মোদের রূপসী বাংলা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">অার অাপনি নিজেও তো একজন অভিজ্ঞ খেলোয়াড়।প্রথম পক্ষ ত্যাগ সন্তান বাবা থেকে অাজ পর্যন্ত বঞ্চিত।বড় বড় নীতি বাক্য বলতে লজ্জা না লাগার কথা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোমাদেরই ভালবাসি। নিজের প্রেমিকার চাইতেও বেশি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যাক বিবিসি গালি খেয়েই হোক আর বিবেকের তারনায় ই হোক রোহিঙ্গাদের নিয়ে যে সংবাদ করছে তার জন্য বিবিসি কে ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুধু মানুষ হিসেবেই বলছি এদের থাকার জায়গা দাও </t>
+  </si>
+  <si>
+    <t xml:space="preserve">তোমার আত্মা চির শান্তি পাক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">দুনিয়াতে পর্যন্ত টাকাওয়ালা দেশ। মুসলিম দেশ। তারা যদি তাদের ভরণ পসন দাইত্ত নেই তাহলে ঠিক আছে। মায়ানমার এর এক পাশে বাংলাদেশ অ্যান্ড আরেক পাশে মালসিয় </t>
+  </si>
+  <si>
+    <t>আগে বিপদে পড়লে মানুষের মুখে শোনা যেত রাম নাম তবে এখন রাম নাম জপ করলেও বিপদ।</t>
+  </si>
+  <si>
+    <t>তুই সব সময় পছন্দের</t>
+  </si>
+  <si>
+    <t>মমতা ভাবী হটাৎ সনাতন ধর্মের প্রতি এত টান?দূর্গা প্রতিমা বির্সজনে বাধা দিয়ে মহরম পালন করা নেত্রীর মুখে এটা মানায় না</t>
+  </si>
+  <si>
+    <t>মা গো তুমি শুধু সুস্থ থেকো ভালো থেকো এই প্রার্থনা করি - ঈশ্বর , আল্লা , গডের কাছে</t>
+  </si>
+  <si>
+    <t>কেন্দ্রে বিজেপি সরকার আসার পর থেকে সমগ্র ভারতবর্ষ যেনো এক অনিশ্চিত ভবিষ্যতের দিকে এগিয়ে যাচ্ছে আজ কের যুবোক দের ভবিষ্যৎ যে পুরো অন্ধকার তা তারা ভালই বুঝতে পারছে </t>
+  </si>
+  <si>
+    <t>প্রতিবাদের জন্য আপনাকে সেলুট</t>
+  </si>
+  <si>
+    <t>দিদি তো সব দিক দিয়ে পারদর্শী,, যেমন সব ধরনের ভাষাতে পারদর্শী, দৌড়ে দৌড়ে বক্তব্য দেওয়াতে পারদর্শী,, নিজের দলের লোকদের নিজ দল থেকে বের করে দিতেও পারদর্শী,, ও হ্যা উনি আবার ভূলভাল মাতা সরস্বতী মন্ত্রপাঠেও পারদর্শী</t>
+  </si>
+  <si>
+    <t>আমরা লড়বো আপনার ই অনুপ্রেরণায়। আপনি ই আমাদের পথ প্রদর্শক। মা মাটি মানুষ জিন্দাবাদ।</t>
+  </si>
+  <si>
+    <t>মমতা দিদি আপনি আমার পছন্দের একজন লিডার।</t>
+  </si>
+  <si>
+    <t>রাজ্যে যেভাবে পেট্রোল ডিজেল গ্যাস বিদ্যুৎ এর দাম বাড়ছে তাতে আমাদের চোখে কান্না এসে যাচ্ছে তাই আমরা এবারে আপনাকে বিদায় দেবো এবং লালজোট কেই আনছি</t>
+  </si>
+  <si>
+    <t>দিকে দিকে আওয়াজ তুলো এই সরকার বদলে ফেলো।</t>
+  </si>
+  <si>
+    <t>বাংলার অগ্নি কন্যা তাঁর নেই কোনো তুলনা।মমতা ব্যানার্জী বাংলার হৃদয়ে,বাঙালির হৃদয়ে সবসময় থাকবে।</t>
+  </si>
+  <si>
+    <t>এই মূর্খ মহিলা আর কিছু খুজে পাচ্ছে না তখন পেট্রল পাম্পের দিকে নজর পড়েছে রাজ্য সরকার 38 টাকা কেন্দ্র সরকার 16 টাকা তাহলে কে বেশি tax নিচ্ছে রাজ্য না কেন্দ্র মূর্খ মন্ত্রী</t>
+  </si>
+  <si>
+    <t>শুধু মাত্র দিদি এর পক্ষে এই সম্ভব. সবাই আয় মানুষ টাকে সন্মান দিতে শিখুন আর নিজের স্বার্থে নাহ সমাজের স্বার্থে</t>
+  </si>
+  <si>
+    <t>সবার জন্য উপকার করলেন,শুধু#স্কুল সার্ভিস# আপার প্রাইমারি বাদ দিয়ে।হাহাকার</t>
+  </si>
+  <si>
+    <t>ওসব করে পাপ খন্ডন হবে না</t>
+  </si>
+  <si>
+    <t>আপনি প্রাকটিস টা পরে ও করতে পারেন..... পেছনে অনেক গাড়ির জ্যাম লেগে রয়েছে</t>
+  </si>
+  <si>
+    <t>তুই তো সুয়ারের বাচ্চা তোর নাম টা পরিবর্তণ কর শুয়োরের বাচ্চা !</t>
+  </si>
+  <si>
+    <t>ভালো বলেন ....তাই শুনতে ভালো লাগে</t>
+  </si>
+  <si>
+    <t>তু্ই মোর যা মায়া নামের কলঙ্ক</t>
+  </si>
+  <si>
+    <t>ত্রই রেন্ডিমাগিকে মনেহয় বিজেপির নেতারা সাবানা সাঙ্পুলাগাতেদিচ্ছেনা</t>
+  </si>
+  <si>
+    <t>বিজেপির মুসলিম তোষণ জেগে উঠেছে</t>
+  </si>
+  <si>
+    <t>মাননীয় মুখ্যমন্ত্রী শিক্ষাগত যোগ্যতা সবাই জানেন কিন্তু প্রধানমন্ত্রীর শিক্ষাগত যোগ্যতা কেউ জানে না</t>
+  </si>
+  <si>
+    <t>খানকির মত ঘেউ ঘেউ করছিস কেন মাফুজা</t>
+  </si>
+  <si>
+    <t>যথার্থই বলেছেন, সত্যি মন ছুয়ে গেলো</t>
+  </si>
+  <si>
+    <t>যাদের পূর্ব পুরুষ ব্রিটিশদের জুতা চাটা চাটি করতো তারাই আজকের বিজেপি</t>
+  </si>
+  <si>
+    <t xml:space="preserve">হর হর মোদি , আজ বাংলার ঘর ঘর মোদি </t>
+  </si>
+  <si>
+    <t>আমি চোরদের অনুরোধ করছি ওনার প্রেসার ঠিক ঠাক চেখ করে রাখবেন </t>
+  </si>
+  <si>
+    <t>চোর গুন্ডাদের জন্য আজ এত দফায় ভোট করতে হচ্ছে</t>
+  </si>
+  <si>
+    <t>বিমান বাবু এখন থেকেই নাচন কোদোন করছেন যে</t>
+  </si>
+  <si>
+    <t>সেয়ার মার্কেট র মাথা খারাপ হয়েছে। যেমন সরকারের</t>
+  </si>
+  <si>
+    <t>কাকার চেহারা টা কেমন যেন ঝলসে গেছে রাতে ঘুম হচ্ছে না মনে হয় খুবই চাবে আছে মনে হয়</t>
+  </si>
+  <si>
+    <t>শুয়ারের বাচ্চা এবারে তোর চামড়া ছাড়িয়ে নেব। কোন বিজেপির বাবা বাঁচায় দেখবো। সরদার টাকা ফেরত চাই। টেট এর টাকা ফেরত চাই।</t>
+  </si>
+  <si>
+    <t>শুভেন্দু কদিন আগে এই কথাটা বলোনি কেন ভাই, তুমি তো নিজেই গাল বাড়িয়ে চড় খাচ্ছ</t>
+  </si>
+  <si>
+    <t>আপনার এবারে ঘরে তালা চাবি মেরে বোসে থাকার সময় হয়েছে</t>
+  </si>
+  <si>
+    <t>বিজেপি জিতবে</t>
+  </si>
+  <si>
+    <t>আট দফা হোক আর আঠাশ তোদের ফাটার কারন টা বুঝলাম না</t>
+  </si>
+  <si>
+    <t>খুব কষ্ট হচ্ছে দিদির ভাই দের, ২০ দফায় ভোট করলে আরো ভালো হতো। গুন্দরাজ বানিয়ে রেখেছে আবার ১দফায় ভোট চাইছে।</t>
+  </si>
+  <si>
+    <t>মানুষ কে ভোট দিতে দেন না..।।ঘর থেকে তুলে নিয়ে হত্যা করেন তারপরও বলেন পরিস্থিতি ভালো।</t>
+  </si>
+  <si>
+    <t>এই ফালতু লোকটা এবার হারবে ।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধন্যবাদ প্রথম আলো।অবশেষে বোধোদয় হলো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফুট ফুটে বাচ্চ।কি দারুন দেকতে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অাইয়ুব খাঁন অামল থেকে সৌদিআরব লক্ষ রোহিঙ্গাকে বাংলাদেশ হইতে নিয়ে গিয়ে পালিতেছে। যখন রোহিঙ্গাদের সমাধান হবে তখন রোহিঙ্গাদের ফেরত হয়তো পাঠাবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার খুব ভালো লেগেছে কারন আমার গ্রামের বাড়ী গাইবান্ধা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ আপনি মায়ানমারের মুসলমানদেরকে রক্ষা করেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ খুব ভালো পথ তৈরি করে দিতে পারেন মানুষ এর অপরাধ থেকে বাছার জন্যটাকা পেয়ে হয়ত সে পাগল হয়ে জেতে পারত।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">পনের বিশ হাজার রোহিঙ্গা শরণার্থীকে আশ্রয় দেওয়ার সক্ষমতা বাংলাদেশের নিশ্চয় হয়েছে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সন্ধ্যা টায় ম্যাচের এর ওভার টু ওভার স্কোর পেতে নিচের পেইজে লাইক দিয়ে একটিভ থাকুন। ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পাখি কখনও ডাল ভেঙে যাওয়ার ভয় করে না।কারন তারবিশ্বাস ডালের উপর নয় ডানার উপর। তাইজীবনেচলার পথে নিজের উপর বিশ্বাস রাখতে হয় অন্যের উপরনয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথম আলো বাল খবরটাকে কি সুন্দর করে তুলেছে। সালারা কি সুন্দর করে নাস্তিকতা উস্কে দেয় ভাবতে অবাক লাগে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এটা চট্রগ্রামের কোন লোকের কাজ মাজার খোলার উদদেশ্যে এটা করেচে। কিনতু নাটোরের মানুষকে বোকা বানাতে পারেনি। আপসোস থেকে গেল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একপর্যায়ে তাঁরা পুকুরের নিচ থেকে তুলে আনেন জ্বলন্ত একটি টর্চ লাইট। এটা নির্ঘাত শয়তানি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাগ্যিস অল্পের জন্য ভন্ড পীরেরা সেখানে আস্তানা গাড়তে পারে নাই।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথম আলো নষ্টদের অধিকারে। পাঠকের মূল্যবান সময় নষ্ট করে যারা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টর্চ লাইট কোন কোম্পানির জানিনা তয় ব্যাটারি গুলো অলিম্পিক এর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরে বাহ্ আমার গ্রামের খবর আমিই জানিনা।দেখতে হলো প্রথম আলোতে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরে ছালা আমার এলাকায় এইরকম ঘটনা আমি জানিনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাউতা বাজি প্রথম আলো নিউজ আর পায় না শালারা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ছেলে কেন তুমি না একদিন বলেছিলে নাফ নদীর ওপারে আমাদের মুসলমান ভাইয়েরা থাকে?? তাদের ওখানে আমাদের আশ্রয় দিবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> উগ্রপন্থিদের উচিত শিক্ষা দিচ্ছে মায়ান্মার সরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরাই পৃথীবির একমাত্র নিরলয্য ফ্যান জাদের এত কষ্ট দেন তার পরেও আবার আপনাদের সাপার্ট করে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আশ্রয়।দেয়া হোক। আমরা অতীত ভুলে।যাই বারবার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ তাদের দুজনকে সুখি করুক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কিছু ভালো বন্ধুর দরকার কেও থাক লে দিতে পারেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা বিশ্বকে দেখিয়ে দিয়েছি আমরাও পারি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জি না হিলারী এখনও বেশ ভাল পজিশনে আছেন।আমেরিকান নির্বাচনী ব্যবস্থা হিলারির জন্য অনেকটা অনুকুলে কারন আমেরিকার বড় বড় রাজ্যগুলি যেখানে এলেক্ট্ররাল কলেজ বেশি যেগুলি ডেমোক্রেট অধ্যুষিত।তারপরেও সার্বিক ভোটের জনপ্রিয়তায় হিলারি এখনো এগিয়ে।দৈবাৎ কিছু না ঘটলে হিলারিই আমেরিকার প্রেসিডেনট। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এর মাঝখানের কাঠি সোজা করে দিয়ে শূন্য বানালে সমীকরণটি সঠিক হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাশাআললাহ সুইট কেমন আছেন ভাই আপনার মেয়ের নামকি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাঙ্গালী বরাবরের মতোই অতি আবেগী আর কুসংস্কার প্রিয়।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খালেদা জিয়া নির্বাচনে না আসলে নির্বাচন অগণতান্ত্রিক হয়ে যায় এটা যাদের দাবি তারা ফ্যাসিস্ট শয়তানের দোসর।শেখ হাসিনা শুধু প্রধানমন্ত্রীই নন তিনি দলীয় সভাপতিও বটে।তাই সভাপতি হিসেবে প্রধানমন্ত্রীর বাসভবনে বসে দুয়েকটি দলীয় বিষয় মিটমাট করলে মহাভারত অশুদ্ধ হয়ে যায়না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাওয়া ভবন হলে ভালোহতো তাইনা? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাসিনা রকিবের ইসিপরকিয়ার ফসল হবে নাসিক ভোটচুরি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি এখন থেকে আওয়ামী শত্রু হয়ে গেলেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অবৈধ সব পারে তার ইজ্জত যাওয়ার ভয় নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এর মত এক জন চিট বাটপারের মুখে এসব কথা মানায় না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যেখানে টাকা পয়সা আর মামার জোরে বেসরকারী কলেজে চাকরীতে ঢুকে কিছুদিনের মধ্যে বিসিএস অফিসার হওয়া যায় প্রাইমারিতে বিসিএস হতে নিয়োগ হয় সরকারী হাই স্কুলে পিএসসিকে নিয়োগ দিতে হয় সেখানে পিএসসি আর যাই করুক মেধাবী কর্মকর্তা দেশকে বাছায় করে দিতে পারবে না।আর হ্যা এস এস সি পাশ সিপাই যেখানে ম শ্রেণীর অফিসার হচ্ছে সেখানে পিএসসিরই বা কি করার আছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মেধাবী নিতে চাইলে প্রাধিকার কোটা কমিয়ে সর্বোচ্চ এ নামিয়ে আনতে হবে। সরকারের সদিচ্ছা ছাড়া কখনোই সম্ভব না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হা হা হা হা হা হা হা হা বিরাট মজার খবর যে বালের নায়িকা তাকে নিয়ে আবার ষড়যন্ত্র। শালা বালের সাংবাদিকতা করিছ????? এই সব বাল সাল খবর না দিয়া ভাল কিছু করার চেষ্টা কর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শাকিব বেইমান বিয়ে করে বাচ্চা বউয়ের খোজ রাখেনা এই বেইমানএর ছবি দেখলে সেও বেইমান ধিক্কার জানাই মুনাফেক কে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ছবি মানুষ দেখে নাকি খানকিরা যৌনতা দেখায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুই কচুপোড়া শিক্ষিত তোকে চুদি।তুই মাদারচোদ।তোর অধিকার আছে তাইনা।তুই খানকির পোলা।মনে রাখিস শিক্ষার জন্য কোন নিদিষ্ট জায়গায় যাওয়া লাগেনা।তোকে এভাবে গালি না দিলে তুই হুশ পাবিনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">গোপনে গোপনে আপনি কি সেই ব্যাক্তি যে বাজারে জাল হাদিস বানানো এবং ছড়ানোর দায়িত্ব পালন করেন। আপনার আলেম দের কে ডেকে আনেন জিজ্ঞেস করেন দাওয়াতের কতটুকু কাজ সম্পন্ন করেছে তারা। আপনি যাকিরের পাছাই লাগছেন। আজ আপনার আলেম সমাজ চুপ চাপ বলে দুনিয়াও রস </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খালিদ হোসাইন ভাই আমি তাবলিগ জমাতের লোক নই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একটা কথা সবাই মনে রাখবেন কোরানের ব্যাখ্যা দিবেন মোফাস্সির হাদিশের ব্যাখ্যা দিবেন মোহাদ্দিস এরপর রয়েছে ফকিহ আইম্মা সালেহীন।এনারা বিশ্বব্যপী আছেন।কাজেই জাকির ডাক্তারি করুক কিন্ত ইসলাম নিয়ে খেলা বন্ধ করুক।কেবল একজন ফতোয়া দেয়ার অধিকার নাই।বৈধও নয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সবাইকে অনেক ধন্যবাদ জাকির নায়েক যে খারাপ মুখের কথায় কিছু হবে না প্রমাণ দিতে না পারল অপ্রাসঙ্গিক কমেন্ট করবেন না কেউ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রমান টাকায় এক জঙ্গিকে জ্বালানী যুগিয়েছেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নাস্তিক প্রথম আলো আল্লাহ তোদেরকে হেদায়েত দান করুক । এই সব খবর খুব ঘটা করে ছাপাও না । আর তেমার বিভিন্ন আব্বারা মুসলমানদের মেরে শেষ করে দিচ্ছে সে গুলো তোদের চোখে পরেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথম আলো তোমাদের এমন বাজে খবর চাপানো বন্ধ কর। না হয়ত আমরা সাধারণ জনগণ তোমাদের উপর কঠোর হতে বাধ্য হব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপু আপনাকে আনেক জোস লাকছো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমী বরোএকা তুমি অনেক সুনদোর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইরানে মুভি গুলিতে ভাল গল্প থাকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধন্যবাদ ভাই আমার মনের কথা এমন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোমান্টিক গল্প পড়তে এখানে ক্লিক করুন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা আমার মতো সিঙ্গেল আছো। তারা আমাকে এড দিতে পারো ছেলে মেয়ে সবাই। আমরা গ্রুপ খুলে মন।ভরে গল্প করবো। সবাই এড দাও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যেখানে ভালোলাগা সেখানেই ভালোবাসা। যেখানে ভালোবাসা সেখানেই প্রেম। যেখানে প্রেম সেখানেই ব্যাথা। আর যেখানে ব্যাথা সেখানেই টাইগার বাম মলম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সত্য পথে যুদ্ধ করতে খোদায় দিবে বল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তামিম ভাই অভিনন্দন কেরানীগঞ্জ থেকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আলহামদুলিল্লাহ ক্রাস হয়নি। ভালোয় আলোয় ল্যান্ড করেছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শেষ বারের মত লিখাটা মন্দ হয়নি এরপর মনে হয়না এরকম আর আমাদের সাথে লড়তে চাইবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমাদের দেশে যেই সব জিনিস সমাজে প্রচুর উপকার করে এবং যদি তাকে মানুষ খুব ভালো বাসে আর সে যদি ব্যাকরণে স্ত্রী লিঙ্গ হয় তা হলে তাকে মাতৃ রুপে দেখা হয়। গরু দুধ মাখন পনির খেয়ে আমারা বরো হয় আর আমাদের বাচ্চারা মা দুধের পর গরু দুধ খেয়ে বেচে থাকে তাই তাকে অনেকে ভালোবেসে মাতা হিসাবে গণ্য করে। ঠিক তেমনি ভারতে অনেকে গংগা নদি কে মাতা বলে অনেকে তাদের নিজেদের </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আর বাংলাদেশ সহ সারা বিশ্বের মুসলমান আপনাদের পাশে থাকবে আমার বিশ্বাস। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ আমাদের উপর রহমত বর্ষন করুন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এমনেনি মামা তুমি সারা পূথীবির গরব ময় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিন্দু বা মুসলিম বলে কথা নয় সবাই এক আল্লার সৃষ্টি । রেল গাড়িতে যেমন মুসলমান ছিলেন হিন্দু ছিলেন সেটা বড় কথা নয় সবাই তো মানুষ ছিলেন ।যে য়ার ধমীর্য় মতে দোয়া করা উচিত । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রাজশাহী দলের জিতাটা খুবই জরুরী। অতএব জয় টা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সত্যি এক অসাধারণ ব্যক্তিত্ব হলেন ফিদেল কাস্ত্রো অসাধারণ ছিল তার শাসনকাল যা পশ্চিমাদের কাছে ছিল ঈর্ষান্বিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদেরকে রোহিঙ্গা হিসাবে বিবেচনা না করে মানুষ হিসাবেই বিবাচনা করা হোক। </t>
+  </si>
+  <si>
+    <t>খুব সুন্দর লাগছে বুবাইদা তোমাকে, সাথে আমার প্রিয় সঙ্গীত শিল্পী মিষ্টি পৌষালীকেও</t>
+  </si>
+  <si>
+    <t>জিহবা দেখানো কোন সভ্য আচরন হতে পারে না।আনন্দের ও একটা লিমিটেশন থাকে</t>
+  </si>
+  <si>
+    <t>হ্যাপি সত্যিই খুব খুব খুব হ্যাপি বিউটিফুল পিকচারস</t>
+  </si>
+  <si>
+    <t>আরো নতুন গান চাই।ধন্যবাদ।</t>
+  </si>
+  <si>
+    <t>এই পুরস্কার নিতে ওরা নিজেরাও লজ্জা পাবে( যদি লজ্জা থাকে। অবশ্য নেই)।</t>
+  </si>
+  <si>
+    <t>অসাধারণ অভিনয় ছিল</t>
+  </si>
+  <si>
+    <t>এটা আশ্রম না করে মাদ্রাসা করতে পারত মুভির নাম লজ্জা থাকা দরকার ডাইরেক্টরের অভিনেতার সেন্ট্রাল ফিল্ম বোর্ড এর</t>
+  </si>
+  <si>
+    <t>হিন্দু বিরোধী মন্তব্য করে, বিপাকে পড়ে আশ্রয়স্বরুপ তৃণমূলকে আঁকড়ে ধরেছে,তা যথার্থই।কারণ তৃণমূল দলটাই হিন্দু বিরোধী</t>
+  </si>
+  <si>
+    <t>আমরা নিজেদের অজান্তেই কখন পণ্য হোয়ে যাচ্ছি বুঝতে পারছি না । অশনি সংকেত!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাই আল্লাহ আপনাকে ও সন্তান কে হায়ত বারায়ে দিন আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি জেনে খুশি হবেন যে এক্ষেত্রে করে দিয়ে করে করুন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">তোরা কাফেরদের সাথে হাত মিলিয়ে মুসলমানদের হত্যার তামাশা দেখছো।কেমন মুসলিম তোরা??? রাসূলস বলেছেন মুসলিম জাতি একে অপরের ভাই।একজন অরেক জনের বিপদে সাহায্য করবে।আর এখন কি হচ্ছে???ইয়া আল্লাহ তুমি মুসলিম জাতিকে হেফাজত করুন আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অস্থির একটা মজার পেজ বাঁশ খাবি বাঁশ খাবি বাঁশ খাবি বাঁশ দিতে চাইলে লাইক দিয়ে এক্টিভ থাকুন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাবাস তামিম তুমাকে অসংখ্য ধ্যনবাদ করার জন্য এগিয়ে যাও </t>
+  </si>
+  <si>
+    <t xml:space="preserve">একমাত্র আল্লাহ আমাদের সহায় । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব তুমি এগিয়ে জাও বাংলার ক্রিকেট ভকতরা আচে তোমার সাতে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাশরাফি ভাইয়ের সেই ভিডিও ক্লিপটা আমি দেখছি। উনি এতটাই মহান এবং উদার একজন মানুুষ যে যতটাই বলা হোক কম হয়ে যাবে। আমার তো মনে হয় তিনি একজন খাঁটি দেশ প্রেমিক এবং বল হাতে দেশের একজন বীর মুক্তিযোদ্ধা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ তাকে বেহেশত নসিব করুন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারত তো শান্তির দেশ ।মুসলিম রা অনেক আরামে আছে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জঙ্গী জাকির কে দেশে ফিরিয়ে এনে ফাঁসি দেয়া হক ।ধর্মকে নিয়ে ব্যবসা করে এই দাঁতের ডাক্তার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথম আলোর সম্পাদকের মত কুলাঙ্গারেরা ইসলাম ধর্ম দেশ এবং জাতির শত্রু এদের জন্মের বৈধতা নিয়ে যথেষ্ট সন্দেহ রয়েছে।মাদারচুদেরা ভাল কাজতো করতে পারেনা পারে শুধু দালালি করতে এবং মিথ্যে তথ্য দিয়ে জনগণকে বিভ্রান্ত করতে এরা মরার আগে মানুষ হবেনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কেন রে ভাই।এই মিথ্যা খবর প্রচার করে নিজের বাবা মা কে ফ্রি গালি খাওয়াছ কেন।তরে কষ্ট করে অমানুষ করেছেন বলেই কি তাদের উপর প্রতিশুধ নিতেছত মানুষ দ্বারা তাদের গালি দিয়ে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জাকির তোমাদের মত আবাল না যে বৃত্তি দেবে সন্ত্রাসদের। আবাল নিউজ ফিড বুলশিট। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিত্য সংবাদ প্রচারকারী প্রথম আলো পত্রিকা বর্জন করুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সেই বৃত্তি জঙ্গি ফারাজও পেয়ে ছিলো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথম আলো তুমি প্রমান ছাড়া রিপোট ছাপিও না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওর পুটকি দিয়ে আই এস ভরে দিতে হবে এখন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভালো মানুষকে মানুষ ভাল থাকতে দেয় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুধু মাত্র কম্পানির প্রচারের জন্য কিছু মিথ্যা কথা লেখা। </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1831,6 +3692,47 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF050505"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.65"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF050505"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1849,10 +3751,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1879,13 +3785,317 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="data:image/svg+xml,%3csvg%20xmlns='http://www.w3.org/2000/svg'%20xmlns:xlink='http://www.w3.org/1999/xlink'%20viewBox='0%200%2016%2016'%3e%3cdefs%3e%3clinearGradient%20id='a'%20x1='50%25'%20x2='50%25'%20y1='10.25%25'%20y2='100%25'%3e%3cstop%20offset='0%25'%20stop-color='%23FEEA70'/%3e%3cstop%20offset='100%25'%20stop-color='%23F69B30'/%3e%3c/linearGradient%3e%3clinearGradient%20id='d'%20x1='50%25'%20x2='50%25'%20y1='0%25'%20y2='100%25'%3e%3cstop%20offset='0%25'%20stop-color='%23472315'/%3e%3cstop%20offset='100%25'%20stop-color='%238B3A0E'/%3e%3c/linearGradient%3e%3clinearGradient%20id='e'%20x1='50%25'%20x2='50%25'%20y1='0%25'%20y2='81.902%25'%3e%3cstop%20offset='0%25'%20stop-color='%23FC607C'/%3e%3cstop%20offset='100%25'%20stop-color='%23D91F3A'/%3e%3c/linearGradient%3e%3cfilter%20id='c'%20width='118.8%25'%20height='118.8%25'%20x='-9.4%25'%20y='-9.4%25'%20filterUnits='objectBoundingBox'%3e%3cfeGaussianBlur%20in='SourceAlpha'%20result='shadowBlurInner1'%20stdDeviation='1'/%3e%3cfeOffset%20dy='-1'%20in='shadowBlurInner1'%20result='shadowOffsetInner1'/%3e%3cfeComposite%20in='shadowOffsetInner1'%20in2='SourceAlpha'%20k2='-1'%20k3='1'%20operator='arithmetic'%20result='shadowInnerInner1'/%3e%3cfeColorMatrix%20in='shadowInnerInner1'%20values='0%200%200%200%200.921365489%200%200%200%200%200.460682745%200%200%200%200%200%200%200%200%200.35%200'/%3e%3c/filter%3e%3cpath%20id='b'%20d='M16%208A8%208%200%20110%208a8%208%200%200116%200'/%3e%3c/defs%3e%3cg%20fill='none'%3e%3cuse%20fill='url(%23a)'%20xlink:href='%23b'/%3e%3cuse%20fill='black'%20filter='url(%23c)'%20xlink:href='%23b'/%3e%3cpath%20fill='url(%23d)'%20d='M3%208.008C3%2010.023%204.006%2014%208%2014c3.993%200%205-3.977%205-5.992C13%207.849%2011.39%207%208%207c-3.39%200-5%20.849-5%201.008'/%3e%3cpath%20fill='url(%23e)'%20d='M4.541%2012.5c.804.995%201.907%201.5%203.469%201.5%201.563%200%202.655-.505%203.459-1.5-.551-.588-1.599-1.5-3.459-1.5s-2.917.912-3.469%201.5'/%3e%3cpath%20fill='%232A3755'%20d='M6.213%204.144c.263.188.502.455.41.788-.071.254-.194.369-.422.371-.78.011-1.708.255-2.506.612-.065.029-.197.088-.332.085-.124-.003-.251-.058-.327-.237-.067-.157-.073-.388.276-.598.545-.33%201.257-.48%201.909-.604a7.077%207.077%200%2000-1.315-.768c-.427-.194-.38-.457-.323-.6.127-.317.609-.196%201.078.026a9%209%200%20011.552.925zm3.577%200a8.953%208.953%200%20011.55-.925c.47-.222.95-.343%201.078-.026.057.143.104.406-.323.6a7.029%207.029%200%2000-1.313.768c.65.123%201.363.274%201.907.604.349.21.342.44.276.598-.077.18-.203.234-.327.237-.135.003-.267-.056-.332-.085-.797-.357-1.725-.6-2.504-.612-.228-.002-.351-.117-.422-.37-.091-.333.147-.6.41-.788z'/%3e%3c/g%3e%3c/svg%3e"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="244602000"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>951</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>951</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="data:image/svg+xml,%3csvg%20xmlns='http://www.w3.org/2000/svg'%20xmlns:xlink='http://www.w3.org/1999/xlink'%20viewBox='0%200%2016%2016'%3e%3cdefs%3e%3clinearGradient%20id='a'%20x1='50%25'%20x2='50%25'%20y1='0%25'%20y2='100%25'%3e%3cstop%20offset='0%25'%20stop-color='%23FF6680'/%3e%3cstop%20offset='100%25'%20stop-color='%23E61739'/%3e%3c/linearGradient%3e%3cfilter%20id='c'%20width='118.8%25'%20height='118.8%25'%20x='-9.4%25'%20y='-9.4%25'%20filterUnits='objectBoundingBox'%3e%3cfeGaussianBlur%20in='SourceAlpha'%20result='shadowBlurInner1'%20stdDeviation='1'/%3e%3cfeOffset%20dy='-1'%20in='shadowBlurInner1'%20result='shadowOffsetInner1'/%3e%3cfeComposite%20in='shadowOffsetInner1'%20in2='SourceAlpha'%20k2='-1'%20k3='1'%20operator='arithmetic'%20result='shadowInnerInner1'/%3e%3cfeColorMatrix%20in='shadowInnerInner1'%20values='0%200%200%200%200.710144928%200%200%200%200%200%200%200%200%200%200.117780134%200%200%200%200.349786932%200'/%3e%3c/filter%3e%3cpath%20id='b'%20d='M8%200a8%208%200%20100%2016A8%208%200%20008%200z'/%3e%3c/defs%3e%3cg%20fill='none'%3e%3cuse%20fill='url(%23a)'%20xlink:href='%23b'/%3e%3cuse%20fill='black'%20filter='url(%23c)'%20xlink:href='%23b'/%3e%3cpath%20fill='white'%20d='M10.473%204C8.275%204%208%205.824%208%205.824S7.726%204%205.528%204c-2.114%200-2.73%202.222-2.472%203.41C3.736%2010.55%208%2012.75%208%2012.75s4.265-2.2%204.945-5.34c.257-1.188-.36-3.41-2.472-3.41'/%3e%3c/g%3e%3c/svg%3e"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="325655940"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>951</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>951</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="data:image/svg+xml,%3csvg%20xmlns='http://www.w3.org/2000/svg'%20xmlns:xlink='http://www.w3.org/1999/xlink'%20viewBox='0%200%2016%2016'%3e%3cdefs%3e%3clinearGradient%20id='a'%20x1='50%25'%20x2='50%25'%20y1='0%25'%20y2='100%25'%3e%3cstop%20offset='0%25'%20stop-color='%2318AFFF'/%3e%3cstop%20offset='100%25'%20stop-color='%230062DF'/%3e%3c/linearGradient%3e%3cfilter%20id='c'%20width='118.8%25'%20height='118.8%25'%20x='-9.4%25'%20y='-9.4%25'%20filterUnits='objectBoundingBox'%3e%3cfeGaussianBlur%20in='SourceAlpha'%20result='shadowBlurInner1'%20stdDeviation='1'/%3e%3cfeOffset%20dy='-1'%20in='shadowBlurInner1'%20result='shadowOffsetInner1'/%3e%3cfeComposite%20in='shadowOffsetInner1'%20in2='SourceAlpha'%20k2='-1'%20k3='1'%20operator='arithmetic'%20result='shadowInnerInner1'/%3e%3cfeColorMatrix%20in='shadowInnerInner1'%20values='0%200%200%200%200%200%200%200%200%200.299356041%200%200%200%200%200.681187726%200%200%200%200.3495684%200'/%3e%3c/filter%3e%3cpath%20id='b'%20d='M8%200a8%208%200%2000-8%208%208%208%200%201016%200%208%208%200%2000-8-8z'/%3e%3c/defs%3e%3cg%20fill='none'%3e%3cuse%20fill='url(%23a)'%20xlink:href='%23b'/%3e%3cuse%20fill='black'%20filter='url(%23c)'%20xlink:href='%23b'/%3e%3cpath%20fill='white'%20d='M12.162%207.338c.176.123.338.245.338.674%200%20.43-.229.604-.474.725a.73.73%200%2001.089.546c-.077.344-.392.611-.672.69.121.194.159.385.015.62-.185.295-.346.407-1.058.407H7.5c-.988%200-1.5-.546-1.5-1V7.665c0-1.23%201.467-2.275%201.467-3.13L7.361%203.47c-.005-.065.008-.224.058-.27.08-.079.301-.2.635-.2.218%200%20.363.041.534.123.581.277.732.978.732%201.542%200%20.271-.414%201.083-.47%201.364%200%200%20.867-.192%201.879-.199%201.061-.006%201.749.19%201.749.842%200%20.261-.219.523-.316.666zM3.6%207h.8a.6.6%200%2001.6.6v3.8a.6.6%200%2001-.6.6h-.8a.6.6%200%2001-.6-.6V7.6a.6.6%200%2001.6-.6z'/%3e%3c/g%3e%3c/svg%3e"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="160020" y="325655940"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>951</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>951</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="data:image/svg+xml,%3csvg%20xmlns='http://www.w3.org/2000/svg'%20xmlns:xlink='http://www.w3.org/1999/xlink'%20viewBox='0%200%2016%2016'%3e%3cdefs%3e%3clinearGradient%20id='a'%20x1='50%25'%20x2='50%25'%20y1='10.25%25'%20y2='100%25'%3e%3cstop%20offset='0%25'%20stop-color='%23FEEA70'/%3e%3cstop%20offset='100%25'%20stop-color='%23F69B30'/%3e%3c/linearGradient%3e%3clinearGradient%20id='d'%20x1='50%25'%20x2='50%25'%20y1='0%25'%20y2='100%25'%3e%3cstop%20offset='0%25'%20stop-color='%23472315'/%3e%3cstop%20offset='100%25'%20stop-color='%238B3A0E'/%3e%3c/linearGradient%3e%3clinearGradient%20id='e'%20x1='50%25'%20x2='50%25'%20y1='0%25'%20y2='81.902%25'%3e%3cstop%20offset='0%25'%20stop-color='%23FC607C'/%3e%3cstop%20offset='100%25'%20stop-color='%23D91F3A'/%3e%3c/linearGradient%3e%3cfilter%20id='c'%20width='118.8%25'%20height='118.8%25'%20x='-9.4%25'%20y='-9.4%25'%20filterUnits='objectBoundingBox'%3e%3cfeGaussianBlur%20in='SourceAlpha'%20result='shadowBlurInner1'%20stdDeviation='1'/%3e%3cfeOffset%20dy='-1'%20in='shadowBlurInner1'%20result='shadowOffsetInner1'/%3e%3cfeComposite%20in='shadowOffsetInner1'%20in2='SourceAlpha'%20k2='-1'%20k3='1'%20operator='arithmetic'%20result='shadowInnerInner1'/%3e%3cfeColorMatrix%20in='shadowInnerInner1'%20values='0%200%200%200%200.921365489%200%200%200%200%200.460682745%200%200%200%200%200%200%200%200%200.35%200'/%3e%3c/filter%3e%3cpath%20id='b'%20d='M16%208A8%208%200%20110%208a8%208%200%200116%200'/%3e%3c/defs%3e%3cg%20fill='none'%3e%3cuse%20fill='url(%23a)'%20xlink:href='%23b'/%3e%3cuse%20fill='black'%20filter='url(%23c)'%20xlink:href='%23b'/%3e%3cpath%20fill='url(%23d)'%20d='M3%208.008C3%2010.023%204.006%2014%208%2014c3.993%200%205-3.977%205-5.992C13%207.849%2011.39%207%208%207c-3.39%200-5%20.849-5%201.008'/%3e%3cpath%20fill='url(%23e)'%20d='M4.541%2012.5c.804.995%201.907%201.5%203.469%201.5%201.563%200%202.655-.505%203.459-1.5-.551-.588-1.599-1.5-3.459-1.5s-2.917.912-3.469%201.5'/%3e%3cpath%20fill='%232A3755'%20d='M6.213%204.144c.263.188.502.455.41.788-.071.254-.194.369-.422.371-.78.011-1.708.255-2.506.612-.065.029-.197.088-.332.085-.124-.003-.251-.058-.327-.237-.067-.157-.073-.388.276-.598.545-.33%201.257-.48%201.909-.604a7.077%207.077%200%2000-1.315-.768c-.427-.194-.38-.457-.323-.6.127-.317.609-.196%201.078.026a9%209%200%20011.552.925zm3.577%200a8.953%208.953%200%20011.55-.925c.47-.222.95-.343%201.078-.026.057.143.104.406-.323.6a7.029%207.029%200%2000-1.313.768c.65.123%201.363.274%201.907.604.349.21.342.44.276.598-.077.18-.203.234-.327.237-.135.003-.267-.056-.332-.085-.797-.357-1.725-.6-2.504-.612-.228-.002-.351-.117-.422-.37-.091-.333.147-.6.41-.788z'/%3e%3c/g%3e%3c/svg%3e"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="320040" y="325655940"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1092</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1092</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="data:image/svg+xml,%3csvg%20xmlns='http://www.w3.org/2000/svg'%20xmlns:xlink='http://www.w3.org/1999/xlink'%20viewBox='0%200%2016%2016'%3e%3cdefs%3e%3clinearGradient%20id='a'%20x1='50%25'%20x2='50%25'%20y1='10.25%25'%20y2='100%25'%3e%3cstop%20offset='0%25'%20stop-color='%23FEEA70'/%3e%3cstop%20offset='100%25'%20stop-color='%23F69B30'/%3e%3c/linearGradient%3e%3clinearGradient%20id='d'%20x1='50%25'%20x2='50%25'%20y1='0%25'%20y2='100%25'%3e%3cstop%20offset='0%25'%20stop-color='%23472315'/%3e%3cstop%20offset='100%25'%20stop-color='%238B3A0E'/%3e%3c/linearGradient%3e%3clinearGradient%20id='e'%20x1='50%25'%20x2='50%25'%20y1='0%25'%20y2='81.902%25'%3e%3cstop%20offset='0%25'%20stop-color='%23FC607C'/%3e%3cstop%20offset='100%25'%20stop-color='%23D91F3A'/%3e%3c/linearGradient%3e%3cfilter%20id='c'%20width='118.8%25'%20height='118.8%25'%20x='-9.4%25'%20y='-9.4%25'%20filterUnits='objectBoundingBox'%3e%3cfeGaussianBlur%20in='SourceAlpha'%20result='shadowBlurInner1'%20stdDeviation='1'/%3e%3cfeOffset%20dy='-1'%20in='shadowBlurInner1'%20result='shadowOffsetInner1'/%3e%3cfeComposite%20in='shadowOffsetInner1'%20in2='SourceAlpha'%20k2='-1'%20k3='1'%20operator='arithmetic'%20result='shadowInnerInner1'/%3e%3cfeColorMatrix%20in='shadowInnerInner1'%20values='0%200%200%200%200.921365489%200%200%200%200%200.460682745%200%200%200%200%200%200%200%200%200.35%200'/%3e%3c/filter%3e%3cpath%20id='b'%20d='M16%208A8%208%200%20110%208a8%208%200%200116%200'/%3e%3c/defs%3e%3cg%20fill='none'%3e%3cuse%20fill='url(%23a)'%20xlink:href='%23b'/%3e%3cuse%20fill='black'%20filter='url(%23c)'%20xlink:href='%23b'/%3e%3cpath%20fill='url(%23d)'%20d='M3%208.008C3%2010.023%204.006%2014%208%2014c3.993%200%205-3.977%205-5.992C13%207.849%2011.39%207%208%207c-3.39%200-5%20.849-5%201.008'/%3e%3cpath%20fill='url(%23e)'%20d='M4.541%2012.5c.804.995%201.907%201.5%203.469%201.5%201.563%200%202.655-.505%203.459-1.5-.551-.588-1.599-1.5-3.459-1.5s-2.917.912-3.469%201.5'/%3e%3cpath%20fill='%232A3755'%20d='M6.213%204.144c.263.188.502.455.41.788-.071.254-.194.369-.422.371-.78.011-1.708.255-2.506.612-.065.029-.197.088-.332.085-.124-.003-.251-.058-.327-.237-.067-.157-.073-.388.276-.598.545-.33%201.257-.48%201.909-.604a7.077%207.077%200%2000-1.315-.768c-.427-.194-.38-.457-.323-.6.127-.317.609-.196%201.078.026a9%209%200%20011.552.925zm3.577%200a8.953%208.953%200%20011.55-.925c.47-.222.95-.343%201.078-.026.057.143.104.406-.323.6a7.029%207.029%200%2000-1.313.768c.65.123%201.363.274%201.907.604.349.21.342.44.276.598-.077.18-.203.234-.327.237-.135.003-.267-.056-.332-.085-.797-.357-1.725-.6-2.504-.612-.228-.002-.351-.117-.422-.37-.091-.333.147-.6.41-.788z'/%3e%3c/g%3e%3c/svg%3e"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="315650880"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2173,15 +4383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:C1221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A585" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A596" sqref="A596:B600"/>
+    <sheetView tabSelected="1" topLeftCell="A1210" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1229" sqref="E1229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="77.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2249,7 +4459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +4467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2289,7 +4499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72">
+    <row r="14" spans="1:2" ht="57.6">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2297,7 +4507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2305,7 +4515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72">
+    <row r="16" spans="1:2" ht="57.6">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2329,7 +4539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.6">
+    <row r="19" spans="1:2" ht="43.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -2337,7 +4547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="43.2">
+    <row r="20" spans="1:2" ht="28.8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2345,7 +4555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="57.6">
+    <row r="21" spans="1:2" ht="43.2">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +4563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2">
+    <row r="22" spans="1:2" ht="28.8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2361,7 +4571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +4579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="100.8">
+    <row r="24" spans="1:2" ht="72">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2377,7 +4587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2385,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="86.4">
+    <row r="26" spans="1:2" ht="72">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -2417,7 +4627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2425,7 +4635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="86.4">
+    <row r="31" spans="1:2" ht="57.6">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +4643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="72">
+    <row r="32" spans="1:2" ht="57.6">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2441,7 +4651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="129.6">
+    <row r="33" spans="1:2" ht="86.4">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -2449,7 +4659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="57.6">
+    <row r="34" spans="1:2" ht="43.2">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2457,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -2465,7 +4675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="43.2">
+    <row r="36" spans="1:2" ht="28.8">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,7 +4691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.8">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,7 +4699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="57.6">
+    <row r="39" spans="1:2" ht="43.2">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2521,7 +4731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="28.8">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2529,7 +4739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="57.6">
+    <row r="44" spans="1:2" ht="43.2">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,7 +4747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="43.2">
+    <row r="45" spans="1:2" ht="28.8">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -2545,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.2">
+    <row r="46" spans="1:2" ht="28.8">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -2561,7 +4771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="144">
+    <row r="48" spans="1:2" ht="100.8">
       <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
@@ -2569,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="129.6">
+    <row r="49" spans="1:2" ht="86.4">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2601,7 +4811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="86.4">
+    <row r="53" spans="1:2" ht="72">
       <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
@@ -2609,7 +4819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.8">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2617,7 +4827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.8">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -2641,7 +4851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="43.2">
+    <row r="58" spans="1:2" ht="28.8">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -2649,7 +4859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="43.2">
+    <row r="59" spans="1:2" ht="28.8">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -2657,7 +4867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.8">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -2665,7 +4875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.8">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2673,7 +4883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="86.4">
+    <row r="62" spans="1:2" ht="57.6">
       <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
@@ -2689,7 +4899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="72">
+    <row r="64" spans="1:2" ht="43.2">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -2721,7 +4931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="28.8">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -2729,7 +4939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="57.6">
+    <row r="69" spans="1:2" ht="43.2">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,7 +4947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="43.2">
+    <row r="70" spans="1:2" ht="28.8">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -2745,7 +4955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="57.6">
+    <row r="71" spans="1:2" ht="43.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,7 +4971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="57.6">
+    <row r="73" spans="1:2" ht="43.2">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
@@ -2769,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="57.6">
+    <row r="74" spans="1:2" ht="43.2">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,7 +4987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="57.6">
+    <row r="75" spans="1:2" ht="43.2">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2785,7 +4995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="72">
+    <row r="76" spans="1:2" ht="57.6">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -2809,7 +5019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="57.6">
+    <row r="79" spans="1:2" ht="43.2">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -2817,7 +5027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="43.2">
+    <row r="80" spans="1:2" ht="28.8">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
@@ -2825,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="86.4">
+    <row r="81" spans="1:2" ht="57.6">
       <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
@@ -2833,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="28.8">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -2841,7 +5051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="28.8">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -2849,7 +5059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="28.8">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
@@ -2873,7 +5083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="28.8">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
@@ -2881,7 +5091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="43.2">
+    <row r="88" spans="1:2" ht="28.8">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -2889,7 +5099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="28.8">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -2897,7 +5107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="57.6">
+    <row r="90" spans="1:2" ht="43.2">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -2905,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.8">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -2929,7 +5139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="43.2">
+    <row r="94" spans="1:2" ht="28.8">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -2937,7 +5147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="28.8">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
@@ -2961,7 +5171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="28.8">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -2993,7 +5203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="28.8">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -3001,7 +5211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="28.8">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -3009,7 +5219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="28.8">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -3025,7 +5235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="28.8">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -3033,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="28.8">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -3089,7 +5299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="57.6">
+    <row r="114" spans="1:2" ht="43.2">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -3105,7 +5315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="72">
+    <row r="116" spans="1:2" ht="43.2">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -3137,7 +5347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="28.8">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>131</v>
       </c>
@@ -3169,7 +5379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="28.8">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
@@ -3177,7 +5387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="144">
+    <row r="125" spans="1:2" ht="100.8">
       <c r="A125" s="3" t="s">
         <v>121</v>
       </c>
@@ -3185,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="72">
+    <row r="126" spans="1:2" ht="43.2">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
@@ -3193,7 +5403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="86.4">
+    <row r="127" spans="1:2" ht="57.6">
       <c r="A127" s="3" t="s">
         <v>123</v>
       </c>
@@ -3201,7 +5411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="43.2">
+    <row r="128" spans="1:2" ht="28.8">
       <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
@@ -3225,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="28.8">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
@@ -3233,7 +5443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="28.8">
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -3249,7 +5459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="43.2">
+    <row r="134" spans="1:2" ht="28.8">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -3265,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="28.8">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -3281,7 +5491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="57.6">
+    <row r="138" spans="1:2" ht="43.2">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -3289,7 +5499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="28.8">
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -3297,7 +5507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="28.8">
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -3313,7 +5523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="43.2">
+    <row r="142" spans="1:2" ht="28.8">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -3329,7 +5539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="28.8">
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -3345,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="28.8">
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -3393,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="28.8">
+    <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
@@ -3425,7 +5635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="50.4">
+    <row r="156" spans="1:2" ht="33.6">
       <c r="A156" s="4" t="s">
         <v>158</v>
       </c>
@@ -3449,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="33.6">
+    <row r="159" spans="1:2" ht="16.8">
       <c r="A159" s="4" t="s">
         <v>161</v>
       </c>
@@ -3457,7 +5667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="33.6">
+    <row r="160" spans="1:2" ht="16.8">
       <c r="A160" s="4" t="s">
         <v>162</v>
       </c>
@@ -3465,7 +5675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="33.6">
+    <row r="161" spans="1:2" ht="16.8">
       <c r="A161" s="4" t="s">
         <v>163</v>
       </c>
@@ -3481,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="33.6">
+    <row r="163" spans="1:2" ht="16.8">
       <c r="A163" s="4" t="s">
         <v>165</v>
       </c>
@@ -3529,7 +5739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="129.6">
+    <row r="169" spans="1:2" ht="86.4">
       <c r="A169" s="3" t="s">
         <v>170</v>
       </c>
@@ -3553,7 +5763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="57.6">
+    <row r="172" spans="1:2" ht="43.2">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -3561,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="72">
+    <row r="173" spans="1:2" ht="43.2">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -3577,7 +5787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="43.2">
+    <row r="175" spans="1:2" ht="28.8">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -3585,7 +5795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="72">
+    <row r="176" spans="1:2" ht="43.2">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -3625,7 +5835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="28.8">
+    <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -3641,7 +5851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="28.8">
+    <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -3657,7 +5867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="43.2">
+    <row r="185" spans="1:2" ht="28.8">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -3673,7 +5883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="28.8">
+    <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -3681,7 +5891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="144">
+    <row r="188" spans="1:2" ht="100.8">
       <c r="A188" s="3" t="s">
         <v>189</v>
       </c>
@@ -3713,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="144">
+    <row r="192" spans="1:2" ht="100.8">
       <c r="A192" s="3" t="s">
         <v>193</v>
       </c>
@@ -3721,7 +5931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="28.8">
+    <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -3745,7 +5955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="43.2">
+    <row r="196" spans="1:2" ht="28.8">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -3753,7 +5963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="43.2">
+    <row r="197" spans="1:2" ht="28.8">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -3809,7 +6019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="28.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="7" t="s">
         <v>205</v>
       </c>
@@ -3841,7 +6051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="28.8">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -3849,7 +6059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="57.6">
+    <row r="209" spans="1:2" ht="43.2">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -3857,7 +6067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="28.8">
+    <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -3873,7 +6083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="57.6">
+    <row r="212" spans="1:2" ht="43.2">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -3881,7 +6091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="43.2">
+    <row r="213" spans="1:2" ht="28.8">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -3889,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="57.6">
+    <row r="214" spans="1:2" ht="43.2">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -3905,7 +6115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="43.2">
+    <row r="216" spans="1:2" ht="28.8">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -3913,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="28.8">
+    <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -3921,7 +6131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="57.6">
+    <row r="218" spans="1:2" ht="43.2">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -3937,7 +6147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="28.8">
+    <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -3961,7 +6171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="28.8">
+    <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -3985,7 +6195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="43.2">
+    <row r="226" spans="1:2" ht="28.8">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -3993,7 +6203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="72">
+    <row r="227" spans="1:2" ht="43.2">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -4009,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="43.2">
+    <row r="229" spans="1:2" ht="28.8">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -4025,7 +6235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="43.2">
+    <row r="231" spans="1:2" ht="28.8">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -4041,7 +6251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="28.8">
+    <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -4065,7 +6275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="28.8">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -4081,7 +6291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="43.2">
+    <row r="238" spans="1:2" ht="28.8">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -4089,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="57.6">
+    <row r="239" spans="1:2" ht="43.2">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -4105,7 +6315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="57.6">
+    <row r="241" spans="1:2" ht="43.2">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -4121,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="28.8">
+    <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -4137,7 +6347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="28.8">
+    <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -4145,7 +6355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="28.8">
+    <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -4153,7 +6363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="72">
+    <row r="247" spans="1:2" ht="57.6">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -4185,7 +6395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="28.8">
+    <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -4209,7 +6419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="28.8">
+    <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -4241,7 +6451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="86.4">
+    <row r="258" spans="1:2" ht="57.6">
       <c r="A258" s="3" t="s">
         <v>259</v>
       </c>
@@ -4249,7 +6459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="43.2">
+    <row r="259" spans="1:2" ht="28.8">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -4257,7 +6467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="43.2">
+    <row r="260" spans="1:2" ht="28.8">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -4265,7 +6475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="43.2">
+    <row r="261" spans="1:2" ht="28.8">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -4321,7 +6531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="57.6">
+    <row r="268" spans="1:2" ht="43.2">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -4329,7 +6539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="28.8">
+    <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -4345,7 +6555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="100.8">
+    <row r="271" spans="1:2" ht="72">
       <c r="A271" s="3" t="s">
         <v>272</v>
       </c>
@@ -4353,7 +6563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="28.8">
+    <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -4361,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="72">
+    <row r="273" spans="1:2" ht="57.6">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -4377,7 +6587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="86.4">
+    <row r="275" spans="1:2" ht="57.6">
       <c r="A275" s="3" t="s">
         <v>276</v>
       </c>
@@ -4385,7 +6595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="28.8">
+    <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -4401,7 +6611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="43.2">
+    <row r="278" spans="1:2" ht="28.8">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -4417,7 +6627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="28.8">
+    <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -4425,7 +6635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="86.4">
+    <row r="281" spans="1:2" ht="72">
       <c r="A281" s="3" t="s">
         <v>282</v>
       </c>
@@ -4433,7 +6643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="144">
+    <row r="282" spans="1:2" ht="100.8">
       <c r="A282" s="3" t="s">
         <v>283</v>
       </c>
@@ -4449,7 +6659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="144">
+    <row r="284" spans="1:2" ht="100.8">
       <c r="A284" s="3" t="s">
         <v>285</v>
       </c>
@@ -4457,7 +6667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="28.8">
+    <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
@@ -4497,7 +6707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="28.8">
+    <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
@@ -4505,7 +6715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="57.6">
+    <row r="291" spans="1:2" ht="43.2">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
@@ -4513,7 +6723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="57.6">
+    <row r="292" spans="1:2" ht="43.2">
       <c r="A292" s="1" t="s">
         <v>293</v>
       </c>
@@ -4529,7 +6739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="43.2">
+    <row r="294" spans="1:2" ht="28.8">
       <c r="A294" s="1" t="s">
         <v>295</v>
       </c>
@@ -4537,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="43.2">
+    <row r="295" spans="1:2" ht="28.8">
       <c r="A295" s="1" t="s">
         <v>296</v>
       </c>
@@ -4609,7 +6819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="28.8">
+    <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
         <v>305</v>
       </c>
@@ -4617,7 +6827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="72">
+    <row r="305" spans="1:2" ht="43.2">
       <c r="A305" s="1" t="s">
         <v>306</v>
       </c>
@@ -4625,7 +6835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="100.8">
+    <row r="306" spans="1:2" ht="72">
       <c r="A306" s="3" t="s">
         <v>307</v>
       </c>
@@ -4673,7 +6883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="43.2">
+    <row r="312" spans="1:2" ht="28.8">
       <c r="A312" s="1" t="s">
         <v>313</v>
       </c>
@@ -4681,7 +6891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="57.6">
+    <row r="313" spans="1:2" ht="43.2">
       <c r="A313" s="1" t="s">
         <v>314</v>
       </c>
@@ -4729,7 +6939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="43.2">
+    <row r="319" spans="1:2" ht="28.8">
       <c r="A319" s="1" t="s">
         <v>320</v>
       </c>
@@ -4737,7 +6947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="100.8">
+    <row r="320" spans="1:2" ht="72">
       <c r="A320" s="3" t="s">
         <v>321</v>
       </c>
@@ -4753,7 +6963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="43.2">
+    <row r="322" spans="1:2" ht="28.8">
       <c r="A322" s="1" t="s">
         <v>323</v>
       </c>
@@ -4761,7 +6971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="28.8">
+    <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
         <v>324</v>
       </c>
@@ -4769,7 +6979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="57.6">
+    <row r="324" spans="1:2" ht="43.2">
       <c r="A324" s="1" t="s">
         <v>325</v>
       </c>
@@ -4777,7 +6987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="28.8">
+    <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
         <v>326</v>
       </c>
@@ -4825,7 +7035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="28.8">
+    <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
         <v>332</v>
       </c>
@@ -4849,7 +7059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="28.8">
+    <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
         <v>335</v>
       </c>
@@ -4881,7 +7091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="57.6">
+    <row r="338" spans="1:2" ht="43.2">
       <c r="A338" s="1" t="s">
         <v>339</v>
       </c>
@@ -4889,7 +7099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="43.2">
+    <row r="339" spans="1:2" ht="28.8">
       <c r="A339" s="1" t="s">
         <v>340</v>
       </c>
@@ -4905,7 +7115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="28.8">
+    <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
@@ -4921,7 +7131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="28.8">
+    <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
         <v>344</v>
       </c>
@@ -4929,7 +7139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="144">
+    <row r="344" spans="1:2" ht="100.8">
       <c r="A344" s="3" t="s">
         <v>345</v>
       </c>
@@ -4945,7 +7155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="43.2">
+    <row r="346" spans="1:2" ht="28.8">
       <c r="A346" s="1" t="s">
         <v>347</v>
       </c>
@@ -4977,7 +7187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="28.8">
+    <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
         <v>351</v>
       </c>
@@ -5009,7 +7219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="28.8">
+    <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
         <v>355</v>
       </c>
@@ -5025,7 +7235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="144">
+    <row r="356" spans="1:2" ht="100.8">
       <c r="A356" s="3" t="s">
         <v>357</v>
       </c>
@@ -5041,7 +7251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="43.2">
+    <row r="358" spans="1:2" ht="28.8">
       <c r="A358" s="1" t="s">
         <v>359</v>
       </c>
@@ -5049,7 +7259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="86.4">
+    <row r="359" spans="1:2" ht="57.6">
       <c r="A359" s="3" t="s">
         <v>360</v>
       </c>
@@ -5057,7 +7267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="72">
+    <row r="360" spans="1:2" ht="57.6">
       <c r="A360" s="3" t="s">
         <v>361</v>
       </c>
@@ -5073,7 +7283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="28.8">
+    <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
         <v>363</v>
       </c>
@@ -5089,7 +7299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="43.2">
+    <row r="364" spans="1:2" ht="28.8">
       <c r="A364" s="1" t="s">
         <v>365</v>
       </c>
@@ -5097,7 +7307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="28.8">
+    <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
         <v>366</v>
       </c>
@@ -5145,7 +7355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="72">
+    <row r="371" spans="1:2" ht="57.6">
       <c r="A371" s="1" t="s">
         <v>371</v>
       </c>
@@ -5153,7 +7363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="57.6">
+    <row r="372" spans="1:2" ht="43.2">
       <c r="A372" s="1" t="s">
         <v>372</v>
       </c>
@@ -5161,7 +7371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="86.4">
+    <row r="373" spans="1:2" ht="72">
       <c r="A373" s="3" t="s">
         <v>373</v>
       </c>
@@ -5169,7 +7379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="72">
+    <row r="374" spans="1:2" ht="57.6">
       <c r="A374" s="1" t="s">
         <v>374</v>
       </c>
@@ -5185,7 +7395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="28.8">
+    <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
         <v>376</v>
       </c>
@@ -5193,7 +7403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="43.2">
+    <row r="377" spans="1:2" ht="28.8">
       <c r="A377" s="1" t="s">
         <v>377</v>
       </c>
@@ -5209,7 +7419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="28.8">
+    <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
         <v>379</v>
       </c>
@@ -5233,7 +7443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="28.8">
+    <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
         <v>382</v>
       </c>
@@ -5241,7 +7451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="72">
+    <row r="383" spans="1:2" ht="43.2">
       <c r="A383" s="1" t="s">
         <v>383</v>
       </c>
@@ -5257,7 +7467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="43.2">
+    <row r="385" spans="1:2" ht="28.8">
       <c r="A385" s="1" t="s">
         <v>385</v>
       </c>
@@ -5265,7 +7475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="43.2">
+    <row r="386" spans="1:2" ht="28.8">
       <c r="A386" s="1" t="s">
         <v>386</v>
       </c>
@@ -5281,7 +7491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="43.2">
+    <row r="388" spans="1:2" ht="28.8">
       <c r="A388" s="1" t="s">
         <v>388</v>
       </c>
@@ -5289,7 +7499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="28.8">
+    <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
         <v>389</v>
       </c>
@@ -5297,7 +7507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="28.8">
+    <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
         <v>390</v>
       </c>
@@ -5313,7 +7523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="43.2">
+    <row r="392" spans="1:2" ht="28.8">
       <c r="A392" s="1" t="s">
         <v>392</v>
       </c>
@@ -5329,7 +7539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="72">
+    <row r="394" spans="1:2" ht="57.6">
       <c r="A394" s="1" t="s">
         <v>394</v>
       </c>
@@ -5337,7 +7547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="57.6">
+    <row r="395" spans="1:2" ht="43.2">
       <c r="A395" s="1" t="s">
         <v>395</v>
       </c>
@@ -5345,7 +7555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="57.6">
+    <row r="396" spans="1:2" ht="43.2">
       <c r="A396" s="1" t="s">
         <v>396</v>
       </c>
@@ -5353,7 +7563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="43.2">
+    <row r="397" spans="1:2" ht="28.8">
       <c r="A397" s="1" t="s">
         <v>397</v>
       </c>
@@ -5361,7 +7571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="57.6">
+    <row r="398" spans="1:2" ht="43.2">
       <c r="A398" s="1" t="s">
         <v>398</v>
       </c>
@@ -5393,7 +7603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="72">
+    <row r="402" spans="1:2" ht="43.2">
       <c r="A402" s="1" t="s">
         <v>402</v>
       </c>
@@ -5457,7 +7667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="86.4">
+    <row r="410" spans="1:2" ht="57.6">
       <c r="A410" s="3" t="s">
         <v>410</v>
       </c>
@@ -5465,7 +7675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="43.2">
+    <row r="411" spans="1:2" ht="28.8">
       <c r="A411" s="1" t="s">
         <v>411</v>
       </c>
@@ -5481,7 +7691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="28.8">
+    <row r="413" spans="1:2">
       <c r="A413" s="1" t="s">
         <v>413</v>
       </c>
@@ -5489,7 +7699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="43.2">
+    <row r="414" spans="1:2" ht="28.8">
       <c r="A414" s="1" t="s">
         <v>414</v>
       </c>
@@ -5529,7 +7739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="43.2">
+    <row r="419" spans="1:2" ht="28.8">
       <c r="A419" s="1" t="s">
         <v>419</v>
       </c>
@@ -5545,7 +7755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="28.8">
+    <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
         <v>421</v>
       </c>
@@ -5553,7 +7763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="28.8">
+    <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
         <v>422</v>
       </c>
@@ -5561,7 +7771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="28.8">
+    <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
         <v>423</v>
       </c>
@@ -5577,7 +7787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="86.4">
+    <row r="425" spans="1:2" ht="57.6">
       <c r="A425" s="3" t="s">
         <v>425</v>
       </c>
@@ -5585,7 +7795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="28.8">
+    <row r="426" spans="1:2">
       <c r="A426" s="1" t="s">
         <v>426</v>
       </c>
@@ -5633,7 +7843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="43.2">
+    <row r="432" spans="1:2" ht="28.8">
       <c r="A432" s="1" t="s">
         <v>432</v>
       </c>
@@ -5641,7 +7851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="57.6">
+    <row r="433" spans="1:2" ht="43.2">
       <c r="A433" s="1" t="s">
         <v>433</v>
       </c>
@@ -5649,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="86.4">
+    <row r="434" spans="1:2" ht="57.6">
       <c r="A434" s="3" t="s">
         <v>434</v>
       </c>
@@ -5689,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="57.6">
+    <row r="439" spans="1:2" ht="43.2">
       <c r="A439" s="1" t="s">
         <v>439</v>
       </c>
@@ -5713,7 +7923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="43.2">
+    <row r="442" spans="1:2" ht="28.8">
       <c r="A442" s="1" t="s">
         <v>442</v>
       </c>
@@ -5737,7 +7947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="43.2">
+    <row r="445" spans="1:2" ht="28.8">
       <c r="A445" s="1" t="s">
         <v>445</v>
       </c>
@@ -5769,7 +7979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="28.8">
+    <row r="449" spans="1:2">
       <c r="A449" s="1" t="s">
         <v>449</v>
       </c>
@@ -5785,7 +7995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="43.2">
+    <row r="451" spans="1:2" ht="28.8">
       <c r="A451" s="1" t="s">
         <v>451</v>
       </c>
@@ -5809,7 +8019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="43.2">
+    <row r="454" spans="1:2" ht="28.8">
       <c r="A454" s="1" t="s">
         <v>454</v>
       </c>
@@ -5817,7 +8027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="72">
+    <row r="455" spans="1:2" ht="43.2">
       <c r="A455" s="1" t="s">
         <v>455</v>
       </c>
@@ -5825,7 +8035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="43.2">
+    <row r="456" spans="1:2" ht="28.8">
       <c r="A456" s="1" t="s">
         <v>456</v>
       </c>
@@ -5833,7 +8043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="72">
+    <row r="457" spans="1:2" ht="57.6">
       <c r="A457" s="3" t="s">
         <v>457</v>
       </c>
@@ -5849,7 +8059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="86.4">
+    <row r="459" spans="1:2" ht="57.6">
       <c r="A459" s="3" t="s">
         <v>459</v>
       </c>
@@ -5857,7 +8067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="28.8">
+    <row r="460" spans="1:2">
       <c r="A460" s="1" t="s">
         <v>460</v>
       </c>
@@ -5865,7 +8075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="28.8">
+    <row r="461" spans="1:2">
       <c r="A461" s="1" t="s">
         <v>461</v>
       </c>
@@ -5873,7 +8083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="28.8">
+    <row r="462" spans="1:2">
       <c r="A462" s="1" t="s">
         <v>462</v>
       </c>
@@ -5889,7 +8099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="28.8">
+    <row r="464" spans="1:2">
       <c r="A464" s="1" t="s">
         <v>464</v>
       </c>
@@ -5905,7 +8115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="100.8">
+    <row r="466" spans="1:2" ht="72">
       <c r="A466" s="3" t="s">
         <v>466</v>
       </c>
@@ -5929,7 +8139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="129.6">
+    <row r="469" spans="1:2" ht="86.4">
       <c r="A469" s="3" t="s">
         <v>469</v>
       </c>
@@ -5945,7 +8155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="43.2">
+    <row r="471" spans="1:2" ht="28.8">
       <c r="A471" s="1" t="s">
         <v>471</v>
       </c>
@@ -5953,7 +8163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="28.8">
+    <row r="472" spans="1:2">
       <c r="A472" s="1" t="s">
         <v>472</v>
       </c>
@@ -5969,7 +8179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="43.2">
+    <row r="474" spans="1:2" ht="28.8">
       <c r="A474" s="1" t="s">
         <v>474</v>
       </c>
@@ -6001,7 +8211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="28.8">
+    <row r="478" spans="1:2">
       <c r="A478" s="1" t="s">
         <v>478</v>
       </c>
@@ -6009,7 +8219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="28.8">
+    <row r="479" spans="1:2">
       <c r="A479" s="1" t="s">
         <v>479</v>
       </c>
@@ -6017,7 +8227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="28.8">
+    <row r="480" spans="1:2">
       <c r="A480" s="1" t="s">
         <v>480</v>
       </c>
@@ -6033,7 +8243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="28.8">
+    <row r="482" spans="1:2">
       <c r="A482" s="1" t="s">
         <v>482</v>
       </c>
@@ -6041,7 +8251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="28.8">
+    <row r="483" spans="1:2">
       <c r="A483" s="1" t="s">
         <v>483</v>
       </c>
@@ -6057,7 +8267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="28.8">
+    <row r="485" spans="1:2">
       <c r="A485" s="1" t="s">
         <v>485</v>
       </c>
@@ -6065,7 +8275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="43.2">
+    <row r="486" spans="1:2" ht="28.8">
       <c r="A486" s="1" t="s">
         <v>486</v>
       </c>
@@ -6081,7 +8291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="28.8">
+    <row r="488" spans="1:2">
       <c r="A488" s="1" t="s">
         <v>488</v>
       </c>
@@ -6089,7 +8299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="28.8">
+    <row r="489" spans="1:2">
       <c r="A489" s="1" t="s">
         <v>489</v>
       </c>
@@ -6105,7 +8315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="28.8">
+    <row r="491" spans="1:2">
       <c r="A491" s="1" t="s">
         <v>491</v>
       </c>
@@ -6137,7 +8347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="57.6">
+    <row r="495" spans="1:2" ht="43.2">
       <c r="A495" s="1" t="s">
         <v>210</v>
       </c>
@@ -6193,7 +8403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="28.8">
+    <row r="502" spans="1:2">
       <c r="A502" s="1" t="s">
         <v>501</v>
       </c>
@@ -6289,7 +8499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="28.8">
+    <row r="514" spans="1:2">
       <c r="A514" s="1" t="s">
         <v>513</v>
       </c>
@@ -6353,7 +8563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="43.2">
+    <row r="522" spans="1:2" ht="28.8">
       <c r="A522" s="1" t="s">
         <v>521</v>
       </c>
@@ -6369,7 +8579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="57.6">
+    <row r="524" spans="1:2" ht="43.2">
       <c r="A524" s="1" t="s">
         <v>523</v>
       </c>
@@ -6473,7 +8683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="28.8">
+    <row r="537" spans="1:2">
       <c r="A537" s="1" t="s">
         <v>536</v>
       </c>
@@ -6529,7 +8739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="28.8">
+    <row r="544" spans="1:2">
       <c r="A544" s="1" t="s">
         <v>543</v>
       </c>
@@ -6673,7 +8883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="28.8">
+    <row r="562" spans="1:2">
       <c r="A562" s="9" t="s">
         <v>555</v>
       </c>
@@ -6737,7 +8947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="28.8">
+    <row r="570" spans="1:2">
       <c r="A570" s="9" t="s">
         <v>564</v>
       </c>
@@ -6793,7 +9003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="28.8">
+    <row r="577" spans="1:2">
       <c r="A577" s="9" t="s">
         <v>571</v>
       </c>
@@ -6801,7 +9011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="28.8">
+    <row r="578" spans="1:2">
       <c r="A578" s="9" t="s">
         <v>572</v>
       </c>
@@ -6817,7 +9027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="28.8">
+    <row r="580" spans="1:2">
       <c r="A580" s="9" t="s">
         <v>574</v>
       </c>
@@ -6833,7 +9043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="86.4">
+    <row r="582" spans="1:2" ht="57.6">
       <c r="A582" s="11" t="s">
         <v>576</v>
       </c>
@@ -6857,7 +9067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="28.8">
+    <row r="585" spans="1:2">
       <c r="A585" s="9" t="s">
         <v>579</v>
       </c>
@@ -6937,7 +9147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="28.8">
+    <row r="595" spans="1:2">
       <c r="A595" s="9" t="s">
         <v>589</v>
       </c>
@@ -6945,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="28.8">
+    <row r="596" spans="1:2">
       <c r="A596" s="9" t="s">
         <v>590</v>
       </c>
@@ -6953,7 +9163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="28.8">
+    <row r="597" spans="1:2">
       <c r="A597" s="9" t="s">
         <v>591</v>
       </c>
@@ -6969,7 +9179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="43.2">
+    <row r="599" spans="1:2" ht="28.8">
       <c r="A599" s="9" t="s">
         <v>593</v>
       </c>
@@ -6977,7 +9187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="43.2">
+    <row r="600" spans="1:2" ht="28.8">
       <c r="A600" s="9" t="s">
         <v>594</v>
       </c>
@@ -6985,8 +9195,4990 @@
         <v>11</v>
       </c>
     </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B601" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="B602" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B603" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B604" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B605" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B606" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B607" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="42">
+      <c r="A608" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B608" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B609" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B610" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B611" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="B612" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B613" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B614" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B615" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B616" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B617" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B618" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B619" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B620" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B621" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B622" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="B623" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="B624" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B625" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="B626" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B627" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B628" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B629" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B630" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B631" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B632" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B633" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B634" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B635" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B636" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B637" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B638" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B639" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B640" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="28.8">
+      <c r="A641" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B641" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="72">
+      <c r="A642" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B642" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="28.8">
+      <c r="A643" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B643" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B644" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="28.8">
+      <c r="A645" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B645" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="28.8">
+      <c r="A646" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B646" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B647" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B648" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B649" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B650" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="28.8">
+      <c r="A651" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B651" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B652" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B653" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B654" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B655" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B656" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B657" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B658" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B659" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B660" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B661" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="28.8">
+      <c r="A662" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B662" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B663" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" ht="28.8">
+      <c r="A664" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B664" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="43.2">
+      <c r="A665" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B665" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="28.8">
+      <c r="A666" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="B666" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B667" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B668" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B669" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="28.8">
+      <c r="A670" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B670" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B671" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B672" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B673" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B674" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B675" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="28.8">
+      <c r="A676" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B676" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B677" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B678" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B679" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B680" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B681" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B682" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B683" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="28.8">
+      <c r="A684" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="B684" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="100.8">
+      <c r="A685" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B685" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B686" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="28.8">
+      <c r="A687" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B687" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B688" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" ht="28.8">
+      <c r="A689" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B689" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B690" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B691" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B692" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" ht="28.8">
+      <c r="A693" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B693" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" ht="28.8">
+      <c r="A694" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B694" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B695" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" ht="28.8">
+      <c r="A696" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B696" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B697" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B698" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="B699" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="B700" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" ht="28.8">
+      <c r="A701" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B701" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C701" s="15"/>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B702" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C702" s="15"/>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B703" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C703" s="15"/>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B704" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C704" s="15"/>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B705" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C705" s="15"/>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B706" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C706" s="15"/>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B707" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C707" s="15"/>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B708" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C708" s="15"/>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B709" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C709" s="15"/>
+    </row>
+    <row r="710" spans="1:3" ht="28.8">
+      <c r="A710" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B710" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C710" s="15"/>
+    </row>
+    <row r="711" spans="1:3" ht="28.8">
+      <c r="A711" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B711" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B712" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B713" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" ht="43.2">
+      <c r="A714" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B714" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="B715" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" ht="100.8">
+      <c r="A716" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B716" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B717" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B718" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" ht="100.8">
+      <c r="A719" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B719" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B720" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="43.2">
+      <c r="A721" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B721" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B722" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B723" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B724" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B725" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B726" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B727" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B728" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B729" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="28.8">
+      <c r="A730" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B730" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="B731" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="B732" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" ht="26.4">
+      <c r="A733" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="B733" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="B734" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="B735" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B736" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="B737" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B738" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B739" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B740" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="57.6">
+      <c r="A741" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B741" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B742" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="43.2">
+      <c r="A743" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B743" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B744" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="86.4">
+      <c r="A745" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B745" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" ht="28.8">
+      <c r="A746" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B746" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B747" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B748" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B749" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" ht="86.4">
+      <c r="A750" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B750" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" ht="28.8">
+      <c r="A751" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="B751" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" ht="28.8">
+      <c r="A752" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="B752" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="28.8">
+      <c r="A753" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="B753" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B754" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="B755" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="43.2">
+      <c r="A756" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B756" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="B757" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B758" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="B759" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B760" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="B761" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="B762" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="B763" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B764" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="B765" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="B766" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="B767" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="B768" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B769" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="B770" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="B771" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="B772" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="B773" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B774" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="B775" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B776" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B777" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="B778" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="31.2" customHeight="1">
+      <c r="A779" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B779" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="B780" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="B781" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B782" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B783" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="B784" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="B785" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="B786" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="B787" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B788" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="B789" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="B790" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="B791" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="B792" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B793" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="B794" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="27">
+      <c r="A795" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="B795" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="B796" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="B797" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="B798" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="B799" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="24">
+      <c r="A800" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="B800" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="B801" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="B802" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="B803" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B804" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B805" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" ht="43.2">
+      <c r="A806" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="B806" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B807" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="B808" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B809" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B810" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B811" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="28.8">
+      <c r="A812" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="B812" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B813" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="B814" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" ht="28.8">
+      <c r="A815" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="B815" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" ht="28.8">
+      <c r="A816" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B816" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" ht="28.8">
+      <c r="A817" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B817" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" ht="28.8">
+      <c r="A818" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="B818" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" ht="28.8">
+      <c r="A819" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B819" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B820" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B821" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B822" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="B823" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B824" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="B825" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" ht="28.8">
+      <c r="A826" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="B826" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" ht="43.2">
+      <c r="A827" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="B827" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" ht="100.8">
+      <c r="A828" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B828" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" ht="28.8">
+      <c r="A829" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="B829" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" ht="28.8">
+      <c r="A830" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="B830" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="B831" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="B832" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="B833" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" ht="28.8">
+      <c r="A834" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="B834" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="B835" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B836" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="B837" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" ht="28.8">
+      <c r="A838" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="B838" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B839" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="B840" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="28.8">
+      <c r="A841" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B841" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="B842" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="B843" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B844" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B845" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="B846" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B847" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" ht="28.8">
+      <c r="A848" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B848" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" ht="28.8">
+      <c r="A849" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B849" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" ht="28.8">
+      <c r="A850" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B850" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="B851" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="B852" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B853" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="B854" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="B855" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="B856" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="B857" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" ht="26.4">
+      <c r="A858" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="B858" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="B859" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="B860" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="B861" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="B862" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="B863" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" ht="39.6">
+      <c r="A864" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="B864" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" ht="26.4">
+      <c r="A865" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="B865" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="B866" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="B867" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="B868" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" ht="26.4">
+      <c r="A869" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B869" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" ht="26.4">
+      <c r="A870" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="B870" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B871" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="B872" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" ht="28.8">
+      <c r="A873" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="B873" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="B874" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" ht="28.8">
+      <c r="A875" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="B875" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" ht="28.8">
+      <c r="A876" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="B876" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="B877" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" ht="72">
+      <c r="A878" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="B878" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="B879" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="B880" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" ht="43.2">
+      <c r="A881" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="B881" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="B882" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="B883" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="B884" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="B885" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="B886" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="B887" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" ht="43.2">
+      <c r="A888" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="B888" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="B889" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" ht="43.2">
+      <c r="A890" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="B890" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" ht="43.2">
+      <c r="A891" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="B891" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="B892" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" ht="100.8">
+      <c r="A893" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="B893" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" ht="28.8">
+      <c r="A894" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="B894" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="B895" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="B896" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="B897" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="B898" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" ht="43.2">
+      <c r="A899" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="B899" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="B900" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" ht="28.8">
+      <c r="A901" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="B901" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="27" t="s">
+        <v>893</v>
+      </c>
+      <c r="B902" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="B903" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" ht="43.2">
+      <c r="A904" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="B904" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="27" t="s">
+        <v>896</v>
+      </c>
+      <c r="B905" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" ht="43.2">
+      <c r="A906" s="27" t="s">
+        <v>897</v>
+      </c>
+      <c r="B906" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="B907" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="27" t="s">
+        <v>899</v>
+      </c>
+      <c r="B908" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="B909" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B910" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="27" t="s">
+        <v>901</v>
+      </c>
+      <c r="B911" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="27" t="s">
+        <v>902</v>
+      </c>
+      <c r="B912" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="B913" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="B914" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="B915" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" ht="43.2">
+      <c r="A916" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="B916" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="B917" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="B918" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="27" t="s">
+        <v>909</v>
+      </c>
+      <c r="B919" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="B920" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="B921" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B922" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="B923" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" ht="26.4">
+      <c r="A924" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="B924" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" ht="26.4">
+      <c r="A925" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="B925" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" ht="26.4">
+      <c r="A926" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="B926" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B927" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" ht="26.4">
+      <c r="A928" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="B928" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" ht="26.4">
+      <c r="A929" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="B929" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" ht="26.4">
+      <c r="A930" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="B930" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" ht="26.4">
+      <c r="A931" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="B931" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="B932" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="B933" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="B934" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="B935" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" ht="26.4">
+      <c r="A936" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="B936" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" ht="39.6">
+      <c r="A937" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B937" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="B938" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B939" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="B940" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="B941" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="B942" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="B943" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="B944" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B945" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="B946" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="B947" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="B948" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="B949" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="B950" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="B951" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="B952" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="29" t="s">
+        <v>943</v>
+      </c>
+      <c r="B953" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="B954" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="29" t="s">
+        <v>945</v>
+      </c>
+      <c r="B955" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="B956" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="29" t="s">
+        <v>947</v>
+      </c>
+      <c r="B957" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="29" t="s">
+        <v>948</v>
+      </c>
+      <c r="B958" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" ht="28.8">
+      <c r="A959" s="29" t="s">
+        <v>949</v>
+      </c>
+      <c r="B959" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="B960" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" ht="43.2">
+      <c r="A961" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="B961" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" ht="28.8">
+      <c r="A962" s="29" t="s">
+        <v>952</v>
+      </c>
+      <c r="B962" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="B963" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="B964" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B965" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="B966" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="B967" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B968" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" ht="26.4">
+      <c r="A969" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="B969" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="B970" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="B971" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="B972" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" ht="28.8">
+      <c r="A973" s="31" t="s">
+        <v>963</v>
+      </c>
+      <c r="B973" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="B974" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="31" t="s">
+        <v>965</v>
+      </c>
+      <c r="B975" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="B976" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" ht="28.8">
+      <c r="A977" s="31" t="s">
+        <v>967</v>
+      </c>
+      <c r="B977" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="31" t="s">
+        <v>968</v>
+      </c>
+      <c r="B978" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="B979" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" ht="28.8">
+      <c r="A980" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="B980" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="B981" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" ht="28.8">
+      <c r="A982" s="31" t="s">
+        <v>972</v>
+      </c>
+      <c r="B982" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" ht="28.8">
+      <c r="A983" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="B983" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" ht="28.8">
+      <c r="A984" s="33" t="s">
+        <v>974</v>
+      </c>
+      <c r="B984" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="B985" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="B986" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="33" t="s">
+        <v>977</v>
+      </c>
+      <c r="B987" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" ht="57.6">
+      <c r="A988" s="34" t="s">
+        <v>978</v>
+      </c>
+      <c r="B988" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" ht="43.2">
+      <c r="A989" s="33" t="s">
+        <v>979</v>
+      </c>
+      <c r="B989" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" ht="43.2">
+      <c r="A990" s="33" t="s">
+        <v>980</v>
+      </c>
+      <c r="B990" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" ht="28.8">
+      <c r="A991" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="B991" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" ht="43.2">
+      <c r="A992" s="33" t="s">
+        <v>982</v>
+      </c>
+      <c r="B992" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="36" t="s">
+        <v>983</v>
+      </c>
+      <c r="B993" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="36" t="s">
+        <v>984</v>
+      </c>
+      <c r="B994" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="36" t="s">
+        <v>985</v>
+      </c>
+      <c r="B995" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="36" t="s">
+        <v>986</v>
+      </c>
+      <c r="B996" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="36" t="s">
+        <v>987</v>
+      </c>
+      <c r="B997" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="B998" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" ht="28.8">
+      <c r="A999" s="36" t="s">
+        <v>989</v>
+      </c>
+      <c r="B999" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" ht="28.8">
+      <c r="A1000" s="36" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1000" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="36" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1001" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" s="36" t="s">
+        <v>992</v>
+      </c>
+      <c r="B1002" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" ht="28.8">
+      <c r="A1003" s="38" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1003" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" ht="43.2">
+      <c r="A1004" s="38" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1004" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" ht="28.8">
+      <c r="A1005" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1005" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" s="38" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1006" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1007" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" ht="57.6">
+      <c r="A1008" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1008" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" ht="28.8">
+      <c r="A1009" s="38" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1009" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1010" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1011" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1012" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="41" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1013" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="41" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1014" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="41" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1015" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" ht="28.8">
+      <c r="A1016" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1016" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" s="41" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B1017" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="41" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1018" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1019" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" s="41" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1020" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="41" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1021" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" s="41" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1022" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1023" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="43" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1024" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" ht="28.8">
+      <c r="A1025" s="43" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1025" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="43" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1026" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" ht="28.8">
+      <c r="A1027" s="43" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1027" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="43" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1028" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" ht="28.8">
+      <c r="A1029" s="43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1029" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="43" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1030" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" ht="28.8">
+      <c r="A1031" s="43" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1031" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="A1032" s="43" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1032" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="A1033" s="43" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1033" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="45" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B1034" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" ht="86.4">
+      <c r="A1035" s="46" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1035" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="45" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1036" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="A1037" s="45" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1037" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" s="45" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1038" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" ht="28.8">
+      <c r="A1039" s="45" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1039" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" ht="28.8">
+      <c r="A1040" s="45" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1040" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2">
+      <c r="A1041" s="45" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1041" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" ht="28.8">
+      <c r="A1042" s="45" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B1042" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" ht="43.2">
+      <c r="A1043" s="45" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1043" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" ht="28.8">
+      <c r="A1044" s="48" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B1044" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="A1045" s="48" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1045" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" ht="57.6">
+      <c r="A1046" s="49" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1046" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2">
+      <c r="A1047" s="48" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B1047" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" ht="100.8">
+      <c r="A1048" s="49" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1048" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="A1049" s="48" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1049" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="A1050" s="48" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1050" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="A1051" s="48" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1051" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" ht="28.8">
+      <c r="A1052" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1052" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="A1053" s="48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1053" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" ht="28.8">
+      <c r="A1054" s="48" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B1054" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="A1055" s="48" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1055" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="A1056" s="48" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1056" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="A1057" s="48" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1057" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="A1058" s="48" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1058" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="A1059" s="48" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1059" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" ht="43.2">
+      <c r="A1060" s="48" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1060" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2">
+      <c r="A1061" s="48" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1061" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" ht="43.2">
+      <c r="A1062" s="48" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1062" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" ht="28.8">
+      <c r="A1063" s="48" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B1063" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" ht="28.8">
+      <c r="A1064" s="51" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1064" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2">
+      <c r="A1065" s="51" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1065" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="A1066" s="51" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1066" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="A1067" s="51" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1067" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2">
+      <c r="A1068" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1068" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2">
+      <c r="A1069" s="51" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1069" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2">
+      <c r="A1070" s="51" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B1070" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" ht="28.8">
+      <c r="A1071" s="51" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1071" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2">
+      <c r="A1072" s="51" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1072" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" ht="43.2">
+      <c r="A1073" s="51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1073" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" s="53" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1074" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2">
+      <c r="A1075" s="53" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1075" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2">
+      <c r="A1076" s="53" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1076" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="A1077" s="53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1077" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" ht="28.8">
+      <c r="A1078" s="53" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1078" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2">
+      <c r="A1079" s="53" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1079" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" ht="28.8">
+      <c r="A1080" s="53" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1080" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2">
+      <c r="A1081" s="53" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1081" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2">
+      <c r="A1082" s="53" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1082" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" ht="28.8">
+      <c r="A1083" s="53" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1083" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="A1084" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1084" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="A1085" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B1085" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" ht="24" customHeight="1">
+      <c r="A1086" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1086" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="A1087" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1087" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" ht="26.4">
+      <c r="A1088" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1088" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2">
+      <c r="A1089" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1089" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" ht="26.4">
+      <c r="A1090" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1090" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2">
+      <c r="A1091" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1091" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2">
+      <c r="A1092" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B1092" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" ht="26.4">
+      <c r="A1093" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1093" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2">
+      <c r="A1094" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1094" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="A1095" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1095" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" ht="24" customHeight="1">
+      <c r="A1096" s="13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1096" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" ht="25.2" customHeight="1">
+      <c r="A1097" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1097" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1098" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2">
+      <c r="A1099" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1099" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="A1100" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1100" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2">
+      <c r="A1101" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1101" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="A1102" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1102" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2">
+      <c r="A1103" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1103" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2">
+      <c r="A1104" s="12" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1104" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="A1105" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1105" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2">
+      <c r="A1106" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1106" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="A1107" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1107" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="A1108" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1108" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="A1109" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1109" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="A1110" s="13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1110" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="A1111" s="12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1111" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2">
+      <c r="A1112" s="12" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1112" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1113" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="A1114" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1114" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1115" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" ht="26.4">
+      <c r="A1116" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1116" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="A1117" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1117" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="A1118" s="12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1118" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="A1119" s="12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1119" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1120" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" ht="28.2" customHeight="1">
+      <c r="A1121" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1121" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1122" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1123" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2">
+      <c r="A1124" s="55" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1124" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2">
+      <c r="A1125" s="55" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1125" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" ht="28.8">
+      <c r="A1126" s="55" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1126" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="55" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1127" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="55" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1128" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="55" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1129" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" ht="28.8">
+      <c r="A1130" s="55" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1130" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" ht="28.8">
+      <c r="A1131" s="55" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1131" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" ht="28.8">
+      <c r="A1132" s="55" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1132" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" ht="28.8">
+      <c r="A1133" s="57" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1133" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" ht="28.8">
+      <c r="A1134" s="57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1134" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" ht="28.8">
+      <c r="A1135" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1135" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" ht="28.8">
+      <c r="A1136" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1136" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="A1137" s="57" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1137" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="A1138" s="57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1138" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="57" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1139" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="57" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1140" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="57" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1141" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2">
+      <c r="A1142" s="57" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1142" s="56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" ht="28.8">
+      <c r="A1143" s="59" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1143" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2">
+      <c r="A1144" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1144" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" ht="28.8">
+      <c r="A1145" s="59" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1145" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2">
+      <c r="A1146" s="59" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1146" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="59" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1147" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2">
+      <c r="A1148" s="59" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1148" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="A1149" s="59" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1149" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" ht="57.6">
+      <c r="A1150" s="60" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1150" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2">
+      <c r="A1151" s="59" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1151" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2">
+      <c r="A1152" s="59" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1152" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="A1153" s="62" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1153" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" ht="57.6">
+      <c r="A1154" s="63" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1154" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2">
+      <c r="A1155" s="62" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1155" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="A1156" s="62" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1156" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2">
+      <c r="A1157" s="62" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1157" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2">
+      <c r="A1158" s="62" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1158" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="A1159" s="62" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1159" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" ht="72">
+      <c r="A1160" s="63" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1160" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" ht="28.8">
+      <c r="A1161" s="62" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1161" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" ht="43.2">
+      <c r="A1162" s="62" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1162" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" ht="28.8">
+      <c r="A1163" s="65" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1163" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2">
+      <c r="A1164" s="65" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1164" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" ht="43.2">
+      <c r="A1165" s="65" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1165" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" ht="57.6">
+      <c r="A1166" s="65" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1166" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" s="65" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1167" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" ht="57.6">
+      <c r="A1168" s="65" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1168" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" ht="28.8">
+      <c r="A1169" s="65" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1169" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" s="65" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1170" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" ht="43.2">
+      <c r="A1171" s="65" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1171" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" ht="28.8">
+      <c r="A1172" s="65" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1172" s="64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" s="67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1173" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" s="67" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1174" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1175" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" s="67" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1176" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" s="67" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1177" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2">
+      <c r="A1178" s="67" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1178" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" ht="28.8">
+      <c r="A1179" s="67" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1179" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" ht="28.8">
+      <c r="A1180" s="67" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1180" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" s="67" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1181" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" s="67" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1182" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2">
+      <c r="A1183" s="67" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1183" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" ht="28.8">
+      <c r="A1184" s="67" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1184" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" ht="72">
+      <c r="A1185" s="68" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1185" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" s="67" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1186" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" s="67" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1187" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" s="67" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1188" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" ht="43.2">
+      <c r="A1189" s="67" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1189" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2">
+      <c r="A1190" s="67" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1190" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" ht="28.8">
+      <c r="A1191" s="67" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1191" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2">
+      <c r="A1192" s="67" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1192" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2">
+      <c r="A1193" s="12" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1193" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2">
+      <c r="A1194" s="12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1194" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2">
+      <c r="A1195" s="12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1195" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2">
+      <c r="A1196" s="12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1196" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2">
+      <c r="A1197" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1197" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2">
+      <c r="A1198" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1198" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" ht="26.4" customHeight="1">
+      <c r="A1199" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1199" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" ht="28.2" customHeight="1">
+      <c r="A1200" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1200" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2">
+      <c r="A1201" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1201" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2">
+      <c r="A1202" s="70" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1202" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2">
+      <c r="A1203" s="70" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1203" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" ht="57.6">
+      <c r="A1204" s="70" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1204" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" ht="28.8">
+      <c r="A1205" s="70" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1205" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2">
+      <c r="A1206" s="70" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1206" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2">
+      <c r="A1207" s="70" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1207" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2">
+      <c r="A1208" s="70" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1208" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" ht="43.2">
+      <c r="A1209" s="70" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1209" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2">
+      <c r="A1210" s="70" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1210" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2">
+      <c r="A1211" s="70" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1211" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" ht="28.8">
+      <c r="A1212" s="72" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1212" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" ht="57.6">
+      <c r="A1213" s="72" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1213" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" ht="43.2">
+      <c r="A1214" s="72" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1214" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="A1215" s="72" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1215" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="A1216" s="72" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1216" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2">
+      <c r="A1217" s="72" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1217" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2">
+      <c r="A1218" s="72" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1218" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2">
+      <c r="A1219" s="72" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1219" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2">
+      <c r="A1220" s="72" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1220" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2">
+      <c r="A1221" s="72" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1221" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A860" r:id="rId1" display="https://www.facebook.com/hashtag/%E0%A6%B6%E0%A6%BF%E0%A6%95%E0%A7%8D%E0%A6%B7%E0%A6%BE%E0%A6%AE%E0%A6%A8%E0%A7%8D%E0%A6%A4%E0%A7%8D%E0%A6%B0%E0%A7%80?__eep__=6&amp;__cft__%5b0%5d=AZUO-21C3zsyRUH8lMZVqlet4wQmThj9IjqPl9IeJMjBdKxID4MkdDoK7hY2aTZV1ptSoTbDc833ESAJtHcyrCAEopJ2yplblsH7wZrm98Rb-R3_4Ju5JfM42x6gE8lVtSz_cgi1BWfjESyjIqBNZPXw&amp;__tn__=R%5d-R"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/bengali_sentiment.xlsx
+++ b/bengali_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="1778">
   <si>
     <t>Statement</t>
   </si>
@@ -3660,6 +3660,1713 @@
   </si>
   <si>
     <t xml:space="preserve"> শুধু মাত্র কম্পানির প্রচারের জন্য কিছু মিথ্যা কথা লেখা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হারে আর জয়ে সাহসে অথবা ভয়ে আছি সব সময়ে। পরের ম্যাচের জন্য শুভ কামনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার বাবুটা আমার সোনাটা আমার কলিজা টা আমার এইটা আমার সেইটা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হানিফ ভাই আপনাকে অসংখ্য ধন্যবাদ৷দুঃখের সাথে জানাচ্ছি যে আজ মনে হয় ইত্যাদি দেখতে পারবোনা৷আমাদের এখানে প্রচুর বৃষ্টি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হুররে জিতেছি। অবশেষে দলীয় পারফর্ম দেখে ভাল লাগলো। তুমিই সেরা। ভালবাসি তোমায় অনেক বেশি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলার ছেলেরা আজ ভাল খেলছে ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই তোমাদের দুজন কে খুব সুন্দর লাগছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গোড়ায় গলদ প্রকৌশলী তো অনেক নিম্ন স্তরে বড় বড় লোকদের ধরেন যারা সরকারী চাকরীর নামে গরিব মানুষের কোটি কোটি টাকা লুটে নেয়। ভাই সাব ইনেসপেক্টর চাকরি নিতে বর্তমানে লাখ টাকা লাগে তাইলে ঘুস খাওয়া তো ওর জন্য হালাল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অবশ্যই মেয়েরা হবে।ছেলেরা তো হিজরা হয়ে গেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টাকা থাকলে কেউ দেশ ছাড়ে না ছাড়ে নিরাপত্তার জন্য। কেন রামু ব্রাহ্মনবাড়িয়া সাওঁতাল পল্লী এগুলো আপনাদের চোখে পড়ে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিংগাদের ভরণ পোষণ দেওয়ার মত আর্থিক সক্ষমতা কি আমাদের দেশের আছে? তারপরও যারা মানবিকতা বোধের যন্ত্রনায় ঠিক থাকতে পারছেন না তাদের উচিৎ নিজের পকেটের টাকা খরচ করে থালা বাটি তাবু খাবার দাবার নিয়ে সীমান্তবর্তী এলাকায় শরণারথি শিবির স্থাপন করা। চাইলে নিজের বাড়িতেও দু একজনকে আশ্রয় দিতে পারেন। কয়জন প্রস্তুত আছেন একটি রোহিংগা শিশুকে দত্তক নেয়ার জন্য? পরিবর্তন যদি দেখতে চান তাহলে রাস্তায় নামেন। নিজে আগে সাহায্যের হাত বারান। মাঠে না নেমে ফেসবুক এ গুতাগুতি করে কোন লাভ নাই। এর সময় কোন ফেসবুক ছিল না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিথ্যা খবর।বলেছে মিয়ানমারকে রোহিঙ্গা ঠেকাতে।যাগে দেশে ডুকতে না পারে।তারমানে গনহত্যা এমনভাবে চালাও যেন কেউ পালিয়ে বাচতে না পারে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আইভি শামীম কেহই তোর বাবার মত রাজাকার না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওসমান পরিবার নারায়নগঞ্জে অাওয়ামী লীগের ভিত্তি রচনা করছেন তার জন্য ধন্যবাদ।কিন্তু সেটার নাম ভাঙ্গিয়ে অার সবাইকে তুচ্ছ তাচ্ছিল্য করে দলীয় অাদর্শের বিরোধী কাজ মোটেই গ্রহণযোগ্য নয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রথম আলোর মতো চরম মিথ্যাচার মনেহয়না বাংলাদেশের য় কোন সংবাদপত্র আছে যুগান্তর সহ বেশ কয়েকটা সংবাদপত্র গটনাটা অন্যভাবে বিশ্লেষন করছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বি এন পি কে প্রধান মুন্ত্রি ও ভয়পায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শালা চোর চোর একদিন ধরা খাবেই।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আজ জাতীয় রক্তদাতা দিবস রা নভেম্বর জাতীয় রক্তদাতা দিবস। জাতীয় রক্তদাতা দিবস উপলক্ষ্যে সকল স্বেচ্ছাসেবক রক্তদাতা ও শুভানুধ্যায়ীদের জানাই রক্তিম শুভেচ্ছা ও আন্তরিক অভিনন্দন। রক্ত দিন জীবন বাঁচান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার কাছে মনে হয় আমার বাডিতে তাদের থাকার ব্যবস্তা করি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তানিয়া আপু আমার খুবই প্রিয় ব্যক্তিত্ব </t>
+  </si>
+  <si>
+    <t xml:space="preserve">যেহেতু বাংলাদেশ জাতিসংঘের একটি সদস্য রাষ্ট্র অতএব বাংলাদেশ সরকার এ আইন মানত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দয়া করে একাদশে রুবেল ও তাছকিন এর জায়গায় নাসির ওআল আমিন কে নেওয়া হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই অফার আমি গ্রহন করেছি। ধন্যবাদ গ্রামীন ফোন ইন্টারনেট </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তবে সাকিব ভাই আপনার একটা ছেনচুরি দেখতে চাই মেচে আর আমার মতে রুবেল আলামিন থাকলে ভাল হত পেইস এটাকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এটা নিশ্চিত হিলারিই হচ্ছে আগামী দিনের আমেরিকার প্রেসিডেন্ট। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনারা চাইলেই পারেন। এভাবেই রিজার্ভের চুরি হওয়া টাকা উদ্ধার করুন।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনারা কেন জানি অনেক পরে জানতে পারেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হুদা নেতা না তেনা ওর জীবনে নির্বাচন আর দেখবে কিনা এম পি হওয়া তো দুরের কথা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোমার প্রস্তাব মেনে নিয়ে নির্বাচন হলে হাসিনা প্রধান মন্ত্রী তাতে তোমার লাভ কিরে বলদ ক্ষমতার পালা বদল হলেতো উল্টো বি এন পির ধন কাদে নিবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাতিল মালদের কথা কেউ শুনবে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একটি অবাধ ও সুষ্ঠু নির্বাচন করতে এখন শেখ হাসিনার আর কোন দুর্বলতা নেই। প্রকারান্তরে দালালি করতে গিয়ে বিগত নির্বাচনে শেখ হাসিনার সীমাহীন দুর্বলতার কথাই ফাঁস করে দিল এই বেহুদা জানোয়ারটা। নিজেকে বড় আঁতেল ভাবে। ফরমাঁয়েসি রাজনীতির ফেরিওয়ালা সিএনজি চোর হুদার এখন এছাড়া উপায়ইবা কি টিকে থাকার প্রয়োজনে বেকায়দায় পড়ে এখন ইনু মেননদের দলে নাম লিখিয়েছে। অস্তিত্ব টিকিয়ে রাখতে এইসব ভাড়াটিয়ার ভাড়ামী চলতেই থাকবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পাগলের বিলাপ এটা একটা অসস্তিকর সংবাদ নারীদের খারাপ হতে উৎসহ দানকরার শামিল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সানি লিওন যদি প্রভাবশালীদের তালিকায় থাকে তাহলে সন্ধেহ নাই বাংলা সিনেমার নায়িকা ময়ুরী ও এই তালিকায় একদিন উঠবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বালের খবর ছাড়া কোন খবর পাওনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খা র পোলারা আর কোন খবর পায় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমারের সাথে বাংলাদেশের যুদ্ধ ঘোষনা করা হউক মিয়ানমার জয় করমু ইনশা আল্লাহ আর আমাদের মুসলিম ভাইদের ও রক্ষা করবো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভালোবাসার মানুষটির প্রতি সকলেই দূব্যল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ ওদের ওপর রহম নাযিল করো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ড়া খাইয়া আর খেতে চাই নেইমারের গুল বেশি মজা লাগে তাদের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হুম আর নিজেকে চেনার মধ্যেই রয়েছে মানুষের শ্রেষ্ঠ সফলতা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশী কতিপয় বেহায়া মডেল দের জন্য উৎসাহ জনক তথ্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এখন টাকা পেলে জে এম বিরা আর্তসমাপ্পন করে তাদের আর ধরার জন্য পুলিশ লাগেনা তাই জে এম বি যদি টাকা পেলে সন্তাস না করে তাহলে তো পুলিশ লাগেনা পুলিশদের চাকরি ছেড়ে দিতে বলুক সরকার তাদেরকে তো বেতন দিয়ে বসে পোশা সম্ভব নয়।সরকার কর্মচারিদের যা বেতন দেয় এবং নিযে যা খায় সবতো আমাদের শ্রমিকদের টাকা গায়ে লাগে আমাদের। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আর কত দেখতে হবে নিরপরাধ ব্যক্তিকে অত্যাচারী হতে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এটা নতুন কিছু না। জন্ম থেকেই দেখছি। তাই দেশের বড়দের বলছি আপ্নারা আমাদের সুন্দর সমাজ উপহার দিতে পারেন নি। আমাদের কাছ থেকে বেশি কিছু আশা করবেন না। আপ্নারাই মেয়েদের নিকৃষ্ট জীবে পরিণত করেছেন। আর আমরা নিঃসন্দেহে এই ধারা অব্যহত রাখব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ এসব বিপদ দিয়ে মেয়ের বাবাদের ধর্য ও মেয়ের প্রতি ভালবাসার পরিক্ষা নেই। ধর্য ধারন করুন আল্লাহ এর পুরষ্কার দেবেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আফসোস অত্যাচারী ছাত্রলীগ তাই শিরোনাম অন্যরকম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কেন যে এসব করে বুঝি না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মেয়ের বাপ হওয়া অন্যায় নয় বরং কুলাঙ্গার ছেলের বাপ হওয়া লজ্জার অপমানকর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষরুপী পশুরা যতদিন মানুষ না হবে ততদিন সমাজ জাতি দেশ নিরাপদ নয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দেশটা সবাই মিলেমিশে স্বাধীন করেছে লক্ষ্ লক্ষ্ মা বোনের সম্মান হানি হয়েছে কিন্তু হানাদার মুক্ত হলোনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানবতা ও ইসলামের খাতিরে হলেও এদেরকে আমাদের কাছে আশ্রয় দেওয়া উচিৎ কারণ তারা এখন অসহায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সে বেশ ভালই জানে কোটি হৃদয়ের ভালোবাসার কাছে পৃথিবীর সর্বোচ্চ বিদ্যাপীঠেরর ডঃ ডিগ্রীও অতি তুচ্ছ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা কখনই দুর্বল ছিলাম আগের ম্যাচটাও আমরা জিততাম কিন্তু একটু ভুলের কারনেই হারছি যাই হোক বাংলাদেশ আগামী বিশ্বকাপ নিবে ইনশাল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাই ব্যাটিংয়ে নজর দিন।আপনার থেকে সেন্চুরী চাই। আশা করি এই সিরিজেই টেস্টে তিন হাজার রান হয়ে যাবে।বোলিংয়ে বেশী মনোযোগ দিতে হবেনা।আপনার বোলিং এমনিতেই ভাল।আমরা আপনাকে ব্যাট হাতে আগের রুপে চাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পৃথিবীর সবচেয়ে সুখী মানুষ সৌদি আরব </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আজ আপনি বিশ্ব সেরা অলরাউন্ডার।আজ গ্রামের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইহা আসলেই একটি দূর্দান্ত ছবি। অসাধারনমুখ ভঙ্গি আর যথাযথ জায়গায় হাত রেখেপোজ ছবিটিকে আকর্ষনীয় করে তুলেছে।এমন পোজ জাতি আগে দেখে নাই। ছবিটিরঅসাধারন ব্যাকগ্রাউন্ড আমার মনকে ছুয়েগেছে। ছবিটি ক্যামেরার অসাধারন ব্যবহারহয়েছে।সঠিক ভাবে ফোকাস এবং ফ্রেমিংকরা হয়েছে।এই অসাধারণ ছবিটি যে তুলেছেতাকেও ধন্যবাদ জানাই।আর এই ছবির এডিটছবির মাহাত্ব্য আরো বাড়িয়ে দিয়েছে।অসাধারণ এডিট নামীদামি ফোটগ্রাফারেরঅনুপ্রানীত করবে এই সকল ছবি। মডেলহিংসার কারণ হবে এই ছবি। অসাধারণমডেল ফোটগ্রাফার লোকেশন এবং এডিটেরমিলবন্ধনের কারণেই আমি এ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আফ্রিদি টিমে থাকলেই আমি খেলা দেখি সে রান পেলেও ভালো না পেলেও ভাল। কারন ও ব্যাটে থাকলেই ভালো লাগে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অামরা রোহিঙ্গাদের জন্য বা্্লাদেশে অাসারঅনুমতি চাই।। কোন তারকাটার বেঢ্া না দিযে্ অনায্াশে দেশে ডোকার অনুমতি চাই।। তাদের জন্য পুনবাসন ব্যবস্থা করা হোক । অামরা সরকারের নিকট অাকুল অাবেদন জানাই।। দয্াকরে তাদের প্রতি একটু সদয্হোন।। অাল্লাহ অাপনি তাদের মঙ্গল করুন অামিন।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পাগলা তো পাগলাই।মাশরাফির মত পাগলা প্লেয়ার সবসময় দরকার।বেস্ট কাপতান ম্যাশ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা এই বাবার পা ভেঙে দিয়েছে পুলিশ তাদেরকে ধরে ঠিক এভাবে পা ভেঙে দিলে তারা তো কখনো এই কাজ করবে না বরং অন্যরা পরবতিতে এই কাজ করতে সাহস করবেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হায়রে এ দেশে কোন কিছুর বিচার নেই কোনো পাপ এর শাস্তি নেই দিন দিন জঘন্য থেকে জঘন্য হয়ে যাচ্চে দেশটা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বালের আলো মায়েনমার এর খবর চোখে পরে না???????? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোরা বসা নিজেরা মুতি ভেঙ্গে নাম দেয় মুসলমানের সস্তা তাই না? ভালইতো ভালো না? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পুরুষরাও সৌদি আলখাল্লা পরা শুরু করে দিন। সমকামি হিজরা ও বেগানা মেয়ে মানুষ থেকে নিজেদের হেফাজত করুন। বলাতো যায়না ইদানিং পুরুষ নির্যাতনের ঘটনা ক্রমশ বৃদ্ধি পাচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যেখানে দেশের আমলা মন্ত্রিরা মিথ্যা বলে সেখানে শিশুরা ত হাতে খেলনা মোবাইলের মত যা টিপবেন তাই বাজাবে আর তাছাড়া শিশুর মায়ের মাথায় ত ভারতীয় সিরিয়ালের কুটনিতী আছেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আজ দাদার ভয়ে চুপচাপ হয়ে থাকতেই হয় যদি তবে কেন আজো আগলে রেখেছো স্বাধীন দেশের গদি? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই পৃথিবী টা কাদের যে ওদের বসবাসের জায়গা নেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই বালের নিউজ না দিয়ে মায়ানমার এর দিকে তাকান সেখানকার অসহায় নারী শিশু নিয়ে প্রতিবেদন দেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টাম্প এর মন্ত্রি সবায়। ঋনের দিতে না পেরে পালিয়ে থাকা হলেন মন্ত্রি এমন কিছু হলে আলাদা করে খবর দেয়া যায়। কোটি প্রতি মন্ত্রি এইটা আবার খবর এর কি আছে বুজলাম না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সকালে যে নাটকটা আপনারা দেখালেন এক কথাই অবিশ্বাস্য। আর এরকম নাটক দেখতে চাইনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আামাদের সুধুমাত্র মানবতার কথা চিন্তা করেই রোহিঙ্গাদের আশ্রয় দিতে হবে কারন মানবতার কাছে সব কিছুই তুচ্ছ আর আমাদের এই মানবতাই পৃথিবীর ইতিহাসে আমাদের দেশকে শ্রেষ্ঠতম দেশ হিসেবে প্রমাণ করতে পারে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অতিতে রক্ত বেয়েই ইসলামের বিজয় এসেছে।যেখানে মুসলিমদের রক্ত ঝরেছে সেখানে ইসলামের বিজয় এসেছে।এভার ও হবে ইনশা আল্লাহ্ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিলারী সবার প্রিয় আমরা তাকে আমেরিকার প্রেসিডেন্ট দেখতে চাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সকল মুসলিম তাদের কে সাহায্য করা উচিত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খেলাধুলার সকল খবর পেতে এই পেজে লাইক দিন বিপিএল ও ক্রিকেটের সকল খবর বিপিএল ও ক্রিকেটের সকল খবর বিপিএল ও ক্রিকেটের সকল খবর বিপিএল ও ক্রিকেটের সকল খবর খেলাধুলার সকল খবর পেতে এই পেজে লাইক দিন বিপিএল ও ক্রিকেটের সকল খবর বিপিএল ও ক্রিকেটের সকল খবর বিপিএল ও ক্রিকেটের সকল খবর বিপিএল ও ক্রিকেটের সকল খবর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা নিশ্চিত জেতা ম্যাচ হেরেছি এভাবে যতবার হেরেছি ঘুরে দাড়িয়েছি আরো শক্ত ভাবে।বলা হয় এই প্রবাদটা বারবার সত্যি প্রমানিত হয়েছে কিন্তু শুধু আমাদের বিপক্ষেই।আমরা নিশ্চিত জেতা ম্যাচ হরেছি অনেকবার কিন্তু নিশ্চিত হারা ম্যাচ সম্ভবত খুব কমই জিতেছি।অনেক শুভ কামনা পরের ম্যাচের জন্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ট্রাম্প আমেরিকার সব চাইতে ভালো প্রেসিডেন্ট হবে ইনশাআল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যার কেউ নাই তার আল্লাহ আছেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সকল দেশ মিলে ওই দেশের সরকার কে চাপ দিয়ে পরিস্তিতি শান্ত করা উচিত।নতুবা কঠোর পদক্ষেপ নিয়ে ওদের দমন করা উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মজার মজার গল্প নিউজ আর ভুত পড়তে নিচের পেইজে এক্ষুনি লাইক দিয়ে আসুন।মিস না করতে চাইলে পেইজের প্রতিটি পোস্ট এ লাইক দিয়ে সাথে থাকুন।ভালো লাগলে অবশ্যই লাইক দিয়ে আসবেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পুরাই ফানি পেইজ। এই পেজে কয়েকজন এডিটর লাগবে। আগ্রহীরা পেজে লাইক দিয়ে মেসেজ করেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ তাকে বেহেস্ত নসিফ করুন আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চোখের পানি ধরে রাখতে পারিনি অনুষ্ঠানটি দেখে। আপনাকে ধন্যবাদ হানিফ সংকেত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বেঁচে থাকো বোন হাজার বছর বাবা মায়ের হৃদয় জুড়ে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাসান এন্ড হাসান কোং দুনিয়া সাবধান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গু মুত্রের গন্ধ টা একটু কম লাগচে এখন ধন্যবাদ রেন্ডিয়ান মাল্লু কে এখান থেকে সরে গিয়ে পোস্টটিকে গরুর মুত্রময় গন্ধ থেকে মুক্ত করার জন্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দয়া করে ওদের ডুকতে দিন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মোশারফের বদলে নাসিরকে খেলানো হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বর্মার সহিত যুদ্ধ করা ফরজে আইন।আল্লাহর দুনিয়ায় মুসলমানরা মার খাবে তা বরদাস্ত করার মত নয়।এই মুহূর্তে দরকার মুফতী জসীম উদ্দীন রাহমানির হুংকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই আপনি নিজেকে সংসোধন করুন কারন ক্রিকেটের মাঠে আপনি সারা জীবন থাকবেন না কিন্তু জনগনের সাথে ঠিকই থাকবেন আর এই সাধারন মানুষের ভালবাসাই সব থেকে বড় যেটা আপনি অর্জন করতে বারবার ব্যর্থ হচ্ছেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই তোমার সাথে ক্রিকেট খেলা আর দেখা করার কোন স্বপ্ন আমার আদৌ নেই কারণ তুমি একটা অহংকারী আর বেয়াদব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নিজের চরকায় তেল দেন।সািকব কে নিয়ে অাপনােক না ভাবলেও চলেবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিয়াদ্দব তুই সাকিব ভাইয়া নই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ? যার কারণে সাকিবকে নিয়ে ভুয়া নিউজ ভাইরাল প্রকাশিত অপরাহ্ণ মোঃ ইসতিয়াক রহমান রিজভী ক্রিড়া প্রতিবেদকঃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিবের জুতা চাটার যোগ্যতা যাদের আপনার হবে না তারা আসছে কথা বলতে দূর হ তোরা এই পেজ থেকে আদব কায়দার জন্য বাংলা মুভি দেখ মাদারচোদগুলা সাকিবের বদনাম করিস </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাশরাফির জারজগুলা এতো মূর্খ ক্যান??? চটি পেজের নিউজ নিয়া লাফায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি কইলে তো কইবেন হাজী সাবের মুখ খরাপ জ্ঞানী লোকের জ্ঞান আর কুত্তায় চিনে ভাতের ফেন সে সাকিব হোক তার তার জন্মদেয়া বাপ হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিশ্বসেরা অলরাউন্ডারের বিশ্ব বেহায়া কর্মকান্ডের তীব্র নিন্দা জানাচ্ছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve">শুক্রবার সকালে চট্টগ্রামের আনোয়ারা উপজেলাস্থ পারকী সমুদ্র সৈকতে এক খ্যাতনামা বিজ্ঞাপনী সংস্থার শুটিং করতে আসেন বিশ্বসেরা অলরাউন্ডার সাকিব আল হাসান। শুটিং চলাকালে ভক্তরা ছবি তুলতে চাইলে সাকিব নিজ হাতে পর পর কয়েকটি মোবাইল কেড়ে নিয়ে পানিতে ফেলে দেয় যা একজন বিশ্বমানের খেলোয়াড়ের কাছে সত্যি বেমানান।সাকিব হয়তো ভুলে গেছেন এদেশের সাধারন খেটে খাওয়া মানুষের রক্ত পানি করা টাকায় আজ আপনি বিশ্ব সেরা অলরাউন্ডার।আজ গ্রামের সহজ সরল যে মানুষগু </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সালায় নিজের যোগ্যতার থেকে অনেক বেশী পাইছে তাই মানুষ কে মানুষ মনে করেনা সালা ফকিরনি একটা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বেটা চট্টগ্রাম আনোয়ারাতে যে গরিব আর ছাএদের মোবাইলগুলা যে ফেলে দিলি এইগুলার ক্ষতিপূরণ কে দিবে যতই অলরাউন্ডার হওনা কেনো অহংকারী হলে কোনো ফায়দা নাই টাকা ফকিন্নিরপুলারা ও আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাঙালী কতটা মূর্খ সেটা হ্যাটাসদের কমেন্ট দেখলে বোঝা যায় আর এখানে সব বাঙালীর কথা বলা হয় নি যারা না বুঝে কথা বলে তাদের কথা বলা হয়েছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভুয়া মিথ্যা একটা ঘটনাকে আমরা কতটা বড় করে প্রচার করছি । কারো সমালোচনা করার আগে অবশ্যয় যে কারনে সমালোচনা করছেন তার সতত্যা জেনে করা উচিত । সরকারের উচিত এই সব নিউজ পোটাল গুলোর বিরুদ্ধে ব্যবস্থা নেওয়া । অকারনে একটা মানুষকে জনমনে এভাবে হেয় প্রতিপন্ন করার কোন অধিকার নেই । বুদ্ধি বিবেক দিয়ে বিচার করতে শিখুন ।সাকিবের ক্যারিয়ার সম্বন্ধে জানুন তার পর কমেন্ড করুন । ব্যাক্তি সাকিবকে বুঝার ইচ্ছা রাখুন । আপনার চিন্তা ভাবনার অবশ্যয় চেঞ্জ হবে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওর সাথে সেলফি কায়দায় অার কাজ নাই।তার চাইতে কুকুর অনেক ভাল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই বেয়াদব ফাজিলের সাথে ক্রিকেট খেলার কোন ইচ্ছা আমার নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মোবাইলটা খোয়ানোর ইচ্ছা আমার নেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোর সাথে সেলফি না তুলে থাক কিছু লিখলাম না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিশ্ব বেয়াদপের সাথে সেলফি না তুলা বালো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই আইচক্রিম খাইলে মানুষ সব বেয়াদব হয়ে যায় জলদি কিনুন স্টক সিমিত </t>
+  </si>
+  <si>
+    <t xml:space="preserve">দ্বিতীয় ম্যাসেজে আপনার সেবাটি চালু হয়েছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অাসো কালাচান খেলতে এসো ঢাকা কে তোমার সহজ মনে হয়?ওয়েল কাম বাতিজা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আশা করি সবাই ভিডিওটি দেখবেন এবং ভাল লাগলে আমাদের এ করবেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মামা তোমাদের জন্য একটা ভালো লাগার মতো পেজ আশা করি সব মামারা লাইক দিবা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গুড ডিসিশন বিসিবিকে মারুফকে ওপেনিং করাতে হবে তাহলে ভাল হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুদ্ধ সংগীতের এ আয়োজনকে সর্বদা স্বাগতম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদেরকে আপাতত নিবন্ধিত করে আশ্রয় দিতে হবে তারপর বিশ্বের শক্তিধর দেশ ও সংঘটনের সাথে আলোচনা করে সমাধান দিতে হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">শিবলী সাদিক সত্যিকার অর্থেই অনেক ভালো মানুষ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আপনার ইচ্ছা প্রকাশ করার জন্য ধন্যবাদ। আপনি আমাদের ওয়েবসাইট থেকে সম্পর্কে বিস্তারিত জানতে পারেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আগামীর পথচলার জন্য গ্রামীনফোনের প্রতি রইল অনেক অনেক শুভকামনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মামুনি তোমার আবু্ব একটা আন্তজার্তিক বিয়াদপ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই সাকিব আল হাসান কে ভুল বুঝবেন না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অহংকারিকে আল্লাহতায়ালা পচন্দ করে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যত সব আজে বাজে নিউজ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এসব কথা অনেকে বিশ্বাস ও করেছে। সমানে সাকিবকে বেয়াদব বলে শেয়ার ও করেছে। আমরা জাতি হিসেবে অযোগ্য আমরা সাকিব এর লেভেলের কাউকে ডিজার্ভ করি না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব এর সাথে সেলফি তোলার চাইতে বনের পশুর সাথে সেলফি তোলা ভালো হবে কারন তার বেবহার ভালোনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিবের ব্যবহার এর কারনে তার সকল মডেলের ব্রান্ড আমরা সবাই কি পরিহার করতে পারি না ? আসুন বর্জন করি । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বেয়াদবের সাথে কিসের ক্রিকেট। এতদিন বাংলাদেশের ম্যাচ দেখতাম। এখন বাংলাদেশের কোন ম্যাচ আর দেখবনা। শুধু সাকিবের কারনে। বিশ্বের সেরা বেয়াদব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তুমি যে পন্যের এড করবে আমরা সেই পন্য বর্জন করবো তোমার সাথে কোঃপানির গুয়াই বাঁশ কুততা সালা ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার সাকিবের ছবি ছিল ওর অহংকার আর বেয়াদবির কারনে সেটা কেটে দিয়েছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গাদের অস্ত্র প্রশিক্ষন দেওয়া উচিৎ আরাকান স্বাধিনতার প্রয়োজন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জিততে হলে ভাল খেলতে হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা বাংলাদেশী হিসেবে বহির্বিশ্বে মাথা উচু করে বলতে পারিনা যে আমাদের সোনার বাংলাদেশে প্রাণ জুরানো দেখার মত সুন্দর কিছু আছে শুধু সুন্দরবন কক্সবাজার সিলেটের কিছু কিছু জায়গা ছাড়া বাংলাদেশ সরকার সহ সবার প্রতি আকুল আবেদন ছোট্ট এ ঘনবসতি পূর্ণ দেশটাকে যেন খামখেয়ালি করে ধ্বংস করে না দেয়া হয় আমরা এ দেশ এবং বিশ্বকে করে যাব আমাদের পরবর্তী শিশুর বাসযোগ্য । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কবিতার আসরে আপনাকে স্বাগতম। সেরা কবিতা গুলো পড়তে পেইজে লাইক দিয়ে সাথেই থাকুন। ধন্যবাদ কবিতার আসর কবিতার আসর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চাকরির খবর বিভিন্ন পরিক্ষার সাজেশন এবং বিভিন্ন বিনোদন মূলোক তথ্য পেতে আমাদের এই পেজে লাইক দিন আপনার কাছে তথ্য পাঠানোর দায়িত্ব আমাদের। ধন্যবাদ সবাই লাইক দিবেন প্লিজ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">জয় পরাজয়ে সবসময় দলের পাশে থাকা উচিত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি বাংঙালী তাই বাংলাদেশ টিমকে ভালবাসি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুমিন পুরুষ আর মুমিন নারীর জন্য আল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিরাজ যেন তোমার চেয়ে ও বড় হয় সে প্রত্যাশা রইল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভালো হবে।। ওরাই সবাইকে ঘর ছাড়া করেছে। ওদের ঘারে ওঠা দরকার সবার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বার্মায় রোহিঙ্গাদের উপর ভয়াবহ জাতিগত নিপীড়ন চলছে। রোহিঙ্গাদের পুরোপুরি নির্মূল করতে বার্মিজ সরকার দীর্ঘদিন থেকেই সেখানে বর্বর গণহত্যা চালিয়ে আসছে। এই জঘন্য হত্যাকাণ্ড ও জাতিগত নিপীড়নের তীব্র নিন্দা জানাচ্ছি। প্রতিবেশী হিসেবে বাংলাদেশ সরকারের উচিত জোর কূটনৈতিক তৎপরতার মাধ্যমে গণহত্যা বন্ধে জাতিসংঘের উপর শক্ত চাপ প্রয়োগ করা। এবং বার্মিজ সরকারের এই মানবতা বিরোধী অপরাধ সারাবিশ্বের কাছে উম্মোচন করা। মুসলিম ভাই বোনেরা প্রতিবাদ কর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সালা তরে কাছে পাবনা তাই দুর তেকে একটা তাপ্পর মারলাম এইয়া </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব একজন আইকন। তার কাজের ব্যাস্ততা থাকবেই।আর তাই বলে যখন তখন পাবলিক এসে ছবি তুলতে চাইবে নাকি?? আর মাঝে মধ্যে উল্টাপাল্টা খবর বের করবে সাকিব এইটা করছে সেইটা করছে সে একটা খারাপ। আমাদের কথামত না চললে বিল গেটস ও আমাদের চোখে খারাপ।কারন আমরা যে বাংলাদেশি। সম্মানী ব্যাক্তিদের সম্মান মরার আগে দিতে পারিনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কোনো এ টাকা লাগবে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অপরাধীর হাত যত বড়ই হউক না কেন আইনের হাত তার চেয়েও লম্বা। রাগিব আলী পালিয়ে আইনকে ফাকি দিতে চেয়েছিলেন। মানুষটির বযস হয়েছে কিন্তু মৃত্যু ভয় নাই। তাই সরকারী সম্পত্তি আত্মসাতে তার লোভের অন্ত নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ওনার প্রধান অপরাধ হচ্ছে তিনি জামাত করেন। যার কারনে তিনি এত হয়রানির শিকার হচ্ছেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সংখ্যালগুদের সম্পদ আত্মসাতের জন্য যদি রাগিব আলীদের বিচার হয় তাহলে শতকরা জন আঃলীগের বিচার হবে শত্রু আইন সম্পত্তির হিন্দুদের জায়গা দখলের জন্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধনী হতে হলে নিতি থাকতে হয় এটা কথার কথা আসলে ধনী হতে হলে গরিব অসহায়দের টাকা মেরে খেতে হয় এটাই বাস্তবতা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতে অনেক রাজনৈতিক কুখ্যাত সন্ত্রাসী স্বাধীনভাবে বসবাস করছে।রাগীব চৌধুরী হিন্দুদের জমি দখল করেছেন এই অভিযোগ থাকায় তাকে ভারতে থাকতে দেওয়া হচ্ছেনা এটাই সত্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> উনি দানবীর উনাকে অসম্মান করবেন না।প্লিজ প্লিজ প্লিজ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি কাল রাতে ভিডিওটা দেখেছি সত্যি অসাধারণ ওর অনেক প্রতিবা আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিম তোমার অবিনয় আমার কাছে ভালো লাগে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভালই লাগছে চোর পুলিশের গল্প। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রতেক পেজে পেজে ছড়িয়ে দাও তোমার লেখা অনেক সুন্দর করে বাস্তবটা তুলে ধরার জন্য ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সংবিধান অনুযায়ী হবে আশা করি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একমাত্র ক্ষমতা ঠিকিয়ে রাখার জন্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ মুসলমানদেরকে তিমি হেফাজত কর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রিযিকের মালিক আল্লা জান বাচানো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব আল হাসান আমাদের গর্ভ। আসুন সবাই যুক্ত হই সাকিবের ফ্যানস গ্রুপে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আর হয়তো ওদের শেষ রক্ষা হলনা। কতো আশা নিয়ে ওরা শুধু বাচার জন্য এদেশে এসেছিল। আজ যেন আমাদের হাত পা বাধা। আল্লাহ তুমিই ভরসা আল্লাহ।।। কিছুতো করো আল্লাহ কিছু একটাতো করো। আমিন।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পাপ তার বাপেরেও ছাড়ে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তবে একজন শরনার্থীকেও বাংলাদেশে ফেরত পাঠানো যাবে না। এটাই শর্ত । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সন্ত্রাসী অনুপ চেটিয়াকে ফেরৎ দিয়েছিলো বাংলাদেশ আমরাও ফেরৎ দিলাম একে এরকম অপরাধী প্রত্যর্পণ চুক্তি মেনে চললে দুটো দেশই শান্তিতে থাকবে। বন্ধু শত্রু পালটানো যায় প্রতিবেশী পালটানো যায়না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সব শালাই চোর।চুরি করে নিজের পকেট ভারী করে।রাগীব আলী নিজের পকেট ভারী করার চেয়ে গরীব দুঃখীদের বিলিয়ে দিয়েছিলেন।তিনি এ যুগের রবিনহুড।কিন্তু যমুনা গ্রুপ সহ কিছু কুলাঙ্গারের জন্য এই দানবীরকে অপদস্থ হতে হল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমারে রোহিঙ্গা মুসলিম দের পশুর মতো মারতাছে এবং নিরমূল নির্যাতন করাছে এখন কি বিশ্ব মানবতা অন্ধ হয়ে গেছে। আজ কেন বিশ্ব মানবতা নিরবতার ভুমিকা পালন করতাছে। আর মুসলিম রাষ্টের উদ্দেশে বলতাছি এখনে কেন আপনরা মিয়ানমারের মুসলিম দের কে সাহায্যের হাত বাড়িয়ে দেন কেন।এবং বালাদেশের সরকারকে উদ্দেশে বলছি বাংলাদেশের সীমান্ত খুলে দেও হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রশাসনের উপযুক্ত তদারকির জন্য এমন দূঃখজনক ঘটনা বার বার সামনে আসছে৷ আরে ভাই পোশাক শিল্পের ক্ষেত্রে দেখেন তাজরিনের মতো সাভার আশুলিয়া নবীনগর ইপিজেড পুরো এলাকায় অনেক অনেক অবৈধ্যা স্থাপনা কলকারখানা ব্যাঙের ছাতার মতো আছে ৷ এমনি এই কালার ম্যাচ কোম্পানিটাও ছিলো জিরাবো স্টেনের কাছেই৷ বিজিএম থেকে গার্মেন্ট কোম্পানিগুলোতে ঠিকমতো কম্প্লায়ান্স করে কি না তার তদারকি করে না৷ কিছু টাকা পেলেই তদান্ত করে না সব ওকে৷ এর জন্যই এই ম্যাচ কোম্পানির মতো এই আশুলিয়ায় আচার কোম্পানি সহ বিভিন্ন কোম্পানি আছে যা হ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হুক্কা হুয়া পোদ উল্টে চাইছে দুয়া দুয়া চাইছে কারা ভিখারী বেজন্মা যারা পোদে নবীর বাড়া মুখে আল্লহ তালাহ মালু কবির শ্রদ্ধার্ঘ্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাবধান আপনার সামনেই ভারতীয় দালাল । আওয়ামী লীগের কিছু কিছু নেতা নেত্রী একটি স্বাধীন দেশের নাগরিক হয়েও নিয়মিত ভারতীয় স্বার্থে দালালি করে যাচ্ছেন । ভারতই তাদের মাতা ভারতই তাদের পিতা ভারতই তাদের দেবতা। ভারতই তাদের দেশ মন মননে তারা এক একজন দেশপ্রেমিক ভারতীয় ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এরাই বাংলাদেশে বসবাস করে স্বয়নে স্বপনে ভারত স্বপ্ন দেখে এবং ভারতের স্বার্থে কাজ করে। ভারতে বৃষ্টি হলে তারা বাংলাদেশে বসে ছাতা ধরে। ভারতের আনন্দে এরা আনন্দিত রোমাঞ্চিত প ুলকিত।এরা কখনো নিজেদের একটি স্বাধীন সার্বভৌম দেশের নাগরিক মনে কর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই দেশটা কানা বিচারে ভরে গেছে কারন মানুষ তাড়াতাড়ি অতীত ভুলে যায় হাছিনা খালেদাকে মামলা থেকে খালাস না করুক কিন্তু খালেদাকে হত্যা করার জন্য অন্তত বার আক্রমণতো করে নাই যা খালেদার জংগীরা করেছিল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাবাস আল্লাহ আপনার সহায় হোক।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি মনে করি মুসলমান দের বিপদ এর সময় আমাদের মুসলিম দেশ হিসাবে পাশে দারানো উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের লোয়ার অডার আর ইংল্যান্ডের লোয়ার অডারের মধ্যে আকাশ পাতাল তফাত যেখানে বাংলাদেশের লিড নেওয়ার কথা সেখানে লিড নিল ইংল্যান্ড কালকে ঘুড়ে দারাবে টাইগাররা দের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা বঙ্গ বন্দুর সৈনিক মিলে মিসে করি কাজ স্বেচ্ছা সেবক লীগ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাব্বির তোমার সামনে আবারো নায়ক হওয়ার হাতছানী এর আগেও কয়েকটা ম্যাচে হয়েছো কিন্ত সেগুলো ছিলো ওডিআই বা টি টোয়েন্টি যেগুলোতে এখন আমরা আল্লাহর রহমতে প্রায়ই জিতি কিন্ত টেস্ট জয় আমাদের কাছে সোনার হরিণ খুব বেশি কিছুুনা নিজের কাছে স্ট্রাইক রাখার চেষ্টা করো এবং তোমার যে শক্তির দিক সেই কব্জীর জোরে টা বল বাউন্ডারীতে আছড়ে ফেলো দেখবে তুমিই নায়ক হবে ইনশাআল্লাহ আজ কোটি বাঙ্গালীর দোয়া এবং চোখ তোমার তাইজুল এবং শফিউলের দিকে শুধু মন দিয়ে চেষ্টা করো ইনশাআল্লাহ সফলতা আসবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এক নেত্রীর সব মামলা খারিজ আরেক জন মামলার হাজিরা দিতে দিতে শেষ এই তো আমাদের স্বাধীন বিচার বিভাগ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফখরুদ্দীন মইনুদ্দীন নাকি ছিল অবৈধ সরকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এউ বুড়া বয়সে মামলা টামলার ঝামেলায় না জড়িয়ে জামায়তকে তালাক দিয়ে দেশবাসীর কাছে সব অপরাধের ক্ষমা চেয়ে তারেকের রাস্তায় হাঁটা দেন।জনগণ বিপদমুক্ত হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খালেদাজিয়ার প্রতি এ অন্যায় আচরনন ঠিক না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যোগ্য পিতার অযোগ্য সন্তান এই হাসিনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শেখ হাসিনাকে ঠিকই এইসব মামলা থেকে অব্যাহতি দিয়েছিলো তাদের সাত খুন মাফ আর বিরোধীদের নেই মাফ। বাংলাদেশের আদালত সম্পুর্ন সরকারেরর নিয়ন্ত্রনে সেখানে আপনি সুবিচার পাবেন না অবিচার সেটা নির্ভর করে আপনার রাজনৈতিক পরিচয়ের উপর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এত সাজুগুজুু ভাল লাগে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আগামী নির্বাচনে খালেদা তারেক সহ বিএনপির বড়বড় নেতারা অংশগ্রহণ করতে পারবেনা। সাজা দিয়ে দেবে। সরকার সেই পথেই আগাচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের জন্য বড় লজ্জা হল যখন কোন দলের প্রধান নেত্রী দুরনীতি করে আবার আদালতে কাছে যেয়ে আত্নোসমর্থন করে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চলুক চলতেই থাকবে এর শেষ কোথায় সয়ং বিচারক মহোদয় জানেন না। ঝুলিয়ে না রেখে একটা ফয়সালা করে ফেললে দেশের অনেক ভালো হতো । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধন্যবাদ আপনার কাছে আরও একটি চাওয়া আমাদের সেটা হল নায়ক সালমান সা কে নিয়ে ইত্যাদি একটি প্রতিবেদন করছিল তার মৃত্যর পর ওই প্রতিবেদন টা যুদি আবার আমাদের দেখার সুজোক করে দিতেন দয়া করে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অ রা আমাদের ভাই আম রা তাদের পাসে তাকব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টাকায় টাকার বেশি লাভ সুদের সমান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আশা করি তাডাতাডি হয়ে য়াক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আর ভালো বেস্টমেন নাফিস এবং ভালো পিল্ডার নাসির আর ভালো অলরাউন্ডার নাসির </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিএনপি মনেকরে তারা ধুয়া তুলসী পাতা একটা দল । কিন্তু দেখেন দলের জন্ম থেকে ক্যাপ্টেন জীয়া বঙ্গবন্ধুর হত্যার সাথে পরিকল্পনা কারী মূল ভূমিকা । এরপরে সামান্য ক্যাপ্টেন থেকে লাফ দিয়ে সেনাপ্রধান। জেল হত্যার পেছনেও। আবার বর্তমানে বিএনপি কি করে? যখন প্রমাণিত যারা দেশের স্বাধীনতাকে বিশ্বাস করেনা দেশের স্বাধীনতার বিরুদ্ধে রাজাকারি করে জামাত। সেই জামাত কে সাথে নিয়ে সরকার গঠন করেছে । তাদেরকে জোট করে সাহস যোগাচ্ছে। এরপর দেখেন রক্তের ধারাবাহিকতা । জীয়াউর রহমানের ছেলে তারেক জীয়া আগস্টের ভয়ংকর গ্রেনেড হামলা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা আবারো হিটলারকে স্মরণ করতে চাই।আর এটা তখনি সম্ভব যখন হিটলারের প্রেতাত্মা ট্রাম্প নারকীয় কাজ করবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হা হা ট্রাম্পের খবর পেলে রেন্ডিয়ান বালকাতার রিফুজি কাংলুরা ধুতি ড্যান্স মারে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তার মানে এটা সাজানো নাটিকা ছিল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গাইবান্ধার বীর মুক্তিযোদ্ধা আজাদ কে খুজে পাওয়া যাচ্ছেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">গোলাম আহমদ হল প্রতারক মিথ্যুক। মিথ্যা দাবিদার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আহমদ যেমন নবি নয় তেমনি নবি নয় মুহম্মদও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ট্রাম্প তারা বরাবরি বিনোদন মুলক জাতি তারা নিজের বাপকে বাপ বলে মজা পায়না তারা পাশের বাড়ির চাচাকে বাপ ডাকে তাই আমরাও তাদের প্রতি খুশি কারন বি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ থেকেও বৌদ্ধদের ঝেটিয়ে বিদায় করার সময় এসেছে। আর মুখ বুঝে থাকার সময় নেই।আমি সবাইকে অনুরোধ করতেছি আপনারা সবাই বৌদ্ধদের সাথে সম্পর্ক ছিন্ন করুন। তাদের সবাই একঘরে করুন।বৌদ্ধরা বাংলাদেশে বড়ুয়া নামে প্রচলিত। এরা মুখে মুখে মুসলিম প্রীতি দেখায় কিন্তু এদেরকে মিয়ানমার পাঠালে এরাও মুসলিম হত্যায় মেতে উঠবে।এদের হচ্ছে মুখে মধু অন্তরে বিষ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইন্ডিয়ার কিছু হিন্দু বাংলাদেশের পেইজে এসে ইসলাম নিয়ে বাজে মন্তব্য করছে। আমাদের সৃষ্টিকর্তাকে হিন্দুরা গালি দিচ্ছে। অথচ আমাদের দেশের নব্য রাজাকাররা এদের সাপোর্ট দিচ্ছে। ইন্ডিয়ার গোলামী করতে করতে নিজের ধর্ম কর্ম বিসর্জন দিচ্চে। দেশের জন্য ধর্মের জন্য এদের দয়া মায়া নেই। আল্লাহ যেন এদের হেদায়েত দান করেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শত প্রতিকূলতার মাঝে এই কর্মসূচী বাস্তবায়ন করার জন্য বাংলাদেশ ইসলামী ছাত্র শিবির কে আন্তরিক অভিনন্দন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি হাজার বছর বেচে থাকেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই জয় আমাদের এই জয় কোটি বাঙালির </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি সরকারের কাছে আবেদন করবো মানবিক দিক চিন্তা করে সিদ্ধান্ত নিতে পারেন অন্তত সাময়িক ভাবে তাদের কে কেবল জীবন রক্ষার জন্য সীমান্ত এলাকাতেই জায়গা করে দেন তা না হলে যারা রাষ্ট্রের দায়িত্ব পালন করেন তাদেরকে একদিন আল্লাহর নিকট জবাব দিতে হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি আপনার অনেক অনেক ভক্ত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাড়াতাড়ি কান ফুটু করে দেন। কানের দোল দিলে আরো বেশি কিউট লাগবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রহিঙাদের আমাদের দেশে জায়গাদেওয়া হোকএবং খাওয়াদাওয়া জররি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বালাদেশে তো এর চেয়ে সুম্দর যায়গা আছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাল ছেলেদের শুধু পুলিশের পদে চাকরি দেন। সবায় কে ঠিক করে ফেলবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাব্বির রহমান আর তাইজুল ইসলাম ভালোভাবে খেলতে পারলে বাংলাদেশ জিতে যাবে গ্যারান্টি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এক্তা অন্যায়কে প্রতিহত করতে কিয়ে আরেক্তা অন্যায় করা থিক হবে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গাইবান্ধায় ধান খেতে পরে থাকা মঙ্গল মাড্ডির লাশ আমাকে যতটা কঁাদায় নাসিরনগরের ঘর হারা পূর্নিমার আহাজারি আমাকে যতটা লজ্জিত করে কাশ্মীরের বোরহানের হত্যা যতটা কষ্ট দেয় তুরস্কের সমুদ্র সৈকতে পড়ে থাকা শিশু আয়লানের লাশ যতটা আন্দোলিত করে রামুতে পুড়ে যাওয়া বৌদ্ধ বিহার দেখে আমি যতটা বিচলিত হই ঠিক ততটাই আমি বিধ্বস্ত হই কোন রহিঙ্গার ক্ষতবিক্ষত লাশ দেখে।এরা সংখ্যালঘু তাই বলে কষ্টের অনুভূতি তো লঘু নয়।ধর্ম এবং গানিতিক লঘিষ্ঠ গরিষ্ঠতা দিয়ে মানুষ বিচার কতটা মানবিক ও ধর্মনিষ্ঠ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মায়ানমার সরকার বরাবরই রোহিঙ্গা ইস্যু ধামাচাপা দিয়ে আসছে ৷ মানুষ কতটা বাধ্য হলে নিজ দেশ ভিটে মাটি ছেড়ে অন্য দেশে পাড়ি জমাতে পারে মায়ানমার এখনো রোহিঙ্গাদের তাদের দেশের নাগরিক হিসেবে মেনে নিতে পারেনি ৷ একবিংশ শতাব্দীতেও এতটা নির্যাতিত জাতি পৃথিবীর আর কোথাও আছে বলে আমার জানা নেই ৷ এই জাতিটা তাদের জন্মলগ্ন থেকেই অবহেলিত ৷ এদেরকে নিয়ে মানবতার গান খুব কমই রচিত হয়েছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাই অন্য দেশের পক্ষে ফিট নয় ।তাই এটার যারা পূজা করছে তাদের দেশ ধর্ম দেশের উর্বরতা সব চৌচির </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিন্দু যেগুলি সব জারজ সন্তান কারন এদের কোনো বিয়েতে শরিয়াত মানা হয় না । আর তাই এরা সবাই জারজ সন্তান হিসেবে জন্ম নেয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">হিন্দুরা দেখলে মানুষের মতো হলেও এরা গরুর পেট থেকে জন্মায়। মানুষের মতো গরুরাও তিন প্রকার। নারী পুরুষ হিজড়া। অর্থ্যাৎ গাভী বলদ হিন্দু। যারা গাভী বা বলদ কোনটাই হতে পার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সালা হারামি এখানে এসে পাগলামি করছিস কেনো? তোর কি মনে হয় আমরা জানি না হিন্দুরা তালাক দেয় কি না? লোল হিন্দুরা নাকি তালাক ডিভোর্স দেয় না। সালা মিথ্যার বাচ্চা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এখানে কাজ করতে কোন টাকা লাগে না প্রয়োজন ধৈর্য আর পরিশ্রমের। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">যদিও কোন মানুষ কেই খুন করা উচিত নয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলায় একটা প্রবাদ আছে একজন দোষ করে দশে পুড়ে মরে। তোদের অবস্থা হয়েছে ঠিক তেমনি। মুহাম্মদ দোষ করে গেছে পৃথিবীর সব মুসলিম আজ কষ্ট ভোগ করছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাচচা টাকে লাগছে গলাপের পাপরিমতো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আগামীকাল নভেম্বর মঙ্গলবার সকাল টায় জাতীয় প্রেসক্লাবের সামনে নাগরিক পরিষদের উদ্যোগে মায়ানমারে গণহত্যার ও জাতিসংঘের নির্লিপ্ততার প্রতিবাদে মুখে কালো কাপড় বেধে মানব বন্ধন। সকলে আসুন এ গণহত্যা নারীও শিশুনির্যাতন এবং নারকীয় তান্ডবের প্রতিবাদ জানাই। বাংলাদেশ সরকারকে জাতিসংঘে ইস্যুটি উথ্থাপনের দাবী জানাই। অাপনিও আসুন। গনহত্যার প্রতিবাদে মানবিক দায়িত্ব পালন করি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিশ্বের সব সাধারণ প্লেয়ারদের মাঝে সাকিব বস্ একজনি অসাধারণ আমরা গরবিত সাকিব নামের একজন জগৎ কাপানো অলরাউন্ডার পেয়ে আশাকরি ওয়ানডেতে ফিরে আসবে এই বস্ নাম্বার ওয়ানের রুপ নিয়ে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাইকে নিয়ে বাজে কথা বললে তার সাথে গাঞ্জাম করি আমিও তুমার জন্ন দুয়া করি আমিনুল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বশ আপনি এগিয়ে যান আপনার সাথে আমরা ষোল কোটি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি কি আপনার মোবাইলের জন্য ভালো কোনো পাওয়ার ব্যাংক ইয়ার ফোন ব্লুতুথ হেডফোন ডাটা ক্যাবল অথবা অন্য কিছু খুজছেন? তাহলে এখনি লাইক দিন এই পেজে আর খুজেনিন আপনার প্রয়োজন মত ভালো মানের পণ্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আপনাকে শান্তিতে ঘুমাতে সহায়তা করছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনাকেও ধন্যবাদ আমাদের সাথে থেকে আমাদেরকে সহযোগিতা করার জন্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা চাই তাদের কে আশ্রয় দেয়া হোক। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মায়ামারের সাথে সবধরনের সম্পর্ক ছিন্ন করার দাবি জানাচ্ছি।তাতেও যদি রোহিঙ্গা উচ্ছেদ সমস্যা সমাধানে মায়ানমার আন্তরিক না হলে মায়ানমারের বিরুদ্ধে যুদ্ধ ঘোষণার হুমকি দেওয়া যেতে পারে।সোজা আঙুলে কিছু হবে বলে মনে হয় না। গত চার দশক ধরে মায়ানমারের বহু টালবাহানাতো বিশ্ব দেখছে আর কত যুদ্ধই জীবন যুদ্ধই সর্বজনীন। আজ হিটলারকে বিশ্ব খুব মিস করছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের মোসলমান আর বার্মার সরকারের সাথে নীতিগত মিল প্রচুর। এ দেশের মুমিনরা বলে হিন্দুরা নিজেদের মন্দিরে আগুন দেয় মূর্তি ভাঙ্গে। দোষ দেয় দেশের পিস ফাকার মুসলিম জনগনের। এভাবেই তারা বাংলাদেশে সাম্প্রদায়িকতার বীজ ছড়াচ্ছে। মায়ানমারের সরকারও বলছে রেহিঙ্গারা নিজেদের বসত বাড়িতে নিজেরা আগুন দিচ্ছে মায়ানমারের মত অসাম্প্রদায়িক একটি দেশকে অস্থিতিশীল করার জন্য। এটাকেই বলে যেমন কুকুর তেমন মুগুর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পারমাণবিক বোমা নিয়ে বসে আছে পাকিস্থান বিশ্বের সর্ববৃহৎ তেলের ভান্ডার নিয়ে বসে আছে সৌদিআরব কাবা ঘরের চাবি নিয়ে ধর্ম ব্যবসা করছেন বাদশা আব্দুল্লাহ আরব আমিরাত ব্যস্ত বাণিজ্য আর সুউচ্চ অট্রালিকা নিয়ে একশ বিশ টন সোনায় গা ভাসিয়ে দিয়েছে কুৃয়েত কাতার ব্যস্ত বিশ্বকাপ আয়োজন নিয়ে মৃত্যুর মুখ থেকে ফিরে আসা মজলুমদের একটু আশ্রয় না দিয়ে আবার পুশব্যাক করছে তুরস্ক থেকেও শক্তিধর আর উন্নত দেশটি বাকিদের কথা আর নাইবা বললাম অপরদিকে নিউজ ফিড জুড়ে ভেসে আসছে ইতিহাসের নারকীয় আর বীভৎস হত্যাকান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যেহেতু বিবিসি রিপোট করেছে মিয়ানমারে রহিঙ্গা নির্যাতনের সেহেতু কিছুটা হলেও অঘটন ঘটেছে তারই সুজগ নিয়ে বাড়াবড়ি পর্যায়ে বিভিন্য ছবি ছাড়ছে রাজকারের দালালেরা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পৃথিবীতে যদি কোন অন ঐক্যের জাতি থাকে সেটা হলো মুসলিম জাতি মুসলমানরা এক থাকলে কোথাও এমন মার খেতে হতোনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অকার্যকর দেশের নতুন সেনা প্রধান কার্যকরী দেশে রূপান্তরে ভূমিকা রাখবে আশা করি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আসুন দেখি সাকিব কেন বিশ্বের সর্বকালের সর্বসেরা অলরাউন্ডার সিপিএলে এর আসরে তিনি রানে উইকেট নিয়েছেন। যা টি বোলিংয়ে বিশ্বে য়। ওডিআই এ এক ম্যাচে সেঞ্চুরি ও চার উইকেট পেয়েছেন এ পর্যন্ত জন। সাকিব তাদের একজন। টেস্টে সাকিবের ব্যাটিং গড় প্রায় এর কাছে। যা ক্যালিসের পর অলরাউন্ডারদের মধ্যে বিশ্বে য়। সাকিবই বিশ্বের একমাত্র প্লেয়ার যে সব ফরম্যাটে বিশ্বসেরা অলরাউন্ডার হয়েছে। সাকিবই বিশ্বের একমাত্র প্লেয়ার যে টেস্ট খেলা সব দেশের সাথে অন্ত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুসলিমকে খুশির সংবাদ না দিয়ে মিয়ানমারের মুসলিমদেরকে বাচানোর এগিয়ে আসুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আশাকির সামনের খেলায় আমাদের জিতবো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সামান্য মাংস খাওয়ার অপরাধে যেদেশে হাজার হাজার কাপুরুষ পাবলিক একজন অসহায় মুসলিমকে পিটিয়ে হত্যা করে আজ তারা শেখাতে এসেছে মানবতা ছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দাদা ভারত কিন্ত হায়দারাবাদ সালে আর্মি দিয়ে দখল করে নিয়েছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই কলকাতান কাংলুটা সবজায়গায় একি পোস্ট করে। বাংলাদেশের সাথে মিয়ানমার রেন্ডিয়ার তুলোনা করে। যেখানে বাংলাদেশে মুসলিমরাই হিন্দুদের হয়ে আন্দলোন করে বিচার নিশ্চিত করে খতিপুরোনের ব্যাবস্থা করে। টা মন্দীর ভাঙার বিপরিতে জনকে লালদালানে তোলা হয়েছে। আর সালারা মানুষ মার্ডার ধর্ষনেও মনে হয় বিচার করে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমিও চাইনা এই মরন খেলা ।কিন্তু এই মরন খেলা শুরুটা রহিঙ্গারা করেছে।তারা যদি প্রথমে নয়জন সেনা না মারতো তাহলে এই দাঙ্গা হয়তো লাগতো না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমেরিকা কই গেলি মুসলিম দেশ গুলোকে বিনা কারণে জঙ্গী রাষ্ট্র বলিস শান্তি প্রিয় মুসলমানদের তোরা জঙ্গী উপাধি দিস কিন্তু মায়ানমারের বৌদ্ধরা পৃথিবীর নিকৃষ্টতম জঘন্যতম হত্যাকাণ্ড ঘটাচ্ছে তাদেরকে কেন জঙ্গী বলিস না মায়ানমারকে কেন জঙ্গী রাষ্ট্র ঘোষণা করিস না </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মানুষ হিসেবে মানুষের পাশে দাড়ানো মানুষের নৈতিক দায়িত্ব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি চাই ওদের আশ্রয় দেওয়া হোক একজন মুসলমান হয়ে বলছি আরেক মুসলমানের সাহায্য করা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পৃথিবীতে এখনও ভালো মানুষ আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার গর্ব আমার দেশ সেই আমার বাংলাদেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব আল হাসান বস পরপর দুই খেলায় সেরা পুরস্কার হওয়ায় সাকিব বস কে ধন্যবাদ। তাই সাকিব বস এর ভালো ও খারাপ সময় য়ে সাপোর্ট করার জন্য ধন্যবাদ। আশা করি বাকি সময় গুলোতে সাকিব বস এর পাশে থাকবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানবতাবাদীরা কোথায় এখন?তাদের নিরবতা প্রমাণ করে তারা সুবিধাবাদী । তারা শক্তের ভক্ত নরমের যম । তাদের লজ্জা বলতে কিছু নাই । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আজ থেকে কোথাও বৌদ্দ দেখা মাত্রই তাদের হাত পা কেটে ফেলা তার পর শিয়াল এর গর্তে দেওয়া ওরা পুড়িয়ে মারবে আমরা শিয়ালকে খাওয়াবো আমাদের সরকার কাওকে কিছু বলতে পারবেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রাখে আল্লাহ মারে কে।বাংলেদেশের অগ্রযাত্রা দেখে মায়ানমার সরকারের এ সিদ্ধান্ত যে রোহিঙ্গাদের পাঠালে সরকার হিমসিম খাবে এবং উন্নয়ন বাধাগ্রস্ত হবে।মায়ানমার সরকারের এ কাজগুলো অমানবিক ও হিংসুটে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ হিন্দু সাঁওতাল দের উপর যেমন অত্যাচার করছে তেমনি তাদের চরমপন্থি জাতের উপর সমস্ত দেশে অত্যাচার চলছে আমেরিকা ওদের দেশের মেয়েদের হিজাব খুলে নিয়েছে আমেরিকা লন্ডন জার্মানি আরবেও দেখলাম বাংলাদেশের কাজের মেয়েকে তার মনিব উলঙ্গ করে পেটাচ্ছে আজকে আল্লাহ কে ডেকে বলছে রহিঙ্গাদের রক্ষা করতে কিন্তু দুঃখের বিষয় এই আল্লাহ ওদের পাপে কানা হয়ে গেছে সাঁওতাল ও হিন্দু নারী বিষ্ঠা খোরেদের জাহান্নামে ও জায়গা হবে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বার্মিজ সরকার বার্মিজ সেনাবাহিনী বার্মিজ বুদ্ধভিক্ষু এবং কুকুর এর মধ্যে কোন পার্থক্য নাই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কোথা সেই গলাবাজি করা সংবাদ পত্রে হেডলাইনে থাকা মানবধিকার কর্মিরা কোথায় সেই আইএস কোথায় আজ বিশ্বনেতারা কোথায় সেই জাতিসংঘ কোথায় মুসলিম যোট তারা কি আজ মানবিক বির্পযয় সংখ্যালঘু রহিঙ্গাদের চোখে পড়ে না । </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কিন্তু তা দূর করার পথ সে খোজেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একটি লজিক্যাল থিংকিং বাংলাদেশে হিন্দুদের যদি বাঁচার অধিকার না থাকে তাহলে মিয়ানমারে রোহিঙ্গা মুসলিমদের বাঁচার অধিকার নেই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমারের রোহিঙ্গাদের সাহায্য কেউ এগিয়ে আসছেনা।বাংলাদেশও অনিহা তাদের সাময়িক আশ্রয় দিতে।তাই তাদের উচিত নিজেদের বাঁচানোর জন্য খন্ড খন্ড বাহিনি গড়ে নিজেরাই প্রতিরোধ গড়ে তোলক।এছাড়া আর কোনো পথ খোলা নেই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচি লেডি হিটলারের ভূমিকায় অবতীণ হয়েছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কালকে মোশারফের তে বাংলাদেশের জয় ইহা একটি কাল্পনিক বানী </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হকিতে পার আর কোনটাতে পারনা।স্বাগতম তোমাদেরকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মাননীয় মন্ত্রী ম হোদয় আপ নি যা বুঝা লেন বর্তমা নে যারা রাজনী তি ক রে তারা সবাই খারাপ। ধন্যবাদ অন্তত এক টি সত্য কথা বলার জন্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশে সরকার না আমাদের সবাই উছিত মুসমান মুসমানের ভাই হিসাবে বাংলাদেশে ঠাই দেওয়া জরুরি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিডিয়ায় সংবাদপত্রগুলো সর্বশক্তি দিয়ে তার পক্ষে প্রচারনা চালাতো এ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই হাঁটু গেঁড়ে বসলাম এখন লোকজনের কমেন্ট পড়বো আর ওর্গাজমের মত মজা নিবো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সমস্যা আছে থাকবে সব চেয়ে বড় কথা ওরা মানুষ ওদের পাশে দাড়ানো আমাদের মানবিক দায়িত্ব এর পাশাপাশি জাতিসংঘে এ বিষয় সরকার লবিং করে ওদের জন্য পুনর্বাসন করার আর্থিক সহায়তা চাইতে পারে তবে ওদের আগে বাচাতে হবে সিমানত খোলা রাখতে হবে এটাই আমার দাবি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরে ভাই সামনে টেস্ট সিরিজ শেষের কয়েকটা ব্যাটিং তাই নিজেদের আগেই প্রস্তুত করতেছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি মেডামের সাতে এক মত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ মায়ানমারের মুসলমান দের কে রহমত দান করখ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদের ধর্মে জীব হত্যা মহা পাপ তবে রোহিঙ্গা হত্যা কোন পাপ হয়না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আত্তরখায় বন্দুক চালাও না হয় বাছতে পারবানা খালি খালি বাংলাদেশে ঝামেলা করনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কিছু বলার নেই ভাষা হারিয়ে ফেলেছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাহলে এটা স্বীকার করে নেন যে মিয়ানমারের অস্তিত্ব কোন দিনও ছিল না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমার নামটা শুনলে কেন জানি মন থেকে ঘৃনা চলে আসে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশে বৌদ্ধদের নিয়ে গভীর ভাবে ভাবতে হবে তা ছাড়া হত্যা বন্ধ হবে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচি কে জুতা মারা দরকার যে ভাবে মুসলমানদের হত্যা করছে অার মানবনা বিরোধী অপরাধ করার জন্য তাকে জাতি সংঘ এর মাধ্যমে ফাসি দেওয়া উচিৎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">লজ্জা হয়না একজন ভাল পব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একজন নোবেল পাওয়া ডাইনির পক্ষেই এরকম মিথ্যা বলা মানায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve">নিরাপত্তারক্ষীদের উপর যারা হামলা করেছে তাদের আটক করতে পারলে এবং রোহিঙ্গারা যে পরিমাণ গোলাবারুদ লুট করেছে তা উদ্ধার করতে পারলে তারা আর এ অভিযান চালাবেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমি এক ক্ষুদ্র ক্রিকেট প্রেমিক হিসেবে এটা মনে করি যে ইংলেন্ড দলের বোলাররা আজ যে দৈর্য্যশীলতার পরিচয় দিল তা থেকে বাংলাদেশের শিক্ষা নেওয়া উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাই চার তো দিলেন। একটা ছয় দরকার। হেহেহে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এতে আশ্চর্যএর কি আছে এ সব বেহায়াপনা না হলেই ভাল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই পারলে সাব্বির ভাই কে নামিয়ে দেন। আমার মনে হয় অনেক ভাল হবে। সাব্বির ভাই মিডল এ ভাল খেলতে পারে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শিক্ষক পেশা হচ্ছে সর্ব শ্রেষ্ঠ পেশা ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বি বি সি কে ধন্যবাদ সত্য খবর পরিবেশন করার জন্য । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এইল লোকের নাটক ভালো লাগছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শেষ হাসিটা হিলারি ক্লিনটনই হাসবে ইনশাআল্লাহ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কাশ্মীরের মুজাহিদ স্বাধীনতার কামী দের প্রতি রহিল অনেক অনেক শূভেচ্ছা ও অভিনন্দন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিলারি জিতলেও বিনোদন আর ট্রাম্প জিতলে ত ব্যপক বিনোদন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি আন্তজাতিক মহলকে এর বিরুদ্ধে প্রতিবাদ করার আহবান জানাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যাদের মনে কোন মনুষ্যেত নাই তাদের হাজার বলেও লাভ নাই বলা হয় মুসলিমরাই নাকি খারাপ কিন্তু পৃথিবীর কোন দেশের মুসলিমরা অন্যকোন জাতির উপর এমন অত্যাচার করছে তারর নজির নাই কিন্তু অন্য জাতিরা বরাবরই এমন করেই যাচ্ছে তবে বৌদ্ধরা যে মানুষ না এটা বলার অপেক্ষা রাখেনা কারন তাদের ধর্মের মূল কথাই হচ্ছে জীব হত্যা মহাপাপ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমারের সেনাবাহিনী সূচীর পাপের ফসল যারজ সন্তান। তাই এইরকমভাবে মুসলমানদের হত্যা করতেছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতের দালাল । বেটারা সারাদিন ভারতের খবর প্রকাশ করে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> চুপ কর গো মূত্রখোর । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যুক্তি তর্কের তো কিছুই জানিস না মাদ্রাসা ছাপ মূর্খ কাংলাদেশী </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা গো মূত্রের জোর দেখিয়ে দিয়েছি কাবাডিতে বাংলাদেশ আর ইরানকে হারিয়ে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রেন্ডিয়া গোয়ালের গো মূত্রখোর তোদের মুর্খচোদা ভিখারিদের সাথে কেউ কথা বলে না । কারন তারা জানে তোরা মুর্খের দল । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সারা পৃথিবী জুড়ে যেখানেই যাস সেখানেই মার খাস। তোরা হলি এই সুন্দর পৃথিবীর নোংরা আবর্জনা কীট </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তথ্য মথে কৃষ্ণের স্ত্রী ছিলো। মাউলানীর যৌবনে কাহ্নের মন। বিধুমুখে বোলেঁ কাহ্নাঞিঁ মধুর বচন সম্বন্ধ না মানে কাহ্নাঞিঁ মোকে বোলেঁ শালী। লজ্জা দৃষ্টি হরিল ভাগিনা বনমালী দেহ বৈরি হৈল মোকে এরুপ যৌবন। কাহ্ন লজ্জা হরিল দেখিআঁ মোর তন শ্রীকৃষ্ণ কীর্ত্তনের দানখন্ডঃ রামগিরীরাগঃ পৃষ্ঠাঃ শব্দার্থঃ মাউলানী মামী কাহ্নের কৃষ্ণের বোলেঁ বলে হরিল হারাল বনমালী কৃষ্ণ মোকে আমাকে দেখিআঁ দেখে তন স্তন। যিনি যৌতুক হিসেবে হাজার দাসী নিয়েছিলেন তিনি কৈলাসের দেবদাস ওরফে চন্দ্রশেখর ও </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষ হিসেবে অদের কাছে দাড়ানো উচিৎ।আর মুসলিম হিসেবে ওয়াজিব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অনেক ভাল খেলা হয়েছে এখন ইংল্যান্ড এর সাথে ভাল খেলার অপেক্ষায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জি ভাই সেইটা আশা করি ইনশাআল্লাহ ।কিন্তু ভাই এক টা ছিল কেন জানি মনে হয় আমাদের কোচ একটু বেশি উপরে উঠে গেল না ।বলছি এই কারণে ।আলামীন।কে তার ভাল লাগে না আর রুবেল কেন বাধ দেয়া হল ।মনে হয় আমাদের নিবাচক ফারুক ভাইকে আনতে হবে ।আজকের খেলা টা হারলাম কারন সাবির যদি এক রান না নিত তাহলে আমরা জিততে পারতাম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা আমার কমেন্টের প্রতিউত্তর করেছেন তাদের মধ্যে সুন্দর কথা বলেছেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সরকারের উচিত তাদেরকে একটি সুনিদিষ্ট জায়গায় বসবাস করতে দেওয়া।পরে ফেরত পাঠানো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রচার থেকে হাজার গুন ভালো ধন্যবাদ দেশ কে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ম্যাশ সত্যিই অসাধারন কোটি কোটি মানুষের সামনে আজ আবার প্রমাণ করলো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রসংশিত ও মহৎ উদ্যোগ। সাধুবাদ জানায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ধন্যবাদ সবসময়ের মতো আমাদের সাথে থাকার জন্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আশা করি আগামী টেস্টে ব্যাটিং ভালো কিছু উপহার দিবেন। ইনশআল্লাহ। বোলিং নৈপুণ্যের জন্য জয় আশা জাগিয়েছেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুলতান সুলেমান আমার দেখা চাই অসাধারণ এক সিরিয়াল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনার জন্মদিনে হাজর হাজার লাইক দিলাম শুদু চার বছর কেনে জুদি এভাবে হাজার হাজার বছর তাকেন শুদু আমি আপনাকে হাজার বছর লাইক দিব কিনতু আপনি সবসময় নিজে নিজে ধরে রাকবেন আসলে আনেক বছর দরে আপনাকে ভাল লাকে কেন জানি না আমি কককনও বাংলা ছবি দেখি না শুদু নাটক দেকি সবসময় হাসিঁর নাটক হ্যা আমি আপনাকে যকন ফেইসবুকে প্রাতম দেখি মনে হলে আপনি একজন সাধারন মডেল আমি কিনতু আপনকে ঐ সময় তেকে পছন্দ করি বা লাইক করতে করতে পার হলে বছর মাস আর হাজার বছর এয় ভাবে লাইক করে যেতে চায় শুকে তাকবেন ভাল তাকবেন হাসিঁ খুশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাই অনেক দিন হয়েছে আপনার দেখেছি আপনার কাছ থেকে একটা আশা করছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হটাৎ করে বর্জ্র ডেকে শুরু হল বর্ষণ । ভারতের মালু বিশ্বসেরা পথে ঘাটে করে ধর্ষন । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোজ সকালে তারা বলে বন্দে মাতারাম। নিজ মা মামী আর বোন চুদে পায় নাকি আরাম । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতের মালু জাতি বিশ্বসেরা গরুরে বানায় মা আর হনুমানরে বাপ।পথে ঘাটে বনে জঙ্গলে চুদাচুদি করে পৃথিবীতে ছড়াচ্ছে পাপ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই রেন্ডিয়ান ভিখারি তো গরুর সন্তান । তোদের মালাউনদের মত কোন পশুর গো মূত্র কেউ খায় না । মালাউন রেন্ডিয়ান ভিখারি । </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সীতারে চুদলে লাগে কি আরাম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">চুদে রাধারে দিলাম পোয়াতি করে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">জয় ভোদাবান দেবীচুদা নম নম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোদের দেশের জাতীয় সংগীতটাও একজন মালাউনের। তু তু তু তু </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোর মাকে চুদব তোর বোনকে চুদব। তোর মাকে চুদে চুদে তোর আর একটা ভাই বানাব। তুই আর আমি এক সাথে তোর মাকে চুদব তাতে মা চোদা ভোদাবান গনেশ খুব খুশি হবে কারন গনেশ তার মা পার্বোতীকে ডগী স্টাইলে চুদে ছিল। তুই আর আমি তোর মাকে চুদব আর বলব সন্দেশ সন্দেশ মানে গনেশ গনেশ মা চোদা গনেশ যা খুশি হবে তুই আর আমি তোর মাকে চোদার পর কুত্তা দিয়ে তোর মাকে চোদাব যাতে তোর মা কুত্তা পূজো করতে পারে যেমন শিব লিঙ্গ পূজা করা হয়। শিব হিন্দু মেয়েদের চুদেছিল বলে শিবের বাড়া পুজো করা হয় তেমনে দেখ তোর মা ক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই বালকাতার আকাডা নুনুর বাচ্চাদের মত মাদার চোদ ওয়ার্ল্ড এ আর নাই । এরা এত নিচু মানের যে অন্যের ভালো কখনো দেখতে পারে না। হিন্দু জাতটাই হিংসুটে। এরা সুধু পারে মুসলিমদের আর বাংলাদেশীদের গালাগাল দিতে। আর যদি আমেরিকানরা এদের মা বোনদের লেংটু করে চুদে এরা অনেক খুসি হয় কারণ আমেরিকানদের চোদা খেতে মালুরা অনেক পছন্দ করে। আর যদি কোনো মুসলিম এদের কিসু বলে তখন এদের গায়ে ফোস্কা পরে। এরা এত নিচু জাত দেবযানিকে আমেরিকা এক মাস আমেরিকাতে ভারতের দূতাবাসে ল্যাংটা করে রক্ষিতা বানিয়ে রেখেছিল। সব আমেরিকান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যে পারে সে সব জাগায় পারে আই সি সি নিরপেক্ষ ভাবে খেলা পরিছালনা করলে বাংলাদেশের সাথে ভারত হাবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আজ আমরা জিতবো বস এবংসাকিব ভাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কাল ইংল্যান্ডের বিপক্কে জয় লাভ করবে টাইগারের। ইনশআল্লাহ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গাদের জন্য আমাদের সীমান্ত খুলে দেয়ার দাবী যারা করছেন তাদের বাস্তববাদী হতে অনুরোধ করছি।আপনাদের মানবতাবোধের প্রতি গভীরতম শ্রদ্ধা রেখেই আমি এর সাথে দ্বিমত প্রকাশ করছি।সীমান্ত খুলে দিলে দলে দলে রোহিঙ্গারা বাংলাদেশে প্রবেশ করবে এবং মায়ানমার সরকারের রোহিঙ্গা বিতারন কর্মসূচী বাস্তবায়ন হবে। আমরা অতীতে সিমান্ত খুলে যে শিক্ষা অর্জন করেছি তা মনে রাখতে সবাইকে অনুরোধ করছি। আমাদের উচিত মানবিক সাহায্য দেয়া আরাকানে রোহিঙ্গা নির্যাতনের প্রতিবাদ করা রোহিঙ্গাদের মাটি কামড়ে আরাকানে থাকতে সাহস যুগিয়ে মায়ানম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রবিন্দ্রনাথ একটা মালাউন । ওর বালের তৈরি করা জাতীয় সংগীত থুথু । রবিন্দ্রনাথ রেন্ডি । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আর যে বাংলা ভাষায় উদ্ভব মালাউনদের সংস্কৃত থেকে সেটাতে কথা বলতে লজ্জা করে না? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোদের ল্যাংটাচোদা ভারতকে বাংলাদেশ দান করেছে । ভিখারি চোদা তুই তো তাই ভিখারি ভাষায় কথা বলিস । আমাদের দেশের খরাতের দেওয়া টাকায় তোদের রেন্ডিয়া চলে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রবীন্দ্রনাথ যে পিরিলির ব্রাহ্মণ বংশের লোক সেই পিরিলির ব্রাহ্মণ বংশ উত্পত্তিটাই হয়েছে মুসলমানদের দেশ বাংলাদেশের যশোর জেলায়। লজ্জা করে না একটা মুসলমান দেশের বংশোদ্ভূত লোকের লেখা জাতীয় সঙ্গীত গাস? ওহ আচ্ছা তোরা যে নিজেদের জাতীয় সঙ্গীতটাই এখনো গাইতে শিখিস নি সেটা তো ইডেনে আইপিএল ফাইনালের ডিসপ্লে শোতেই প্রমাণ করে দিয়েছিস সাধে কি আর তোদের মতো রেফিউজিদেরকে লাথির ওপর রাখে তোদের মারাঠী পাঞ্জাবী দ্রাবিড় দাদারা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারত তোদের হিন্দুদের ভিখারি খোলা মাঠে সারার দেশ ।ভিখারির দেশ ছিল আবার ভিক্ষা করে খাছ । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অভিনন্দন তামিম। এটা সেই আগের তামিম না। এই তামিম হল বদলে যাওয়া তামিম যে কিনা আগের চেয়ে অনেক পরিণত মস্তিষ্ক এবং দায়িত্ববোধ নিয়ে খেলে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুলতান সুলেমানের দোষ না দিয়ে ভাল মানের নাটক তৈরি করেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> লাইফে এমন মজা আর কোথাও পাওয়া যায়না।আমাদের এইসব মন্ত্রীরা আছেন বলে মাঝেমধ্যে বিনোদন পাওয়া যায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার তো খুব মজা লাগতেছে শালার পাকি চোদার বাচ্চারে আমেরিকার পাবলিক প্রেসিডেন্ট বানাইছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ তুমি অদের সব কিছুর বেবস্তা করেদাও আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ যা করে ভালোর জন্য করে হে আল্লাহ ওই কাপের দের উপর তোমার সরবচ্চ আজাব ঢেলে দাও </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা সবাই তাদের জন্য সাহায্যের হাত বাড়িয়ে দিই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাথে ইরান কেও রাখা খুবই দরকার ।।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দাদা বৌদিকে সাথে নিয়ে ছবি তুললে সেই মানাতো। যাই হোক কাপ কিন্তু এবার ঢাকাতেই আসা চাই। শুভকামনা রইল আপনার জন্য। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বিশ্বের এক নাম্বার এখন বাংলাদেশে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পোস্ট পড়ে তারপর মন্তব্য করুন ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ছাড়ুন দামড়া জাতিকে এই ইতিহাস শুনিয়ে লাভ নেই । কি দরকার ভিখারি আর মুর্খদের এগুলো বলে । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ব্রিটিশরা বছর ছিল কিন্তু ভারতবর্ষের আর হিন্দু ধর্মের অস্তিত্ব বহু প্রাচীন তা তোরা বাদে সবাই জানে। কারন তোদের মাদ্রাসায় এইসব শেখানো হয় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতের এই মালাউনরা না থাকলে আজ বাংলাদেশ নিয়ে এত ফোটাতে হত না। তোরা তো আবার পরিচয়হীনতায় ভুগিস। এর আগে ভারত ভারত করেছিলি। তার পর পাকিস্তান পাকিস্তান আর তারপর বাংলাদেশ। আর এখন আবার আব্বু পাকিস্তান </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কোলকাতার হিন্দুরা পাকিদের জারজ সন্তান। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যখন যুদ্ধ হয় তখন পাক বাহিনীরা হিন্দু নারীদের মাঠে ঘাটে স্কুল কলেজ মন্দির থেকে ধরে ধরে ধষর্ন করত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এরপর হিন্দু নারীরার বিডিতে মুখ দেখাতে না পেরে কোলকাতায় চলে যায় আর এক একটা পাকিদের বির্যের জারজ সন্তান জন্ম দেয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই হল বালকাতায় পাকি বির্যের অবৈধ বংশ এ জন্য দেখবেন পাকিদে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">চুদে তাদের দুধ চুষে তাদের গুদে মাল </t>
+  </si>
+  <si>
+    <t xml:space="preserve">রেন্ডিয়ান দুঃখিত পা না দেখে ওষুধ দেইনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">রেন্ডিয়ান দুখিঃত আমি বইটা না দেখে আঠা দিতে পারব না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যে কোন মূল্য জেতা চাই রাজশাহীর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঢাকার সব ফুটপাথ দখল মুক্ত করলে ভালো হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গারা অসহায় হয়ে পরেছে এক মাত্র আল্লাহ ছারা তাদের কেও নেই আমরা সুধু নামের মুসলিম কাজের না আমরা জারা নামের মুসলিম আমদের জন্য জাহান্নাম রেডি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ তুমি এই অসহায়দের সহায় দান কর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি চাই আর কিছুর জন্য না হলেও তারা আমাদের মুসলমান ভাই তারা ইহুদীর যন্ত্রনায় অত্যাচারে পালাচ্ছে তাই এই বার্মার মুসলিম ভাই বোনদের ও শিশু দের বাংলাদেশে আশ্রয় দেওয়া উচিৎ আমি মনে করি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই পৃথিবীর সকল হিন্দু জারজ।বিবিসির ডকুমেন্টারি ভারতীয় চ্যানেলে আমরা যা দেখতে পাই ভারতে লোক অযাচারে লিপ্ত এরা এদের মা বাবা ভাই বোন দাদা দিদি চাচা চাচী খালা খালু পিষি মাসি সকলের সাথে কুকর্মে লিপ্ত এদের আরও ইনচেষ্ট আরও বিশাল প্রতিবেদন হিন্দুপরিবারের ইনসেস্ট এর আরো একটি বিশাৢলপ্রতিবেদন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">গাভী হিন্দুদের মা হয় ষাড় হিন্দুদের পিতা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">করে সে নিশ্চিত বেশ্যা আর বেশ্যাদের </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এটা প্রমানিত যে এভরি হিন্দু ইজ জারজ ষাড়ের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রেপন্ডিয়ার খানকির ছেলেদের মূল কাজই হলো দেহব্যবসা মূর্তি পুজা এবং জানোয়ারদের মা বাবা ডাকা বিশেষ করে গরুকে তারা মা ডাকে গরুর মাংস খায়না কিন্তু তারা গরুর মুত এবং গোবর খায়। আবার অন্যদিকে সারা পৃথিবী রেন্ডিয়াকে চেনে পতিতালয় রাষ্ট্র হিসেবে এক এ দেখলাম রেন্ডিয়াতে এক হিন্দু মেয়েকে বিয়ে দিচ্চে কুকুরের সাথে মাদারচোদরা কি মানুষ না জানোয়ার বুজলাম না রেন্ডিয়ার হিন্দুদের এর জন্মের ঠিক নাই। মাদারীরা এতোই নিকৃষ্ট জাতি যে আপন দাদা তার দিদিকে ধর্ষণ করে বাবা তার নিজের মেয়েকে ধর্ষণ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই আমি তোমায় ছাপুট করি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গানটা আসিফ ভাই গাইলে ভাল হত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাবাস আমাদের ভারতের লেজ সরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দেশপ্রেমের আগে মানবতা মানুষের জন্য দেশ দেশের জন্য মানুষ নয়। মানবাধিকারের চেয়ারে বসে থাকা মানুষগুলোর শুভবুদ্ধির উদয় হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কিউবার অবিসংবাদিত নেতা যিনি দীর্ঘ দিন কিউবা প্রশাসন চালিয়েছেন বাংলাদেশের অন্যতম মিএ ছিলেন তার প্রতি রইল অকৃতিম শুভেচ্ছা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাবাস তামিম ইকবাল অভিনন্দন তোমাকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রানের সাপোর্টার রা লাইক দাও পেজে বাংলাদেশ ক্রিকেট প্রেমিক আমরা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আললা তুমি এই সব হিনদু বুদ্ধদের হাত থেকে হিবাজত কর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাব্বির তুমি এগিয়ে যাও দোয়া </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গাদের আশ্রয় দিন সীমান্ত খুলে দিন ওরা আমাদের দ্বীনী ভাই বোন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিন্দু মানে ভন্ডামি পুজার নামে দেহ ভোগ।পৃথিবীর বরবর জুংলিহিন্দুদের </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ভায়োলেন্স না সেক্সুয়াল ভায়োলেন্সও বটে পৃথিবীতে সবথেকে বেশি ধর্ষন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">করে হিন্দুরা।সবথেকে বেশি দাঙ্গাবাজ নারী লোভী বিয়ের আগে নারী </t>
+  </si>
+  <si>
+    <t xml:space="preserve">গর্ভধারন করে।পৃথিবীতে একমাএ হিন্দু ধর্ম যা দিনদিন কমছে।তাদের কৃষ্ণই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোদের পূর্বপুরুষও তো ছিলো বানর তা মানুষের মতো ঘরে থাকা বাদ দিয়ে বানরের মতো ন্যাংটো হয়ে গাছে গাছে ঝুলে নিজেদের পূর্বপুরুষের প্রতি আগে সম্মান প্রদর্শন করে তারপরেই না হয় জ্ঞান দিয়ে আসিস কার পূর্বপুরুষ কি ছিলো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ত্রয়োদশ শতক কে সাহিত্য জগত এর অন্ধকার যুগ বলে। সে সময় সব সাহিত্যিক কবি গায়ক এবং প্রায় সকল ধরনের শিল্পপ্রেমিরা আত্মগোপণ করেছিল। আর কেন আত্ম গোপন করেছিউল সেত নিশ্চই বলতে হবে না। এসব বাল ছাল বলার আগে ইতিহাস জেনে নেবেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইন্ডিয়া ভিখারি? তাগো ব্যাংক রিজার্ভ কত জানেন? হুদাই মিয়া বাল ছাল মিয়া ক্যাচাল করেন। উজ্জল এইটা যুদ্ধের মঞ্চ যে পোষ্ট দেখলেই জিভ বের করে আমাদের সাথে লাগার জন্য দৌড় দিতে হবে মিয়া। উপমহাদেশের সবার ইতিহাস ঈ জানি। আইচে আমগোরে কমেন্টে ইতিহাস শুনাইতে। যারা অশিক্ষিত তারাই শুধু কমেন্টে এই বাল ছাল নিয়া তর্ক করে দিন পার করতে পারে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আর যে দেশের হিন্দুত্ববাদী প্রধানমন্ত্রী জনসমক্ষে বলে হিন্দুধর্ম আসলে কোনো ধর্মই না সেই হিন্দুধর্মটা আবার কি জিনিষ? বৈষ্ণব শৈব শাক্ত সৌর গাণপত্যের ভীড়ে যাদের প্রকৃত উপাস্য কে তারই কোনো দিন ঠিক নেই তাদের আবার ধর্ম হয় কি করে? প্রাচীন অসভ্য আদিম যুগে প্রকৃতিপূজারী সর্বপ্রাণবাদী পৌত্তলিক আচার অনুষ্ঠানের সনাতনী প্রথাটাকে পরে সামগ্রিক অর্থে নাম দেয়া হয়েছিলো হিন্দুধর্ম বিভিন্ন অঞ্চল ভেদে একেকটা স্থান ও সংস্কৃতিতে এই ধর্মটার একেকটা স্বরূপ ও আচরণীয় প্রথা এটাই প্রমাণ করে যে এটা ধর্মের নামে স্রেফ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঠিক হিন্দু ধর্ম কোনো ধর্ম নয়। হিন্দু ধর্ম একটা চিন্তা। যে ভালো চিন্তা করে সেই হিন্দু। যারা প্রকৃতিকে পূজো করে তারা যে সব থেকে ভিন্ন ও সেরা সেটা আমাদের ঢাক ঢোল পিটিয়ে বলতে হয় না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এপিজে আব্দুল কালাম মুসলমান ছিল না । কারন একজন মুসলিম বিধর্মী মালাউন মাল্লু আর গো মূত্র খাওয়া হাজার পূজারীদের জুতা চাটে না । আব্দুল কালাম ছিল হিন্দুদের জুতা চাটা নেংটি ইদুর । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুন্দর এই ভুবনে সুন্দরতম জীবন হোক তোমার পূরণ হোক প্রতিটি স্বপ্ন প্রতিটি আশা তোমার পূরণ বেচে থাকার হাজার বছর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দোয়া করবেন আপু আর আপনার সাথে একটু সরাসরি কথা বলতে ছাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আশায় আছি ভাল করবে কুমিল্লা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> লিটন দাস কে না নেওয়ায় সফল হইছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা মায়ান মারের রোহিঙ্গা মুসলিমদের পাসে দাড়ানোর জন্য পাকিস্তান ও চিনের সহজোগীতা কামনা করছি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সীমান্ত খুলে দেয়া হোক। ওদের প্রান বাঁচানো আমাদের দ্বায়ত।রোহেঙ্গারাও মানুষ। ওদের মৃত্যুর যন্ত্রনা দেখে আমরা মুসলিমজাতি কী ভাবে সহয় করে থাকি। ওদের দয়া করেন। ওরা শুধু একটু বাঁচতে চায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার প্রানের একটি অনুষ্ঠান। খুবই ভাল লাগে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই দামড়া গরুটা কোথা থেকে হাম্বা হাম্বা করতে আসছে । এই দামড়া গরুটা ঘাস পায় না ।তাই হাম্বা হাম্বা করতাছে । তোগ রেন্ডারা বড় জঙ্গি । মুম্বাই হামলা তোগে রেন্ডিয়ার দামড়া বলদের খুজে পাওয়া যায়নি । ভিখারির বাচ্চা রেন্ডাদের । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আসিফ তোমার মত ছাগল দুটা নাই। জ্ঞান তো নাই হুদাই চিল্লাও। বালের পোলাপার তোগোরে দেশ থেইকা লাত্থি মাইরা বের করে সিরিয়ার পাঠানো দরকার। খালি মালাউন মালাউন বলে চিল্লাস আর তো কিছু জানোস না। আগে পড়া লেখা কর। তোদের মত ছাগল পব্লিকের জন্য বাংলাদেশিদের কেউ দেখতে পারেনা। না জাইনা জ্ঞানিগুনি সাজস। নিজেকে বাংলাদেশি বলতেও লজ্জা লাগে তোদের মত অশিক্ষিতদের জন্য। ওরা দেখাচ্ছে যুক্তি আর তুই কিছুতো জানস না শুধু মালাউন মালাউন বলে চিল্লাস। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বেটা তুই দেখি বড় মুর্খ আর তোর মত মুর্খ সব মানুষকে মুর্খ ভাবে । তুই ভারতের চামচা ।এটা আমি তোর কমেন্টে বুঝেছি অনেক আগেই ।চামচারা তোর মত জুতা চাটে সবার । বলদের ঘরের বলদ । ব্ল্যাক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যতই প্রমান দেখাছ কাজ হবে না । আমরা সব ইতিহাস জানি তাই তোর এই বালের লিঙ্কে ঢুকে ফাদে পড়তে যাবো না । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোগ মত মালাউনদের বিশ্বাস করতে যাবো কেন ? তোরা সারাদিন গো মূত্র খাছ আর ফাউল দিয়ে নিজেদের সত্যবাদী প্রকাশ করার ইচ্ছা সফল হবে না । ভারত কি ? ভারত কেমন তা বিস্তারিত জানা আছে । আর তোর মত বির্ধমীদের ঢুকে ফাদে পড়বে কেউ না । আমরা যা খবর পাই তা সব সাইবার হ্যাকার গ্রুপের কাছ থেকে পাই । তোদের রেন্ডিয়ানদের মত গো মুত্র খাওয়া মাথামোটা আমরা না । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের উচিত মানবতার পরিচয় দেয়া অন্তত কিছু সময় সীমান্ত খুলে দিক তা না হলে সরকারিভাবে প্রতিবাদ জানাক।।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মহান আল্লাহর দরবারে অশেষ শুকরিয়া জ্ঞাপন করছি আলহামদুলিল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সারা বাংলাদেশে বুদ্ধ নিধন জরুরী। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> লেখকের পক্ষ থেকে সবাইকে ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইত্যাদি বাঙালী জাতির একটি মনের খুরাক যাহা মনকে আত্ত শুদ্ধি করে ন্যায়ের পাল্লা ভারি করে হাজার বছর বেছে থাকুক হানিফ সংকেত শুভ কামনা রইল ইত্যাদির জন্য </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আসিফ ভাই আপনি মহান। আপনি জ্ঞানি। আপনি গুনি। আমি ভাই অশিক্ষিত খ্যাত ছোটলোক আমি চামচা। তবে ভাই আমি আপনার মত অন্যর বাপ মাকে বলদ গালিদেইনা। কারন আমি অশিক্ষিত হলেও সম্মান দিতে জানি। ভাই আপনি শিক্ষিত মহান হয়েও যুক্তিতে না পেরে গালিদেন। আপনি মহান ভাই। আপনার প্রোপাইলে গেছিলাম আমনার চাঁদমুখ খানা দেখার ইচ্ছা পুরন হলোনা। তবুও ভাই আপনি মহান। একদিন আপনাদের মত মহতী মানুষের জন্য প্রিও দেশ রসাতলে যাবে। সে যাই হোক তবুও আপনারাই মহান। আমরা না হয় চামচামি করেই দিনপার করি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্রোফাইল পিকচার একটা মানুষের চরিত্রের কিছুই বহন করে না । একটা প্রোফাইল পিকচার দেখে মানুষকে বিবেচনা করা আরে বোকামির কাজ । ভাল লাগছে বলেই হিটলারের ছবি দিছি । হিটলারের ছবি দেওয়ার সাথে একটা মানুষের চরিত্র প্রকাশ পায় না । আশা করি কথাটা বুঝতে পারছেন । আর ভারতকে আর ভারতের মানুষকে আমি ঘৃনা করি । ওরা মুর্খের বাচ্চা ।আর মুর্খদের সাথে আমি কখনো যুক্তি দেখাই না । ব্ল্যাক ম্যাজিশিয়ান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের দেশনেত্রীকে শ্রেষ্ঠ পাষাণী উপাধী দেওয়া হোক। রোহিঙ্গাদের জন্য যার মন একটু ও কাদছে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুসলিম হলে ভাবতো কি দরকার যারা বেচে আছে তাদের মাইরা সম্পদ গুলা দখল করি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিরোধী দলগুলো করছে কিন্তু দেশের সাধারন মানূষ এর বিরোধীতা করছেনা।বিরোধী দলগুলো নিজেদের কালো মুখ বাচাতে রাজনীতির আশ্রয় নিচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মোদি ভারতের হওয়াটাই একটা ভূল ।। যে কালো টাকার উৎস বন্ধ করার জন্য তার নোট বদলের নাটক ।। এটা পাগলামি ছাড়া আর কিছু না ।।ভারতে এই পদক্ষেপের জন্য কত মানুষ যে ক্ষতিগ্রস্হ হচ্ছে তা সবগুলো তো আর জনসম্মুখে আসেনা ।। আমারই এক আত্মীয় ভারতে চিকিৎসা করতে গিয়ে নোট বদলে যে লজ করেছে তা অপূরনীয় ।। কালো টাকা ঠেকাতে মোদি সাহেব যেন বিক্ষোভের মুখে না পড়ে এটাই কামনা করি ।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একজন টং দোকানের চা বিক্রেতা মূর্খকে প্রধানমন্ত্রী বানিয়ে ভারতীয় জনগণ মাশুল দিচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুদিকে পাগলা কুকুরে কামড় মেরেছে এজন্য উল্টা পাল্টা সিদ্ধান্ত নিচ্ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মোদির সাথে তোমরা পারবে না মোদি তোমাদের কলকাতার বাঙ্গালিদের মেরে তক্তা বানাবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কলকাতার বাঙালীদের মোদি বাঁশ দিচ্ছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কছে টাকা থাকলে ও বাজার করতে পারছিনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুদি দাদা এ কি করতে চাচ্ছে ভারত কে লুটেপুটে খেতে চায় হা হা হা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশে যদি এমন হাইতো তাইলে খবর ছিলো পুলিশের পেদনি খাইতো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতের বিরোধী দলের সাথে জনগনের কোন সম্পর্ক নাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মোদির প্রতি সারা ভারতবাসীর সমর্থন আছে আন্দোলনে কাজ হবেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতের জন্য মোদি সাহেব বিশাল একটা ক্ষত ।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কত অনুষ্ঠান এ লো গে লো ইত্যা দি র য়ে গেল?????? আমার খুব অবাক লাগে? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই টেষ্ট ম্যাচ জিতছেন বাট সাকিবস রেস্টুরেন্টে আমাদের ইনভাইট করলেন এটা কিন্তু ভালো না। স্যালুট স্টোক সাকিব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এবারেরর পুরষ্কারটা নেইমারই পানা। এবছর অলিম্পিকে ব্রাজিলকে সোনা জিতিয়ে দিয়েছে নেইমার। একের পর এক দলকে জিতাচ্ছে ফিফা যাংঙ্কিয়ে থেকে দলকে এনেছে এ। তার অসাধারণ নৈপুন্যে রাশিয়া বিশ্বকাপ বাছাইয়ে ব্রাজিল এখন একে। সালে তার অভিষেক হয় এখন জাতীয় দলের হয়ে তার নামের পাশে গোল। বা ক্লাবের লিগগুলোতেও ভাল খেলছে অামার ধির বিশ্বাস বিয়ারিয়ালের সাথে যে গোলটি করেছে মেছি সারা জীবনেো খেলেও এমন একটি গোল করতে পারবেনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এসো দূর করি মানুষের কষ্টের কালো রাত তাদের হাতে রাখি আপন সমবেদনার হাত শীতার্তদের সাহায্যার্থে এগিয়ে আসুন বাংলাদেশের পক্ষ থেকে শুভেচ্ছা ও অভিনন্দন। আপনারা জানেন প্রতি বছর একটা বড় সংখ্যক মানুষ বিশেষ করে বাংলাদেশের উত্তর অঞ্চলের বৃদ্ধ এবং শিশুরা শীতের সময়টাতে অবর্ণনীয় দুর্ভোগে কাটায় এমনকি অনেকে প্রাণও হারায় । শীতের তীব্রতায় পার করা এই মানুষ গুলোর মানবতার জীবনযাপনের কষ্টের ভাগ একটু কমানোর জন্যে আমরা তারিখ থেকে শীতবস্ত্র প্রদানের কার্যক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতীয় নিয়ে এসে অবৈধ আব্বার পশ্চাৎদেশ শিশ্ন পুরীষ মূত্র এবং বীর্য লেহন করে আম্মুর চোদার কৃতজ্ঞতা জানানোই চোদনা ই পাকিস্তান জামাতি কাংলুর প্রধান ধর্ম ওটাই ওদের কোরান এবং হাদিস পাকিস্তানকে দিয়ে আম্মুকে চোদন দেওয়াটা সুন্নত এবং পাকিস্তানী মূত্র ও পুরীষ ভক্ষণ ও সুন্নত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি রোহিজ্ঞাদের বাচাতে গিয়ে রোহিজ্ঞারা আপনার পেটে ছুড়ি মারবে। ওদের এখনও চিনেন। ওদের এখন অসহায় মনে হলেও পরে হিংস্র হতে পারে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই সব গাঁজাখোরী খবর কি এর কাছ থেকে পাও না গো মুত্র খাইয়া পাগলামিতে ধরসে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অর্ণব রায় ্র্র্র্র্ হ্যঁ তোর মায়েদের পুটকির ফাঁক দিয়া হইছিল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুসলমানদের একটা আবাল মার্কা কথা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আর এই কথা বলে মৌলবীবাহিনী সন্তান পয়দা করতেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কিন্তু পরে দেখা যায় এই লোকগুলা অভাবের তাড়নায় চুরি ডাকাতি করতেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">যার কারণে যেসব দেশে মোল্লাবাহিনি আছে ঐ দেশে অভাফ দারিদ্রতা লেগেই আছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনার কোন লিঙ্ক আমি দেখতে পাচ্ছি না আর দেখেও লাভ নেই কারণ আপনি জানেন কিনা জানি না তবে উইকিপিডিয়া যে কেউই এডিট করতে পারে অতএব এটা কোন ভ্যালিড সোর্স হতে পারে না। যেখানে বাংলাদেশকে ন্যায্য হিসসার সামান্য পানি দিতে ভারত সরকারের এতো কার্পণ্য সেখানে কোটি মানুষকে ফ্রিতে খাওয়াচ্ছে এটা অবিশ্বাস্য আর আপনি কমন সেন্স প্রয়োগ করেই দেখেন বাংলাদেশের এতো ব্যাপক সংখ্যক কোটি শরণার্থী আপনার দেশে থাকে কিন্তু আপনার দেশের সরকার বাংলাদেশ ভারত দ্বিপাক্ষিক কোন আলোচনায় বা বৈঠকে এই বিষয় তুলে ধরে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অাসুন কোরঅানের পথে চলি প্রতিদিন অাপনার নিউজ ফিডে ইসলামিক পোস্ট পেতে এই পেজে একটা লাইক দিন। অাসুন কোরঅানের পথে চলি অাসুন কোরঅানের পথে চলি </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ইংল্যান্ডের সাথে টেস্ট ম্যাচ দাপটের সাথেই জিতেছে বাংলাদেশ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সীমান্ত খুলে দেওয়া হক। তারা যাতে বাংলাদেশে আসতে পারে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হিলারির জয়ের মধ্য দিয়ে। বাংলাদেশের নতুন রাজনিতির শুভ বুদ্ধির উধায় হতে পারে। হিলারি জিতবে । তাই আপনাকে অভিনন্ধন হিলারি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ মিয়ানমারের মুসলিম দের রক্ষা কর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মি ম৽াককিসিক একদম ঠিক বলেছেন এখন উচিত বিশ্ব নেত্ব বূন্দের এগিয়ে আসা । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি মুসলিন তাই পাকিস্তানকে সমর্থন করি।হিন্দু হলে করতামনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওয়ার্ল্ডের সেরা অল রাউন্ডার এর মেয়ের ম জন্মদিনে জানাই শুভেচ্ছা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিম আপু তিল টা তোমাকে দারুন লাগতেছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রাজেন্দ্র প্রসাদ আললাহ যা বলার আছে তা কোরানে বলেদিয়েছে এখানে লিখিত গোষনা দিতেহবেনা যদি একশকোটিওহয় আললাহ খাওয়াবে ওখানে তুমি আমি কিছু করতেপারবনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাহলে আপনি বলছেন দেশে কোন উন্নতি হয়নি। আর সংসদের সব সদস্যরা মিথ্যাবাদী।আর আমি কোন সংসদের রিপোর্ট দি নাই। আপনার আশেপাশে মানুষগুলো দেখুন। তারপর বুঝবেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সংসার ধর্ম ত্যাগ কর কিন্তু পৃথিবীর সব বৌদ্ধই সংসার করছে বাস্তবতা হলো মুসলিম নিধনে সবাই এক কাতারবদ্ধ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বর্তমানে মুসলমান মারে যে জন সে জন হয়েছে ঈশ্বর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একাত্তরে যেসব শরণার্থী ভারতে গিয়েছিল তারা যথাসময়ে বাংলাদেশে ফেরৎ ও এসেছিল। কিন্তু এ পর্যন্ত যতো রোহিঙ্গা বাংলাদেশে ঢুকেছে তাদের একজনও গত যুগে ফেরৎ যায় নি। সেটাও হয়তো মানা যেতো যদি আশ্রিত রোহিঙ্গারা স্বাধীন বাংলাদেশ রাষ্ট্রের বিরুদ্ধে অসংখ্য অপতৎপরতা ও অপরাধ সংঘটিত না করতো। বহু বাংলাদেশী নারী ধর্ষিত হয়েছে এদের দ্বারা অনেক খুনের ঘটনার সাথেও এরা জড়িত। অপরদিকে বাংলাদেশ থেকে যেসব শরণার্থী ভারতে গিয়েছিল তাদের এরকম কোন বাজে রেকর্ড নাই। কেবলমাত্র ফেসবুকে বাহবা কুড়ানো আর অনলাইনে নিজেকে বিরাট একজন মা </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এটা যদি জঙ্গিদের চেহারা হয় তাহলে এদের কে থুতু দিয়ে মেরে ফেলা উচিত </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষ হিসেবে বলছি মায়ানমার যেটা করতেছে এটা অমানবিক। গনহত্যার শামিল এটা সকল রাষ্টের উচিৎ এর প্রতিকার করা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বার্মার মুসলমানদের সমস্যা রাজনৈতিক। রাজনৈতিক উপায় ছাড়া এটির সমাধান নেই।অনলাইন মিডিয়ায় সোচ্চার হয়ে বিশ্ববাসীর দৃষ্টি আকর্ষন ছাড়া বেশী কিছু হবেনা।অবশ্য বিশ্ববাসী এইসব দেখায় কোন লাভ হয়েছে মনেহয়না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কাশ্মির ফিলিস্তিন সিরিয়া ইরাক আফগানিস্থান বার্মার রোহিঙ্গারা যদি ইয়াহুদী খৃষ্টান হতো তাহলে এত কষ্ট ভোগ করতে হতোনা। অনেক আগেই সমস্যার সমাধান হত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বিশ্বের দ্বিতীয় বৃহত্তম ধর্মীয় গোষ্ঠী হওয়ার পরেও মুসলমানরা নিজেদের সমস্যা সমাধানে এগিয়ে না আসলে জাতিসংঘ কিছুই করবেনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনার টুটের উপর তিলটা খুব সুন্দর লাগছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কোটি মানুষের দোয়া কবুল হয়েছে। পাকিস্তানের মালালা যেমন ফিরে এসেছে তুমিও আমাদের মাঝে ফিরে এসেছ।পুরোপুরি সুস্থ হয়ে ফিরে এসে কলম ধর ঐ নরপশুদের বিরুদ্ধে যাদের কারণে দেশে নারীরা আতংকে থাকে ।আমারা তোমার পাশে ছিলাম আছি এবং থাকব।তাড়াতাড়ি সুস্থ হয়ে উঠো এটাই আমাদের আশা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সালিন ভাষায় কথা বলেন। কুরআনকে আমারা আমাদের প্রানের চেয়েও বেশি ভালোবাসি। অতএব কথা ঠিক করে বলবেন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অসম্ভব কে সম্ভব করা আমাদের কাজ???? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যখন দেশ সাধীন হলো তখন ছিলো কোটি আর এখন কোটি দেশ তো একই রকম চলতেছে তবে মুসলমান হয়ে মুসলমান এর পাশে দাড়ানো ফরজ এইদেশর নাগরিক বানানো হক । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বর্তমানে যে লাক রোহিঙ্গা আছে তাদের সামলাতে আমরা হিমসীম খাচ্ছি সীমান্ত খুলে দিলেতো ওরা আরও প্রবলবেগে মারতে মারতে সবাইকে বাংলাদেশে পাঠিয়ে দিবে।আমরা অন্যভাবে সাহায্য করব কিন্তু আর কোন শরনার্থী নিতে পারবনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গারা আমাদের ভাইবোন ওরা জান বাচাতে আসতেছে একটু আশ্রয় চাচেছ সরকার ওদেরকে নিশ্চিত মিত্যুর মুখে ঠেলে দিয়ে অমানবিক আচরণ করতেছে আমরা তীব্র নিন্দা জানাই বাংলাদেশ সরকার এবং বিজিবির এই অমানবিক কর্মকান্ডকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ্ন বছর পর এই মায়ানমার থেকে যখন আই এস বা নতুন কোনো জংগি বের হবে তখন এই বেশ্যা মানবতা বলবে মুসলিম রা এত খারাপ এ বলবে ড্রন হামলা করব ও বলবে চিরনি অভিযান দিব হামলা হবে মরবে মারবে কিন্ত ইতিহাশ বলবে এর জন্য আমরাই দায়ী তখন হয়ত ইংল্যান্ডের সাবেক প্রধান মন্ত্রির মত কেউ আবার হাত জোর করে ক্ষমা চাইবে কিন্তু তাদের আর থামানো যাবে না এটাই হচ্ছে মানবতা লাথি মারি এই মানবতা কে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদেরকে যেভাবে গণহত্যা করা হচ্ছে তা আমাদের এর মুক্তিযুদ্ধে পাকবাহিনীর গণহত্যার কথা মনে করিয়ে দেয়।সেইদিন আমরা ছিলাম রোহিঙ্গাদের মত।আমরা গণহত্যার স্বীকার ছিলাম। আমরা এভাবেই সীমান্তে কাটাঁতারের বেড়া পেরিয়ে কোটি শরনার্থী ভারতে আশ্রয় নিয়েছিলাম। আমাদেরকে গোপনে ও প্রকাশ্যে অস্ত্র দিয়েছিল ট্রেনিং দিয়েছিল ভারত।এত বছর পরে সুখে শান্তিতে সমৃদ্ধিতে হয়তোবা আমরা আমাদের ইতিহাস ভূলতে চলেছি নির্মমতার দাগ ভুলতে চলেছি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গা উচ্ছেদ সমস্যা সমাধানে মায়ানমার আন্তরিক না হলে বাংলাদেশের সেনাবাহিনী দিয়ে মায়ানমারের বিরুদ্ধে যুদ্ধ ঘোষণার হুমকি দেওয়া যেতে পারে।সোজা আঙুলে কিছু হবে বলে মনে হয়না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাসিনা যে নাস্তিক পন্থি সরকার আবার প্রমান হয়ে গেলো৷বিজাতি হলে ঠিকই আশ্র্রয় দিতো আওয়ামী লীগ এর উপর আল্লাহর গজব পরুক৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বিধি বাম বর্ডার বন্ধ বোঝা মনে করে ভারত নির্যাতিত হিন্দুদের কে জায়গা দিচ্ছেনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জাতিসংঘ সহ পশ্চিমা দেশের মানবাধিকার সংগঠনগুলি বাংলাদেশের মানবাধিকার নিয়ে চলিলাছিললি করলে এবার বাংলাদেশের উচিত হবে এগুলোরে কান ধরে জোতা পিটা করে লাথি দিয়ে বের করা ।টাকাওয়ালাদের বাল ফেলানো সংগঠন । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের উচিত বাংলাদেশের বডার খুলে দেওয়া। আর তা না হলে জালিমদের বিরুদ্ধে যুদ্ধ ঘোসনা করা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এরা বাংলাদেশের জন্য হুমকি। তাদের আশ্রয়দান স্থায়ী সমাধান নয়। যদি বাংলাদেশ এদের আশ্রয় দিতে থাকে তবে মিয়ানমার রোহিঙ্গাদের তাঁড়িয়ে দিতে নির্যাতনের মাত্রা আরো বাড়াবে। স্থায়ী সমাধান হবে আন্তর্জাতিক ভাবে মিয়ানমারকে চাপ প্রয়োগ করে আরাকানে রোহিঙ্গাদের বাড়ি ঘরে ফিরিয়ে দেয়া ও তাদের নাগরিকত্ব দেয়া। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এখানে একদিন আমি কৃকেট খেলেছি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানবিক কারণে রোহিঙ্গাদের বাংলাদেশে আশ্রয় দেওয়া উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব ভাই তোমাকে ও তোমার কিউট মেয়েটাকে অনক সুন্দর লাগছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওনাকে আমার খুব ভাল লাগে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> প্ৰিথিবী থেকে ইসলামি জাগ্ৰত লোকদেৱ কে উচ্ছেদ কৱাৱ সুন্দৱ একটা নিয়ম কৱল । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বস হারলেও তালি জিতলেও তালি শুধু তোমার জন্য তুমি পারবেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ট্রাম্প মনে হয় শেষমেষ জিতেই গেল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ্ তুমি ওদেরকে সাহায্য কর আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আজ কেকাকে বাশ দেই দেখি। ঢাকা জিদবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি হিমালয় দেখিনি শেখ মুজিব কে দেখেছি ফিদেল কাস্ট্রো চলে গেলেন না ফেরার দেশে বাংলাদেশের একজন প্রিয় বন্ধু লাল সেলাম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফেরদৌস ভাইয়ার সাথে তোমায় অনেক মানায় ভাল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইত্যাদি বাংলাদেশ থেকে আপনাকে জানাই শুভ কামনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদেরকে বাংলাদেশে ঢুকতে দেওয়া হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচিকে এখন আর নোবেলজয়ী গনতন্ত্রনেত্রী বলা কোন ক্রমেই সমীচীন নয়। তিনি এখন নিষ্ঠুরতার প্রতীক জনগনের অধিকার হরণের প্রতীক মোট কথা ক্ষমতালোভী এক নারী। আমরা তার নোবেল পুরস্কার কেড়ে নেওয়ার দাবী জানাই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শেখ হাসিনার উচিৎ রোহিঙ্গাদের জন্য বাংলাদেশের সীমান্ত খুলে দেওয়া।কারণ এই ভুমি শেখ হাসিনার বাবার নয়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বর্ডারে জারা জড়ো হয়েছে হয়তো তাদের মেরে ফেলার জন্য অনুরোধ করেছে যাতে ওরা বাংলাদেশে প্রবেশ করতে না পারে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওদের কে কি মেরে ফেলার জন্য আহবান কেন নিজেরা শরণার্থী হও নাই ভুলে গেছ? পার হলে পাটনি শালা বেইমান সব। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বার্মার দাবি অনুযায়ী শুধু রোহিঙ্গারা নয় ঐ অঞ্চলও বাংলাদেশের অংশ । সেখানে বাঙালীর রাষ্ট ক্ষমতা পতিষ্ঠিত করেছিল । কিন্তু এখন তারা বার্মার কাছে পরাধীন । বাংলাদেশের ঘাসকাটা বাহিনীর উচিত আমাদের অঞ্চলটা আমাদের দখলে আনা সেটা জীবন দিয়ে হলেও । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের নিউজ পেপারে দেখলাম কড়া প্রতিবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশে রোহিংগাদের মানবিক কারনে আশ্রয় দিলেও পরবর্তীতে তার ফল হবে নেতিবাচক। এ পর্যন্ত যে সব রোহিংগা বাংলাদেশে ঢুকেছে তাদের কাউকেই মিয়ানমার সরকার ফেরত নেয়নি। তারা বাংলাদেশে এসে বিভিন্ন অপরাধ মূলক কর্মকান্ডে জড়িয়ে পড়ছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নরপশু বৌদ্ধদের হাতে মানবতা আজ বিপর্যস্ত। এরা হিংস্র পশুর চেয়েও নিকৃষ্ট। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিংগাদের অনুপ্রবেশ বন্ধ করার জন্য বাংলাদেশ সরকারের অনুরোধের কথাটি আমার মনপুত হয়নি । কথাটির এমন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">করো । হাজার হাজারকেতো মেরে ফেলেছ প্রয়োজনে আরো মার শুধু মাত্র আমাদের বাংলাদেশে তাদের আসতে দিয়োনা । এটাই কি আসল মতলব । এমন অমানবতা সুলভ কথা আমার মনপুতঃ নয় । বরং এক্ষুনি তাদের জীবন রক্ষার্থে আশ্রয় শিবিরের ব্যবস্হা করুন এবং তাদের সম্পূর্ণ নিরাপত্তার ব্যবস্হা নিশ্চিত করেই তাদের আন্তর্জাতিক সংস্থা জাতিসংঘ বা ইউরোপিয় ইউনি য়ন ইত্যাদির মধ্ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা ইসলামিক একটি ভাল গ্রুপ খুঁজছেন তাদের জন্য এই গ্রুপ টি একটি আদর্শ গ্রুপ আপনার ফেসবুকের অলস সময় অন্য কাজে ব্যয় না করে ইসলামের দাওয়াতের কাজে ব্যয় করুন আপনাদের ইসলামিক চিন্তাধারা এবং বিভিন্ন মতামত প্রকাশ করতে পারবেন এই গ্রুপে তাছাড়া বিভিন্ন বিষয়ে প্রশ্ন ও প্রয়োজনীয় পরামর্শ দানের জন্য এই গ্রুপ টি আপনার জন্য সর্বদা উন্মুক্ত আপনাদের সহযোগিতার আশায় আমরা দয়া করে যোগ দিন ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি মনেকরি রহিংগাদেরকে বাংলাদেশে আশ্রয় দেওয়া উচিৎ এবং বাংলাদেশে যত বৌদ্ব আছে তাদের গরবাড়ি জালিয়ে দেওয়াদরকার এতেকরে তাঁরা র্বামাতে পালাতে শুরুকরবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পরের ম্যাচ এ নাছির কে চাই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> স্যার আপনার প্রেডিকশন টাই সঠিক হলো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহ আপনি রোহিংগাদের সহায় হউন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> উবার আসলে মধ্যবিওদের উপকার হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এ নিষ্পাপ হাসি বড় ভালো বাসি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি নিশ্চয় বস মাশরাফির অনেক বড় ভক্ত।তিনি আমাদের নরাইলের গর্ব। তার ব্যাক্তিগত কিছু জানার জন্য এই পেজে ভিজিট করুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাকে টাকায় জিবি করে দেন দিনের জন্য। তাহলে আমি খুব খুশি হব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনি একদম ঠিক কথা বলছেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমাদের টাকা দিয়েই তারা সেনাবাহিনী পালে আর সেই সেনাবাহিনী আমাদের মুসলিম ভাইদের গুলি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> গুড একই সুতয় গাথা মালা বাংলাদেশ মায়ানমারকে কড়া প্রাতিবাদ আরেক দিকে পাকিস্তান ইন্ডিয়ার প্রাতি যুদ্ধের রেন্জ বেড়ে দিয়েছে কয়েকগুন ইন্ডিয়া জদি তাদের সৈন্য সরিয়ে আনতে না পাড়ে বাংলাদেশের দিকে।গুড </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বার্মা থেকে আসা ইয়াবা ঠেকাতে তৎপরতা নেই অথচ অসহায় রোহিঙ্গাদের ঠেকাতে এতো তৎপরতা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জঙ্গিরা শুধু পারবে ইরাক আফগানিস্তানের আর পাকিস্তানের মসজিদ কিংবা কুনো দেশে মুসলিমরা শান্তিতে আছে চে দেশে বোম মারতে আর যে দেশে মুসলিমরা নির্যাতিত হচ্চে সে দেশে হামলা কর্তে পারবে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ কীভাবে মায়ানমারকে তলব করে? বাংলাদেশের সাথে মায়ানমারের কোন সমস্যা নাই তো। এটা সঠিক সিন্ধান্ত নয় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সকল মুসলিম দেশ থেকে বৌদ্ধ দের না বলা দরকার মায়ানমারের অং সান সুচিকে নোবেল পুরস্কার যারা দেয় তারা অসভ্য মানুষ তারা শিক্ষিত জাতি না মুসলিম হত্যার দায়ে সুচি কে ফাসি দেয়া দরকার </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরে ভাই বলে কোন লাভ নাই শুধু এম বি ফুরানো মুসলমান রাষ্ট্রই মুসলমান রাষ্ট্রের পাশে আসে না এখন কোন সংগঠন এরাতো মুসলমান নাম ব্যাবহার করে নিজেদের স্বার্থ হাসিল করে না হলে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এখনতো মায়ানমারে মানবতা লঙ্গন হচ্ছে না কারণ মুসলিম মারা হচ্ছে আর কুকুর শিয়াল নপুংসক ভেড়ার পাল পশ্চিমা গোষ্ঠী ও তাদের মিত্রদের কাছে মুসলিম কোনো মানুষ না। এখন যদি মায়ানমারের রোহিঙ্গারা অস্ত্র তুলে নেয় তাহলে হিজড়া জাতিসংঘ ও তার শুভাকাঙ্ক্ষিরা বলবে এরা জঙ্গি কিন্তু সারা বিশ্বের সব মুসলিম মেরে ফেলা হলেও কাউকে জঙ্গি অপবাদ দেয়া হবেনা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাও আবার অনুরোধ কাপুরুষ বাঙ্গালীদের </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মায়ানমারের রাষ্ট্রদূত কে লাথি মেরে বাংলাদেশ থেকে বের করে দিতে হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপু সব কিছুর আগে নামায নামায মতো পরো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পরিস্কারভাবে আল্লাহর বাণী পৌছে দেয়াই আমাদের দায়িত্ব </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অবদান কিন্তু অনেক ওনার যদি ম্যাচটা জিততেন তা হলেই হতো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই জার্সিতে গত আসরে সিলেট সুপারস্টারের হয়ে মাট মাতিয়েছিলেন শহীদ আফ্রিদি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাঃ খুব ভাল কথা বলেছেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বস আমিও তোমাকে স্যালুট জানালাম </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পলাশীর প্রান্তর য় পর্বের জন্য শ্রদ্ধা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহু ওনাকে খালিদ বিন ওয়ালিদের মত সাহস দান করুক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিপিএল আপডেট দুপুর টা মিনিটে বিপিএলের য় ম্যাচে মুখোমুখি হবে খুলনা বনাম রংপুর এই ম্যাচের বল টু বল ফেইসবুক আপডেট পেতে আমাদের খেলাধুলার সব খবর এই পেইজে লাইক দিয়ে একটিভ থাকেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওদের জন্য মালাউন শব্দটা আবার উচ্চারন করতে মন চায় </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা বালো কিচু আশা করিচিলাম কিন্তু উল্টো বাংলাদেশ তাদের মৃতুর মুকে ঠেলেদিলো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হারে দেশ মানবতা না আমারা দিকার জানাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বারমার দুতাবাস বনদো করা হোক এবং আরাকান দখল করা হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদের কে আশ্রয় দেওয়া হউক ফিরেয়ে দিয়েন না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> একদম ঠিক আছে তাকে দেশ থেকে বের করা উচিত </t>
+  </si>
+  <si>
+    <t xml:space="preserve">উপরে সবুজ থাকে নিচে নেই মূল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বৌদ্ধদদের বঙ্গোপসাগরে ডুবিয়ে দিতে পারতাম যদি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিংগাদেরকে বাংলাদেশে ডুকতে না দেওয়াটা ভাল হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কোনভাবেই ঢুকতে দেয়া যাবে না দেশ ঝামেলায় পরবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অনুরোদ না করে তাকে হত্তা হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আগামিকাল বাংলাদেশ ইংল্যান্ডকে পরাজিত করে দেশের মাটিতে টানা সিরিজ জয়ের নতুন ইতিহাস গড়বে এমনটাই আশা লাখো বাঙ্গালীর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জয় লাগবে। জয় চাই। জয় দাও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিদেশে বাংলাদেশী পন্য রপ্তানী করে প্রচার করলে রপ্তানী আরও বাড়বে। এতেতো দেশেরই লাভ হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এক জন মানুষের নেতা আজ পৃথিবী থেকে বিদায় নিলেন। সালাম তোমায় হে বীর পুরুষ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই আপনার ব্যটে রান না আশার কারনে বাংলাদেশ হেরেগেছে আমি আপনার ব্যটে রান চাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তোমার জন্য অনেক ভালবাসা রইল </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি আসছি আশা করছি পেইজটি আপনাদের ভাল লাগবে । আমি আসছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাই এগিয়ে যাও যত সার্পোট দরকার দিবো। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আমি একজন বাংলাদেশি নাগরিক হিসেবে বলছি বাংলাদেশের উচিত এই মুহুর্তে ওদেরকে আশ্রয় দেওয়া।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নিজ ধর্মকে ভালোবাসবো মোরা রাখব অন্য ধর্মের প্রতি সম্মান বাংলাদেশে সংখ্যালঘু বলে নেই কেহ আমরা সবাই বাংলা মায়ের সন্তান </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঠিক বলছেন । অল্প বিদ্বা বেশি ভংঙ্গর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শুভ জন্মদিন দোয়া করি আল্লাহ পাক যেন তোমাকে ভাল রাখে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমারকে পৃথিবীর মানচিত্র থেকে মুছে দেয়া হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কে কোন ধর্মের সেটা বড় কথা না তারা মানুষ সবার উপর মানুষ সত্য তাহার উপর নাই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যে দেশ তার জনগন কে এই অবস্থায় ফেলবে আমি সে দেশের সরকারকে ধিক্কার জানায়। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ থেকে সকল বৌদ্ধদের তারিয়ে দেওয়া হক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> থাপ্পর দিয়ে বলে নাই হারামীর জাত মানুষ হত্যা বন্ধ কর। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শরণার্থীর ঢ়ল থামাতে অনুরোধ কিন্তু গন হত্যা বন্দ করতে অনুরোধ নাই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাল চিরবো ওদের সব কাটা খারাপ শুধু এটাই জানি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরাকান চট্টগ্রামেরই অংশ তাই আমরা আরাকানকে ছেডে দিবনা । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভারতীয় হাতি হলে ঠিকই গ্রহণ করত।আবাল সরকার। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তাদের আশ্রয় দেয়া যায় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমার বাকি জি নৌকা ভোট দিব না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের উচিৎ তাদের হাতে আস্র তুলে দেয়া। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যেই আহ্বান করছে তাকে মেরে পেলা হোক </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের দেশের গুলো কেও নিয়ে নিন না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাইয়া গানটা আমার অনেক পিয় আর অনেক সুনদর </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে আল্লাহ এর মাধ্যমেই এই জাতটার একটা ফায়সালা করে দাও আ মি ন </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আল্লাহ যা করে মঙ্গলের জন্যই করে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাসিনা মা ামারপথ প্রদর্শক আমি উনার মতো হতে চাই </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সানি লিওন নতুন স্টাইলে স্বাচ্ছন্দ বোধ করছে?ভাল। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ইসলাম মানেই শান্তি আল্লাহ আকবার দে কোপ। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপু অনেক সুন্দর লাগছে আপনাকে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ঠিক বাপের বেটা জয় এরদোগান। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> শক্তিমান এই কিংবদন্তি লেখকের কারামুক্তিতে রইল স্বশ্রদ্ধ অভিনন্দন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হে বীর তোমাকে হাজার ছালাম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বরিশাল চট্টগ্রাম খেলা চলছে এখন ম্যাচের ওভার টু ওভার লাইভ আপডেট পেতে দিন পেজে আপডেট চলছে ধন্যবাদ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রান হইলে আমরা জিতবো ইনশাআল্লাহ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অভিনন্দন তামিম এগিয়ে যাও । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> স্টার জলসার চেয়ে অন্ততপক্ষে ভাল আছে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">বন্ধুরা দয়া করেবার পুরোটা পড়ুন উপকারে আসতে পারেঃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">প্রতিবেশীর ঘরে আগুন লেগেছে আটকে পড়া নারি পুরুষ শিশুরা চিৎকার করছে সাহায্যের জন্য আর আমি হিসেব করছি আর ভাবছি ওরা হিন্দু বৌদ্ধ নাকি মুসলিম নাকি চোর ডাকাত নাকি ইয়াবা ব্ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশের উচিৎ আরাকান রাজ্যকে যুদ্ধ করে জয় করা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমাদের উচিত তাদের আশ্রয় দেওয়া পাশের দেশ হিসবে এটা আমাদের ভারতের কাছে থেকে শেখা উচিত কারণ কারন পাশের দেশ হিসবে ভারতের সেই অসামান্য অবদানের কথা আমরা সবাই জানি ভারত উপকার যেমন আমরা ভুলিনাই ওরাও হয়তো আমাদের উপকার কখোনো ভুলবে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মানুষ বাঁচার জন্য আসছে আর আমরা তাদের মৃত্যুর কোলে ঠেলে দিচ্ছি </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অন্যা য়ের বিরু দ্ধে কড়া প্র তিবাদ ও চাপ সৃষ্ট ি করুন। </t>
   </si>
 </sst>
 </file>
@@ -3758,7 +5465,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3908,6 +5615,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4383,10 +6128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1221"/>
+  <dimension ref="A1:C1800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1210" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1229" sqref="E1229"/>
+    <sheetView tabSelected="1" topLeftCell="A1787" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1796" sqref="A1796:B1800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14173,6 +15918,4638 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1222" spans="1:2">
+      <c r="A1222" s="72" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1222" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2">
+      <c r="A1223" s="72" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1223" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" ht="28.8">
+      <c r="A1224" s="72" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1224" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" ht="28.8">
+      <c r="A1225" s="72" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1225" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2">
+      <c r="A1226" s="72" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1226" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2">
+      <c r="A1227" s="72" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1227" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" ht="43.2">
+      <c r="A1228" s="72" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1228" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2">
+      <c r="A1229" s="72" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1229" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" ht="28.8">
+      <c r="A1230" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1230" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" ht="100.8">
+      <c r="A1231" s="68" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1231" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" ht="28.8">
+      <c r="A1232" s="72" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1232" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2">
+      <c r="A1233" s="72" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1233" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" ht="43.2">
+      <c r="A1234" s="72" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1234" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" ht="28.8">
+      <c r="A1235" s="72" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1235" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2">
+      <c r="A1236" s="72" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1236" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2">
+      <c r="A1237" s="72" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1237" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" ht="43.2">
+      <c r="A1238" s="72" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1238" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2">
+      <c r="A1239" s="72" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1239" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2">
+      <c r="A1240" s="72" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1240" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" ht="28.8">
+      <c r="A1241" s="72" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1241" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" ht="28.8">
+      <c r="A1242" s="72" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1242" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2">
+      <c r="A1243" s="72" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1243" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" ht="28.8">
+      <c r="A1244" s="72" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1244" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" ht="28.8">
+      <c r="A1245" s="72" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1245" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2">
+      <c r="A1246" s="72" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1246" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2">
+      <c r="A1247" s="72" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1247" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2">
+      <c r="A1248" s="72" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1248" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="A1249" s="72" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1249" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" ht="28.8">
+      <c r="A1250" s="72" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1250" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="A1251" s="72" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1251" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" ht="86.4">
+      <c r="A1252" s="68" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1252" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" ht="28.8">
+      <c r="A1253" s="72" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1253" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" ht="28.8">
+      <c r="A1254" s="72" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1254" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2">
+      <c r="A1255" s="72" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1255" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2">
+      <c r="A1256" s="72" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1256" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" ht="28.8">
+      <c r="A1257" s="72" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1257" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2">
+      <c r="A1258" s="72" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1258" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2">
+      <c r="A1259" s="72" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1259" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2">
+      <c r="A1260" s="72" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1260" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2">
+      <c r="A1261" s="72" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1261" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="A1262" s="72" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1262" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" ht="72">
+      <c r="A1263" s="68" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1263" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="A1264" s="72" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1264" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" ht="57.6">
+      <c r="A1265" s="72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1265" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" ht="28.8">
+      <c r="A1266" s="72" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1266" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2">
+      <c r="A1267" s="72" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1267" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2">
+      <c r="A1268" s="72" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1268" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2">
+      <c r="A1269" s="72" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1269" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2">
+      <c r="A1270" s="72" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1270" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" ht="28.8">
+      <c r="A1271" s="72" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1271" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" ht="28.8">
+      <c r="A1272" s="72" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1272" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" ht="28.8">
+      <c r="A1273" s="72" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1273" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" ht="28.8">
+      <c r="A1274" s="72" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1274" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" ht="43.2">
+      <c r="A1275" s="72" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1275" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2">
+      <c r="A1276" s="72" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1276" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2">
+      <c r="A1277" s="72" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1277" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" ht="115.2">
+      <c r="A1278" s="68" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1278" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" ht="28.8">
+      <c r="A1279" s="72" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1279" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" ht="57.6">
+      <c r="A1280" s="68" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1280" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2">
+      <c r="A1281" s="72" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1281" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" ht="28.8">
+      <c r="A1282" s="72" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1282" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" ht="28.8">
+      <c r="A1283" s="72" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1283" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2">
+      <c r="A1284" s="72" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1284" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2">
+      <c r="A1285" s="72" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1285" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" ht="43.2">
+      <c r="A1286" s="72" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1286" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" ht="43.2">
+      <c r="A1287" s="72" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1287" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" ht="28.8">
+      <c r="A1288" s="72" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1288" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2">
+      <c r="A1289" s="72" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1289" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" ht="28.8">
+      <c r="A1290" s="72" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1290" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" ht="43.2">
+      <c r="A1291" s="72" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1291" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" ht="28.8">
+      <c r="A1292" s="72" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1292" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" ht="43.2">
+      <c r="A1293" s="72" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1293" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" ht="28.8">
+      <c r="A1294" s="72" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1294" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2">
+      <c r="A1295" s="72" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1295" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2">
+      <c r="A1296" s="72" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1296" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" ht="72">
+      <c r="A1297" s="68" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1297" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" ht="57.6">
+      <c r="A1298" s="68" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1298" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2">
+      <c r="A1299" s="72" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1299" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2">
+      <c r="A1300" s="72" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1300" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" ht="28.8">
+      <c r="A1301" s="72" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1301" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" ht="43.2">
+      <c r="A1302" s="72" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1302" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" ht="28.8">
+      <c r="A1303" s="72" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1303" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2">
+      <c r="A1304" s="72" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1304" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2">
+      <c r="A1305" s="72" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1305" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" ht="28.8">
+      <c r="A1306" s="72" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1306" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" ht="43.2">
+      <c r="A1307" s="72" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1307" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2">
+      <c r="A1308" s="72" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1308" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" ht="28.8">
+      <c r="A1309" s="72" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1309" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" ht="43.2">
+      <c r="A1310" s="72" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1310" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" ht="28.8">
+      <c r="A1311" s="72" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1311" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="A1312" s="72" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1312" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="A1313" s="72" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1313" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="A1314" s="72" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1314" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="A1315" s="72" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1315" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" ht="28.8">
+      <c r="A1316" s="72" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1316" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="A1317" s="72" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1317" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="A1318" s="72" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1318" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" ht="28.8">
+      <c r="A1319" s="72" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1319" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2">
+      <c r="A1320" s="72" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1320" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" ht="86.4">
+      <c r="A1321" s="68" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1321" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" ht="28.8">
+      <c r="A1322" s="72" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1322" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" ht="43.2">
+      <c r="A1323" s="72" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1323" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" ht="28.8">
+      <c r="A1324" s="72" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1324" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" ht="86.4">
+      <c r="A1325" s="68" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1325" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="A1326" s="72" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1326" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="A1327" s="72" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1327" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="A1328" s="72" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1328" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="A1329" s="72" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1329" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="A1330" s="72" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1330" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="A1331" s="72" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1331" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="A1332" s="72" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1332" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="A1333" s="72" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1333" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2">
+      <c r="A1334" s="72" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1334" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="A1335" s="72" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1335" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="A1336" s="72" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1336" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" s="72" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1337" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" ht="28.8">
+      <c r="A1338" s="72" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1338" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" s="72" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1339" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" ht="28.8">
+      <c r="A1340" s="72" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1340" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="A1341" s="72" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1341" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="A1342" s="72" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1342" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" s="72" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1343" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" s="72" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1344" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" s="72" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1345" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" ht="28.8">
+      <c r="A1346" s="72" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1346" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" ht="28.8">
+      <c r="A1347" s="72" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1347" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" ht="28.8">
+      <c r="A1348" s="72" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1348" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" ht="28.8">
+      <c r="A1349" s="72" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1349" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" ht="28.8">
+      <c r="A1350" s="72" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1350" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2">
+      <c r="A1351" s="72" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1351" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2">
+      <c r="A1352" s="72" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1352" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="A1353" s="72" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1353" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" ht="72">
+      <c r="A1354" s="68" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1354" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" ht="28.8">
+      <c r="A1355" s="72" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1355" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" ht="43.2">
+      <c r="A1356" s="72" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1356" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="A1357" s="72" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1357" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2">
+      <c r="A1358" s="72" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1358" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2">
+      <c r="A1359" s="72" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1359" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2">
+      <c r="A1360" s="72" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1360" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2">
+      <c r="A1361" s="72" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1361" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" ht="86.4">
+      <c r="A1362" s="68" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1362" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2">
+      <c r="A1363" s="72" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1363" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" ht="72">
+      <c r="A1364" s="68" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1364" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2">
+      <c r="A1365" s="72" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1365" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" ht="43.2">
+      <c r="A1366" s="72" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1366" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" ht="28.8">
+      <c r="A1367" s="72" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1367" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" ht="28.8">
+      <c r="A1368" s="72" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1368" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" ht="28.8">
+      <c r="A1369" s="72" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1369" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" ht="43.2">
+      <c r="A1370" s="72" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1370" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2">
+      <c r="A1371" s="72" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1371" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2">
+      <c r="A1372" s="72" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1372" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2">
+      <c r="A1373" s="72" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1373" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2">
+      <c r="A1374" s="72" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1374" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" ht="28.8">
+      <c r="A1375" s="72" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1375" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2">
+      <c r="A1376" s="72" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1376" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2">
+      <c r="A1377" s="72" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1377" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2">
+      <c r="A1378" s="72" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1378" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2">
+      <c r="A1379" s="72" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1379" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2">
+      <c r="A1380" s="72" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1380" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" ht="43.2">
+      <c r="A1381" s="72" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1381" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2">
+      <c r="A1382" s="72" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1382" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2">
+      <c r="A1383" s="72" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1383" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" ht="43.2">
+      <c r="A1384" s="72" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1384" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" ht="43.2">
+      <c r="A1385" s="72" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1385" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" ht="72">
+      <c r="A1386" s="68" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1386" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" ht="100.8">
+      <c r="A1387" s="68" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1387" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" ht="28.8">
+      <c r="A1388" s="72" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1388" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" ht="57.6">
+      <c r="A1389" s="68" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1389" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" ht="57.6">
+      <c r="A1390" s="72" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1390" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" ht="43.2">
+      <c r="A1391" s="72" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1391" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2">
+      <c r="A1392" s="72" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1392" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" ht="28.8">
+      <c r="A1393" s="72" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1393" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" ht="43.2">
+      <c r="A1394" s="72" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1394" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2">
+      <c r="A1395" s="72" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1395" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" ht="100.8">
+      <c r="A1396" s="68" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1396" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" ht="28.8">
+      <c r="A1397" s="72" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1397" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2">
+      <c r="A1398" s="72" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1398" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" ht="28.8">
+      <c r="A1399" s="72" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1399" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2">
+      <c r="A1400" s="72" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1400" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2">
+      <c r="A1401" s="72" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1401" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" ht="43.2">
+      <c r="A1402" s="72" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1402" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2">
+      <c r="A1403" s="72" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1403" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" ht="28.8">
+      <c r="A1404" s="72" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1404" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" ht="28.8">
+      <c r="A1405" s="72" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1405" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" ht="28.8">
+      <c r="A1406" s="72" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1406" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" ht="43.2">
+      <c r="A1407" s="72" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1407" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2">
+      <c r="A1408" s="72" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1408" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2">
+      <c r="A1409" s="72" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1409" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2">
+      <c r="A1410" s="72" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1410" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2">
+      <c r="A1411" s="72" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1411" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" ht="100.8">
+      <c r="A1412" s="68" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1412" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" ht="28.8">
+      <c r="A1413" s="72" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1413" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2">
+      <c r="A1414" s="72" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1414" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2">
+      <c r="A1415" s="72" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1415" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2">
+      <c r="A1416" s="72" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1416" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2">
+      <c r="A1417" s="72" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1417" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2">
+      <c r="A1418" s="72" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1418" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" ht="28.8">
+      <c r="A1419" s="72" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1419" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" ht="72">
+      <c r="A1420" s="68" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1420" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" ht="57.6">
+      <c r="A1421" s="68" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1421" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" ht="28.8">
+      <c r="A1422" s="72" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1422" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2">
+      <c r="A1423" s="72" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1423" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2">
+      <c r="A1424" s="72" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1424" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" ht="57.6">
+      <c r="A1425" s="72" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1425" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2">
+      <c r="A1426" s="72" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1426" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2">
+      <c r="A1427" s="72" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1427" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2">
+      <c r="A1428" s="72" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1428" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2">
+      <c r="A1429" s="72" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1429" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2">
+      <c r="A1430" s="72" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1430" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" ht="28.8">
+      <c r="A1431" s="72" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1431" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2">
+      <c r="A1432" s="72" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1432" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" ht="100.8">
+      <c r="A1433" s="68" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1433" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" ht="72">
+      <c r="A1434" s="68" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1434" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" ht="28.8">
+      <c r="A1435" s="72" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1435" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" ht="28.8">
+      <c r="A1436" s="72" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1436" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" ht="43.2">
+      <c r="A1437" s="72" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1437" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" ht="43.2">
+      <c r="A1438" s="72" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1438" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2">
+      <c r="A1439" s="72" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1439" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2">
+      <c r="A1440" s="72" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1440" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" ht="28.8">
+      <c r="A1441" s="72" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1441" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2">
+      <c r="A1442" s="72" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1442" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" ht="72">
+      <c r="A1443" s="68" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1443" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" ht="43.2">
+      <c r="A1444" s="72" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1444" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" ht="28.8">
+      <c r="A1445" s="72" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1445" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2">
+      <c r="A1446" s="72" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1446" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2">
+      <c r="A1447" s="72" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1447" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" ht="43.2">
+      <c r="A1448" s="72" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1448" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2">
+      <c r="A1449" s="72" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1449" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2">
+      <c r="A1450" s="72" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1450" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2">
+      <c r="A1451" s="72" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1451" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" ht="72">
+      <c r="A1452" s="68" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1452" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" ht="86.4">
+      <c r="A1453" s="68" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1453" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" ht="100.8">
+      <c r="A1454" s="68" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1454" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" ht="43.2">
+      <c r="A1455" s="72" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1455" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" ht="28.8">
+      <c r="A1456" s="72" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1456" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2">
+      <c r="A1457" s="72" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1457" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" ht="86.4">
+      <c r="A1458" s="68" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1458" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" ht="28.8">
+      <c r="A1459" s="72" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1459" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2">
+      <c r="A1460" s="72" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1460" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2">
+      <c r="A1461" s="72" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1461" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" ht="28.8">
+      <c r="A1462" s="72" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1462" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2">
+      <c r="A1463" s="72" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1463" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" ht="57.6">
+      <c r="A1464" s="68" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1464" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" ht="28.8">
+      <c r="A1465" s="72" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1465" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" ht="57.6">
+      <c r="A1466" s="72" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1466" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2">
+      <c r="A1467" s="72" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1467" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" ht="28.8">
+      <c r="A1468" s="72" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1468" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2">
+      <c r="A1469" s="72" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1469" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2">
+      <c r="A1470" s="72" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1470" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" ht="43.2">
+      <c r="A1471" s="72" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1471" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" ht="28.8">
+      <c r="A1472" s="72" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1472" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" ht="43.2">
+      <c r="A1473" s="72" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1473" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" ht="43.2">
+      <c r="A1474" s="72" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1474" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" ht="86.4">
+      <c r="A1475" s="68" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1475" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" ht="28.8">
+      <c r="A1476" s="72" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1476" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" ht="43.2">
+      <c r="A1477" s="72" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1477" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2">
+      <c r="A1478" s="72" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1478" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" ht="28.8">
+      <c r="A1479" s="72" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1479" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" ht="43.2">
+      <c r="A1480" s="72" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1480" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2">
+      <c r="A1481" s="72" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1481" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2">
+      <c r="A1482" s="72" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1482" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2">
+      <c r="A1483" s="72" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1483" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" ht="28.8">
+      <c r="A1484" s="72" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1484" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" ht="28.8">
+      <c r="A1485" s="72" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1485" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2">
+      <c r="A1486" s="72" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1486" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2">
+      <c r="A1487" s="72" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1487" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" ht="57.6">
+      <c r="A1488" s="72" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1488" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" ht="28.8">
+      <c r="A1489" s="72" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1489" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2">
+      <c r="A1490" s="72" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1490" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2">
+      <c r="A1491" s="72" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1491" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2">
+      <c r="A1492" s="72" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1492" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2">
+      <c r="A1493" s="72" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1493" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2">
+      <c r="A1494" s="72" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1494" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2">
+      <c r="A1495" s="72" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1495" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2">
+      <c r="A1496" s="72" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1496" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2">
+      <c r="A1497" s="72" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1497" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" ht="28.8">
+      <c r="A1498" s="72" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1498" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2">
+      <c r="A1499" s="72" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1499" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2">
+      <c r="A1500" s="72" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1500" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" ht="43.2">
+      <c r="A1501" s="72" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1501" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" ht="28.8">
+      <c r="A1502" s="72" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1502" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2">
+      <c r="A1503" s="72" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1503" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2">
+      <c r="A1504" s="72" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1504" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" ht="28.8">
+      <c r="A1505" s="72" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1505" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2">
+      <c r="A1506" s="72" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1506" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2">
+      <c r="A1507" s="72" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1507" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2">
+      <c r="A1508" s="72" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1508" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2">
+      <c r="A1509" s="72" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1509" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2">
+      <c r="A1510" s="72" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1510" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2">
+      <c r="A1511" s="72" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1511" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2">
+      <c r="A1512" s="72" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1512" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" ht="72">
+      <c r="A1513" s="68" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1513" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" ht="28.8">
+      <c r="A1514" s="72" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1514" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2">
+      <c r="A1515" s="72" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1515" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2">
+      <c r="A1516" s="72" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1516" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2">
+      <c r="A1517" s="72" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1517" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2">
+      <c r="A1518" s="72" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1518" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" ht="28.8">
+      <c r="A1519" s="72" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1519" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" ht="28.8">
+      <c r="A1520" s="72" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1520" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" ht="86.4">
+      <c r="A1521" s="68" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1521" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2">
+      <c r="A1522" s="72" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1522" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2">
+      <c r="A1523" s="72" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1523" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" ht="72">
+      <c r="A1524" s="68" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1524" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2">
+      <c r="A1525" s="72" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1525" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" ht="28.8">
+      <c r="A1526" s="72" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1526" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2">
+      <c r="A1527" s="72" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1527" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2">
+      <c r="A1528" s="72" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1528" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2">
+      <c r="A1529" s="72" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1529" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2">
+      <c r="A1530" s="72" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1530" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" ht="28.8">
+      <c r="A1531" s="72" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1531" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2">
+      <c r="A1532" s="72" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1532" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2">
+      <c r="A1533" s="72" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1533" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" ht="28.8">
+      <c r="A1534" s="72" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1534" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" ht="28.8">
+      <c r="A1535" s="72" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1535" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2">
+      <c r="A1536" s="72" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1536" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2">
+      <c r="A1537" s="72" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1537" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" ht="100.8">
+      <c r="A1538" s="68" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1538" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2">
+      <c r="A1539" s="72" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1539" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2">
+      <c r="A1540" s="72" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1540" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2">
+      <c r="A1541" s="72" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1541" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2">
+      <c r="A1542" s="72" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1542" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" ht="100.8">
+      <c r="A1543" s="68" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1543" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" ht="100.8">
+      <c r="A1544" s="68" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1544" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" ht="28.8">
+      <c r="A1545" s="72" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1545" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2">
+      <c r="A1546" s="72" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1546" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2">
+      <c r="A1547" s="72" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1547" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" ht="100.8">
+      <c r="A1548" s="68" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1548" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2">
+      <c r="A1549" s="72" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1549" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" ht="28.8">
+      <c r="A1550" s="72" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1550" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" ht="28.8">
+      <c r="A1551" s="72" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1551" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" ht="86.4">
+      <c r="A1552" s="68" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1552" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" ht="28.8">
+      <c r="A1553" s="72" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1553" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" ht="28.8">
+      <c r="A1554" s="72" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1554" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2">
+      <c r="A1555" s="72" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1555" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" ht="28.8">
+      <c r="A1556" s="72" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1556" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" ht="28.8">
+      <c r="A1557" s="72" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1557" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2">
+      <c r="A1558" s="72" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1558" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" ht="28.8">
+      <c r="A1559" s="72" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1559" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2">
+      <c r="A1560" s="72" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1560" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2">
+      <c r="A1561" s="72" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1561" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" ht="28.8">
+      <c r="A1562" s="72" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1562" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2">
+      <c r="A1563" s="72" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1563" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2">
+      <c r="A1564" s="72" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1564" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" ht="28.8">
+      <c r="A1565" s="72" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1565" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" ht="28.8">
+      <c r="A1566" s="72" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1566" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" ht="43.2">
+      <c r="A1567" s="72" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1567" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2">
+      <c r="A1568" s="72" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1568" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" ht="28.8">
+      <c r="A1569" s="72" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1569" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" ht="28.8">
+      <c r="A1570" s="72" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1570" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2">
+      <c r="A1571" s="72" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1571" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2">
+      <c r="A1572" s="72" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1572" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2">
+      <c r="A1573" s="72" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1573" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2">
+      <c r="A1574" s="72" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1574" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2">
+      <c r="A1575" s="72" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1575" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2">
+      <c r="A1576" s="72" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1576" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" ht="28.8">
+      <c r="A1577" s="72" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1577" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2">
+      <c r="A1578" s="72" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1578" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" ht="43.2">
+      <c r="A1579" s="72" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1579" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" ht="57.6">
+      <c r="A1580" s="68" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1580" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2">
+      <c r="A1581" s="72" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1581" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2">
+      <c r="A1582" s="72" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1582" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2">
+      <c r="A1583" s="72" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1583" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" ht="86.4">
+      <c r="A1584" s="68" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1584" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2">
+      <c r="A1585" s="72" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1585" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2">
+      <c r="A1586" s="72" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1586" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2">
+      <c r="A1587" s="72" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1587" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" ht="28.8">
+      <c r="A1588" s="72" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1588" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" ht="28.8">
+      <c r="A1589" s="72" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1589" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2">
+      <c r="A1590" s="72" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1590" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2">
+      <c r="A1591" s="72" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1591" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2">
+      <c r="A1592" s="72" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1592" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2">
+      <c r="A1593" s="72" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1593" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2">
+      <c r="A1594" s="72" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1594" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2">
+      <c r="A1595" s="72" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1595" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2">
+      <c r="A1596" s="72" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1596" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2">
+      <c r="A1597" s="72" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1597" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2">
+      <c r="A1598" s="72" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1598" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" ht="43.2">
+      <c r="A1599" s="72" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1599" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" ht="43.2">
+      <c r="A1600" s="72" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1600" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" ht="72">
+      <c r="A1601" s="68" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1601" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" ht="100.8">
+      <c r="A1602" s="68" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1602" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" ht="43.2">
+      <c r="A1603" s="72" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1603" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" ht="43.2">
+      <c r="A1604" s="72" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1604" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" ht="28.8">
+      <c r="A1605" s="72" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1605" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" ht="28.8">
+      <c r="A1606" s="72" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1606" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2">
+      <c r="A1607" s="72" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1607" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2">
+      <c r="A1608" s="72" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1608" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2">
+      <c r="A1609" s="72" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1609" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2">
+      <c r="A1610" s="72" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1610" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2">
+      <c r="A1611" s="72" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1611" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" ht="28.8">
+      <c r="A1612" s="72" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1612" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" ht="43.2">
+      <c r="A1613" s="72" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1613" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2">
+      <c r="A1614" s="72" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1614" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" ht="43.2">
+      <c r="A1615" s="72" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1615" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" ht="86.4">
+      <c r="A1616" s="68" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1616" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" ht="43.2">
+      <c r="A1617" s="72" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1617" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" ht="28.8">
+      <c r="A1618" s="72" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1618" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" ht="72">
+      <c r="A1619" s="68" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1619" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" ht="28.8">
+      <c r="A1620" s="72" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1620" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2">
+      <c r="A1621" s="72" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1621" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2">
+      <c r="A1622" s="72" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1622" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2">
+      <c r="A1623" s="72" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1623" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" ht="28.8">
+      <c r="A1624" s="72" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1624" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" ht="100.8">
+      <c r="A1625" s="68" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1625" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" ht="72">
+      <c r="A1626" s="68" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B1626" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" ht="28.8">
+      <c r="A1627" s="72" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1627" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2">
+      <c r="A1628" s="72" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1628" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" ht="28.8">
+      <c r="A1629" s="72" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1629" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" ht="72">
+      <c r="A1630" s="68" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B1630" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" ht="28.8">
+      <c r="A1631" s="72" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1631" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2">
+      <c r="A1632" s="72" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B1632" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" ht="28.8">
+      <c r="A1633" s="72" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1633" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2">
+      <c r="A1634" s="72" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1634" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2">
+      <c r="A1635" s="72" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1635" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2">
+      <c r="A1636" s="72" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B1636" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2">
+      <c r="A1637" s="72" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1637" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2">
+      <c r="A1638" s="72" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B1638" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2">
+      <c r="A1639" s="72" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1639" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2">
+      <c r="A1640" s="72" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1640" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2">
+      <c r="A1641" s="72" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1641" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" ht="28.8">
+      <c r="A1642" s="72" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1642" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" ht="86.4">
+      <c r="A1643" s="68" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1643" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" ht="86.4">
+      <c r="A1644" s="68" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1644" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" ht="57.6">
+      <c r="A1645" s="68" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1645" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" ht="28.8">
+      <c r="A1646" s="72" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1646" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2">
+      <c r="A1647" s="72" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1647" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2">
+      <c r="A1648" s="72" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1648" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2">
+      <c r="A1649" s="72" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1649" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2">
+      <c r="A1650" s="72" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1650" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2">
+      <c r="A1651" s="72" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1651" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2">
+      <c r="A1652" s="72" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1652" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" ht="100.8">
+      <c r="A1653" s="68" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1653" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" ht="43.2">
+      <c r="A1654" s="72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1654" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2">
+      <c r="A1655" s="72" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1655" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2">
+      <c r="A1656" s="72" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1656" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" ht="28.8">
+      <c r="A1657" s="72" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1657" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2">
+      <c r="A1658" s="72" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1658" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2">
+      <c r="A1659" s="72" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1659" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2">
+      <c r="A1660" s="72" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1660" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2">
+      <c r="A1661" s="72" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1661" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2">
+      <c r="A1662" s="72" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1662" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2">
+      <c r="A1663" s="72" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1663" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" ht="28.8">
+      <c r="A1664" s="72" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1664" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" ht="43.2">
+      <c r="A1665" s="72" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1665" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" ht="28.8">
+      <c r="A1666" s="72" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1666" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2">
+      <c r="A1667" s="72" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1667" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" ht="100.8">
+      <c r="A1668" s="68" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1668" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2">
+      <c r="A1669" s="72" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B1669" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" ht="28.8">
+      <c r="A1670" s="72" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1670" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" ht="43.2">
+      <c r="A1671" s="72" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1671" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" ht="28.8">
+      <c r="A1672" s="72" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1672" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" ht="28.8">
+      <c r="A1673" s="72" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1673" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2">
+      <c r="A1674" s="72" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1674" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" ht="57.6">
+      <c r="A1675" s="68" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1675" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" ht="28.8">
+      <c r="A1676" s="72" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1676" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2">
+      <c r="A1677" s="72" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1677" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" ht="28.8">
+      <c r="A1678" s="72" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1678" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" ht="43.2">
+      <c r="A1679" s="72" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1679" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" ht="43.2">
+      <c r="A1680" s="72" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1680" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" ht="72">
+      <c r="A1681" s="68" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1681" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" ht="86.4">
+      <c r="A1682" s="68" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1682" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" ht="43.2">
+      <c r="A1683" s="72" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1683" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" ht="28.8">
+      <c r="A1684" s="72" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1684" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2">
+      <c r="A1685" s="72" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1685" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" ht="43.2">
+      <c r="A1686" s="72" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1686" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" ht="28.8">
+      <c r="A1687" s="72" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1687" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" ht="57.6">
+      <c r="A1688" s="68" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1688" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2">
+      <c r="A1689" s="72" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1689" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2">
+      <c r="A1690" s="72" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1690" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2">
+      <c r="A1691" s="72" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1691" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" ht="28.8">
+      <c r="A1692" s="72" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1692" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2">
+      <c r="A1693" s="72" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1693" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2">
+      <c r="A1694" s="72" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1694" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2">
+      <c r="A1695" s="72" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1695" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2">
+      <c r="A1696" s="72" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B1696" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2">
+      <c r="A1697" s="72" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1697" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2">
+      <c r="A1698" s="72" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1698" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" ht="28.8">
+      <c r="A1699" s="72" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1699" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2">
+      <c r="A1700" s="72" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1700" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2">
+      <c r="A1701" s="72" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1701" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2">
+      <c r="A1702" s="72" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1702" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2">
+      <c r="A1703" s="72" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1703" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" ht="43.2">
+      <c r="A1704" s="72" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1704" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" ht="28.8">
+      <c r="A1705" s="72" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1705" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" ht="28.8">
+      <c r="A1706" s="72" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1706" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" ht="28.8">
+      <c r="A1707" s="72" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1707" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" ht="57.6">
+      <c r="A1708" s="72" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1708" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2">
+      <c r="A1709" s="72" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1709" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" ht="57.6">
+      <c r="A1710" s="72" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1710" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2">
+      <c r="A1711" s="72" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1711" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" ht="28.8">
+      <c r="A1712" s="72" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1712" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" ht="72">
+      <c r="A1713" s="68" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1713" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" ht="72">
+      <c r="A1714" s="75" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B1714" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" ht="28.8">
+      <c r="A1715" s="74" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1715" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2">
+      <c r="A1716" s="74" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1716" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2">
+      <c r="A1717" s="74" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1717" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2">
+      <c r="A1718" s="74" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1718" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2">
+      <c r="A1719" s="74" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B1719" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2">
+      <c r="A1720" s="74" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1720" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" ht="28.8">
+      <c r="A1721" s="74" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1721" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2">
+      <c r="A1722" s="74" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1722" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2">
+      <c r="A1723" s="74" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1723" s="73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" ht="28.8">
+      <c r="A1724" s="77" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1724" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" ht="43.2">
+      <c r="A1725" s="77" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1725" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" ht="28.8">
+      <c r="A1726" s="77" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1726" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" ht="43.2">
+      <c r="A1727" s="77" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1727" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" ht="28.8">
+      <c r="A1728" s="77" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1728" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" ht="43.2">
+      <c r="A1729" s="77" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1729" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" ht="43.2">
+      <c r="A1730" s="77" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1730" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" ht="72">
+      <c r="A1731" s="78" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1731" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2">
+      <c r="A1732" s="77" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1732" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2">
+      <c r="A1733" s="77" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1733" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2">
+      <c r="A1734" s="80" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1734" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2">
+      <c r="A1735" s="80" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1735" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2">
+      <c r="A1736" s="80" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1736" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2">
+      <c r="A1737" s="80" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1737" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2">
+      <c r="A1738" s="80" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1738" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2">
+      <c r="A1739" s="80" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1739" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2">
+      <c r="A1740" s="80" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1740" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2">
+      <c r="A1741" s="80" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1741" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2">
+      <c r="A1742" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1742" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" ht="43.2">
+      <c r="A1743" s="80" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1743" s="79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2">
+      <c r="A1744" s="82" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1744" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2">
+      <c r="A1745" s="82" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1745" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2">
+      <c r="A1746" s="82" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1746" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2">
+      <c r="A1747" s="82" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1747" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2">
+      <c r="A1748" s="82" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1748" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2">
+      <c r="A1749" s="82" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1749" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2">
+      <c r="A1750" s="82" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1750" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2">
+      <c r="A1751" s="82" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1751" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2">
+      <c r="A1752" s="82" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1752" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2">
+      <c r="A1753" s="82" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1753" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2">
+      <c r="A1754" s="82" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1754" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" ht="28.8">
+      <c r="A1755" s="84" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1755" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2">
+      <c r="A1756" s="84" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1756" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" ht="28.8">
+      <c r="A1757" s="84" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1757" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2">
+      <c r="A1758" s="84" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1758" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" ht="28.8">
+      <c r="A1759" s="84" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1759" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2">
+      <c r="A1760" s="84" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1760" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2">
+      <c r="A1761" s="84" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1761" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2">
+      <c r="A1762" s="84" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1762" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" ht="28.8">
+      <c r="A1763" s="84" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1763" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" ht="28.8">
+      <c r="A1764" s="84" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1764" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2">
+      <c r="A1765" s="84" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1765" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2">
+      <c r="A1766" s="84" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1766" s="83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2">
+      <c r="A1767" s="86" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1767" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2">
+      <c r="A1768" s="86" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1768" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2">
+      <c r="A1769" s="86" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1769" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2">
+      <c r="A1770" s="86" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1770" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2">
+      <c r="A1771" s="86" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1771" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2">
+      <c r="A1772" s="86" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1772" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2">
+      <c r="A1773" s="86" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1773" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2">
+      <c r="A1774" s="86" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1774" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2">
+      <c r="A1775" s="86" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1775" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2">
+      <c r="A1776" s="86" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1776" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2">
+      <c r="A1777" s="86" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1777" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2">
+      <c r="A1778" s="86" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1778" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2">
+      <c r="A1779" s="86" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1779" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2">
+      <c r="A1780" s="86" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1780" s="85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2">
+      <c r="A1781" s="88" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1781" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2">
+      <c r="A1782" s="88" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1782" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2">
+      <c r="A1783" s="88" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1783" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2">
+      <c r="A1784" s="88" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1784" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2">
+      <c r="A1785" s="88" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1785" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2">
+      <c r="A1786" s="88" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1786" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2">
+      <c r="A1787" s="88" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1787" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2">
+      <c r="A1788" s="88" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1788" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2">
+      <c r="A1789" s="88" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1789" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2">
+      <c r="A1790" s="88" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1790" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" ht="28.8">
+      <c r="A1791" s="88" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1791" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2">
+      <c r="A1792" s="88" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1792" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2">
+      <c r="A1793" s="88" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1793" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2">
+      <c r="A1794" s="88" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1794" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2">
+      <c r="A1795" s="88" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1795" s="87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" ht="43.2">
+      <c r="A1796" s="90" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1796" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2">
+      <c r="A1797" s="90" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1797" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" ht="57.6">
+      <c r="A1798" s="90" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1798" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2">
+      <c r="A1799" s="90" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1799" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2">
+      <c r="A1800" s="90" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1800" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A860" r:id="rId1" display="https://www.facebook.com/hashtag/%E0%A6%B6%E0%A6%BF%E0%A6%95%E0%A7%8D%E0%A6%B7%E0%A6%BE%E0%A6%AE%E0%A6%A8%E0%A7%8D%E0%A6%A4%E0%A7%8D%E0%A6%B0%E0%A7%80?__eep__=6&amp;__cft__%5b0%5d=AZUO-21C3zsyRUH8lMZVqlet4wQmThj9IjqPl9IeJMjBdKxID4MkdDoK7hY2aTZV1ptSoTbDc833ESAJtHcyrCAEopJ2yplblsH7wZrm98Rb-R3_4Ju5JfM42x6gE8lVtSz_cgi1BWfjESyjIqBNZPXw&amp;__tn__=R%5d-R"/>

--- a/bengali_sentiment.xlsx
+++ b/bengali_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="1844">
   <si>
     <t>Statement</t>
   </si>
@@ -5367,6 +5367,204 @@
   </si>
   <si>
     <t xml:space="preserve"> অন্যা য়ের বিরু দ্ধে কড়া প্র তিবাদ ও চাপ সৃষ্ট ি করুন। </t>
+  </si>
+  <si>
+    <t>এই তো উদ্বোধন।এখন কি আর দেখছেন।এরপর তো রক্তগঙ্গা ব‌ইয়ে ছাড়বে।কারণ এ ছাড়া আর অন্য কোনোভাবে এদের জেতার উপায় নেই</t>
+  </si>
+  <si>
+    <t>অসুস্থ মানুষটাকে নিয়ে পরিকল্পিত নাটক চলছে,, সামনে ভোট কিছুতো একটা দরকার তৃণমূল কংগ্রেস কে ছোট করার জন্য,,আর কত নিচে নামবেন আপনার?</t>
+  </si>
+  <si>
+    <t>যারা মেরেছে সেই জানোয়ার গুলোকে উচিৎ শিক্ষা দেওয়া হয়।</t>
+  </si>
+  <si>
+    <t>আসল ঘটনা কি ঘটেছে তদন্ত হোক ....অন্য কিছু ঘটনা রাজনৈতিক ভাবে চালানোর চেষ্টা নয় তো</t>
+  </si>
+  <si>
+    <t>একই বলে জননেতা</t>
+  </si>
+  <si>
+    <t>দাদা আমি এটাই কিছুদিন ধরে চাইছিলাম যে, এই বৃদ্ধার পাশে কেউ সহযোগীতার হাত বাড়িয়ে দিক... আপনাকে আর দেবজিত দা কে এই বিষয়ে হস্তক্ষেপ করতে দেখে আজ সত্যিই আমি শান্তি পেলাম । যবে থেকে এই বৃদ্ধার এই ধরনের দুর্দশা আমি দেখছি প্রতিদিনই এনার ওই আক্রান্ত মুখ দেখে আমার নিজের লজ্জা লাগছিলো। সীমাহীন ভালবাসা রইলো আপনার ও দেবজিত দার ওপর... ।</t>
+  </si>
+  <si>
+    <t>দাদা সত্যিই তুমি মহান , তুমিই জননেতা দুঃখের দিনে যে পাশে দাঁড়ায় সেই তো মহানায়ক জয় জয় শ্রীরাম,,,,,, দাদা তোমার অমৃত বাণী আমাদের হৃদয়ে থাকবে কৃষ্ণ কৃষ্ণ হরে হরে পদ্মফুল ঘরে ঘরে</t>
+  </si>
+  <si>
+    <t>এইরকম বর্বরোচিত ঘটানা যেন আর না ঘটে কারো সঙ্গে । ক্ষমতা ধরে রাখার জন্যে আর কি কি করবে এই তৃনমূল ছিঃ</t>
+  </si>
+  <si>
+    <t>পিসি দেখে নিন নিজের চোখে জননেতা এনাকেই বলে,আসসোস একটাই পিসি আপনি একজন মহিলা হয়ে ও একটি বারের জন্য একটা শব্দ এই ৮০ বছর বয়সী বৄদ্ধা মহিলার জন্য ব্যবহার করলেন না, এতটা নিহৃদয় হয়ে গেছেন আপনি তাই আমরা পশ্চিমবাংলায় কোন পিসি কে চাই না? ভূমিকন্যাকে চাই।</t>
+  </si>
+  <si>
+    <t>দাদা আমরা আছি আপনার পাশে,এই সরকারকে সরাতেই হবে।</t>
+  </si>
+  <si>
+    <t>নিজের ঘরে মা বোন দের সম্মান করতে জানেনা তারা ভোট চাইতে জায় কি করে ছি টিএমসি</t>
+  </si>
+  <si>
+    <t>বিচার চাই দাদা।ওদের উচিত শিক্ষা দিতেই হবে।</t>
+  </si>
+  <si>
+    <t>এভাবেই আপনাকে প্রতিটি সৈনিকের বাড়িতে যেতে হবে।</t>
+  </si>
+  <si>
+    <t>যেই এই ঘটনা করে থাকুক তার শরীরে মানুষের রক্ত আছে বলে মনে করি না আমি।</t>
+  </si>
+  <si>
+    <t>মায়ের চোখের জল বৃথা যাবে না ২রা মে যোগ্য জবাব পাবে ওরা ভারত মাতা কি জয়</t>
+  </si>
+  <si>
+    <t>এতো অন্যায় সহ্য করা যায় না কিছু একটা ভাবতেই হবে</t>
+  </si>
+  <si>
+    <t>দাদা স্বাস্থ্য সাথী কার্ড আছে তো।।। দিদি তো দিয়েছে তো আপনার আবার চিন্তা কি।</t>
+  </si>
+  <si>
+    <t>আমি এটাকে মানতে পারছি।।। আঘাত মায়ের উপর।। নরপশু।।।</t>
+  </si>
+  <si>
+    <t>সত্যি যে পিশাচ গুলো এই কাজ করে চে ভগবান ওদের যেনো শেষ শাস্তি বলে কিছু থাকে সেটা যেনো ওদের কে দেন</t>
+  </si>
+  <si>
+    <t>একজন বয়স্ক মানুষকে নিয়ে নোংরা রাজনীতি আর তারপর সেটা ঢাকতে আরো মিথ্যা কথা - বিজেপি সত্যিই দেশের লজ্জা!</t>
+  </si>
+  <si>
+    <t>ভিডিও পোস্ট না করে ওনাকে কোনো হাসপাতালে নিয়ে যান</t>
+  </si>
+  <si>
+    <t>এই জল্লাদ দের এই বাংলা থেকে উৎখাত করতে না পারলে এই বাংলা পাকিস্তান এ পরিণত হবে</t>
+  </si>
+  <si>
+    <t>দল মত নির্বিশেষে যারা এটা করেছে গন ক্যালানি হোক।</t>
+  </si>
+  <si>
+    <t>ভারতমাতা কী জয় ।</t>
+  </si>
+  <si>
+    <t>ছোট ছোট পগ্রাম করে লোক ঠকানো মিথ্যা প্রচার করে লাভ নেই।</t>
+  </si>
+  <si>
+    <t>এখান-এ এত অশিক্ষিত মানুষ আছে ।</t>
+  </si>
+  <si>
+    <t>লড়াই এর আরেক নাম শুভেন্দু অধিকারী দাদার পাশে আছি পাশে ছিলাম থাকবো</t>
+  </si>
+  <si>
+    <t>এটা জনসভা না অন্য কিছু। মনে হচ্ছে সবাই টাকা উঠাচ্ছে।</t>
+  </si>
+  <si>
+    <t>সবই ঐতিহাসিক কেউ একটাও ভৌগোলিক মিটিং করেনা খুবই দুক্ক লাগে. ভূগোলের ছাত্রতো তাই বললাম</t>
+  </si>
+  <si>
+    <t>হিন্দুরা ঐক্যবদ্ধ হতে রাজী না একাধিক বাচ্চা নিতে রাজী না,দাবী তুলতেও রাজী না! তো হিন্দুদের স্বার্থসিদ্ধি কে পূরণ করবে ভগবান আসবে নাকি আব্দুলরা করবে?</t>
+  </si>
+  <si>
+    <t>বাংলা নিজের মেয়েকে চায়।</t>
+  </si>
+  <si>
+    <t>সভাটা ঘুরিয়ে দেখানোর জন্য অনুরোধ করছি</t>
+  </si>
+  <si>
+    <t>এক মাত্র মিথুন চক্রবর্তী ছাড়া কেউ সোনার বাংলা গড়তে পারবে না</t>
+  </si>
+  <si>
+    <t>তোদের লজ্জা নামের কিছু থাকলে লজ্জার কারণে মরে জেতিস , সাধারণ মানুষের কাছে দাঁড়ানো সম্ভব হতো না</t>
+  </si>
+  <si>
+    <t>শ্রদ্ধাঞ্জলি তো আপনাকেও জানাবে এই বাংলার মানুষ ভোটের পরে।</t>
+  </si>
+  <si>
+    <t>শুভেন্দু চোর তোকে গো হারা করবো</t>
+  </si>
+  <si>
+    <t>যতই মনীষী দের পোস্ট দিয়ে ভোক্তি প্রকাশ করো না কেনো শিরদাঁড়া বিক্রি করে মহান হবার চেষ্টা সব দেখছে জনতা জামানত জব্দ করবেই জনতা</t>
+  </si>
+  <si>
+    <t>ভূতের মুখে রাম নাম আর ইংরেজের দালালদের মুখে বিপ্লবী দের নাম একই ব্যাপার।</t>
+  </si>
+  <si>
+    <t>ইংরেজের দালাল দের দলে গিয়ে, এসব বিপ্লবী দের নাম মুখে আনতে নেই</t>
+  </si>
+  <si>
+    <t>শতকোটি প্রণাম</t>
+  </si>
+  <si>
+    <t>কাকা গ্যাস পেট্রোলের দাম বৃদ্ধি নিয়ে কিছু বলুন</t>
+  </si>
+  <si>
+    <t>শুভেন্দু দা ভগবানের কাছে তোমার মঙ্গল কামনা করি যাতে ভগবান তোমার শরীর সুস্থ রাখে যাতে আগামী 2021 এর বিধানসভা জেতার পর সাধারণ গরিব মানুষের জন্য কাজ করতে পারো আমরা চাই তুমি একটা ভালো দায়িত্ব যেন তোমাকে দেওয়া হয় কাজের জায়গা</t>
+  </si>
+  <si>
+    <t>দ্বিচারিতা কেনো । আপনার সভাপতি তো দুর্গা মানে না</t>
+  </si>
+  <si>
+    <t>দাদা আপনার নামের খুব বাজে ব্যাবহার হচ্ছে এখন ।।। কেউ চিটিংবাজি /গাদ্দারি/ ধোকা কিছুই করলে ।। উদাহরণ এ তুই তো শুভেন্দু রে‌ ভাই</t>
+  </si>
+  <si>
+    <t>ক্ষমতা লোভী ,এই মহিলা যেখানে দারাবে দায়িত্ব নিয়ে হারাবেন ।</t>
+  </si>
+  <si>
+    <t>এ কি, আপনি আপনার অনুপ্রেরণা কে অপমান করে পেট্রোল এর গাড়ি চালাচ্ছেন, ইলেকট্রিক স্কুটি পান নি বুঝি!</t>
+  </si>
+  <si>
+    <t>গাড়ি চালাতে গিয়ে সালমান স্যারের কপি করবেন না ম্যাম</t>
+  </si>
+  <si>
+    <t>অযাথা সোশাল মিডিয়ায় এই রকম ছবির প্রভাব কমাতে টিকটক নামক চায়না যন্ত্র টি পুনরায় চালু করার দাবি জানাচ্ছি,,</t>
+  </si>
+  <si>
+    <t>আরে এত চুরির খবর পেলি কোথাথেকে,তোরা কি চোরের খানদান ???</t>
+  </si>
+  <si>
+    <t>দিদি তুমি এগিয়ে চলো আমরা তোমার পাশে আছি থাকবো</t>
+  </si>
+  <si>
+    <t>বাংলা আমার,বাংলা তোমার,বাংলা সবারই ,জয় জয় বাংলা</t>
+  </si>
+  <si>
+    <t>নিজের পেশা দিয়ে নিজেকে আরও সমৃদ্ধ করুন। পরে আফসোস হবে। মুদ্রার দুই দিকে একই ছবি "আলিবাবা ও চল্লিশ চোর।"</t>
+  </si>
+  <si>
+    <t>বাঁদর মেয়ের বাঁদরামি। তোকে প্রকাশ্যে চাবকানো উচিত। নচ্ছার ,বেহায়া কোথাকার।</t>
+  </si>
+  <si>
+    <t>পাগলি মেয়ের কি জাত আছে</t>
+  </si>
+  <si>
+    <t>মায়ের মমতা মা ই হোক শ্রেষ্ঠ আদর্শ</t>
+  </si>
+  <si>
+    <t>চুটিয়ে লাল করে দেব,।</t>
+  </si>
+  <si>
+    <t>আর পিসির রাজ্যে না অঞ্জন পাবে চাকরি না বেলা বোস ।।</t>
+  </si>
+  <si>
+    <t>টাকা ছাড়া চাকরি বাকরি দিলো আমায় ফাঁকি.</t>
+  </si>
+  <si>
+    <t>বাংলা আমার বাংলা রবে ,বন্ধু এবার খেলা হবে</t>
+  </si>
+  <si>
+    <t>কি বলবো মানে একটু দেরী হয়ে গেলো ।। বলতে গেলে ভুলেই গেছিলাম।। যাগকে তো বলি। এক নিঃশ্বাসে পড়ে ফেললে যা বোঝায় তারানাথ তান্ত্রিক তেমন।। এটা আমি মাত্রই রাত্রিরেই পড়তাম ।। শুধুমাত্র ভুতুড়ে পরিবেশ সৃষ্টি করার জন্য ।। দারুন মানে অসাধারন।</t>
+  </si>
+  <si>
+    <t>এই উপন্যাসের মাধ্যমে জীবনের বাস্তব রূপটি তুলে ধরা হয়েছে</t>
+  </si>
+  <si>
+    <t>আমি বছর তিনেক আগে পড়েছিলাম। এখনও এর রেশ কাটাতে পারি নি..</t>
+  </si>
+  <si>
+    <t>কম্পাস সত্যি অসাধারণ</t>
+  </si>
+  <si>
+    <t>আমি কম্পাস পড়েছি। আর এটা পড়ে ই আমি ওনার ফ্যান হয়ে গেছি।</t>
+  </si>
+  <si>
+    <t>দারুন বই। ভোগ গল্পটা সানডে সাসপেন্স এ শুনে দেখবেন।</t>
+  </si>
+  <si>
+    <t>যে হারিয়ে গেছে তাকে হারিয়ে যেতে দেওয়াই ভালো। হারানো মানুষকে খুঁজে বের করতে নেই।</t>
   </si>
 </sst>
 </file>
@@ -5465,7 +5663,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5661,6 +5859,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6128,10 +6329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1800"/>
+  <dimension ref="A1:C1866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1787" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1796" sqref="A1796:B1800"/>
+    <sheetView tabSelected="1" topLeftCell="A1852" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1867" sqref="A1867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20550,6 +20751,534 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1801" spans="1:2" ht="26.4">
+      <c r="A1801" s="13" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1801" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" ht="26.4">
+      <c r="A1802" s="13" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1802" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2">
+      <c r="A1803" s="12" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1803" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2">
+      <c r="A1804" s="12" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1804" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2">
+      <c r="A1805" s="12" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1805" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" ht="52.8">
+      <c r="A1806" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1806" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" ht="26.4">
+      <c r="A1807" s="13" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1807" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" ht="26.4" customHeight="1">
+      <c r="A1808" s="13" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1808" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" ht="39.6">
+      <c r="A1809" s="13" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1809" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2">
+      <c r="A1810" s="12" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1810" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2">
+      <c r="A1811" s="12" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1811" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2">
+      <c r="A1812" s="12" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1812" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2">
+      <c r="A1813" s="12" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1813" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2">
+      <c r="A1814" s="12" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1814" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2">
+      <c r="A1815" s="12" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1815" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2">
+      <c r="A1816" s="13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1816" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2">
+      <c r="A1817" s="12" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1817" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2">
+      <c r="A1818" s="12" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1818" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2">
+      <c r="A1819" s="12" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1819" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" ht="26.4" customHeight="1">
+      <c r="A1820" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1820" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2">
+      <c r="A1821" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1821" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2">
+      <c r="A1822" s="12" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1822" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2">
+      <c r="A1823" s="12" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1823" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2">
+      <c r="A1824" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1824" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2">
+      <c r="A1825" s="12" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1825" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2">
+      <c r="A1826" s="12" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1826" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2">
+      <c r="A1827" s="12" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1827" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2">
+      <c r="A1828" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1828" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2">
+      <c r="A1829" s="12" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1829" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" ht="26.4">
+      <c r="A1830" s="13" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1830" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2">
+      <c r="A1831" s="12" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1831" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2">
+      <c r="A1832" s="12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1832" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2">
+      <c r="A1833" s="12" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1833" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2">
+      <c r="A1834" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1834" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2">
+      <c r="A1835" s="12" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1835" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2">
+      <c r="A1836" s="12" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1836" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" ht="26.4">
+      <c r="A1837" s="91" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1837" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2">
+      <c r="A1838" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1838" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2">
+      <c r="A1839" s="12" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1839" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2">
+      <c r="A1840" s="12" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1840" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2">
+      <c r="A1841" s="12" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1841" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" ht="39.6">
+      <c r="A1842" s="13" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1842" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2">
+      <c r="A1843" s="12" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1843" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" ht="26.4">
+      <c r="A1844" s="13" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1844" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2">
+      <c r="A1845" s="12" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1845" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2">
+      <c r="A1846" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1846" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2">
+      <c r="A1847" s="12" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1847" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" ht="22.8" customHeight="1">
+      <c r="A1848" s="13" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1848" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2">
+      <c r="A1849" s="12" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1849" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2">
+      <c r="A1850" s="12" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1850" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2">
+      <c r="A1851" s="12" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1851" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" ht="28.8" customHeight="1">
+      <c r="A1852" s="13" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1852" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2">
+      <c r="A1853" s="12" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1853" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2">
+      <c r="A1854" s="12" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1854" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2">
+      <c r="A1855" s="12" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1855" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2">
+      <c r="A1856" s="12" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1856" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2">
+      <c r="A1857" s="12" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1857" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2">
+      <c r="A1858" s="12" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1858" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2">
+      <c r="A1859" s="12" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1859" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" ht="39.6">
+      <c r="A1860" s="13" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1860" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2">
+      <c r="A1861" s="12" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1861" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2">
+      <c r="A1862" s="12" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1862" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2">
+      <c r="A1863" s="12" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1863" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2">
+      <c r="A1864" s="12" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1864" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2">
+      <c r="A1865" s="12" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1865" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2">
+      <c r="A1866" s="12" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1866" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A860" r:id="rId1" display="https://www.facebook.com/hashtag/%E0%A6%B6%E0%A6%BF%E0%A6%95%E0%A7%8D%E0%A6%B7%E0%A6%BE%E0%A6%AE%E0%A6%A8%E0%A7%8D%E0%A6%A4%E0%A7%8D%E0%A6%B0%E0%A7%80?__eep__=6&amp;__cft__%5b0%5d=AZUO-21C3zsyRUH8lMZVqlet4wQmThj9IjqPl9IeJMjBdKxID4MkdDoK7hY2aTZV1ptSoTbDc833ESAJtHcyrCAEopJ2yplblsH7wZrm98Rb-R3_4Ju5JfM42x6gE8lVtSz_cgi1BWfjESyjIqBNZPXw&amp;__tn__=R%5d-R"/>

--- a/bengali_sentiment.xlsx
+++ b/bengali_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1977">
   <si>
     <t>Statement</t>
   </si>
@@ -5565,6 +5565,405 @@
   </si>
   <si>
     <t>যে হারিয়ে গেছে তাকে হারিয়ে যেতে দেওয়াই ভালো। হারানো মানুষকে খুঁজে বের করতে নেই।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ধর্ষিতা মা আমি ভাইয়ের সামনে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ধর্ষিতা বোন আমি এমপির গুলিতে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">গুলিবিদ্ধ সৌরভ আমি গুম হওয়া </t>
+  </si>
+  <si>
+    <t xml:space="preserve">মিয়ানমার সরকার ও বর্বর পাকিস্তানিদের মত নিরীহ রোহিঙ্গাদের গণহত্যা করছে।তাদের বাড়িঘর জ্বালিয়ে দিচ্ছে তীব্র ধিক্কার ও নিন্দা জানাই জালিমদের প্রতি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমরা চাই তাদেরকে সহযোগিতা করা হোক কেন না তারা মূসলমান তারা আমাদের ভাই আমরা আশা করি বাংলাদেশের সবাই একমত হবে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খুবই ভালো মানুষ ছিলেন। ওনি। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলদেশ সহ বিশ্বের উন্নত অস্ত্র প্রযুক্তি ও আধুনিক অস্তের খুটিনাটি নিয়ে খোলামেলা আলোচনা সম্পূর্ণ বাংলায় পাবেন এই পেজে লাইক দিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আল্লাহতালা মরহুম দেরকে জান্নাতুন ফেরদাউস দান করুক যারা বেচে আছে তাদেরকে সুস্থতা দান করুক আল্লাহুম্মামিন আমিন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দ্রত গতিতে এর সমাধান হওয়া উচিৎ নইত হুমকি দেওয়া উচিৎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অনেক কাজের মধ্য দিয়ে ইত্যাদি অনুষ্টানটি ভাল ভাবে উপভোগ করিলাম। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মিয়ানমারে রহিঙ্গা তথা মুসলিমদের উপর যে নির্মম অমানবিক অত্যাচার চলছে তা এই একবিংশ শতাব্দিতে কোন মানুষ কোন মানুষের উপর করতে পারে কল্পনাতেও ছিল না সে যে দেশের যে মানুষই হোক। নারী পুরুষকে উলঙ্গ করে বেধে রাখা জবাই করা শরীরের চামরা তুলে নেয়া শরীর থেকে মাথা আলাদা করে উল্লাস করা আরো এগুলো ইরাকের মার্কিন কারাগারকেউ হার মানায়। সামাজিক যোগাযোগ মাধ্যমে যে তথ্য ও চিত্র আমাদের সামনে আসছে তা প্রতিটি মানুষকে শিহরিত করে। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সুচির ভাষ্য রোহিংগারা বাংলাদেশী আরাকান রাজ্যটা ও বাংলাদেশেরবৃটিশ যা সালে বেদখল হয়।বাংলাদেশ সরকারের উচিত আরাকান রাজ্যটা দখল করে রোহিংগা সমস্যার স্তায়ী সমাধান করা। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এগিয়া যাউ আপু আমি আছ তুমার শাথে তুমি </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ভালোবাসার গল্প ও বানী পেতে এই পেজে লাইক দেন </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আসলে মেয়েদের জান খুব শক্ট। </t>
+  </si>
+  <si>
+    <t>কেনো রে উষ্ণতা কি কম পড়েছে নাকি যে আর একটু উষ্ণতা নিতে হবে ।</t>
+  </si>
+  <si>
+    <t>একদম ছোট একটা পাঠাগার। খুব ভালো লাগল। দিন দিন আপনার সংগ্রহশালা উত্তরোত্তর বৃদ্ধি পায়।</t>
+  </si>
+  <si>
+    <t>মানুষ কে না চাইতে অনেক সুযোগ দেওয়া হয়েছে</t>
+  </si>
+  <si>
+    <t>দিকে দিকে তৃণমূল প্রার্থীদের বিপুল ভোটে জয়যুক্ত করুন</t>
+  </si>
+  <si>
+    <t>এই রকম মূখ্যমন্রী ভারতবর্ষের অন্য কোথাও নেই। এই বাংলায় সাধারণ মানুষের কথা তিনি মন থেকেই ভাবেন। সাধারণ মানুষের কি হবে সেটা মমতাময়ী, বঙ্গজননী, মমতা বন্দ্যোপাধ্যায় ভালো করেই ভাবেন। মমতা বন্দ্যোপাধ্যায় জিন্দাবাদ। মা মাটি মানুষ জিন্দাবাদ।</t>
+  </si>
+  <si>
+    <t>দিদি আপনি অসাধারণ আপনি আমার প্রনাম নেবেন</t>
+  </si>
+  <si>
+    <t>ভাষন শুনে মনে হয় ভাইজান সাম্প্রদায়িক দল।</t>
+  </si>
+  <si>
+    <t>তারা চিরকাল অমলিন হয়ে মনের মনিকোঠায় থেকে যায়.</t>
+  </si>
+  <si>
+    <t>সৌমিত্র স‍্যারের পরবর্তী যুগে তুমিই বাংলা চলচিত্রের মশালধারী কান্ডারী...</t>
+  </si>
+  <si>
+    <t>বঙ্গ সিনেমা অভিভাবক হীন হলো।</t>
+  </si>
+  <si>
+    <t>আমাদের মত ব্যস্ত বাবা মায়ের এই মুভিটা দেখা উচিত..</t>
+  </si>
+  <si>
+    <t>আপনি একজন ভালো অভিনেতা হতে পারেন তার মানে এই নয় যে একটা মহৎ পরিসেবা কে নিয়ে যা খুশি করবেন। এর সাথে যারা যুক্ত আপনি তাদেরকে অপমান করেছেন, আপনাকে এর জন্য ক্ষমা চাইতে হবে।</t>
+  </si>
+  <si>
+    <t>জনগনের সেবামূলক কাজ রাজনীতির বাইরে থেকে করা যাবে</t>
+  </si>
+  <si>
+    <t>আরে গান্ডু তোর বাবা কেন্দ্র সরকার যদি টাকা না দেয় গাঁড়ে দিবি কিরে শালা</t>
+  </si>
+  <si>
+    <t>দয়া করে নাকি কেন্দ্র?ভিক্ষা দেয় নাকী?এসব ছবি আপনিতো বানাতে পারেন বলে মনে হয়না। আপনার ডেপুটিকে বলুন একটু পড়াশোনা করে, হোমওয়ার্ক করে ছবি বানাতে।</t>
+  </si>
+  <si>
+    <t>বিজেপি মনে হয় রাজ্য সরকারগুলোকে নিজের ফান্ড থেকে টাকা দেয়?</t>
+  </si>
+  <si>
+    <t>কেন্দ্র টাকা কোত্থেকে পায়? সব টাকা রাজ্যের। বরং কেন্দ্রই রাজ্যের থেকে তোলা তোলে সংবিধানের জোরে।</t>
+  </si>
+  <si>
+    <t>এই কেউ কিছু বলবে না, দিলীপ দা আজকাল ইন্টেলেকচুয়াল মিটে ইস্পিচ দিচ্ছে। ও দিলীপ দা, নাচুন না।</t>
+  </si>
+  <si>
+    <t>কিনতে গ্যাস কাঁপছে হাত, শুনব না আর মন কী বাত।।</t>
+  </si>
+  <si>
+    <t>শাঁকচুন্নি টা কে দেখলেই মাথা আর ঠিক থাকেনা।</t>
+  </si>
+  <si>
+    <t>এইসব বাল-ছাল কথার কোন যুক্তি নেই</t>
+  </si>
+  <si>
+    <t>পেট্রোল হাজার টাকা দিয়েও কিনতে রাজি শুধু পশ্চিমবঙ্গে বন্ধ হোক চালচোর তোলাবাজী</t>
+  </si>
+  <si>
+    <t>"তিনটে বিয়ে করা ভারতীয় সংস্কৃতি নয়" অমর্ত্য সেন সম্পর্কে এই কথা বলা দিলীপ ঘোষ এমন একজন মহিলার হাতে দলের পতাকা তুলে দিলেন যিনি ৩২ বছর বয়সের মধ‍্যেই তিন তিনটি বিয়ে করে ফেলেছেন।</t>
+  </si>
+  <si>
+    <t>হ্যাঁ ঠিকই বলেছেন দাদা । আপনার গোয়ালে উৎপাদিত সোনা দিয়ে বাংলার অর্থনীতি টিকে আছে । সেই সোনা রপ্তানি করে মোদীজি পশ্চিমবঙ্গকে ভিক্ষা দেয় । আমরা সেই পয়সায় জীবনযাপন করি । আপনিনা মাইরি জিনিয়াস ।</t>
+  </si>
+  <si>
+    <t>ও দিলু দা যেই অজগর সাপ গুলোকে আশ্রয় দিয়েছেন ওরাই একদিন আপনাকে আর আপনার দলের অরিজিনাল গুলোকে একসাথে গিলে ফেলবে....কথাটা মাথায় রাখুন l</t>
+  </si>
+  <si>
+    <t>মাথা মুটা দিলু পাগল কেন্দ্রর তোর বাবার টাকা নয় হোল কুত কুত বাংলার জনগণের টাকা</t>
+  </si>
+  <si>
+    <t>খুব ভালো জায়গায় ছিলে</t>
+  </si>
+  <si>
+    <t xml:space="preserve">কেন্দ্রে মোদি অমিত নিজের বাপের জমি বেচে রাজ্য কে দিচ্ছে।তাই দিলু দার ফাটছে </t>
+  </si>
+  <si>
+    <t>আপনার মতো অশিক্ষিতরাই এইরকম পোস্ট করতে পারে।</t>
+  </si>
+  <si>
+    <t>মুখে আল্লু হুকবর। হৃদয়ে জঙ্গী কারবার ।সেজেছে সেকুলার, মগজে ডাঙ্গা। এটাই হারামজাদা ভাইজানের সঙ্গা ।</t>
+  </si>
+  <si>
+    <t>এসব পোস্ট করা বন্ধ করুন লোকে ভাববে আপনি একটা বোকাচন্দ্র।</t>
+  </si>
+  <si>
+    <t>সেলুকাস পাহাড়ে পরিশুদ্ধ গোমূত্র পাঠিয়ে দাও যেন সবাই পেট্রোল এর বিকল্প হিসেবে কাজে লাগাতে পারে</t>
+  </si>
+  <si>
+    <t>এসব ভাট বকার জন্যই দার্জিলিং এ গেলেই আপনাকে জুতো পেটা করে সেখানকার পাবলিক</t>
+  </si>
+  <si>
+    <t>ভ্যাট বকতে বকতে এটাও ভুলে গেছেন যে গত তিনবার থেকে ওখান কার সাংসদ আপনাদেরই দলের ,,,, মানে আপনি আজকে নিজেই স্বিকার করলেন যে বিজেপি চোরেদের দল!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মওলানা ভাসানী ছিলেন বাংলাদেশের উজ্জল একটি তারা । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি চাই অনলাইনে থাকা প্রত্যেকটা ব্যক্তিই অনলাইনে আয় করুন৷ তাই যারা অনলাইনে নতুন আপনাদের জন্য একটি গ্রুপ খুলেছি গ্রুপটিতে জয়েন করে আপনার জানতে চাওয়া বিষয়টি পোস্ট করেন আমি আপনাদের পাশে থাকব ইনশাআল্লাই যে কোন প্রয়োজনে আমাকে কল করুন৷ কলের সময় আছর থেকে মাগরিব অনলাইন আয় সম্পর্কে যে কোন প্রশ্ন বা পোস্ট করার জন্য গ্রুপটিতে জয়েন করুন৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অন্তত এখন যায়গা দেয়া উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দারূন বলেছেন এবং আর ভাই আপনাকে বলছি কার ইচ্ছে পূরন হচ্ছে আর কার টা হচ্ছে না তা মূখ্য না বিষয়টা মানবিক। পৃথবীতে বাচার অধিকার সবার আছে সে হিন্দু হোক কি বা খ্রিষ্টান প্রথম ওদের প্রান টা তো বাচতে দেবেন তারপর কার অন্যায় নির্ণয় করুন। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জান তোমাকে খুভ সুন্দর লাকছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনাদের সবাইকে অনেক সুন্দর লাগে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> সাকিব খুব সুন্দর লাগছে মেয়েকে সাতার শিক্ষার ছো খুব ভালো লাগলো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আললাহ একটু ঠাই দাও মুসলমাদের কে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ফেন্স তোমাদের জন্য নিয়ে এলাম একটি সুন্দর পেজ। হাজারো অভিমানি ভালোবাসার গল্প পড়তে আমাদের এই পেজে একটা লাইক দাও প্লিজ এই পেজে একটা লাইক দাও ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশেরর উছিত রোংহিলাদের অাশ্রয় দেওয়া ও মায়ানমার বিরোধে যুদ্ধ গোসনা করা কারণ তারা মুসলিমদের হত্য করতেছে বাংলাদেশি বলে অবিযোগ করে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আজকে দাড়িয়ে দেশগুলো বুঝেছে মুসলিম মৌলবাদ ধ্বংস না করলে বিশ্বশান্তি প্রতিষ্ঠিত হবেনা । ইহা মানবতার অভিশাপ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> খুব খারাপ লাগলো এরকম আবদার দেখে। কারন তারাতো বিপদে পড়েছে তাদেরকে সাহায্য করার দরকার অথচ কি বলব বুঝতে পারছিনা </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আজ আমার খুব আনন্দ হচ্ছে এইবার মোল্লা গুলো বুঝতে পারছে স্বজাতির উপর অত্যাচার হলে কেমন লাগে।। হিন্দুদের মারার সময় একবারও তো হাত কাঁপে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> হাসিনা এমন এক মুসলমান যে কিনা মুসলমানের কোনো কাজে আসে না। কারণ অর দাদী হিন্দু ছিল অর ছেলে জয়ের বৌ ইহুদী। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ সরকার মিয়ানমারের রাষ্ট্র দূতকে ডেকে মিয়ানমারে মুসলিম গণহত্যার প্রতিবাদ জানিয়েছে কিন্তু মিয়ানমারের রাষ্ট্রদূত তা অস্বীকার করেছে। বৌদ্ধরা যেমন সন্ত্রাসী তেমন মিথ্যুকও। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আপনারা সবাই জা লেখেছেন তার চেয়ে ভালো হয় জদি আপনারা সবাই মিয়ানমারের মুসলিম দের টাকা আর খাবার আপনারা দিন না কে কতো পারেন কোন সুমন্দি দেয় এটু দেখি শুদু হাত মুখ থাকলেই সব হয় না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদের উচিত এদের আশ্রয় দেয়া এরা মুসলিম এরা আমাদের ভাই বোন ৷জান বাছানো ফরজ ৷ এই মোনাফেক নাস্তিক সরকার এদের আশ্রয় না দিয়ে ফেরত পাঠিয়ে মৃত্তুর দিকে ঠেলে দিচ্ছে আল্লার কাছে হাসরের ময়দানে জবাভ দিতে হবে ৷এখন হয়তো ক্ষমতা কাল হয়তোবা এই ক্ষমতা থাকবে না তখন আফছোছ ছাড়া আর কিছুই করার থাকবে না ৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মায়ানমার এ পর্যন্ত যা করেছে তা পৃথিবীর কাছে নজিরবিহীন। ঘড়ে ঘড়ে ঢুকে পুরা ফেমিলিকে জবাই করা। হাজারও মানুষের সামনে মহিলা পুরুষ কে উলাংগ করে পেট্রোল দিয়ে জালিয়ে দিয়ে আনন্দ জাপন করা। এত কঠিন অমানবিক কারো জীবনে দেখেছে কিনা আৃার জানা নেই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুসলিম দেশ ঘুলী কি করচে আর বাংলাদেশ এদের ফিরত দিচেচ কেন ওদের জায়গা দেওয়া উচিত মানবতার দৃষ্টি তে </t>
+  </si>
+  <si>
+    <t>আমাদের প্রিয় দাদা</t>
+  </si>
+  <si>
+    <t>ভোটের পর ওই পাহাড়ের গা দিয়ে সোজা নেপালে পাঠিয়ে দেওয়া হবে</t>
+  </si>
+  <si>
+    <t>তো তুই গিয়ে বদলে দিয়ে আয় দিলু দার্জিলিং এর কেলানি</t>
+  </si>
+  <si>
+    <t>দার্জিলিং এ আপনারা ১৫ বছরের ও বেশি ক্ষমতাই। কি করেছেন ভেবে দেখুন , আপনাদের সংসদ আলু ওয়ালিয়া জেতার পর আর কখনও দার্জিলিং এ পা দেয়নি</t>
+  </si>
+  <si>
+    <t>ওদের জন্য কিচ্ছু করা উচিত না। যতদিন না আমাদের শ্রদ্ধেয় দিলীপ দা'র ছাপায় লাত্থি মারার শোধ তুলতে পারছি ততদিন ওরা এরকমই থাকুক</t>
+  </si>
+  <si>
+    <t>এবার চা বাগান বেচার চেষ্টা বুঝতে পারেছে জনগণ</t>
+  </si>
+  <si>
+    <t>দিলু মালটার কাছে কোনোন ইসু নেই তাই এই সব আল-বা* বকছে..</t>
+  </si>
+  <si>
+    <t>সবই ঠিক আছে.. কিন্তু জ্বালানির দাম টা কোথায় যাচ্ছ সেটা কি খেয়াল করেছেন তো...</t>
+  </si>
+  <si>
+    <t>গরুর মূত আর কোকেন একসঙ্গে খেলে যা হয়।এতই যখন চিন্তা দার্জিলিং যান না কেনো একবার।</t>
+  </si>
+  <si>
+    <t>পুলিশ ই তো এটার আসল নাটের গুরো।</t>
+  </si>
+  <si>
+    <t>সুস্থ থাকুন দাদা। শরীরের যত্ন নেবেন।জয় বাংলা।</t>
+  </si>
+  <si>
+    <t>খুব ভালো খবর। আপনি আমাদের অভিভাবক। আপনাকে ভালো থাকতেই হবে।</t>
+  </si>
+  <si>
+    <t>ভালো থাকুন সুস্থতা কামনা করি। এই সময়ের আপনি একজন বিরলতম আস্থাভাজন রাজনৈতিক ব্যক্তিত্ব।</t>
+  </si>
+  <si>
+    <t>অসুখ কে ছক্কা মেরে বাড়ী ফিরে এসেছেন এবার রাম বাম কে ছক্কা মেরে পুনরায় বিধান সভায় যাওযার জন্য প্রস্তুত হোন জ্যেঠু.... আমরা সর্বদা এই লড়াইয়ে আপনার পাশে ছিলাম আছি থাকবো</t>
+  </si>
+  <si>
+    <t>উরছে আবির দেখবি আয়, বাংলা নিজের মেয়েকেই চায়।</t>
+  </si>
+  <si>
+    <t>বর্তমান সময়ের সবচেয়ে বাস্তবভিত্তিক একটা ছবি। আসলে এগুলো কাউকে বোঝানো যায়না। আপনার এই পদক্ষেপে ফিল্মটা দেখে যদি কেউ একটু কিছু জ্ঞান অর্জন করে তাইলেই এই অভিশাপ থেকে বের হতেও সাহায্য করবে।</t>
+  </si>
+  <si>
+    <t xml:space="preserve">তাহলে সব সমস্যট শেষ ওই কি চাং সু নাকি ওইটারে বুড়ি গঙ্গাতে চুবালে ভালো হবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> নারী এবং শিশুরা সন্ত্রাস না।এসব শরণার্থীদের ঢুকতে দেওয়া উচিত। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> জা তি হি সে বে অামরা অাজ নিকৃষ্ট </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এই রোহিঙ্গা একদিন বাংলাদেশের জন্য কাল হয়ে দাঁড়াবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> না না না কোন ভাবেই এই সব আর্বজনা দেশের মধ্যে ডুকতে দেয়া যাবে না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ভাল কিনতু মেয়াদ বেশি হয়লে ভালো হতো </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> অধিনায়ক ছাড়াই সে ভাল খেলবে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এই দুনিয়াতে আমিও ফেলনা </t>
+  </si>
+  <si>
+    <t>আপনিও বিকিয়ে দিলেন নিজেকে</t>
+  </si>
+  <si>
+    <t>জনগণের সেবা আপনার সেক্টর থেকেও করা যেতো।</t>
+  </si>
+  <si>
+    <t>দাদা তুমার সব কাজ ভালো হোক। ভগবানের কাছে এই প্রার্থনা করি আগামী দিন গুলো ভালো যায়ক।এই সিরিয়াল টি খুব সুন্দর হবে। তুমি দাদা চিন্তা করনা। তুমার কোনো কাজ কখনো খারাপ হয়নি। আর কখনো খারাপ হবে না। ভালো থেকো দাদা। জীবনে একটা আশা আছে তুমার সাথে দেখা করা।</t>
+  </si>
+  <si>
+    <t>স্যার নতুন মানুষদেরও সুযোগ দিন অভিনয় করার</t>
+  </si>
+  <si>
+    <t xml:space="preserve">দিদি, আপনার বিকল্প কেউ হতেই পারে না, তাই বাংলা বাংলার মেয়েকেই চায় আবার মুখ্যমন্ত্রী হিসেবে দেখতে। </t>
+  </si>
+  <si>
+    <t>আজকের সোজাসাপ্টা তে তুমি গুরু ফাটিয়ে দিলে কম কথাতে</t>
+  </si>
+  <si>
+    <t>চুপ করে থাকুন টুকলিবাজ ,তোলাবাজের ভাই</t>
+  </si>
+  <si>
+    <t>আলুর দাম যখন 45 টাকা ছিল তখোন কোথাই ছিলেন</t>
+  </si>
+  <si>
+    <t>এসব নাটকবাজি বন্ধ করুন,যে ইলেকট্রিক চালিত স্কুটার ব্যাবহার করে আপনি জ্বালানীর মূল্যবৃদ্ধির প্রতিবাদ করছেন সেই ইলেকট্রিকের ইউনিট প্রতি দাম দেশের অন্যান্য রাজ্যেগুলির তুলনায় পশ্চিমবঙ্গে সবচেয়ে বেশি কেনো জবাব দিন আগে..</t>
+  </si>
+  <si>
+    <t>সব খরচা তুলতে কি ঘাসফুলে নাম লেখানো?</t>
+  </si>
+  <si>
+    <t>আমি আজ বহুদিন বিদেশে। সাতচল্লিশ বছর। নাগরিক অধিকার রক্ষা করেছি। কেন জানিনা আমার কাছে আমার মাটি সেই দেশ। আমার জন্ম্মভুমি। আমার গৌরব।</t>
+  </si>
+  <si>
+    <t>সকল দেশের রানী সেযে আমার জন্মভূমি ।</t>
+  </si>
+  <si>
+    <t>জয় শ্রীরাম বললে নাকি মমতা ব্যানার্জী রেগে তেড়ে আসেন?উনার নাকি মাথা ঠিক থাকেনা তখন?নিজেকে নাকি কন্ট্রোল রাখতে পারেননা জয় শ্রীরাম শুনলে?</t>
+  </si>
+  <si>
+    <t>জয় হিন্দ । বাংলার কাণ্ডারি আমাদের দিদি । অনেক এগিয়ে চল । তোমার মত মেয়ে দেশের গর্ব ।</t>
+  </si>
+  <si>
+    <t>পশ্চিমবংগের মানুষের অনেক বড় সৌভাগ্য যে মমতার মতো একজন নেত্রী পেয়ে যিনি সকল লোভ লালসার উর্ধে শুধু জনগনের সেবা করে যাচ্ছেন নিজে অতি সাধারন জীবন যাপন করেন</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আমি রোহিঙ্গা মুসলিম যে নর পিচাসরা আমাকে নিযার্তন করল আমার দেহ ক্ষতবিক্ষত করল আমার পেটের বাচ্চাটাকে ও বাঁচতে দিলনা আগুনে ছুড়ে ফেললো আমাকে আমার দেহটাকে ছিড়ে টুকরা টুকরা করল আমাকে ওরা যখন এভাবে নির্যাতন করতে ছিল তখন একটু ও কি মায়া হয় নি ওদের। আল্লাহ ও আল্লাহ কি দিয়া বানাইছো ওদের। তোমার দরবারে কি আমাদের আর্তনাদ আমাদের কান্না পৌছে না কেন তুমি সাহায্য পাঠাও না। কি অপরাধ করছি আমরা কেন তুমি আমাদের রহিঙ্গা মুসলিম করে পৃথিবীতে পাঠাইলা রহিঙ্গা মুসলিম না হলে আজ আমাদের এত নির্যাতন সহ্য করতে হত না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আৎকে জন তাই এদেৱ সহানুভুতি কোন পৱয়োজন নেই পারলে বৱাশ কৱে মেলে ফেলো৷ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> রোহিঙ্গাদের প্রতি মায়ানমার সরকারের আচরণ শিক্ষণীয় অঙ্কুরেই বিনাশ করো কাল সাপদের মুসলিমদের হল পৃথিবীর ক্যানসার স্বরূপ । দেশে তাদের আশ্রয় দেওয়া হবে শখ করে কালকেউটে পোষা বুদ্ধের মহিমায় পৃথিবী একদিন মুসলিম শূন্য হবে । ইনসা বুদ্ধ । </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বাংলাদেশ এখন তো বাংলাদেশ না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> টিকে থাকতে গেলে অনেক কিছুরই দরকার হয়।কিন্তু সবকিছু জনসম্মুখে আনতে হবে সেটা সভ্য দেশের কাম্য নয়।। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> বিবিসিকে মনে করতাম ব্যক্তিত্ববান নিউজ প্রচার করে সবসময় এখন দেখতেছি আস্তে আস্ত পালতু হয়ে যাচ্ছে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ওনি সেবন করতে পারেন না ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> তারা যেই রকম চরিত্রের সেটাই প্রকাশ পেয়েছে।অবাক হওয়ার কিচু নাই। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কোনদেশেই নারীদের নেতৃত্ব মেনে নিচ্ছে না </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ওদের জন্য এটা কোন বেপার ই না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> যারা কুকুর বিড়াল সাপ ব্যংঙ খায় এদের ঐসব কোন ব্যাপারই না </t>
+  </si>
+  <si>
+    <t xml:space="preserve">কারো বাসায় কনডম থাকা যেমন দোষের কিছুনা তেমনি ভায়াগ্রাও দোষের কিছু না। </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> পরের দেশের খবর নিয়া এত মতামাতি। নিজ দেশের খবর নিয়ে দেখেন মন্রী এমপিদের বাসায় মদ ইয়াবা হিরোইন থেকে শুরু করে সব ধরনের মাদক রয়েছে। </t>
+  </si>
+  <si>
+    <t>নেতাজি মানুষের বুকে সারাজীবন অমর হয়ে আছেন।</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> কোটি পতি না হয়ে রুপবতী হলে ট্রাম্প বেশি খুশি হতো </t>
+  </si>
+  <si>
+    <t>কাউকে না জানিয়ে ফিরে এলে, পরিবারের মধ্যে সমালোচনা যে স্বাভাবিক</t>
+  </si>
+  <si>
+    <t>বকুল কথা,সিরিয়াল দেখেই বলেছিলা্ম এই মেয়েটাকে দিয়ে অনেক কিছুই পসিবল,,,ভাল লাগছে!</t>
+  </si>
+  <si>
+    <t>শুরু থেকে বেকার ছেলেটার পাশে থেকে তার জীবনে তার সাফল্যের প্রত্যেকটা দিনের হাসি-কান্নার সঙ্গি হয়ে যে মেয়েটা আজীবন কাটানোর স্বপ্ন দেখে সেই মেয়েটাই ভবিষ্যতে তার স্ত্রী হওয়ার সবচেয়ে বেশি যোগ্যতা রাখে.</t>
+  </si>
+  <si>
+    <t>এই গল্পটা শুরু যেভাবে হয়েছিল, শেষ পর্যন্ত তেমনটা ধরে রাখতে পারেনি।</t>
+  </si>
+  <si>
+    <t>বিশিষ্ট অভিনেত্রী উষসী রায় এর রূপদান কৃত প্রথম ওয়েব সিরিজ টুরু লাভ এর বৃন্দা চরিত্র প্রকৃত অর্থেই অনন্য সুন্দর।</t>
+  </si>
+  <si>
+    <t>বই পড়ার পর কোনো সিনেমা বা সিরিয়াল আমার মনে দাগ কাটতে পারেনি.</t>
+  </si>
+  <si>
+    <t>অপরাজিতা!!! অসাধারন। অনন্যা।সব ভূমিকায় সাবলীল।</t>
+  </si>
+  <si>
+    <t>অশিক্ষিত চোর চোর চোর টা শিশিরের কুলাঙ্গার সন্তান টা</t>
+  </si>
+  <si>
+    <t>এরকম দুকান কাটা খুব দেখতে পাওয়া যায়।</t>
+  </si>
+  <si>
+    <t>মীরজাফর রা এই সব বীর ফটো গুলো না দিলে ভালো হয়.</t>
+  </si>
+  <si>
+    <t>লজ্জা লাগে না আপনার?আপনি কি দুকান কাটা? আপনার দল ওনাকে অনেক অপমান করেছে, তাই আপনার অধিকার নেই ওনাকে সম্মান জানানোর। আপনি বরং মোদী, অমিত শাহের পা চাটুন আর নাথুরাম গড়সের, শ্যামাপ্রসাদের অনুগামী হন।</t>
   </si>
 </sst>
 </file>
@@ -5663,7 +6062,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5862,6 +6261,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6329,10 +6731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1866"/>
+  <dimension ref="A1:C2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1852" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1867" sqref="A1867"/>
+    <sheetView tabSelected="1" topLeftCell="A1984" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2002" sqref="A2002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21279,6 +21681,1086 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1867" spans="1:2">
+      <c r="A1867" s="90" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1867" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2">
+      <c r="A1868" s="90" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1868" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2">
+      <c r="A1869" s="90" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1869" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" ht="28.8">
+      <c r="A1870" s="90" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1870" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" ht="28.8">
+      <c r="A1871" s="90" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1871" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" ht="28.8">
+      <c r="A1872" s="90" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1872" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2">
+      <c r="A1873" s="90" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1873" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" ht="28.8">
+      <c r="A1874" s="90" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1874" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" ht="28.8">
+      <c r="A1875" s="90" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1875" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2">
+      <c r="A1876" s="90" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1876" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2">
+      <c r="A1877" s="90" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1877" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" ht="86.4">
+      <c r="A1878" s="78" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1878" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" ht="43.2">
+      <c r="A1879" s="90" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1879" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2">
+      <c r="A1880" s="90" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1880" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2">
+      <c r="A1881" s="90" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1881" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2">
+      <c r="A1882" s="90" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1882" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2">
+      <c r="A1883" s="12" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1883" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2">
+      <c r="A1884" s="12" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1884" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2">
+      <c r="A1885" s="12" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1885" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2">
+      <c r="A1886" s="12" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1886" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" ht="39.6">
+      <c r="A1887" s="13" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1887" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2">
+      <c r="A1888" s="12" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1888" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2">
+      <c r="A1889" s="14" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1889" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2">
+      <c r="A1890" s="12" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1890" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2">
+      <c r="A1891" s="12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1891" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2">
+      <c r="A1892" s="12" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1892" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2">
+      <c r="A1893" s="12" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1893" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" ht="26.4">
+      <c r="A1894" s="13" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1894" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2">
+      <c r="A1895" s="12" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1895" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2">
+      <c r="A1896" s="12" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1896" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" ht="26.4">
+      <c r="A1897" s="13" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1897" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2">
+      <c r="A1898" s="12" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1898" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2">
+      <c r="A1899" s="12" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1899" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2">
+      <c r="A1900" s="12" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1900" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2">
+      <c r="A1901" s="13" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1901" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2">
+      <c r="A1902" s="12" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1902" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2">
+      <c r="A1903" s="12" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1903" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2">
+      <c r="A1904" s="14" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1904" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" ht="26.4">
+      <c r="A1905" s="13" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1905" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" ht="26.4">
+      <c r="A1906" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1906" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" ht="26.4">
+      <c r="A1907" s="13" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1907" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2">
+      <c r="A1908" s="12" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1908" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2">
+      <c r="A1909" s="12" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1909" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2">
+      <c r="A1910" s="12" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1910" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2">
+      <c r="A1911" s="12" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1911" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2">
+      <c r="A1912" s="12" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1912" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2">
+      <c r="A1913" s="12" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1913" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2">
+      <c r="A1914" s="12" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1914" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2">
+      <c r="A1915" s="12" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1915" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" ht="26.4">
+      <c r="A1916" s="13" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1916" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2">
+      <c r="A1917" s="90" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1917" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" ht="72">
+      <c r="A1918" s="78" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1918" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2">
+      <c r="A1919" s="90" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1919" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" ht="43.2">
+      <c r="A1920" s="90" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1920" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2">
+      <c r="A1921" s="90" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1921" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2">
+      <c r="A1922" s="90" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1922" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2">
+      <c r="A1923" s="90" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1923" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2">
+      <c r="A1924" s="90" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1924" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2">
+      <c r="A1925" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1925" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" ht="28.8">
+      <c r="A1926" s="90" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1926" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" ht="28.8">
+      <c r="A1927" s="90" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1927" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" ht="28.8">
+      <c r="A1928" s="90" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1928" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" ht="28.8">
+      <c r="A1929" s="90" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1929" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" ht="28.8">
+      <c r="A1930" s="90" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1930" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" ht="28.8">
+      <c r="A1931" s="90" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1931" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" ht="43.2">
+      <c r="A1932" s="90" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1932" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" ht="43.2">
+      <c r="A1933" s="90" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1933" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" ht="57.6">
+      <c r="A1934" s="78" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1934" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" ht="57.6">
+      <c r="A1935" s="90" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1935" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" ht="28.8">
+      <c r="A1936" s="90" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1936" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2">
+      <c r="A1937" s="12" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1937" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2">
+      <c r="A1938" s="12" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1938" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2">
+      <c r="A1939" s="12" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1939" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" ht="26.4">
+      <c r="A1940" s="13" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1940" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" ht="26.4">
+      <c r="A1941" s="13" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1941" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2">
+      <c r="A1942" s="12" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1942" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2">
+      <c r="A1943" s="12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1943" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2">
+      <c r="A1944" s="12" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1944" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2">
+      <c r="A1945" s="12" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1945" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2">
+      <c r="A1946" s="12" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1946" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2">
+      <c r="A1947" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1947" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2">
+      <c r="A1948" s="12" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1948" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2">
+      <c r="A1949" s="12" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1949" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" ht="26.4">
+      <c r="A1950" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1950" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2">
+      <c r="A1951" s="12" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1951" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" ht="44.4" customHeight="1">
+      <c r="A1952" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1952" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2">
+      <c r="A1953" s="90" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1953" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2">
+      <c r="A1954" s="90" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1954" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2">
+      <c r="A1955" s="90" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1955" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2">
+      <c r="A1956" s="90" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1956" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2">
+      <c r="A1957" s="90" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1957" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2">
+      <c r="A1958" s="90" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1958" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2">
+      <c r="A1959" s="90" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1959" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2">
+      <c r="A1960" s="12" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1960" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="A1961" s="13" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1961" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2">
+      <c r="A1962" s="92" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1962" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" ht="39.6">
+      <c r="A1963" s="13" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1963" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2">
+      <c r="A1964" s="12" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1964" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2">
+      <c r="A1965" s="12" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1965" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2">
+      <c r="A1966" s="12" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1966" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2">
+      <c r="A1967" s="12" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1967" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2">
+      <c r="A1968" s="12" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1968" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" ht="26.4">
+      <c r="A1969" s="13" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1969" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2">
+      <c r="A1970" s="12" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1970" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" ht="26.4">
+      <c r="A1971" s="13" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1971" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2">
+      <c r="A1972" s="12" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1972" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" ht="26.4">
+      <c r="A1973" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1973" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2">
+      <c r="A1974" s="12" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1974" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" ht="26.4">
+      <c r="A1975" s="13" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1975" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" ht="100.8">
+      <c r="A1976" s="78" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1976" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2">
+      <c r="A1977" s="90" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1977" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" ht="43.2">
+      <c r="A1978" s="90" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1978" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2">
+      <c r="A1979" s="90" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1979" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" ht="28.8">
+      <c r="A1980" s="90" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1980" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" ht="28.8">
+      <c r="A1981" s="90" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1981" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2">
+      <c r="A1982" s="90" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1982" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2">
+      <c r="A1983" s="90" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1983" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2">
+      <c r="A1984" s="90" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1984" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2">
+      <c r="A1985" s="90" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1985" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2">
+      <c r="A1986" s="90" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1986" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2">
+      <c r="A1987" s="90" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1987" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" ht="28.8">
+      <c r="A1988" s="90" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1988" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2">
+      <c r="A1989" s="12" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1989" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2">
+      <c r="A1990" s="90" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1990" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2">
+      <c r="A1991" s="12" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1991" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2">
+      <c r="A1992" s="12" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1992" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" ht="26.4">
+      <c r="A1993" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1993" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2">
+      <c r="A1994" s="12" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1994" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" ht="31.8" customHeight="1">
+      <c r="A1995" s="13" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1995" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2">
+      <c r="A1996" s="12" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1996" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2">
+      <c r="A1997" s="12" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1997" s="89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2">
+      <c r="A1998" s="12" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1998" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2">
+      <c r="A1999" s="12" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1999" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2">
+      <c r="A2000" s="12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2000" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" ht="46.2" customHeight="1">
+      <c r="A2001" s="13" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B2001" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A860" r:id="rId1" display="https://www.facebook.com/hashtag/%E0%A6%B6%E0%A6%BF%E0%A6%95%E0%A7%8D%E0%A6%B7%E0%A6%BE%E0%A6%AE%E0%A6%A8%E0%A7%8D%E0%A6%A4%E0%A7%8D%E0%A6%B0%E0%A7%80?__eep__=6&amp;__cft__%5b0%5d=AZUO-21C3zsyRUH8lMZVqlet4wQmThj9IjqPl9IeJMjBdKxID4MkdDoK7hY2aTZV1ptSoTbDc833ESAJtHcyrCAEopJ2yplblsH7wZrm98Rb-R3_4Ju5JfM42x6gE8lVtSz_cgi1BWfjESyjIqBNZPXw&amp;__tn__=R%5d-R"/>
